--- a/processed_properties 2.xlsx
+++ b/processed_properties 2.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlbionKrasniqi\Desktop\Projects\AI property narratives\DSPY\streamlit-app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BE3033-7002-40A0-A281-7873419D7965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="186">
   <si>
     <t>Property ID</t>
   </si>
@@ -122,9 +128,6 @@
   </si>
   <si>
     <t>5f4e798aa029730003340807</t>
-  </si>
-  <si>
-    <t>OpenAI</t>
   </si>
   <si>
     <t>Apex on Quality Hill Apartments</t>
@@ -1630,12 +1633,594 @@
 The Abram Apartments is effectively boosting occupancy but at the expense of rental rates, as evidenced by the decreases in RevPau and NER. The current aggressive leasing strategy may be necessary to fill units quickly, but it is not sustainable in the long term and could hinder revenue growth. The property must focus on increasing both traffic and lease conversions to stabilize and improve its performance. High traffic and a higher closing ratio would help lower the ATR % and support more effective rent management.
 The comps, with their better rent growth and slightly lower occupancy, are in a relatively stronger position. However, their recent increase in ATR % is a sign of potential challenges, and they must carefully monitor and manage this to avoid further disruption. Enhancing traffic and maintaining current leasing levels will be essential for the comps to continue their growth trajectory. The key areas of focus for both The Abram and the comps should be on improving traffic, lease conversions, and actively managing rent levels to strike the right balance between occupancy and revenue.</t>
   </si>
+  <si>
+    <t>OpenAI 3.5 turbo</t>
+  </si>
+  <si>
+    <t>OpenAI 4o</t>
+  </si>
+  <si>
+    <t>Apex on Quality Hill Apartments Analysis
+Current Performance Analysis
+Apex on Quality Hill Apartments, a stabilized property with 138 units, maintains a solid occupancy rate of 92.7%. The property’s Revenue Per Available Unit (RevPau) is $1,743, which has decreased by 5% in the last month. This decline in RevPau is primarily driven by a 5% decrease in Net Effective Rent (NER) to $1,880, indicating that the property is facing rent sensitivity issues. The stability in occupancy with a declining NER suggests that Apex on Quality Hill Apartments may be facing strong leasing demand, but aggressive rent increases could be impacting its ability to capture higher rents.
+In comparison, the comps, which average 236 units, have a slightly higher occupancy rate at 94.3%, experiencing a slight decrease of 0.6%. Their RevPau stands at $1,799, which has declined by 2.2%, and their NER is $1,911, down by 1.7%. These slight declines in RevPau and NER suggest that the comps are also facing rent pressure but are managing to retain a higher occupancy level than Apex on Quality Hill Apartments.
+Leading Indicators
+ATR % Analysis:
+Apex on Quality Hill Apartments: The Availability to Rent (ATR) percentage is 10.9%, which is relatively high and indicates a significant number of available units in comparison to its total inventory. The ATR % has increased, which could be a concern if not addressed promptly. An ATR % above 7% is generally considered elevated, and action should be taken to reduce this figure to avoid potential oversupply or revenue erosion.
+Comps: The comps have a lower ATR % at 7.1%, which falls within the healthy range but is still higher than ideal. The slight increase in ATR % suggests that while the comps are managing their available inventory better than Apex on Quality Hill Apartments, there may still be some challenges in achieving optimal occupancy levels.
+Traffic in the Last 7 Days:
+Apex on Quality Hill Apartments: The property recorded 3 traffic pieces in the last 7 days, which is relatively low. To improve leasing activity and reduce the ATR %, Apex on Quality Hill Apartments should aim for closer to 7 to 8 traffic pieces per week, implying a need for more aggressive marketing and outreach efforts. The current traffic level is not sufficient to support the necessary leasing activity.
+Comps: The comps recorded 6 traffic pieces in the last 7 days, which is higher than Apex on Quality Hill Apartments but still below the ideal level needed to drive significant leasing momentum. The comps need approximately 9 traffic pieces per week to meet their ATR % target, indicating that they also need to focus on increasing traffic to sustain occupancy and leasing performance.
+Leases in the Last 7 Days:
+Apex on Quality Hill Apartments: The property secured 1 lease in the last 7 days, with a historical closing ratio of 0.35, meaning it converts 35% of its traffic into leases. To reduce the ATR % and maintain stable or increasing occupancy, Apex on Quality Hill Apartments needs to secure approximately 3 leases per week. The current pace of leasing is insufficient, and increasing both traffic and the closing ratio are crucial to improving performance.
+Comps: The comps secured an average of 2 leases per week with a historical closing ratio of 0.43, indicating that they are more effective at converting traffic into leases than Apex on Quality Hill Apartments. However, the comps need to maintain a higher pace of leasing to support their occupancy goals and reduce their ATR %.
+Overall Analysis
+Apex on Quality Hill Apartments is facing challenges with rent sensitivity, as reflected in the declining NER and RevPau. The property’s decent occupancy is masking the potential risk of a high ATR %, which could undermine its financial performance if not addressed. To improve its outlook, Apex on Quality Hill Apartments should focus on increasing both traffic and lease conversions, potentially through targeted marketing campaigns and rent adjustment strategies.
+The comps, while performing better in terms of occupancy and rent stabilization, also face similar challenges, with slight declines in NER and RevPau. Their lower ATR % and higher traffic levels give them a relative advantage, but they too need to increase leasing to maintain momentum. Both Apex on Quality Hill Apartments and its comps must concentrate on balancing rent increases with occupancy to sustain their positions in a competitive market.</t>
+  </si>
+  <si>
+    <t>Plaza Townhomes at The Medical Center Analysis
+Current Performance Analysis
+Plaza Townhomes at The Medical Center, a stabilized property with 66 units, is maintaining a steady occupancy rate of 93.9%, with a marginal decline of 0.0%. The property’s Revenue Per Available Unit (RevPau) is $2,017, reflecting a slight increase of 0.3%. This RevPau growth is primarily driven by a 0.4% increase in Net Effective Rent (NER) to $2,148, suggesting that while the property is able to push rents slightly higher, there may be some challenges in maintaining occupancy.
+In comparison, the comps, which average 258 units, show a lower but improving occupancy rate of 88.9%, up by 0.6 percentage points. Their RevPau is $1,194, reflecting a slight increase of 0.5%, while their NER is $1,338, which decreased by 0.3%. The comps are struggling with rent growth, likely due to the balancing act of maintaining or increasing occupancy in a competitive market.
+Leading Indicators
+ATR % Analysis:
+Plaza Townhomes at The Medical Center: The Availability to Rent (ATR) percentage is at 10.6%, which is relatively high, indicating that more units are available compared to an ideal or healthy market condition. The ATR % increased recently at a rate of 1.21 percentage points, which suggests that demand may be weakening, and efforts to stabilize or reduce the ATR % should be a priority. A high ATR % can lead to increased vacancy and lower overall revenue if not managed effectively.
+Comps: The comps have a lower ATR % at 7.4%, which is closer to the 6% or below range that is generally considered healthy. The comps’ ATR %, although lower than Plaza Townhomes, has been declining slightly, which is a positive sign, indicating that demand is catching up with supply. The slight decrease of 0.07 percentage points in the ATR % suggests that the comps are better positioned in terms of available inventory, although continued efforts are needed to drive down this percentage further.
+Traffic Over the Last 7 Days:
+Plaza Townhomes at The Medical Center: The property has not recorded any traffic in the last 7 days, which is concerning and may explain the lack of new leases. To maintain or improve performance, it is crucial for the property to generate traffic and attract prospective tenants. Plaza Townhomes needs to generate approximately 8 traffic pieces per week to effectively support leasing efforts, which is significantly higher than the current level. Without traffic, lease-up and occupancy targets are at risk.
+Comps: The comps are performing stronger in terms of securing traffic, with 15 traffic pieces in the last 7 days. While this is higher than Plaza Townhomes, the comps still need to generate approximately 13 traffic pieces per week to maintain their leasing pace. The comps are slightly closer to meeting this target, but they also need to sustain or improve traffic levels to continue driving leasing activity.
+Leases Over the Last 7 Days:
+Plaza Townhomes at The Medical Center: No new leases were signed in the last 7 days. The historical closing ratio for the property is 12%, meaning that approximately 12% of the traffic typically converts into leases. However, with no current traffic, the property cannot secure new leases. To maintain a healthy leasing pace and reduce the ATR %, Plaza Townhomes needs to secure approximately 1 lease per week. Improving both traffic and the closing ratio are necessary to avoid further declines in occupancy and revenue.
+Comps: The comps are securing 5 leases per week, demonstrating a stronger performance with an impressive closing ratio of 40%. The comps are in a better position to convert traffic into leases, but they still need to generate additional traffic to meet their leasing targets.
+Overall Analysis
+Plaza Townhomes at The Medical Center is facing challenges with high availability, no traffic, and a declined occupancy rate. The property must focus on improving its marketing and outreach efforts to boost traffic and lease conversions. The high ATR % is a red flag, and immediate action is needed to reduce this percentage to a healthier level.
+The comps, while showing better performance with lower ATR % and a higher closing ratio, need to continue driving traffic to sustain their leasing pace and avoid rent stagnation. Both Plaza Townhomes and its comps are in competitive market conditions, and consistent efforts to attract and convert tenants will be essential for maintaining or improving occupancy and revenue.</t>
+  </si>
+  <si>
+    <t>4th and Race Analysis
+Current Performance Analysis
+4th and Race, a stabilized property with 264 units, is experiencing a decline in occupancy, currently at 95.1%, down by 2.4 percentage points. The property’s Revenue Per Available Unit (RevPau) stands at $2,301, reflecting a decrease of 7.0%. This decline in RevPau is primarily driven by a 4.7% reduction in Net Effective Rent (NER) to $2,419. The significant drop in NER suggests that rent reductions may be necessary to maintain occupancy levels.
+In comparison, the comps, averaging 250 units, are at a lower occupancy of 91.1%, which has increased by 1.6 percentage points. The comps’ RevPau is $1,930, down by 1.0%, and their NER is $2,111, down by 2.6%. While the comps have a lower occupancy rate, their RevPau and NER declines are less severe than those at 4th and Race, indicating perhaps more stable market conditions. However, all properties in this segment are facing challenges in rent and occupancy, likely due to broader market factors.
+Leading Indicators
+ATR % Analysis:
+4th and Race: The Availability to Rent (ATR) percentage is at 9.1%, which has increased slightly. This ATR % is above the preferred range, indicating that there is still a significant amount of inventory available. An ATR % below 6% is generally preferred for stabilized assets. The increasing ATR % suggests that despite continued leasing efforts, there is a need to increase both traffic and conversions to reduce available inventory and stabilize the property.
+Comps: The comps have a slightly higher ATR % at 10.3%, which is also above the ideal range. The comps’ ATR % is increasing, suggesting that they are struggling to lease inventory effectively. Both 4th and Race and the comps need to focus on reducing their ATR % to improve market positioning and avoid further rent concessions.
+Traffic Over the Last 7 Days:
+4th and Race: The property recorded 12 traffic pieces in the last 7 days, which is moderate. To meet leasing goals and reduce ATR, 4th and Race needs to generate approximately 21 traffic pieces per week, indicating a need for increased marketing and outreach to attract more prospective tenants. The current traffic level is insufficient to drive the necessary leasing velocity.
+Comps: The comps recorded 6 traffic pieces in the last 7 days, which is half the level of 4th and Race. Despite the lower traffic, the comps are performing slightly better in terms of occupancy, but they still require around 19 traffic pieces per week to meet their leasing goals.
+Leases Over the Last 7 Days:
+4th and Race: The property secured 4 leases in the last 7 days, with a historical closing ratio of 19%. This indicates that 4th and Race is converting 19% of its traffic into leases, which is relatively low. To reduce the ATR %, the property needs to secure at least 4 leases per week, suggesting that the current leasing pace is just enough to maintain stability. However, with the high ATR %, there is a risk of further eroding occupancy if leasing does not improve.
+Comps: The comps secured only 1 lease in the last 7 days, with a historical closing ratio of 20%. With a current leasing pace of 1 lease per week, the comps are barely keeping up with demand. The comps’ higher ATR % and lower traffic indicate that they are facing more significant challenges in the market.
+Overall Analysis
+4th and Race is facing occupancy and rent challenges, as evidenced by the declines in both RevPau and NER. The property’s ATR % is above the ideal range, and while leasing activity is maintaining stability, more traffic and stronger lease conversions are needed to reduce the ATR % and strengthen market position. With occupancy below the comps and a higher ATR %, 4th and Race should focus on targeted marketing efforts and potential rent adjustments to improve leasing velocity and regain competitive advantage.
+The comps, despite having a slightly lower occupancy rate, are faring slightly better than 4th and Race in terms of rent performance, but both properties are struggling. The comps need to address their higher ATR % and low traffic levels to bolster leasing activity. Overall, the market remains challenging for this segment, with the need for careful management of rents, increased marketing, and improved lease conversion strategies to stabilize performance.</t>
+  </si>
+  <si>
+    <t>Abacus West Analysis
+Current Performance Analysis
+Abacus West, a stabilized property with 272 units, is maintaining a strong occupancy rate of 94.1%, with no change over the reporting period. However, the property is experiencing a significant decline in revenue, as reflected in its Revenue Per Available Unit (RevPau) of $1,237, which has decreased by 10.7%. This decline in RevPau is in line with the property's Net Effective Rent (NER), which has also decreased by 10.7% to $1,315. The sharp decline in both RevPau and NER suggests that Abacus West is facing significant renter sensitivity or competitive pressures in the market.
+In comparison, the comps, which average 302 units, have a lower occupancy rate at 83.2%, which has increased slightly by 0.5 percentage points. Their RevPau is $1,113, representing a 4.0% increase, and their NER is $1,340, up by 1.6%. The comps are seeing modest gains in both RevPau and NER, indicating that they are managing to increase rents despite lower occupancy. This suggests that the comps may be implementing effective rent growth strategies, while Abacus West may be facing stronger market headwinds.
+Leading Indicators
+ATR % Analysis:
+Abacus West: The Availability to Rent (ATR) percentage for Abacus West is currently at 10.3%, which is relatively high. This indicates that more units are available for rent, potentially creating a competitive environment. The slight decrease in ATR % is positive but needs to be monitored closely, as a high ATR % can indicate an oversupply of inventory or challenges in leasing. To achieve a healthier ATR % below 6%, Abacus West would need to reduce its ATR by 2.7 percentage points, which may require strong leasing activity or adjustments in pricing.
+Comps: The comps have a higher ATR % at 16.6%, which is also at a relatively high level. However, their ATR % has been decreasing slightly, which is a positive trend, although it remains above the desired target of 6%. The comps need to reduce their ATR % by 10.6 percentage points to reach the 6% threshold. This indicates that the comps are facing more significant challenges in addressing their available inventory and may need to focus on aggressive leasing strategies to reduce their ATR.
+Traffic in the Last 7 Days:
+Abacus West: The property recorded 5 traffic pieces in the last 7 days, with a slight increase. However, this level of traffic is below what is needed to drive sufficient leasing activity, as Abacus West needs to generate about 10.5 traffic pieces per week to meet its leasing goals. The current traffic levels suggest that the property may struggle to fill its available units in a timely manner, which is likely contributing to the high ATR % and declining rents.
+Comps: The comps recorded 7 traffic pieces in the last 7 days, which is also below what is needed to support their leasing objectives. With a required traffic level of 21.0 pieces per week, the comps are well behind their target, which explains why their ATR % remains elevated. The comps need to significantly increase their traffic to boost leasing performance and reduce available inventory.
+Leases in the Last 7 Days:
+Abacus West: The property secured 2 leases in the last 7 days, with a slight increase. While this is an improvement, it is still below what is needed to drive down the ATR % and stabilize occupancy. Abacus West needs to lease approximately 4.1 units per week to maintain optimal performance. The current leasing pace, combined with the high ATR %, suggests that the property may continue to face challenges in maintaining or growing occupancy unless leasing efforts are significantly intensified or rents are adjusted.
+Comps: The comps secured 3 leases in the last 7 days, with a downward trend. Despite a higher comparative leasing pace, the comps are still falling short of their target, as indicated by their higher ATR %. With a required leasing pace of 8.4 units per week, the comps need to more than double their current leasing activity to achieve this goal. The comps' ability to slightly grow RevPau and NER suggests some resilience, but this may be difficult to sustain without addressing their high ATR %.
+Overall Analysis
+Abacus West is facing challenges with declining rents, reflected in its RevPau and NER, as well as a relatively high ATR %. While the property's occupancy remains strong, the lack of leasing momentum and lower traffic levels are contributing to these rent declines. To improve performance, Abacus West needs to focus on increasing traffic and enhancing its closing ratio. Stronger marketing efforts and potential rent adjustments may be necessary to attract more tenants and reduce available inventory.
+The comps, although experiencing some rent and revenue growth, have a higher ATR % and are struggling to maintain leasing momentum. The comps' higher traffic and lease conversion rates are positive, but they are still falling short of ideal performance benchmarks. These challenges suggest that the market conditions for both Abacus West and its comps may be softening, with potential oversupply issues. Continued monitoring of ATR %, traffic, and leasing performance will be crucial for both properties to stay competitive and avoid further rent erosion.</t>
+  </si>
+  <si>
+    <t>The Ascent at Top of the Hill Analysis
+Current Performance Analysis
+The Ascent at Top of the Hill, a stabilized property with 261 units, is performing well with a strong occupancy rate of 96.9%, up by 3.2 percentage points. However, the property’s Revenue Per Available Unit (RevPau) has decreased slightly to $2,152, a modest decline of 0.2%. This decline in RevPau is primarily driven by a 3.3% decrease in Net Effective Rent (NER), which now stands at $2,221. The combination of high occupancy and a slight decline in rent suggests that while The Ascent is maintaining strong demand, there may be some market sensitivity to rent levels.
+In comparison, the comps, with an average of 258 units, have a lower occupancy rate of 91.2%, but this has improved significantly, increasing by 5.2 percentage points. The comps’ RevPau is $1,935, showing a solid 4.0% increase, and their NER is $2,123, down by 1.2%. The comps are experiencing stronger overall performance due to their occupancy gains, even as they face challenges with rent levels. The Ascent, on the other hand, continues to perform well in terms of occupancy but should monitor its rent levels closely to avoid any further declines in RevPau.
+Leading Indicators
+ATR % Analysis:
+The Ascent at Top of the Hill: The Availability to Rent (ATR) percentage is currently at 4.2%, which is relatively low and indicates a healthy balance between supply and demand. The slight decrease in ATR % is a positive sign, suggesting that the property is effectively leasing available units. However, the property should aim to maintain an ATR % below 6% to ensure continued strong performance.
+Comps: The comps have a higher ATR % at 8.3%, which is above the ideal range and suggests that they have a larger inventory of available units. The increase in ATR % indicates a possible slowdown in leasing or an increase in supply, which could put downward pressure on rent. The comps should take proactive measures to reduce their ATR % to a more sustainable level.
+Traffic in the Last 7 Days:
+The Ascent at Top of the Hill: The property recorded 4 traffic pieces in the last 7 days, which is relatively low and may be a factor contributing to the slight decline in rent. To achieve its leasing goals and maintain a healthy ATR %, The Ascent should aim for at least 7 traffic pieces per week. The current level suggests that additional marketing efforts may be needed to drive more prospective tenants to the property.
+Comps: The comps are experiencing higher traffic with 6 pieces in the last 7 days, although this is also relatively low. Despite the higher traffic, the comps still have a higher ATR %, indicating that additional traffic is necessary to support their occupancy goals. Increasing traffic and improving conversion rates will be essential for the comps to reduce their ATR % and stabilize rents.
+Leases in the Last 7 Days:
+The Ascent at Top of the Hill: The property secured 5 leases in the last 7 days, which is a strong performance, and the historical closing ratio is 0.46, indicating that 46% of traffic is converting into leases. To maintain its ATR % and continue to lease effectively, The Ascent needs to secure approximately 3 leases per week. The current leasing pace is adequate, but the property should focus on increasing traffic to sustain this level of leasing activity.
+Comps: The comps secured 3 leases in the last 7 days, with a slightly higher historical closing ratio of 0.62, meaning that 62% of traffic is converting into leases. Despite this higher conversion rate, the comps are still facing challenges with their higher ATR %, suggesting that they may need to further improve traffic and leasing performance to stabilize occupancy and effectively reduce inventory.
+Overall Analysis
+The Ascent at Top of the Hill is performing well in terms of occupancy but faces challenges with rents as indicated by the decline in NER. The property should focus on increasing traffic to support leasing activity while closely monitoring rent levels to prevent further erosion of RevPau. The low ATR % is a positive indicator but should continue to be managed to maintain market competitiveness.
+The comps, despite showing occupancy gains, have a higher ATR % and are experiencing a downward trend in NER. The comps need to focus on increasing traffic and improving closing ratios to effectively reduce their ATR % and stabilize rents. Overall, both The Ascent and the comps need to prioritize traffic generation and leasing strategies to maintain or improve their market positions.</t>
+  </si>
+  <si>
+    <t>Elle at The Medical Center Apartment Homes Analysis
+Current Performance Analysis
+Elle at The Medical Center Apartment Homes, a stabilized property with 212 units, is currently maintaining an occupancy rate of 94.8%, which has shown a strong increase of 2.5 percentage points. Despite this positive occupancy trend, the property's Revenue Per Available Unit (RevPau) is $1,801, which has declined by 1.4%. This decrease in RevPau is due to a significant 3.8% decrease in Net Effective Rent (NER) to $1,900. 
+This dip in NER suggests that the property is facing some rent sensitivity, likely due to market pressures or increased competition. However, the property's relatively high occupancy rate indicates that it is successfully filling units, even if at lower rental rates. Nonetheless, the decline in RevPau and NER highlights the need for careful rent management strategies to sustain both occupancy and revenue levels.
+In comparison, the comps, averaging 259 units, have a lower occupancy rate at 88.9%, which has increased slightly by 0.6 percentage points. Their RevPau is $1,194, showing a modest increase of 0.5%. The comps' NER is $1,338, which has decreased by 0.3%.  
+The comps are experiencing overall stable performance, with a slight growth in RevPau despite a small dip in NER. The comps' lower occupancy and less significant rent declines indicate that they have less pressure on rental rates but may be struggling to attract and retain tenants. The comparatively higher RevPau and NER at Elle suggest that it is performing better in terms of rent collection, despite the challenges of rent reductions.
+Leading Indicators
+ATR % Analysis:
+Elle at The Medical Center Apartment Homes: The Availability to Rent (ATR) percentage is currently at 6.6%, which is moderately healthy. The slight increase in ATR %, along with the declining NER, suggests that while the property is still leasing relatively well, there is a minor increase in available inventory. An ATR % below 7% is generally considered favorable, but ongoing monitoring of this metric is important to avoid a further increase in available inventory.
+Comps: The comps have a higher ATR % at 7.4%, which is slightly above the optimal range. The small decline in ATR % for the comps is a positive sign, indicating a stabilization of available units, although the continued presence of more vacant stock could put pressure on their overall performance. Both Elle and the comps should focus on reducing their ATR % to improve market competitiveness and maintain tenant interest.
+Traffic Over the Last 7 Days:
+Elle at The Medical Center Apartment Homes: The property recorded 4 traffic pieces in the last 7 days, which is a relatively low level of interest. To achieve its leasing goals and reduce its ATR %, Elle should aim for approximately 9 traffic pieces per week, indicating a significant need for increased prospect activity. The recent decline in traffic indicates a potential weakness in marketing or outreach efforts, which should be addressed to attract more potential tenants.
+Comps: The comps experienced 15 traffic pieces in the last 7 days, indicating a stronger level of interest compared to Elle. However, the comps still need to maintain or increase traffic levels to support their leasing targets. With an average weekly added ATR of 5%, the comps need to generate around 13 traffic pieces per week to maintain their leasing momentum and reduce the ATR % further.
+Leases Over the Last 7 Days:
+Elle at The Medical Center Apartment Homes: The property secured 1 lease over the last 7 days, with a historical closing ratio of 0.26. To achieve optimal performance, Elle needs to secure approximately 2-3 leases per week. The current leasing pace is slightly below this target, and the low closing ratio suggests that improvement is needed in the conversion of leads to leases. Enhancing sales tactics and increasing traffic will be crucial for Elle to meet its leasing objectives.
+Comps: The comps secured 5 leases over the last 7 days, with a higher historical closing ratio of 0.4, which indicates stronger lease conversion capabilities. The comps' historical closing ratio and traffic levels allow them to achieve their leasing targets efficiently. With a target of 55 leases per year to maintain a 6% ATR, the comps need to secure approximately 4-5 leases per week, which they are currently meeting.
+Overall Analysis
+Elle at The Medical Center Apartment Homes is performing reasonably well in terms of occupancy, but the recent declines in NER and RevPau indicate that careful attention is needed to manage rents and minimize further erosion of revenue. The slightly elevated ATR %, coupled with low traffic and lease conversion rates, poses risks to sustained performance. Increasing traffic and improving the leasing ratio will be critical for Elle to maintain its current occupancy levels and reduce available inventory.
+The comps, while facing challenges with lower occupancy and rent declines, are managing a higher flow of traffic and have a stronger closing ratio. Their ATR %, although slightly high, is showing some improvement, suggesting that their leasing strategies are effective in stabilizing their position. The comps should continue to focus on reducing both ATR % and NER while leveraging their existing traffic levels to drive leasing momentum.
+Overall, both Elle and its comps need to address their specific weaknesses and capitalize on their strengths to navigate the market successfully. Elle must increase its traffic and improve lease conversion while closely monitoring rent levels to strike the right balance between occupancy and rent growth. The comps should continue to work on reducing their ATR % and sustaining their leasing momentum, especially by maximizing their traffic impact.</t>
+  </si>
+  <si>
+    <t>The Qs at Towne Oaks Analysis
+Current Performance Analysis
+The Qs at Towne Oaks, a stabilized property with 240 units, is currently experiencing an occupancy rate of 92.1%, which has decreased by 0.9 percentage points. The property’s Revenue Per Available Unit (RevPau) is $1,073, indicating a solid increase of 7.0%. This growth in RevPau is primarily driven by a 7.9% increase in Net Effective Rent (NER), which now stands at $1,165. While the property is achieving strong rent growth, the slight decline in occupancy is a concern that should be closely monitored.
+In comparison, the comps, with an average of 244 units, have a higher occupancy rate of 94.2%, which has increased by 1.1 percentage points. Their RevPau is $935, reflecting a more modest increase of 2.3%, and their NER is $994, up by 1.4%. Although the comps are performing well in terms of occupancy, their rent growth is comparatively lower than that of The Qs at Towne Oaks.
+Leading Indicators
+ATR % Analysis:
+The Qs at Towne Oaks: The Actual Turnover Rate (ATR) % is 10.8%, which is above the desirable range and suggests that there is a significant amount of turnover occurring in the property. The slight decrease in the ATR % is positive, indicating that the property is managing to lease some of the vacated units. However, this rate is still high and needs to be lowered to improve overall occupancy levels. An ATR % below 6% is generally considered healthy, so the property should aim to bring it down further through effective retention and leasing strategies. 
+Comps: The comps have a lower ATR % of 6.9%, which is within the healthy range, although the slight decrease in this percentage is minimal. The fact that the comps have a lower ATR % than The Qs at Towne Oaks suggests that they are experiencing less turnover and are likely maintaining better resident satisfaction. This gives the comps a competitive advantage and highlights the need for The Qs at Towne Oaks to focus on reducing its turnover rate to remain competitive in the market.
+Traffic Over the Last 7 Days:
+The Qs at Towne Oaks: The property recorded 2 traffic pieces in the last 7 days, which is a low level of activity. To maintain an optimal performance and lease the necessary number of units, The Qs at Towne Oaks should aim to generate around 7 traffic pieces per week. The current low traffic levels indicate a need for enhanced marketing and outreach efforts to attract more prospective tenants and increase leasing velocity.
+Comps: The comps, on the other hand, recorded 10 traffic pieces in the last 7 days, which is significantly higher than The Qs at Towne Oaks. The comps need about 5 traffic pieces per week to maintain their leasing pace, suggesting that they are currently meeting or exceeding their traffic goals. This higher level of traffic gives the comps an advantage in terms of leasing and allows them to maintain their occupancy rate more effectively.
+Leases Over the Last 7 Days:
+The Qs at Towne Oaks: The property secured 1 lease in the last 7 days, with a historical closing ratio of 0.60, meaning that it converts 60% of its traffic into leases. To maintain its current pace and reduce the ATR %, The Qs at Towne Oaks needs to secure approximately 4 leases per week. The property must focus on improving its leasing performance and increasing traffic to meet these targets. The current leasing and traffic levels are inadequate to reduce the ATR % effectively.
+Comps: The comps secured 3 leases in the last 7 days, with a closing ratio of 0.69, indicating that they convert 69% of their traffic into leases. The comps need around 4 leases per week to maintain their ATR %. The comps are performing at a similar level in terms of leasing efficiency as The Qs at Towne Oaks, but their higher traffic levels allow them to maintain a healthier ATR %.
+Overall Analysis
+The Qs at Towne Oaks is experiencing strong rent growth, as reflected in its RevPau and NER. However, its declining occupancy, high ATR %, and low traffic levels pose challenges that need to be addressed. The property should prioritize reducing its turnover rate and increasing traffic to improve lease velocity. Enhanced marketing strategies and a focus on resident retention will be crucial in achieving these goals.
+The comps, while maintaining a higher occupancy and lower ATR %, are also facing challenges with moderate rent growth. Their advantage lies in their higher traffic levels and more efficient conversion of traffic into leases. The Qs at Towne Oaks must work to close the gap in these areas and improve its leasing performance to remain competitive in the market and stabilize its occupancy. This can be achieved through targeted marketing, resident retention initiatives, and a focus on delivering exceptional customer service.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Village on Riverwalk Analysis
+Current Performance Analysis
+The Village on Riverwalk, a market stabilized property with 700 units, is currently at a 79.7% occupancy rate, which has increased by 1.0 percentage point. The property's Revenue Per Available Unit (RevPau) is $841, showing a strong increase of 17.6%. This growth is primarily driven by a 16.4% increase in Net Effective Rent (NER) to $1,055 per unit. The substantial improvement in RevPau and NER indicates effective rent management and market positioning, resulting in strong revenue growth.
+In comparison, the comps, averaging 433 units, have an occupancy rate of 85.6%, which has remained stable. Their RevPau is $1,000, reflecting a more modest increase of 3.1%, and their NER is $1,165, also up by 3.1%. The comps have performed comparatively well, with a stronger occupancy, but their revenue growth rates are more modest than those of The Village on Riverwalk.
+Leading Indicators
+ATR % Analysis:
+The Village on Riverwalk: The Availability to Rent (ATR) percentage is currently at 26.0%. This is considered high and suggests an oversupply of available units compared to its current leasing pace. Although the ATR % has decreased slightly, it is still significantly above the optimal range of 6% or less, indicating the need for immediate attention to improve leasing velocity. The average weekly increase in ATR % is 7.82, further emphasizing the urgency to address this high level of available inventory. To achieve a healthier market position, the property needs to reduce the ATR %, ideally below 6%.
+Comps: The comps have a much lower ATR % at 4.9%, which is within the desirable range, indicating a more balanced market with adequate demand and limited available inventory. The slight decrease in the comps' ATR % suggests they are effectively matching supply with demand, further strengthening their overall performance.
+Traffic in the Last 7 Days:
+The Village on Riverwalk: The property recorded 23 traffic pieces in the last 7 days, which is a strong level of interest. However, to address the high ATR and increase leasing velocity, The Village on Riverwalk needs to generate approximately 48 weekly traffic pieces. The current level is below this target, signaling a potential need for enhanced marketing and outreach efforts to attract more prospective tenants.
+Comps: The comps recorded 8 traffic pieces in the last 7 days, which is considerably lower than that of The Village on Riverwalk. However, with their lower ATR %, the comps require only 13 traffic pieces per week to maintain their current performance, suggesting that they are successfully meeting their leasing demands.
+Leases in the Last 7 Days:
+The Village on Riverwalk: The property secured 10 leases in the last 7 days, with a historical closing ratio of 53%, meaning it converts 53% of traffic into leases. This is a strong conversion rate, but the property needs to increase its lease signings to bring down the high ATR % and improve overall occupancy. To achieve a 6% ATR, The Village on Riverwalk needs to lease approximately 26 units per week. The current performance is falling short of this target, indicating the need to further enhance leasing efforts.
+Comps: The comps secured 5 leases in the last 7 days, with a lower historical closing ratio of 41%. Despite the lower conversion rate, the comps' leasing performance aligns well with their lower ATR %, and they require around 5-6 weekly leases to maintain their current standing.
+Overall Analysis
+The Village on Riverwalk shows strong revenue growth driven by robust increases in both RevPau and NER. However, the property is grappling with a high ATR %, indicating excessive available inventory that needs to be absorbed to stabilize occupancy. The current pace of traffic and leases, although healthy, is not sufficient to resolve this issue. Increasing traffic and maintaining a high closing ratio will be essential to reducing the ATR % and improving overall performance.
+The comps, while performing well with a lower ATR % and better occupancy, have more modest revenue growth rates. Their stronger historical occupancy and lower ATR % suggest a more balanced market position, with less urgency to aggressively lease. The comps' focus should be on maintaining their current steady performance and optimizing their existing traffic to sustain occupancy levels.
+Overall, The Village on Riverwalk needs to prioritize reducing its ATR % through targeted marketing efforts to drive traffic and increase lease signings. Improving operational efficiency, such as refining pricing strategies and enhancing leasing techniques, will be crucial to narrowing the gap with the comps and achieving better market positioning.
+</t>
+  </si>
+  <si>
+    <t>Dakota Ridge Apartments Analysis
+Current Performance Analysis
+Dakota Ridge Apartments, a stabilized property with 272 units, is maintaining a strong occupancy rate at 97.1%, unchanged from the previous period. The property’s Revenue Per Available Unit (RevPau) is $1,322, which has declined by 2.6% in the past month. This decrease in RevPau is in line with the recent decline in Net Effective Rent (NER), which also decreased by 2.6% to $1,361. Overall, while Dakota Ridge Apartments is experiencing some rent and revenue softening, the property is still performing well with high occupancy and relatively stable rents.
+In comparison, the comps, averaging 285 units, have a lower occupancy rate of 94.2%, which has declined slightly by 0.9% with RevPau at $1,200, reflecting a more significant decline of 6.1%. The comps are also experiencing a decline in NER, dropping by 5.2% to $1,274. These negative performance indicators suggest that the comps are facing stronger headwinds in terms of occupancy and rent, placing them in a less favorable position compared to Dakota Ridge Apartments.
+Leading Indicators
+ATR % Analysis:
+Dakota Ridge Apartments: The Availability to Rent (ATR) percentage is currently at 5.9%, slightly above the desirable range. A higher ATR % indicates a larger inventory of available units, which can create competitive pressures and may require more aggressive leasing strategies. The slight increase in ATR % is a cautionary signal, highlighting the need for consistent leasing efforts to stabilize or reduce the available inventory of units.
+Comps: The comps are currently experiencing an ATR % of 5.5%, which is also relatively high. This suggests that while they are relatively stable, the comps are still contending with a similar level of available inventory and may need to focus on reducing this ATR % to maintain market competitiveness.
+Traffic Over the Last 7 Days:
+Dakota Ridge Apartments: The property recorded 7 traffic pieces in the last 7 days, with a positive trend. This level of traffic is adequate to support leasing activity, although additional traffic may be needed to reduce the ATR % further. Dakota Ridge Apartments needs approximately 4 traffic pieces per week to meet its leasing goals, so the current level is sufficient, but increased traffic could help strengthen leasing momentum.
+Comps: The comps have recorded 7 traffic pieces in the last 7 days, indicating a stable level of interest. However, the comps need 8 traffic pieces per week to achieve their leasing targets, suggesting they may need to enhance their marketing efforts to increase traffic and drive leasing activity.
+Leases Over the Last 7 Days:
+Dakota Ridge Apartments: The property has secured 1 lease in the last week, which is in line with historical performance. The closing ratio is strong, at 0.64, meaning that 64% of prospective tenants who visit the property are converting into leases. To maintain or improve this strong leasing performance, Dakota Ridge Apartments needs to continue generating traffic but could also benefit from increasing traffic slightly to ensure consistent leasing activity.
+Comps: The comps are securing 3 leases per week, which is above the minimum needed to maintain their current ATR %. However, their closing ratio is lower, at 0.48, indicating a lower conversion rate compared to Dakota Ridge Apartments. The comps will need to either increase traffic or improve their closing ratio to maintain leasing momentum and shrink their ATR %.
+Overall Analysis
+Dakota Ridge Apartments is performing well, with high occupancy and a stable rent-revenue profile. The slight decline in RevPau and NER is worth monitoring, but the property is still in a strong position with above-average lease conversions. The key areas for improvement are reducing the ATR % and potentially increasing traffic to support continued leasing success.
+The comps, on the other hand, are facing more significant challenges, with lower occupancy and declining rent and revenue metrics. Their comparatively lower closing ratio and traffic levels indicate weaker market performance. To remain competitive, the comps must focus on reducing their ATR % and increasing leasing velocity through more effective marketing and higher traffic levels. Dakota Ridge Apartments should continue its current strategies, leveraging its strong occupancy and high lease conversion rate to maintain market position.</t>
+  </si>
+  <si>
+    <t>Summit on Quality Hill Apartments Analysis
+Current Performance Analysis
+Summit on Quality Hill Apartments, a stabilized property with 252 units, is currently experiencing an occupancy rate of 94.4%, which has decreased by 0.8 percentage points. The property's Revenue Per Available Unit (RevPau) stands at $1,840, which has decreased by 6.4%, mirroring the decline in Net Effective Rent (NER) at $1,950, down by 5.5%. These declines suggest that the property is facing challenges in maintaining rental rates, leading to decreased revenue.
+In comparison, the comps, with an average of 207 units, are slightly behind with an occupancy rate of 94.0%, down by 0.4 percentage points. Their RevPau is $1,777, indicating a smaller decrease of 1.3%, while their NER is $1,894, down by 1.0%. The comps are performing marginally better than Summit on Quality Hill Apartments in terms of revenue decline but face a similar challenge of decreasing rents and occupancy.
+Leading Indicators
+ATR % Analysis:
+Summit on Quality Hill Apartments: The Availability to Rent (ATR) percentage is 9.5%, with a slight upward trend. This indicates a moderate oversupply of available units in the market. An ATR % above 7% suggests increased competition and potential leasing challenges, warranting focused marketing and leasing strategies. To achieve a healthier ATR % below 6%, Summit on Quality Hill Apartments needs to reduce its ATR % by approximately 5 percentage points, which would require leasing approximately 4.9 units per week. The current rate of leasing is 0 units per week, highlighting the need for immediate action to improve leasing performance.
+Comps: The comps have a slightly lower ATR % at 7.0%, also with an upward trend. Although the comps are in a relatively better position compared to Summit on Quality Hill Apartments, they still face challenges with a slightly elevated ATR %. To reduce their ATR % below 6%, the comps need to lease approximately 3.3 units per week, which is sustainable given their current leasing pace of 2.2 units per week.
+Traffic in the Last 7 Days:
+Summit on Quality Hill Apartments: In the last 7 days, the property recorded 3 traffic pieces, which is relatively low. To achieve and maintain optimal performance, Summit on Quality Hill Apartments typically needs to generate approximately 19 traffic pieces per week. The current traffic level falls well short of this target, suggesting that attracting more prospective tenants is a significant challenge. Improved marketing efforts and visibility are crucial to driving traffic and supporting leasing goals.
+Comps: The comps, on average, had 6 traffic pieces in the last 7 days, which is also below the ideal level. For the comps to maintain their ATR %, they need to generate about 7 traffic pieces per week, which they are nearly meeting. However, to achieve more substantial leasing success and reduce their ATR % further, the comps should aim for higher traffic levels.
+Leases in the Last 7 Days:
+Summit on Quality Hill Apartments: The property has not signed any leases in the past 7 days. With a historical closing ratio of 0.26, meaning 26% of traffic converts into leases, an increase in traffic is necessary to drive leasing activity. The lack of recent lease signings is a concern and must be addressed urgently to reduce the ATR % and protect revenue.
+Comps: The comps, with a closing ratio of 0.5, are converting 50% of their traffic into leases. Although their leasing activity has slowed with 2.2 leases per week, the progress remains steady. The comps need to continue focusing on traffic generation and improving lease conversion to maintain stable performance.
+Overall Analysis
+Summit on Quality Hill Apartments is currently facing challenges with declining occupancy, rents, and an elevated ATR %. The property's low traffic and lease conversion rates are significant contributing factors. Urgent efforts are needed to increase traffic by more than five-fold and improve the conversion of that traffic into leases. A comprehensive marketing and leasing strategy is necessary to address these issues and stabilize the property's revenue.
+The comps offer slightly better occupancy and lower ATR % but still need improvements in traffic and lease conversion. Their stronger historical performance in these areas provides a valuable benchmark for Summit on Quality Hill Apartments to strive towards. Both properties should focus on driving more traffic and improving lease effectiveness to reduce their ATR % and maintain market competitiveness.</t>
+  </si>
+  <si>
+    <t>The Yards Analysis
+Current Performance Analysis:
+The Yards, a stabilized property with 230 units, is performing well with a relatively high occupancy rate of 93.9%, which has increased by 1.8 percentage points. The property’s Revenue Per Available Unit (RevPau) is $1,268, reflecting a 2.0% increase. This RevPau growth is supported by a slight uptick in Net Effective Rent (NER) to $1,350, though the increase is minimal at 0.1%. The Yards is managing to maintain occupancy and drive modest revenue growth, but rent increases are limited, possibly due to competitive pressures in the market.
+In comparison, the comps, averaging 286 units, have a slightly higher occupancy rate at 94.0%, which has declined by 0.7 percentage points. Their RevPau is higher at $1,633, but it has decreased by 2.4%, and their NER is $1,735, down by 1.8%. The comps are facing challenges with both occupancy and revenue, as indicated by the decline in RevPau and NER, which suggests that they may be experiencing more competitive pressures or issues with pricing strategies.
+Leading Indicators:
+ATR % Analysis:
+The Yards: The Availability to Rent (ATR) percentage is currently at 6.1%, which is slightly above the optimum range. This ATR %, although relatively low, indicates that some units are available for rent, but the property remains in a healthy market position overall. The slight decline in ATR % is positive, but it suggests that while leasing activity is occurring, it is not fully eliminating available inventory. The this ATR % should be monitored to ensure it does not rise further, as that may indicate an imbalance between supply and demand.
+Comps: The comps have a lower ATR % at 4.1%, which is well within the desirable range. Their ATR % has also declined, indicating improved leasing performance and a better balance between supply and demand. The comps are in a stronger position than The Yards, with less available inventory and higher occupancy, suggesting that they are effectively managing their leasing activities.
+Traffic in the Last 7 Days:
+The Yards: The property recorded 6 traffic visits in the last 7 days, but this is a significant decline. To maintain consistent leasing activity, The Yards should aim for a higher level of traffic. With the current level, the property needs around 12 traffic pieces per week to support its leasing goals. The decrease in traffic could be a concern and may require targeted marketing efforts to increase the number of potential leads.
+Comps: The comps have 8 traffic visits in the last 7 days, which is slightly higher than The Yards. This level of traffic is adequate for the comps’ current performance, but they would need around 10 traffic pieces per week to support lease signings to maintain their ATR % at the current level. The comps are experiencing modest growth in traffic, which is helping to support their leasing performance.
+Leases in the Last 7 Days:
+The Yards: The property has not secured any leases in the last 7 days, and its historical closing ratio is 0.21, meaning it converts roughly 21% of its traffic into leases. To achieve its target ATR, The Yards would need to secure approximately 3 leases per month. The current lack of leasing activity and low closing ratio suggest that the property may need to improve its sales and marketing strategies to better convert traffic into leases.
+Comps: The comps have secured 2 leases in the last 7 days, with a higher closing ratio of 0.36. They are converting 36% of their traffic into leases, which is an advantage over The Yards. The comps need to secure around 4 leases per month to maintain their current ATR %, and they are currently meeting this target.
+Overall Analysis:
+The Yards is performing relatively well with strong occupancy and modest revenue growth, but its rent increases are limited, and the recent decline in traffic and lack of lease signings are areas of concern. Improving traffic and lease conversion rates will be crucial for The Yards to maintain its current performance and prevent further increases in its ATR %.
+The comps, despite facing some challenges with RevPau and NER declines, are in a stronger position with a lower ATR %, higher occupancy, and better leasing momentum. Their ability to convert traffic into leases at a higher rate gives them a competitive advantage. The Yards should closely monitor its ATR %, increase traffic, and enhance its leasing strategies to remain competitive in the market.</t>
+  </si>
+  <si>
+    <t>AVIA Apartments at 110th Street Analysis
+Current Performance Analysis
+AVIA Apartments at 110th Street, a stabilized property with 112 units, is performing very well, maintaining a high occupancy rate of 98.2%, which has increased by 2.8 percentage points. The property’s Revenue Per Available Unit (RevPau) is $1,096, reflecting a strong increase of 4.7%. This growth in RevPau is primarily driven by a solid increase in Net Effective Rent (NER) to $1,116, which has risen by 1.8%. These positive trends in both occupancy and rent are indicative of a healthy and well-performing property.
+In comparison, the comps, which have an average of 352 units, have a lower occupancy rate of 93.9%, which has decreased by 1.4 percentage points. The comps’ RevPau is $1,387, down by 1.3%, while their NER has remained flat at $1,476. The comps are lagging behind AVIA Apartments in terms of both occupancy and RevPau, suggesting that AVIA is outperforming its competitors in terms of market appeal and rent growth.
+Leading Indicators
+ATR % Analysis:
+AVIA Apartments: The Availability to Rent (ATR) percentage for AVIA Apartments is currently at 7.1%, which is slightly higher than ideal. An ATR % under 6% is generally considered healthy, indicating a balanced market. The slight increase in ATR % may be a concern if it continues to rise, as it could suggest a potential overhang of available units. However, the current ATR % does not raise immediate alarm bells, and with continued strong leasing performance, AVIA Apartments should be able to bring this down to a healthier level.
+Comps: The comps have a much lower ATR % at 0.9%, which is well within the healthy range and indicates strong demand and limited availability. The slight increase in ATR % suggests some minor softening, but overall, the comps are in a favorable position with low inventory. AVIA Apartments, although higher in ATR %, is still in a good position but should be mindful of reducing this to avoid any potential leasing challenges.
+Traffic Over the Last 7 Days:
+AVIA Apartments: The property has not recorded any traffic in the last 7 days, which is concerning. This suggests a significant slowdown in prospective tenant interest and could impact lease-up efforts if not addressed promptly. To meet its leasing goals and decrease the ATR %, AVIA Apartments needs to generate at least 4 traffic pieces per week. The current lack of traffic indicates a need for immediate attention to marketing and outreach strategies to drive tenant interest.
+Comps: The comps have seen 3 traffic pieces in the last 7 days, which are stable but modest. While this level of traffic is sufficient to support current leasing activity, the comps may need to increase their marketing efforts to maintain occupancy and prevent any further decline. The comps require approximately 3 traffic pieces per week to meet their leasing goals, suggesting that traffic levels are adequate but not necessarily robust.
+Leases Over the Last 7 Days:
+AVIA Apartments: The property has not secured any new leases in the last 7 days, which, coupled with the lack of traffic, indicates a significant leasing challenge. This is further evidenced by the historical closing ratio of 0.22, meaning only 22% of the property’s traffic typically converts to leases. To effectively reduce the ATR % and maintain high occupancy, AVIA Apartments needs to secure at least 1 lease per week. The current leasing performance is well below the necessary level, and urgent action is required to improve both traffic generation and leasing conversions.
+Comps: The comps have secured 1 lease in the last 7 days, with a historical closing ratio of 0.34, suggesting they convert 34% of their traffic into leases. This higher closing ratio allows the comps to manage their ATR % more effectively. They currently need about 1 lease per week to maintain their current status, putting them in a more stable position compared to AVIA Apartments.
+Overall Analysis
+AVIA Apartments at 110th Street is experiencing strong performance in terms of high occupancy and RevPau growth, driven by solid increases in NER. However, the property faces immediate challenges with no recent traffic or leasing activity, which heightens the risk of an increasing ATR %. To avoid further deterioration, immediate action is required to increase traffic and improve leasing conversions. 
+The comps, while underperforming in terms of occupancy and RevPau, have a lower ATR %, suggesting they are better positioned to weather market fluctuations. Their steady traffic and leasing activity, coupled with a higher closing ratio, provide them with more stability. AVIA Apartments needs to prioritize traffic generation and leasing efficiency to compete effectively with the comps and maintain its strong market position.</t>
+  </si>
+  <si>
+    <t>Siena Villas Apartments Analysis
+Current Performance Analysis
+Siena Villas Apartments, a stabilized property with 81 units, is performing strongly with an occupancy rate of 98.8%, which has increased by 1.3 percentage points. The property’s Revenue Per Available Unit (RevPau) stands at $1,535, showing a significant increase of 9.0%. This growth in RevPau is primarily driven by a strong 7.6% rise in Net Effective Rent (NER) to $1,554, indicating effective rent management. The high occupancy and rent growth reflect a healthy market position for Siena Villas Apartments.
+In comparison, the comps, with an average of 163 units, have a lower occupancy rate of 93.2%, which has also increased, but by a smaller margin of 1.1 percentage points. Their RevPau is slightly lower than Siena Villas Apartments at $1,435, reflecting a strong increase of 8.7%, similar to the subject property. The comps’ NER is $1,539, also showing a 7.6% rise. Overall, both Siena Villas Apartments and its comps are experiencing solid revenue growth, but the subject property’s higher occupancy and RevPau indicate a stronger market position.
+Leading Indicators
+ATR % Analysis:
+Siena Villas Apartments: The Availability to Rent (ATR) percentage for Siena Villas Apartments is at a healthy 2.5%, which is relatively low. This low ATR % suggests the property is well-positioned with minimal available inventory, indicating strong demand and a competitive market position. The slight decrease in ATR % further supports the notion that the property is successfully leasing units. Maintaining this low ATR % will be crucial for sustained performance and continued rent growth.
+Comps: The comps have a higher ATR % at 8.7%, indicating a greater availability of units compared to Siena Villas Apartments. Although this is still within a manageable range, it suggests a slightly higher level of competition or lower demand compared to the subject property. The slight increase in ATR % for the comps could be a potential concern, as it may indicate a slow-down in lease-up or difficulty in maintaining occupancy. The comps should focus on reducing their ATR % to align with market norms and enhance their competitive position.
+Traffic over the Last 7 Days:
+Siena Villas Apartments: The property has not recorded any traffic in the last 7 days, which is a concern. This suggests that there is currently no new interest or foot traffic, which could hinder future leasing efforts. To maintain strong performance, Siena Villas Apartments needs to generate at least 2 traffic pieces per week. Addressing the lack of traffic will be critical to sustaining leasing velocity and filling any remaining vacancies.
+Comps: The comps are generating 2 traffic pieces in the last 7 days, which is on par with their historical performance. However, this level of traffic is slightly below what is necessary to maintain their leasing targets. The comps need to generate at least 4 traffic pieces per week to effectively compete and prevent further increases in their ATR %. Enhancing marketing efforts or targeting specific demographics could help improve traffic flow.
+Leases over the Last 7 Days:
+Siena Villas Apartments: The property has secured 1 lease in the last 7 days, with a historical closing ratio of 0.59, meaning it successfully converts about 59% of its traffic into leases. This is a solid conversion rate, but the lack of current traffic is hindering further leasing success. To maintain optimal performance, Siena Villas Apartments needs to lease about 1 unit per week, suggesting the property is currently meeting its minimum leasing targets but may struggle to maintain this pace without an increase in traffic.
+Comps: The comps have secured 1 lease in the last 7 days, with a lower closing ratio of 0.52, meaning they convert about 52% of their traffic into leases. This lower conversion rate, coupled with slower traffic growth, suggests that the comps may be struggling to maintain leasing momentum. To meet their performance targets, the comps need to secure approximately 2 leases per week, indicating that they are slightly below the desired leasing pace. The comps should focus on improving their leasing efficiency and increasing traffic to drive better results.
+Overall Analysis
+Siena Villas Apartments is performing well with high occupancy, strong rent growth, and a low ATR %, indicating a healthy market position. However, the lack of recent traffic is a concern and must be addressed to sustain leasing momentum. The property’s historical strong closing ratio is a positive factor, but it needs to increase traffic to support ongoing leasing activity.
+The comps, although experiencing similar levels of rent and revenue growth, have lower occupancy, a higher ATR %, and are currently struggling to increase traffic. Their lower closing ratio also suggests they are less efficient at converting prospects into leases. The comps need to focus on reducing their ATR %, improving their traffic generation, and increasing lease conversions to match the performance of Siena Villas Apartments.</t>
+  </si>
+  <si>
+    <t>The Village at Waxahachie Analysis
+Current Performance Analysis
+The Village at Waxahachie, a lease-up property with 225 units, is showing strong performance as it continues to stabilize. The property has experienced a significant increase in occupancy, reaching 88%, a substantial 7% increase. The Revenue Per Available Unit (RevPau) stands at $1,292, showing a robust increase of 8%, supported by effective rental rate management. The property's Net Effective Rent (NER) is $1,474, up 1%. This indicates that while there is some upward pressure on rents, they are not increasing as quickly as the headline rent, likely due to concessions or discounts.
+Comparatively, the comps, with an average of 167 units, have a lower overall occupancy of 76%, up by 3%. Their RevPau is $1,161, reflecting a more conservative 2% growth, and their NER is $1,498, which has declined slightly by 1%. The comps are facing challenges in maintaining rental rate momentum, as evidenced by the slight drop in NER, although they are still achieving modest revenue growth due to increased occupancy.
+Leading Indicators
+ATR % Analysis:
+The Village at Waxahachie: The Availability to Rent (ATR) percentage is currently at 6%, which is within a healthy range for a lease-up property. The slight decrease in the ATR % indicates positive leasing velocity, with units being absorbed at a steady pace. An ATR % below 7% is generally considered healthy, as it signifies an appropriate balance between supply and demand.
+Comps: The comps, on the other hand, have a significantly higher ATR % at 24%, indicating a larger inventory of available units. This high ATR % suggests a potential oversupply issue, where rental demand is not keeping up with the available units. The modest increase in the ATR % coupled with a declining NER indicates that the comps may be struggling to lease units, raising concerns about their ability to maintain occupancy and rental rates.
+Traffic in the Last 7 Days:
+The Village at Waxahachie: The property recorded 18 traffic pieces in the last 7 days, with a recent positive trend. This level of traffic is sufficient to support the property's leasing goals, but increasing traffic further will help to boost leasing activity and reduce the ATR %. To maintain its current leasing momentum, the property needs to generate approximately 9 traffic pieces per week. Given the recent increase in traffic and strong occupancy gains, The Village at Waxahachie is well-positioned to continue its positive trajectory.
+Comps: The comps are experiencing much lower traffic volume, with only 5 traffic pieces in the last 7 days, which has been relatively stable or slightly decreasing. This low traffic level is likely contributing to their leasing challenges, as it is well below what is needed to effectively lease available units. The comps need to significantly increase their traffic to around 12 traffic pieces per week to meet their leasing requirements, but this may be a significant challenge given their current performance.
+Leases in the Last 7 Days:
+The Village at Waxahachie: The property has secured 6 leases in the last 7 days, with a strong historical closing ratio of 92%. This high conversion rate highlights the property's effective leasing strategies and ability to turn traffic into leases. The current leasing pace is robust and aligns well with the property's goals. To maintain this pace and continue stabilizing, The Village at Waxahachie needs to secure approximately 8 leases per week, suggesting that it is currently operating at a high level of efficiency.
+Comps: The comps, with a higher closing ratio of 100%, have not secured any leases in the last 7 days, which is primarily due to their low traffic levels. The comps need to secure around 12 leases per week to maintain their current occupancy and reduce the ATR %, a significant challenge given their traffic and leasing constraints. The inability to convert traffic into leases effectively is a critical obstacle for the comps as they face increasing pressure to fill their available units.
+Overall Analysis
+The Village at Waxahachie is performing strongly as a lease-up property, with its high occupancy, positive RevPau growth, and healthy pace of leasing. The recent increases in traffic and strong leasing performance have enabled the property to rapidly stabilize, although continued efforts to increase traffic and maintain leasing momentum will be essential to fully stabilize and reduce the ATR % further. The high closing ratio is a significant advantage, allowing the property to efficiently convert interest into signed leases.
+In contrast, the comps are facing challenges with lower occupancy, weak traffic, and a high ATR %. Despite a better-than-average closing ratio, the comps need to substantially increase their traffic and leasing pace to overcome their inventory overhang and stabilize. The comps' declining NER and struggles to maintain leasing activity indicate that they may need to consider aggressive marketing and pricing strategies to drive tenant interest and prevent further erosion of their rent levels. Overall, The Village at Waxahachie appears well-positioned to capitalize on its strong performance, while the comps face an uphill battle to correct their leasing challenges.</t>
+  </si>
+  <si>
+    <t>The Bailey Analysis
+Current Performance Analysis
+The Bailey, a stabilized property with 345 units, is currently experiencing a slight occupancy decrease at 91.0%, down by 1.8 percentage points. The property’s Revenue Per Available Unit (RevPau) stands at $1,147, reflecting a modest increase of 0.3%. This growth in RevPau is primarily due to a 2.3% increase in Net Effective Rent (NER) to $1,261, suggesting that while the property is successfully pushing rent growth, the occupancy decline is limiting its revenue potential.
+In comparison, the comps, averaging 300 units, are performing slightly better in terms of occupancy with an average rate of 92.4%, which has increased by 2.1 percentage points. However, their RevPau is $1,330, which has decreased slightly by 0.2%, and their NER is $1,441, down 2.2%. The comps are facing challenges with rental rates, resulting in a decline in both RevPau and NER, even though they have managed to increase occupancy.
+Leading Indicators
+ATR % Analysis:
+The Bailey: The Availability to Rent (ATR) percentage currently stands at 11.3%, which is significantly higher than the ideal range for a stabilized property and indicates elevated availability. A higher ATR % suggests that leasing activity is slower than desired, potentially due to factors such as increased competition or pricing sensitivity. The slight increase in ATR %, coupled with the declining occupancy, is a concern and should be closely monitored. To achieve a healthier ATR %, The Bailey would need to reduce its ATR to below 6%, which would require adding approximately 5 new leases per week.
+Comps: The comps are experiencing a lower ATR % at 5.2%, which is within the desirable range, suggesting healthier market conditions. This lower ATR % reflects their ability to manage supply and demand more effectively compared to The Bailey. The comps’ ATR % has decreased slightly, indicating that they are successfully maintaining occupancy while experiencing limited availabilities. To sustain this ATR %, the comps need to secure about 4 new leases per week, which is in line with their current leasing performance.
+Traffic in the Last 7 Days:
+The Bailey: The property recorded 14 traffic visits in the last 7 days, although this represents a slight decrease. While the current traffic level is reasonable, it is not sufficient to address the high ATR % and boost occupancy. To reduce the ATR and achieve optimal leasing results, The Bailey would need to generate approximately 26 traffic visits per week. The recent decline in traffic is a concern and should be addressed with targeted marketing and outreach efforts to draw in more prospective tenants.
+Comps: The comps had 8 traffic visits in the last 7 days, with a slight downward trend. This level of traffic is relatively low, but the comps have been more efficient in converting this traffic into leases, as evidenced by their higher closing ratio. To maintain their current ATR % and leasing momentum, the comps would need about 11 traffic visits per week. The comps should focus on maintaining or increasing traffic levels to sustain their leasing performance.
+Leases in the Last 7 Days:
+The Bailey: The property secured 5 new leases in the last 7 days, representing a moderate leasing pace. However, this is not sufficient to significantly reduce the ATR %, especially with the current occupancy decline. The Bailey’s historical closing ratio is 0.28, meaning that around 28% of traffic converts into leases. To improve overall leasing performance and reduce the ATR %, The Bailey would need to increase its closing ratio or raise its traffic levels.
+Comps: The comps secured 3 leases in the last 7 days, which is slightly below their ideal pace, but their higher closing ratio of 0.34 (or 34%) allows them to leverage their traffic more effectively. The comps need to secure about 4 leases per week to maintain their current ATR %, which is aligned with their historical performance.
+Overall Analysis
+The Bailey is facing challenges with its ATR %, which is elevated at 11.3%, well above the optimal range. The slight increase in ATR %, coupled with a decline in occupancy, indicates that while the property is pushing rent growth, it is struggling to attract and convert enough traffic to fill its available units. The recent decrease in traffic is a concern and should be addressed promptly with targeted marketing initiatives to improve leasing velocity. Additionally, efforts to boost the closing ratio, currently at 28%, would be beneficial in reducing the ATR %.
+In contrast, the comps, despite a lower ATR % and higher occupancy, are experiencing challenges of their own, namely, declining rental rates which are impacting their RevPau and NER. While their traffic levels are lower, their higher closing ratio of 34% allows them to lease units more efficiently, supporting their current occupancy levels. However, the comps need to focus on increasing traffic to sustain their leasing momentum and prevent further erosion of rental rates.
+Overall, The Bailey should prioritize improving its traffic generation, reducing its ATR %, and increasing its occupancy levels to achieve stronger revenue performance. A comprehensive marketing and leasing strategy, coupled with targeted rent management, will be essential in addressing these challenges and positioning the property competitively within the market.</t>
+  </si>
+  <si>
+    <t>Sterling Manor Apartments Analysis
+Current Performance Analysis
+Sterling Manor Apartments, a stabilized property with 207 units, is performing well with an occupancy rate of 97.1%, which has increased by 1.6 percentage points in the last month. The property’s Revenue Per Available Unit (RevPau) is $2,184, showing a substantial increase of 21.0%. This growth in RevPau is driven by a 19.1% increase in Net Effective Rent (NER) to $2,249, indicating that the property is successfully pushing rents while maintaining high occupancy.
+In comparison, the comps, averaging 258 units, have a slightly lower occupancy rate of 96.0%, which has increased by 0.9 percentage points. Their RevPau is $1,969, showing a more modest increase of 2.8%. The comps have a Net Effective Rent of $2,050, which has increased by a more moderate 1.9%. The comps’ performance, while solid, lags behind Sterling Manor Apartments in terms of both occupancy and rent growth.
+Leading Indicators
+ATR % Analysis:
+Sterling Manor Apartments: The Availability to Rent (ATR) percentage is currently at 3.4%, which is below the ideal range of 6% or lower. The slight decline in ATR % indicates that demand is outpacing supply, which is a positive sign for the property. A lower ATR % suggests that the property is effectively matching its leasing pace with incoming demand, resulting in fewer vacant units.
+Comps: The comps have a higher ATR % at 7.5%, which is above the optimal range. This indicates that the comps have a larger inventory of available units, which could pose challenges in maintaining occupancy and rent growth. The slight increase in ATR % suggests that while the comps are leasing, they are not doing so as effectively as Sterling Manor Apartments.
+Traffic Over the Last 7 Days:
+Sterling Manor Apartments: The property recorded 4 traffic pieces in the last 7 days, with a slight downward trend. To maintain its current leasing pace and reduce the ATR % further, Sterling Manor Apartments would ideally need to generate about 7 traffic pieces per week. The current level of traffic suggests that the property may need to bolster its marketing efforts to attract more prospective tenants.
+Comps: The comps recorded 5 traffic pieces in the last 7 days, with minimal change. They would need to generate about 10 traffic pieces per week to support their leasing goals and reduce their ATR % to a more optimal level. The comps’ current traffic level is adequate but leaves little room for error in meeting their performance targets.
+Leases Over the Last 7 Days:
+Sterling Manor Apartments: The property secured 1 lease in the last 7 days, with a slight downward trend. With a historical closing ratio of 0.44, Sterling Manor Apartments converts approximately 44% of its traffic into leases. To maintain its current occupancy and continue reducing the ATR %, the property needs to secure about 3 leases per week. The current leasing pace is below this target, indicating a need to improve conversion rates or increase traffic.
+Comps: The comps secured 2 leases in the last 7 days, with a slight upward trend, and have a historical closing ratio of 0.42, meaning they convert about 42% of their traffic into leases. To maintain their current performance and reduce their ATR %, the comps need to secure about 4 leases per week. The comps are meeting this target, but their leasing activity may need to be bolstered to maintain occupancy.
+Overall Analysis
+Sterling Manor Apartments is performing well with high occupancy, strong rent growth, and a relatively low ATR %. The property’s focus on pushing rents while maintaining high occupancy has been successful, but efforts are needed to increase traffic and lease conversions to meet the target leasing pace. The comps, while showing more modest performance, have a higher ATR %, suggesting a larger inventory of available units that could impact their ability to sustain rent growth. Both Sterling Manor Apartments and its comps should closely monitor their ATR % and leasing metrics to ensure continued success in a competitive market.</t>
+  </si>
+  <si>
+    <t>Grande Crescent Park Analysis
+Current Performance Analysis
+Grande Crescent Park, a stabilized property with 161 units, is currently experiencing a slight decline in occupancy, which stands at 91.3%, down by 1.7 percentage points. The property’s Revenue Per Available Unit (RevPau) is $1,398, reflecting a modest increase of 1.1%. This growth in RevPau is supported by a stronger increase in Net Effective Rent (NER), which is at $1,532, up by 3.0%. While the NER growth is positive, the decline in occupancy suggests that the property is primarily achieving this rent increase by pushing harder on existing tenants rather than through new leases or market-driven pricing.
+In comparison, the comps, which have an average of 305 units, are also experiencing a decline in occupancy, matching Grande Crescent Park at 91.3%, but with a slightly stronger decrease of 1.4 percentage points. The comps RevPau is slightly higher at $1,412, although this reflects a significant decrease of 2.1%, driven by this drop in occupancy. The comps’ NER stands at $1,546, which is down by 0.7%. While the decline in NER is less severe at the comps, the combination of lower RevPau and occupancy suggests that these properties are facing challenges in maintaining rental income stability.
+Leading Indicators
+ATR % Analysis:
+Grande Crescent Park: The Availability to Rent (ATR) percentage, which reflects the proportion of available units, is currently at 9.9%, which is higher than the ideal range, indicating a significant availability of units that are not being absorbed as quickly as desired. The slight decline in the ATR % is encouraging, but the current level remains elevated, signaling the need for more focused leasing efforts.
+Comps: The comps have a lower ATR % at 4.1%, which is within the ideal range and suggests a healthier market position with a more balanced supply and demand. The ATR % for the comps has increased slightly, but this is still a relatively low level, indicating that these properties are better positioned in terms of unit availability compared to Grande Crescent Park.
+Traffic in the Last 7 Days:
+Grande Crescent Park: The property did not record any traffic in the last 7 days. This is concerning and suggests a lack of prospective tenant interest, which could be contributing to the higher ATR % and the challenges in maintaining occupancy. Generating traffic through effective marketing and outreach is crucial to increase leasing activity.
+Comps: The comps recorded 8.7 traffic pieces in the last 7 days, which is significantly higher than Grande Crescent Park's zero traffic. This indicates that the comps are attracting more potential tenants, giving them a competitive advantage in securing leases.
+Leases in the Last 7 Days:
+Grande Crescent Park: The property did not secure any leases in the last 7 days. The historical closing ratio for this property is 0.5, which means that it typically converts 50% of its traffic into leases. However, without any traffic, there are no leasing opportunities, and this will heavily impact occupancy and revenue. Efforts to drive traffic and improve the closing ratio are critical.
+Comps: The comps secured 1.6 leases in the last 7 days. While this is a lower historical closing ratio of 0.3, the higher traffic volume allows them to maintain leasing activity. This indicates that the comps are better positioned to capitalize on their visitor flow, even though their individual leasing efficiency is lower than Grande Crescent Park's.
+Overall Analysis
+Grande Crescent Park is facing challenges with declining occupancy, an elevated ATR %, and no recent traffic or lease activity. The slight increases in RevPau and NER indicate that the property is successfully pushing for rent increases but at the cost of losing tenants. Immediate action must be taken to generate traffic, improve leasing efficiency, and reduce the high ATR % to stabilize performance.
+The comps, while also experiencing a decline in occupancy, have a stronger position with lower ATR %, higher traffic, and sufficient leasing activity to maintain stability. However, the comps must address their own occupancy and rent decline issues to avoid prolonged downturns. Grande Crescent Park needs to focus on boosting traffic and improving its competitive positioning to regain leasing momentum and reduce its elevated ATR %.</t>
+  </si>
+  <si>
+    <t>Beach Club Apartment Homes Analysis
+Current Performance Analysis
+Beach Club Apartment Homes, a stabilized property with 200 units, experienced a slight decrease in occupancy from 93.7% to 91.0% in the last month, a decline of 2.7 percentage points. The property's average rent per occupied unit (RevPau) is $1,365, which decreased by 3.7% in the same period. This decline in occupancy and RevPau is concerning, suggesting a potential oversupply or competitive pressures in the market.
+The property's Net Effective Rent (NER) is $1,500, which also saw a decline of 1.1%. The decrease in both RevPau and NER indicates that while the property may be reducing rents to attract tenants, it is not yet having a significant positive impact on occupancy. This could be a concern if these trends continue, as further rent reductions may be needed to maintain or increase occupancy, leading to potential revenue challenges.
+In comparison, the comps, with an average of 308 units, also experienced a decline in occupancy from 95.1% to 92.4%, a similar drop of 2.7 percentage points. Their RevPau is slightly lower at $1,346, showing a more significant decline of 4.4%, likely due to both decreased occupancy and potential rent reductions. The comps' NER is $1,455, which decreased by 1.8%, similar to the subject property. These performance metrics indicate that while the comps are facing similar challenges in occupancy and rental income, they are slightly underperforming Beach Club Apartment Homes.
+Leading Indicators
+ATR % Analysis:
+Beach Club Apartment Homes: The Availability to Rent (ATR) percentage stands at 6.0%, which is at the upper end of what is typically considered healthy. An ATR below 6% is generally considered good, while anything above that suggests an oversupply of available units. The slight increase in ATR %, coupled with the decreases in both occupancy and RevPau, indicates that while the property continues to lease, the pace is not sufficient to bring the supply and demand balance back into a healthier range. Efforts to reduce ATR % should be a priority, as this could lead to further downward pressure on rents and occupancy if not addressed promptly.
+Comps: The comps have a slightly higher ATR % at 6.0%, similar to Beach Club Apartment Homes, indicating that they are facing similar challenges in balancing supply and demand. The comps have seen a recent increase in ATR %, suggesting that they may be experiencing more pronounced issues with leasing and potential oversupply. This trend requires careful monitoring, as it could lead to further rent reductions and weaker performance if not managed effectively.
+Traffic Over the Last 7 Days:
+Beach Club Apartment Homes: The property recorded 3 traffic pieces in the last 7 days, which is relatively low and may contribute to the ongoing occupancy challenges. To meet performance targets, the property needs around 4 traffic pieces per week. The current level of traffic indicates that increased marketing efforts and more effective lead generation strategies are needed to attract more prospective tenants.
+Comps: The comps recorded 5 traffic pieces in the last 7 days, slightly higher than Beach Club Apartment Homes. However, given their larger unit count, they need significantly more traffic to support their leasing goals. The comps require approximately 18 traffic pieces per week, more than four times their current level, to meet their target. This indicates that while the comps are performing better than Beach Club Apartment Homes in terms of traffic, they still face a significant gap in achieving the necessary leasing activity to stabilize occupancy.
+Leases Over the Last 7 Days:
+Beach Club Apartment Homes: The property secured 1 lease in the last 7 days, which is below the necessary pace to improve occupancy and reduce the ATR %. The current leasing velocity is insufficient, considering that the property needs approximately 3 leases per week to make a meaningful impact on the available inventory. The historical closing ratio is relatively high at 69%, indicating that the property is effective at converting leads into leases, but the low volume of traffic limits its leasing effectiveness.
+Comps: The comps also secured 1 lease in the last 7 days, but with a much lower historical closing ratio of 13%, suggesting they have more difficulty converting traffic into signed leases. The comps need about 2-3 leases per week to maintain their current ATR %, meaning they are meeting their leasing targets, but the low closing ratio remains a concern. Improving this conversion rate will be critical for the comps to enhance their overall leasing performance.
+Overall Analysis
+Beach Club Apartment Homes is facing challenges with decreasing occupancy and rental income, reflected in the decline in both RevPau and NER. The property's ATR % is slightly elevated, and although it has a high historical closing ratio, the low levels of traffic and leasing activity are hindering its ability to address these issues. To improve performance, the property must focus on driving more traffic and increasing leasing velocity, potentially through enhanced marketing strategies or targeted outreach to prospective tenants.
+The comps, while slightly underperforming Beach Club Apartment Homes, are facing similar challenges, with comparable declines in occupancy and rental income. Their ATR % is also at a concerning level, and the low closing ratio highlights the need for improved leasing efficiency. Both Beach Club Apartment Homes and its comps must closely monitor the ATR %, focus on boosting traffic and lease conversion rates, and carefully manage rental rates to address these market challenges and stabilize their performance.</t>
+  </si>
+  <si>
+    <t>Tiburon Apartments Analysis
+Current Performance Analysis
+Tiburon Apartments, a stabilized property with 320 units, is currently experiencing an occupancy rate of 88.1%, which has decreased by 1.4 percentage points. The property's Revenue Per Available Unit (RevPau) is $1,130, showing a slight decline of 0.6%. This decrease in RevPau is a result of the slight dip in occupancy, as the property is able to maintain stable rent levels with a modest 0.8% increase in Net Effective Rent (NER) to $1,283. Despite the decline in occupancy, the property is successfully implementing rent growth strategies to sustain its NER and mitigate larger drops in RevPau. 
+In comparison, the comps, which have an average of 269 units, demonstrate a higher occupancy rate at 93.9%, which has increased by 0.3 percentage points. The comps' RevPau is slightly higher at $1,385, with a marginal increase of 0.1%. However, the comps are struggling to maintain their NER, which has decreased by 0.1% to $1,473. This suggests that while the comps are able to drive higher occupancy, they are sacrificing rent growth, resulting in slower revenue increases compared to Tiburon Apartments.
+Leading Indicators
+ATR % Analysis:
+Tiburon Apartments: The Availability to Rent (ATR) percentage is 5.0%, indicating a moderate availability of units. Although the ATR % has slightly decreased, the property is still experiencing a healthy level of leasing activity. An ATR % below 7% is generally considered healthy, so Tiburon Apartments is within the desired range. However, the decreasing trend in ATR % suggests that the property needs to continue to focus on leasing efforts to maintain this positive momentum and prevent an increase in available inventory.
+Comps: The comps have a higher ATR % at 6.9%, which is also within an acceptable range but is slightly higher than ideal. This suggests that while the comps are performing well, they may need to be cautious about potential oversupply if the ATR % continues to rise. The slight upward trend in ATR % indicates that the comps should focus on driving leases to reduce this inventory and stabilize the market position.
+Traffic Over the Last 7 Days:
+Tiburon Apartments: The property recorded 4 traffic pieces in the last 7 days, which is a relatively low level of visitor activity. To drive leasing and maintain the current occupancy, Tiburon Apartments will need to increase its traffic to around 7 traffic pieces per week. This traffic deficit indicates a need for enhanced marketing and outreach efforts to attract more prospective tenants to the property.
+Comps: The comps have experienced higher traffic with an average of 14 traffic pieces in the last 7 days. This suggests a stronger market presence and a greater ability to attract potential residents. However, the comps still need to maintain or slightly increase their traffic to meet their leasing targets, as indicated by the required traffic of 14 traffic pieces per week. The consistent traffic levels are supporting their leasing performance, but additional efforts may be needed to achieve optimal results.
+Leases Over the Last 7 Days:
+Tiburon Apartments: The property has not secured any new leases in the last 7 days, which is impacting its occupancy and revenue growth. The historical data shows a strong closing ratio of 0.68, indicating that when traffic is present, Tiburon Apartments has a high success rate in converting prospects into leases. However, with the current low traffic levels, this strong conversion rate is not enough to overcome the decline in occupancy. The property needs to focus on increasing traffic to capitalize on its high closing ratio and drive leasing activity.
+Comps: The comps, on the other hand, have secured 3 leases in the last 7 days, showcasing a lower but consistent closing ratio of 0.28. Despite their lower conversion rate, the comps are benefiting from higher traffic levels, which is supporting their leasing performance. However, the comps will need to maintain or improve their current traffic levels to continue this leasing momentum and avoid any potential declines in occupancy.
+Overall Analysis
+Tiburon Apartments is facing challenges with a slight decrease in occupancy, which is affecting its revenue growth. While the property is managing to maintain stable NER and RevPau, it needs to focus on increasing traffic to support its strong closing ratio and boost leasing activity. The current ATR % is healthy, but without an improvement in traffic, the property may struggle to regain occupancy momentum.
+The comps, with higher occupancy but lower NER growth, are in a relatively stronger position but still need to address their slight increase in ATR % and maintain their traffic levels to sustain leasing momentum. Tiburon Apartments should concentrate on driving more potential tenants to the property through targeted marketing and outreach efforts to successfully compete with the comps and improve its overall performance.</t>
+  </si>
+  <si>
+    <t>Avilla Oakridge Analysis
+Current Performance Analysis
+Avilla Oakridge, a stabilized property with 209 units, has an occupancy rate of 88.0%, which has decreased by 0.6 percentage points. The property’s Revenue Per Available Unit (RevPau) is $1,411, which has declined by 7.3%, driven by a 6.7% decrease in Net Effective Rent (NER) to $1,603. This indicates that while the property is maintaining relatively high occupancy, there are challenges in sustaining rental rates, leading to declining revenue.
+In comparison, the comps, with an average of 280 units, have a slightly higher occupancy rate at 90.5%, which has decreased marginally by 0.1 percentage points. Their RevPau stands at $1,451, showing a modest increase of 1.0%, and their NER is $1,612, up by 0.8%. The comps are experiencing stable or slightly increasing rents and revenues, although at a slower pace compared to the subject property.
+Leading Indicators
+ATR % Analysis:
+Avilla Oakridge: The Availability to Rent (ATR) percentage is currently at 11.5%, which is considered high and indicates a relatively large availability of units. The decreasing trend suggests that leasing activity is taking place, but there is still room for improvement. An ATR % above 6% typically signifies a market with excess inventory, so efforts should be focused on reducing this rate to a healthier level.
+Comps: The comps have an ATR % of 8.7%, which is lower than that of Avilla Oakridge but still slightly elevated. While their ATR % is decreasing, a value above 6% indicates that they too face some supply-demand challenges, albeit to a lesser extent.
+Traffic Over the Last 7 Days:
+Avilla Oakridge: The property recorded 12 traffic pieces in the last 7 days, suggesting a moderate level of interest. However, this traffic volume is not sufficient to meet the property’s leasing needs. To achieve a 6% ATR, Avilla Oakridge needs to generate approximately 16 traffic pieces per week. The current traffic level indicates a need to enhance marketing efforts to attract more prospective tenants.
+Comps: The comps averaged 14 traffic pieces in the last 7 days, slightly below the subject property. However, with an ATR % that is lower than that of Avilla Oakridge, the comps’ current traffic level appears adequate to support leasing goals.
+Leases Over the Last 7 Days:
+Avilla Oakridge: The property has secured 1 lease in the last 7 days, with a historical conversion rate or closing ratio of 0.29. This means that around 29% of visitors are converting into leases, which is relatively strong. However, with the current traffic and occupancy levels, Avilla Oakridge needs to secure approximately 5 leases per week to lower its ATR % to a more optimal level. This suggests that while the closing rate is good, increasing the quantity of traffic is key to improving overall performance.
+Comps: The comps secured an average of 4 leases in the last 7 days, with a higher closing ratio of 0.35. Their leasing performance is stronger, requiring about 6 leases per week to achieve a 6% ATR. The comps are consistently performing better in terms of converting traffic into leases.
+Overall Analysis
+Avilla Oakridge is grappling with a decline in RevPau and NER, which is reflective of the challenges in maintaining rental rates amidst a high ATR %. The property’s traffic levels are below what is necessary to support leasing activity, indicating a need for increased marketing efforts. While the historical closing ratio is strong, the current limited traffic flow is preventing the property from reaching its leasing targets.
+The comps, although facing similar supply-demand challenges, are in a better position with lower ATR %, higher occupancy, and stable or slightly increasing RevPau. Their higher traffic levels and stronger lease conversion rates contribute to these favorable performance metrics. Avilla Oakridge must focus on increasing traffic and reducing its ATR % to align with the comps and improve overall performance.</t>
+  </si>
+  <si>
+    <t>Lakeland Estates Apartments Analysis
+Current Performance Analysis
+Lakeland Estates Apartments, a stabilized property with 264 units, is currently operating at an occupancy rate of 93.5%, which has increased by 0.8 percentage points. The property's Revenue Per Available Unit (RevPau) stands at $1,232, which has decreased by 0.6%. This decline in RevPau is mirrored by a 1.4% decrease in Net Effective Rent (NER) to $1,317. While the slight increase in occupancy is positive, the decline in both RevPau and NER suggests that the property is facing some rent sensitivity, needing to lower rents slightly to maintain occupancy levels.
+In comparison, the comps, with an average of 290 units, have a slightly lower occupancy rate of 93.1%, which has increased by 0.3 percentage points. Their RevPau is $1,286, reflecting a larger decline of 1.7%, and their NER is $1,382, down by 2.0%. The comps are also experiencing rent sensitivity, with sharper declines in both RevPau and NER compared to Lakeland Estates Apartments. Despite this, their overall performance is slightly weaker than that of Lakeland Estates Apartments, which is maintaining higher rent levels and a better NER.
+Leading Indicators
+ATR % Analysis:
+Lakeland Estates Apartments: The Availability to Rent (ATR) rate is currently at 9.5%, which has decreased slightly. The ATR % measures the proportion of vacant units and is an important indicator of market demand. While the current ATR % is elevated, indicating an oversupply of available units, the slight decrease is positive. Nevertheless, the property should continue efforts to bring this rate down closer to the industry standard of 6% or lower to optimize occupancy and reduce competitive pressures. The property is currently adding approximately 2.8 ATR percentage points per week, suggesting that it needs to maintain strong leasing momentum to reduce this rate.
+Comps: The comps have a lower ATR % at 5.0%, which is well within a healthy range and indicates strong market demand with limited available inventory. The comps' ATR % is declining, which is a positive trend. This lower ATR % suggests that the comps are in a more favorable position than Lakeland Estates Apartments in terms of supply and demand dynamics, although both properties still have some room for improvement.
+Traffic in the Last 7 Days:
+Lakeland Estates Apartments: The property recorded 15 traffic pieces in the last 7 days, which is showing an upward trend. This level of traffic is decent and should help support leasing activity. However, to maintain leasing momentum and reduce the ATR %, Lakeland Estates Apartments needs to generate approximately 10 traffic pieces per week. The current traffic levels are meeting this target, which is a positive sign, but the property should continue to focus on attracting prospective tenants to sustain its leasing pace.
+Comps: The comps recorded 12 traffic pieces in the last 7 days, which is showing a more modest increase. This level of traffic is slightly lower than that of Lakeland Estates Apartments but is still adequate to support leasing activity. The comps need about 8-9 traffic pieces per week to maintain their current leasing pace and ATR %, which they are meeting. However, the comps should strive to increase their traffic levels to match or exceed those of Lakeland Estates Apartments to stay competitive.
+Leases in the Last 7 Days:
+Lakeland Estates Apartments: The property secured 7 leases in the last 7 days, with a historical closing ratio of 0.39, meaning it converts 39% of its traffic into leases. While this is a strong conversion rate, the property needs to increase its leasing velocity to further reduce the ATR % and maximize occupancy. Lakeland Estates Apartments is currently leasing at a sufficient pace, but to achieve its target of a 6% ATR, the property needs to secure approximately 4 leases per week.
+Comps: The comps secured 2 leases in the last 7 days, with a lower historical closing ratio of 0.25, meaning they convert 25% of their traffic into leases. The comps need to improve their lease conversion rate and increase their leasing velocity to support their current ATR %, which they are barely meeting. The comps should focus on both improving traffic generation and increasing lease conversion efficiency to maintain their competitive position.
+Overall Analysis
+Lakeland Estates Apartments is performing relatively well, with improving occupancy and adequate traffic levels. The property's ATR %, while still slightly elevated, is moving in the right direction, and its strong lease conversion rate is a positive factor. However, the decline in RevPau and NER indicates some rent sensitivity, and the property should continue to carefully manage rents to balance occupancy and revenue growth effectively.
+The comps, despite having a lower ATR %, are experiencing sharper declines in both RevPau and NER, suggesting more significant rent pressures. The comps also have a lower traffic volume and closing ratio, which could pose challenges for maintaining occupancy and rental rates. Lakeland Estates Apartments should continue to focus on its leasing efforts, particularly in driving traffic, while closely monitoring market conditions to sustain its performance and reduce its ATR %.</t>
+  </si>
+  <si>
+    <t>Vie at The Medical Center Apartment Homes Analysis
+Current Performance Analysis
+Vie at The Medical Center Apartment Homes, a stabilized property with 192 units, is currently at a 92.2% occupancy, which has decreased by 1.1 percentage points. The property’s Revenue Per Available Unit (RevPau) stands at $1,160, reflecting a positive trend with a 2.3% increase. This growth in RevPau is supported by a 3.5% increase in Net Effective Rent (NER) to $1,258, indicating that the property is successfully pushing rents higher, despite a slight occupancy decline.
+In comparison, the comps, with an average of 258.5 units, are at an 88.9% occupancy, up by 0.6 percentage points. Their RevPau is slightly higher at $1,194, showing a smaller increase of 0.5%, and their NER is $1,338, which has declined by 0.3%. The comps are experiencing more modest performance, with stable to slightly increasing occupancy but some challenges in rent growth, as indicated by the declining NER.
+Leading Indicators
+ATR % Analysis:
+Vie at The Medical Center Apartment Homes: The Availability to Rent (ATR) percentage for Vie at The Medical Center is currently at 7.8%, which is slightly higher than the ideal range. The slight increase in the ATR %, coupled with the decline in occupancy, suggests that the property may be facing some lease-up challenges or increased competition. However, the ATR % is still within a manageable range, although efforts should be made to reduce it to improve overall leasing performance.
+Comps: The comps have an ATR % of 7.4%, which is slightly lower than Vie at The Medical Center but still within a similar range. The comps have seen a slight decrease in ATR %, which is a positive sign indicating that they are effectively leasing units and managing their available inventory.
+Traffic Over the Last 7 Days:
+Vie at The Medical Center Apartment Homes: The property recorded 7 traffic pieces in the last 7 days, which is a moderate level. With the current occupancy and leasing challenges, maintaining or increasing traffic will be crucial to driving leasing activity. In order to meet performance targets and reduce the ATR %, Vie at The Medical Center would need to generate approximately 9 traffic pieces per week, suggesting that additional marketing efforts may be necessary.
+Comps: The comps have higher traffic levels, with 15 traffic pieces recorded in the last 7 days. This suggests that the comps are attracting more prospective tenants, which may be contributing to their higher leasing performance.
+Leases Over the Last 7 Days:
+Vie at The Medical Center Apartment Homes: The property has seen a decrease of 1 lease in the last 7 days, with a current leasing velocity of -1 lease per week. This negative trend in leasing is concerning and is likely contributing to the increase in the ATR %. The historical closing ratio for Vie at The Medical Center is 0.24, which means that it converts 24% of its traffic into leases. To maintain stable occupancy and effectively reduce the ATR %, the property needs to secure approximately 2 leases per week. Improving the leasing performance will be crucial to turning around the current occupancy and ATR % trends.
+Comps: The comps have performed better in terms of leasing, securing 5 leases in the last 7 days with a higher historical closing ratio of 0.4, meaning they convert 40% of their traffic into leases. The comps need around 5 leases per week to maintain their current ATR %, which indicates that they are successfully meeting their leasing targets.
+Overall Analysis
+Vie at The Medical Center Apartment Homes is facing challenges with a slight decline in occupancy, a moderate ATR %, and a negative leasing trend. The property’s ability to push rents higher with a positive NER is positive, but without improvements in occupancy and leasing velocity, the ATR % may continue to be a concern. Increasing traffic and improving the closing ratio will be key focuses for Vie at The Medical Center to stabilize the property’s performance.
+The comps, although performing better in terms of occupancy and leasing velocity, are seeing limited growth in RevPau and are struggling to increase rents, as reflected in their declining NER. Higher traffic levels are helping the comps maintain occupancy, but they need to convert that traffic more efficiently to leases in order to sustain their current performance. The comps’ higher historical closing ratio gives them an advantage in this regard, but efforts should be made to mitigate the declining rents and improve their competitive position.
+In summary, Vie at The Medical Center Apartment Homes should concentrate on increasing traffic and improving lease conversions to overcome its occupancy and ATR % challenges. The comps, while maintaining occupancy, need to address the NER decline and focus on optimizing their leasing strategies. Both properties should closely monitor and adjust their marketing and leasing efforts to remain competitive in the market.</t>
+  </si>
+  <si>
+    <t>The Rose on Sybil Analysis
+Current Performance Analysis
+The Rose on Sybil, a stabilized property with 130 units, has an occupancy rate of 86.2%, representing a significant increase of 3.8 percentage points. The property’s Revenue Per Available Unit (RevPau) is $895, which has risen by 7.8%. This RevPau growth is primarily driven by a 3.9% increase in Net Effective Rent (NER) to $1,038, as well as the strong boost in occupancy. The property is effectively managing rent increases while capitalizing on rising demand, resulting in solid revenue growth.
+In comparison, the comps, which have an average of 185 units, show a slightly higher occupancy rate at 88.2%, reflecting a 4.5 percentage point increase. Their RevPau is $932, up by 6.3%, driven by a more modest 1.9% increase in NER to $1,058. The comps are also experiencing positive performance, although their rent growth is more limited compared to The Rose on Sybil.
+Leading Indicators
+ATR % Analysis:
+The Rose on Sybil: The Availability to Rent (ATR) percentage, which measures the proportion of units available for lease, is currently at 12.3%. This is a relatively high ATR %, indicating that a significant portion of units is still on the market. The slight decrease in ATR % is encouraging, but further reductions are necessary to reach a healthier level. A target ATR % of below 6% is generally considered optimal, as it suggests a balanced level of supply and demand. The Rose on Sybil needs to continue focusing on reducing its ATR % through effective leasing strategies.
+Comps: The comps have a lower ATR % at 7.6%, which is closer to the ideal range. Although their ATR % is higher than the 6% target, the comps are in a more favorable position than The Rose on Sybil. The slight increase in the comps' ATR % suggests they may be experiencing challenges in absorbing available inventory, and they should work on reducing it to maintain healthy leasing conditions.
+Traffic Over the Last 7 Days:
+The Rose on Sybil: The property recorded 7 traffic pieces in the most recent 7-day period. This level of traffic is steady but needs improvement. To reduce the ATR % and achieve optimal leasing performance, The Rose on Sybil needs to generate approximately 6-7 traffic pieces per week, suggesting that current traffic levels are just sufficient. However, any decrease in traffic could jeopardize the property's leasing progress, so maintaining or increasing traffic is crucial.
+Comps: The comps recorded 6 traffic pieces in the past week, which is slightly below The Rose on Sybil's traffic. The comps aim to maintain a 6% ATR but should strive to increase traffic to avoid any potential occupancy declines. To meet their leasing goals, the comps need about 7 traffic pieces per week, meaning they are very close to their target.
+Leases Over the Last 7 Days:
+The Rose on Sybil: The property secured 7 leases in the most recent 7-day period, with a historical closing ratio of 0.53, indicating that more than half of the property’s traffic converts to leases. This conversion rate is strong and helps explain the property's recent boost in occupancy. The Rose on Sybil needs to maintain this high closing ratio to continue driving leasing momentum and gradually reduce its ATR.
+Comps: The comps secured 2 leases in the past week, with a lower closing ratio of 0.36. This suggests that the comps are less effective in converting traffic into leases compared to The Rose on Sybil. With their lower leasing velocity, the comps need to focus on improving their traffic generation and conversion rate to maintain stable occupancy and reduce their ATR %.
+Overall Analysis
+The Rose on Sybil is performing well, with strong RevPau growth, driven by both rising rents and increased occupancy. However, the property's high ATR % remains a concern, and although recent leasing activity has been robust, sustaining the momentum will require continued focus on traffic generation and maintaining the high leasing conversion rate.
+The comps, while showing similar occupancy gains, are struggling to match The Rose on Sybil's leasing efficiency. Their lower ATR % is an advantage, but they need to improve their traffic and leasing performance to stay competitive. Both The Rose on Sybil and the comps should closely monitor their ATR % and traffic levels to ensure they are meeting leasing targets and maintaining a healthy supply-demand balance.</t>
+  </si>
+  <si>
+    <t>The Mill at Ironworks Plaza Analysis
+Current Performance Analysis
+The Mill at Ironworks Plaza, a stabilized property with 232 units, is performing well with an occupancy rate of 98.3%, showing a significant increase of 4.1 percentage points. The property's Revenue Per Available Unit (RevPau) is $1,830, which has increased by 1.8%. However, there has been a slight decline in Net Effective Rent (NER) to $1,862, down by 2.2%. This suggests that while occupancy is strong, there may be some rent sensitivity and potential pressure on effective rents, as indicated by the decline in NER despite the increase in RevPau.
+In comparison, the comps, with an average of 194 units, have a lower occupancy rate of 94.4%, which has remained stable with no significant change. Their RevPau is $1,665, reflecting an increase of 2.6%, and their NER is $1,756, up by 2.2%. The comps are also experiencing modest growth in both RevPau and NER, but their lower occupancy indicates more available units compared to The Mill at Ironworks Plaza.
+Leading Indicators
+ATR % Analysis:
+The Mill at Ironworks Plaza: The Availability to Rent (ATR) percentage is currently at 3.9%, which is relatively low and indicates a healthy market balance with limited availability. The slight decrease in ATR % suggests that the property is leasing units effectively, with demand keeping pace with supply. An ATR % below 6% is typically considered healthy, and The Mill at Ironworks Plaza is comfortably within this range, indicating a well-managed property with strong leasing activity.
+Comps: The comps, on the other hand, have a higher ATR % at 7.6%, which is above the optimal range. The significant increase in the ATR % is a concern as it suggests a potential oversupply or leasing challenges. This higher ATR % could lead to increased competitive pressures and may require aggressive marketing or rent concessions to reduce.
+Traffic in the Last 7 Days:
+The Mill at Ironworks Plaza: The property recorded 1 traffic piece in the last 7 days, which is quite low. This indicates that while there is still leasing activity, there may be a need to increase awareness and attract more prospective tenants. With an ATR % below 4%, the current traffic level is sufficient to maintain occupancy, but to drive further leasing and reduce the ATR %, it needs to increase traffic significantly.
+Comps: The comps have higher traffic with 3 traffic pieces in the last 7 days, indicating stronger market interest. However, this level of traffic is not sufficient to meet their leasing goals, especially considering their higher ATR %. The comps need to increase traffic to at least 5 pieces per week to support better leasing performance.
+Leases in the Last 7 Days:
+The Mill at Ironworks Plaza: The property secured 3 leases in the last 7 days, which is in line with its historical leasing performance. This leasing consistency is impressive, and with an ATR % below 4%, The Mill at Ironworks Plaza is well-positioned to continue this strong performance. The property has a high closing ratio of 100%, meaning that all traffic is effectively converting into leases. This is an excellent performance metric, reflecting a well-trained and efficient leasing team.
+Comps: The comps secured only 1 lease in the last 7 days, with a historical closing ratio of 32%. This indicates that while they have higher traffic, they are not converting as effectively as The Mill at Ironworks Plaza. The comps need to improve their lease conversion to take full advantage of their traffic and reduce their high ATR %.
+Overall Analysis
+The Mill at Ironworks Plaza is demonstrating strong performance with high occupancy, moderate rent growth, and effective lease conversion. The slight decline in NER suggests some rent sensitivity, but the property is still performing well overall. The low ATR % and high closing ratio are positive indicators of a well-managed property, although the property should focus on increasing traffic to support continued leasing momentum.
+The comps, with their higher ATR %, lower occupancy, and lower lease conversion rate, face more significant challenges in the market. While they are experiencing modest rent growth, their overall performance is weaker compared to The Mill at Ironworks Plaza. The comps need to reduce their ATR % and improve lease conversion, which will likely require a stronger focus on marketing and tenant retention strategies. Increasing traffic and refining their leasing processes will be crucial for the comps to compete effectively in the current leasing market.</t>
+  </si>
+  <si>
+    <t>The Promenade At Beavercreek Analysis
+Current Performance Analysis
+The Promenade At Beavercreek, a stabilized property with 238 units, is experiencing a slight decline in occupancy, which currently stands at 93.3%, down by 1.8 percentage points. This decrease in occupancy is reflected in the property’s Revenue Per Available Unit (RevPau), which is $1,468, down by 2.1%. Despite this decline, The Promenade At Beavercreek's Net Effective Rent (NER) has only decreased by 0.3% to $1,574, indicating that while there may be some rent sensitivity, the impact has been relatively minor.
+In comparison, the comps, with an average of 301 units, are also facing a slight decrease in occupancy, down to 92.4%, a decrease of 1.1 percentage points. The comps' RevPau is $1,378, showing a smaller decline of 0.9%, and their NER has increased by a modest 0.2% to $1,491. This suggests that the comps are experiencing more stable rent performance, with a smaller decline in revenue despite lower occupancy.
+Leading Indicators
+ATR % Analysis:
+The Promenade At Beavercreek: The Availability to Rent (ATR) percentage is 6.3%, which is slightly above the ideal range. While still manageable, it indicates that there is a relatively higher supply of available units, which could put some downward pressure on occupancy and rents. The slight decline in ATR % is positive but needs to be monitored to prevent further deterioration in performance.
+Comps: The comps have an ATR % of 4.3%, which is in a healthier range, indicating adequate demand and a more balanced market position compared to The Promenade At Beavercreek. The slight increase in ATR % suggests some challenges in maintaining the current level of occupancy but is still within acceptable limits.
+Traffic Over the Last 7 Days:
+The Promenade At Beavercreek: The property recorded 7 traffic pieces in the last 7 days, showing a positive trend with a notable increase. However, to sustain the current leasing pace and reduce the ATR % further, the property needs to generate approximately 2 traffic pieces per week. The current traffic level is meeting this requirement, but additional efforts to drive traffic could be beneficial in further reducing the ATR % and boosting leasing activity.
+Comps: The comps are generating 7 traffic pieces per week, which is similar to The Promenade At Beavercreek. However, the comps have a lower ATR %, suggesting that they are converting their traffic more efficiently. To achieve the same level of leasing activity as The Promenade At Beavercreek, the comps would need approximately 4 traffic pieces per week, indicating that they are currently above their traffic targets.
+Leases Over the Last 7 Days:
+The Promenade At Beavercreek: The property secured 3 leases in the last 7 days, which is in line with its historical performance. The current leasing velocity is adequate, but with an ATR % above the ideal range, The Promenade At Beavercreek needs to maintain or increase its leasing pace to prevent further increases in available inventory. The property has a strong closing ratio of 1, meaning that it converts 100% of its visitors into leases. This high conversion rate is a positive sign but the property needs to focus on driving more traffic to fully utilize this conversion ability.
+Comps: The comps secured 1 lease per week over the last 7 days, with a lower closing ratio of 0.2. This suggests that while they may have a lower conversion rate, they are managing their inventory efficiently, with a lower ATR % and relatively stable occupancy. The comps need approximately 1 lease per week to maintain their current performance, indicating that they are meeting their leasing goals but could benefit from improving their closing ratio to enhance their competitive position.
+Overall Analysis
+The Promenade At Beavercreek is performing reasonably well, with a slight decline in occupancy, but a stable NER and a strong ability to convert traffic into leases. The property needs to focus on maintaining its leasing velocity and reducing the ATR % further, primarily by continuing to drive traffic. The high occupancy and strong rental rates are positive factors but the slight increase in ATR % suggests that ongoing efforts are needed to keep the property competitive.
+The comps, while facing a similar decline in occupancy, are managing their ATR % more effectively and have a lower closing ratio. This indicates that the comps may be better at managing their available inventory, but they could benefit from improving their leasing velocity and traffic generation to fully capitalize on their strengths. The Promenade At Beavercreek's current focus on traffic generation and high conversion rates give it a competitive advantage, but it needs to remain vigilant in driving leasing activity to maintain its market position.</t>
+  </si>
+  <si>
+    <t>200 City View Apartments Analysis
+Current Performance Analysis
+200 City View Apartments, a stabilized property with 159 units, is performing well with a high occupancy rate of 97.5%, which has increased by 2.0 percentage points. The property’s Revenue Per Available Unit (RevPau) is $1,587, showing solid growth of 2.0%, while the Net Effective Rent (NER) is $1,627, with a marginal decrease of -0.1%. The slight decline in NER suggests the property may be facing some rent sensitivity, which could be impacting its ability to push rents higher.
+In comparison, the comps, with an average of 106 units, have a lower occupancy rate at 86.5%, which has also increased by 1.2 percentage points. Their RevPau is $1,350, reflecting a 1.3% increase, while their NER is $1,555, up by a modest 0.2%. The comps are experiencing slower overall growth in both RevPau and NER, suggesting they may be facing more challenging market conditions or are pricing more conservatively than 200 City View Apartments.
+Leading Indicators
+ATR % Analysis:
+200 City View Apartments: The Availability to Rent (ATR) % is currently at 5.0%, which is within a healthy range. The slight increase in ATR % indicates there is some leasing activity, but not enough to keep pace with the increase in available inventory. ATR % values below 7-8% are generally considered favorable. While 200 City View Apartments is currently within this range, it should closely monitor this metric to ensure it does not exceed this threshold, which could indicate potential oversupply.
+Comps: The comps have a higher ATR % at 12.1%, indicating a more significant availability of units and potentially more competitive market conditions compared to 200 City View Apartments. The declining ATR %, coupled with only modest rent growth, suggests that while the comps are making progress in reducing availability, they are still working to stabilize occupancy and optimize rents.
+Traffic over the Last 7 Days:
+200 City View Apartments: The property recorded 2 traffic pieces in the last 7 days, which is relatively low. To maintain and improve leasing performance, it will need to significantly increase traffic. This current low level of traffic is a concern and likely contributing to the lower lease conversion rates.
+Comps: The comps recorded 3 traffic pieces in the last 7 days, slightly higher than 200 City View Apartments. While their traffic is also relatively low, they have a better closing ratio, which allows them to convert a higher percentage of these leads into leases.
+Leases over the Last 7 Days:
+200 City View Apartments: The property secured 1 lease in the last 7 days, with a historical closing ratio of 0.12. This means that only 12% of its traffic is converting into signed leases. Improving lease conversion rates will be essential for 200 City View Apartments to effectively compete and continue to lease up.
+Comps: The comps secured 1-2 leases per week in the last 7 days, with a much higher closing ratio at 0.48. This indicates that nearly half of their traffic is converting into leases. Their higher lease conversion efficiency is helping to mitigate the impact of lower traffic on overall leasing performance.
+Overall Analysis
+200 City View Apartments is currently performing well with a strong occupan</t>
+  </si>
+  <si>
+    <t>120 Ninth Street Apartments Analysis
+Current Performance Analysis
+120 Ninth Street Apartments, a stabilized property with 219 units, is performing well with an occupancy rate of 93.6%, up by a significant 2.1 percentage points. The property’s Revenue Per Available Unit (RevPau) is $1,490, showing a modest increase of 0.3%. This modest growth in RevPau is primarily driven by the increase in occupancy, despite a slight decrease in Net Effective Rent (NER) by 1.7% to $1,592. The decrease in NER suggests that while the property is successfully maintaining high occupancy, it may be facing challenges in pushing rent increases in the current market conditions. 
+In comparison, the comps, averaging 281 units, have a lower occupancy rate at 91.1%, with a moderate increase of 0.7 percentage points. Their RevPau is slightly higher at $1,432, with a 1.0% increase, and their NER is $1,572, up by 0.4%. The comps are experiencing a more modest performance, with a lower RevPau growth rate, indicating that they are likely facing similar challenges in rent increases. However, their lower occupancy suggests that they might be facing steeper rent reductions to stimulate demand. Despite these challenges, both the subject property and comps are maintaining relatively stable revenue performance, which is encouraging against the backdrop of current market conditions.
+Leading Indicators
+ATR % Analysis:
+120 Ninth Street Apartments: The Availability to Rent (ATR) percentage is currently at 7.3%, which is relatively high. While the ATR % has remained stable, above 6% is typically considered high, suggesting an oversupply of available units. The management should closely monitor this and take proactive steps to reduce the ATR % to optimize performance. A target ATR below 6% is recommended, with a focus on leasing the remaining units quickly to further drive down this number.
+Comps: The comps have a slightly higher ATR % at 8.9%, which has decreased slightly. Similar to the subject property, this ATR % is also elevated, signaling market softness and the need for continued focus on leasing velocity. The comps’ ATR % is higher than the subject property, indicative of potentially higher competitive pressure. Reducing the ATR % should remain a primary goal for both the subject property and the comps to maintain a healthy balance between supply and demand.
+Traffic Over the Last 7 Days:
+120 Ninth Street Apartments: The property recorded 6 traffic pieces in the last 7 days, which is a moderate level of interest. To continue driving leasing momentum, the property needs to increase traffic to approximately 11 pieces per week. The slight decrease in traffic suggests the need for improved marketing outreach or targeted promotions to attract more potential tenants.
+Comps: The comps also have a moderate level of traffic, with 5-6 pieces in the last 7 days, which is similar to the subject property but slightly lower. To meet their leasing targets, the comps need to aim for around 15 traffic pieces per week. Their current traffic levels suggest that both the subject property and comps may benefit from ramping up marketing efforts to generate more interest in the available units.
+Leases Over the Last 7 Days:
+120 Ninth Street Apartments: The property secured 3 leases over the last 7 days, which is a positive sign. The historical closing ratio is 0.31, indicating that the property converts 31% of its traffic into leases. To maintain its current leasing pace and reduce the ATR %, the property needs to consistently secure approximately 3-4 leases per week. The current performance is in line with this target, but there is still room for improvement, particularly in increasing both traffic and conversion rates.
+Comps: The comps secured 1 lease over the last 7 days, with a historical closing ratio of 0.3, similar to the subject property. To achieve their leasing goals and lower their ATR %, the comps need to secure around 4-5 leases per week. Their current performance is slightly behind this target, indicating a need to improve leasing capabilities to effectively compete with the subject property and boost occupancy.
+Overall Analysis
+120 Ninth Street Apartments is performing well with strong occupancy and steady revenue growth, supported by a solid historical closing ratio. However, the high ATR % suggests that the property needs to continue focusing on reducing its available inventory by increasing both traffic and leasing velocity. The slight decrease in NER indicates that rent increases may be challenging, suggesting that the property should prioritize occupancy maintenance.
+The comps, while facing similar market conditions, have a higher ATR % and lower occupancy, indicating a need for more aggressive leasing strategies. They should work on increasing traffic and improving leasing conversion rates to effectively compete with the subject property. Both the subject property and comps should closely monitor market conditions, continue to refine their pricing strategies, and invest in targeted marketing to attract and convert prospective tenants, with a focus on further reducing the ATR %.</t>
+  </si>
+  <si>
+    <t>The View on 20th Analysis
+Current Performance Analysis
+The View on 20th, a stabilized property with 148 units, is operating at full occupancy, which has increased by 2.8 percentage points to reach 100%. The property’s Revenue Per Available Unit (RevPau) is $1,667, reflecting a modest increase of 2.6%. However, the Net Effective Rent (NER) has remained relatively stable at $1,667, with a slight decrease of 0.2%. This suggests that while the property is successful in maintaining high occupancy, there might be some challenges in pushing rents higher.
+In comparison, the comps, averaging 145 units, have an occupancy rate of 94%, which has increased by 1.4 percentage points. Their RevPau stands at $1,336, reflecting a substantial increase of 8.1%, and their NER is $1,416, up by 6.7%. The comps are demonstrating strong revenue growth driven by both rent increases and improved occupancy, suggesting a healthy market position.
+Leading Indicators
+ATR % Analysis:
+The View on 20th: The Availability to Rent (ATR) percentage is currently at 5.4%, which is slightly above the ideal range. The recent increase in ATR from the previous month suggests that while the property is maintaining strong occupancy, there is some softness in demand or potential competitive pressures. However, the current level is within a manageable range, indicating a healthy supply-demand balance.
+Comps: The comps have a slightly higher ATR % at 5.7%, also showing a slight decrease. While this indicates a similar level of unit availability as The View on 20th, it suggests that the comps may be facing similar market conditions. However, the slight decline in the ATR % for both properties is a positive sign, indicating that leasing activity is helping to absorb inventory, although continued attention to leasing pace will be necessary to maintain market stability.
+Traffic in the Last 7 Days:
+The View on 20th: The property recorded 3 traffic pieces in the past week, showing a positive trend with a moderate increase. However, to maintain and lower the ATR %, The View on 20th needs to generate approximately 4 traffic pieces per week. While the current level is close to the target, increasing traffic further will help ensure continued strong leasing performance.
+Comps: The comps recorded 3 traffic pieces in the past week, with a slight decline. This level of traffic is similar to The View on 20th, but it falls slightly below the optimal range for their ATR % target. The comps will need to sustain or increase their traffic to avoid any potential slowing of leasing velocity.
+Leases in the Last 7 Days:
+The View on 20th: The property secured 2 leases in the past week, which is below the required pace to maintain the current ATR % but still represents strong leasing activity. With a historical closing ratio of 0.47, The View on 20th converts nearly 50% of its traffic into leases. To maintain a healthy ATR %, the property needs to secure approximately 2 leases per week, which it is currently meeting. However, to further reduce the ATR % and improve overall performance, increasing both traffic and leasing efficiency will be important.
+Comps: The comps secured only 0.3 leases per week, with a lower closing ratio of 0.38. Their leasing performance is significantly behind The View on 20th, although their high occupancy suggests that they may be leveraging other factors, such as more competitive pricing or longer lease terms, to offset this lower conversion rate. The comps need approximately 2 leases per week to maintain their current ATR %, indicating that they are falling short of their leasing targets.
+Overall Analysis
+The View on 20th is performing well with full occupancy, despite some challenges in pushing rent growth. The slight increase in ATR % suggests that while the property is maintaining strong market position, there is a need to continue focusing on traffic and leasing to ensure continued stability. The property's strong historical leasing performance and current lease pace indicate the potential to address the modest increase in ATR % successfully.
+The comps, although showing positive occupancy gains, have lower traffic and lease performance, leading to a higher ATR % despite their efforts to increase RevPau through rent increases. The comps' lower closing ratio indicates some potential weaknesses in their leasing process, which may require attention. The comps will need to focus on improving leasing efficiency and generating more traffic to reduce the ATR % and sustain their occupancy gains.</t>
+  </si>
+  <si>
+    <t>The Villages at Marley Station Apartments Analysis
+Current Performance Analysis
+The Villages at Marley Station Apartments, a stabilized property with 757 units, has a current occupancy rate of 90.9%, which has declined slightly by 0.1 percentage points. The property’s Revenue Per Available Unit (RevPau) is $1,209, showing a minor decrease of 0.4%. This decline in RevPau is aligned with the overall slight drop in occupancy. The Net Effective Rent (NER) stands at $1,330, down 0.3%, indicating some rent sensitivity in the market.
+In comparison, the comps, averaging 479 units, have a slightly higher occupancy rate at 90.7%, which has increased by 2.7 percentage points. Their RevPau is $1,422, reflecting a 3.1% increase, and their NER is $1,568, up by 0.3%. The comps are experiencing stronger revenue growth, driven primarily by the increase in occupancy. Although the Villages at Marley Station Apartments has a higher NER, the comps’ performance is superior due to their higher RevPau and occupancy.
+Leading Indicators
+ATR % Analysis:
+The Villages at Marley Station Apartments: The Availability to Rent (ATR) percentage is 6.5%, which is slightly higher than the ideal range. An ATR % below 6% is typically considered healthy, so the property should aim to bring this metric down further. The slight decline in ATR %, coupled with the overall stable RevPau, suggests that leasing activity is keeping pace with inventory, but there is room for improvement.
+Comps: The comps have a lower ATR % at 4.8%, which is within the healthy range, indicating that these properties have a good balance between supply and demand. The slight increase in ATR % is not concerning at this stage but should be closely monitored to ensure it does not continue to rise, as this could indicate potential leasing challenges.
+Traffic Over the Last 7 Days:
+The Villages at Marley Station Apartments: The property recorded 10 traffic visits in the last 7 days, which is a considerable decrease of 20.5%, indicating a drop in interest from prospective tenants. The current traffic level is below what is needed to drive leasing activity and reduce the ATR % significantly. To achieve optimal performance, the property should aim for at least 15 traffic visits per week, highlighting the need for intensified marketing and outreach to attract more prospective tenants.
+Comps: The comps recorded 7 traffic visits in the last 7 days, showing a minor decline of 0.8%. This level of traffic is adequate for their current leasing pace, but to maintain their performance, they need to generate approximately 11 traffic visits per week. The comps' traffic levels are not as robust as desired, but they are still adequate for their market position.
+Leases Over the Last 7 Days:
+The Villages at Marley Station Apartments: The property secured 8 leases in the last 7 days, which is a strong figure. The historical closing ratio of 0.55 indicates that the property is converting over half of its traffic into leases effectively. This leasing velocity is positive, but the decline in traffic suggests that maintaining this pace may become challenging. To achieve a 6% ATR, the property needs to secure around 8 to 9 leases per week, highlighting the need to sustain or improve its current performance. The high historical closing ratio is a strength that should continue to be leveraged.
+Comps: The comps secured 4 leases in the last 7 days, with a historical closing ratio of 0.42. This means they convert 42% of their traffic into leases, which is lower than that of the subject property. To maintain their current ATR %, the comps need to secure approximately 5 leases per week, which they are currently meeting. The comps' performance is solid but not as strong as that of the Villages at Marley Station Apartments.
+Overall Analysis
+The Villages at Marley Station Apartments is maintaining a healthy occupancy rate, but the slight decline in both RevPau and NER, coupled with a higher ATR %, suggests that it is facing more rent pressure compared to the comps. The property’s high historical closing ratio is a positive sign, but the recent decline in traffic needs to be reversed to sustain leasing momentum and reduce the ATR further. Marketing efforts should focus on increasing traffic to match the strong leasing performance.
+The comps, with a lower ATR % and higher RevPau, are performing well and benefiting from their recent occupancy gains. However, their lower historical closing ratio and moderate traffic levels indicate that they need to continue their current pace of leasing and maintain or improve their market positioning. Both the Villages at Marley Station Apartments and the comps should closely monitor their ATR % and traffic, as these will be critical factors in determining future leasing success.</t>
+  </si>
+  <si>
+    <t>The Abram Analysis
+Current Performance Analysis
+The Abram, a stabilized property with 144 units, is experiencing a high occupancy rate at 93.7%, which has increased by 3.0 percentage points. The property’s Revenue Per Available Unit (RevPau) stands at $1,417, which is a decline of 7.1%. This decrease in RevPau is driven by a significant 9.7% drop in Net Effective Rent (NER) to $1,513. The decrease in NER suggests that while the property has been successful in maintaining high occupancy, it is facing challenges in maintaining rent levels, which is negatively impacting revenue.
+In comparison, the comps, averaging 203 units, show a lower occupancy rate at 92.4%, which has increased by 0.7 percentage points. Their RevPau is $1,266, reflecting a solid increase of 7.6%, and their NER is $1,369, up by 7.0%. The comps are showing stronger revenue growth, supported by both higher occupancy and rent levels. The comps' ability to increase both occupancy and rents indicates a more favorable market position compared to The Abram, which has higher occupancy but is struggling with rent growth.
+Leading Indicators
+ATR % Analysis:
+The Abram: The Availability to Rent (ATR) percentage is currently at 11.1%, which is above the ideal range, suggesting a relatively high level of availability. The ATR % has increased slightly, indicating that despite the property's high occupancy, there is still a significant number of units on the market. Ideally, a stabilized property should aim for an ATR % of 6% or lower. The current ATR % suggests that The Abram may face challenges in maintaining rent growth and could benefit from focused leasing efforts.
+Comps: The comps have an ATR % of 7.9%, which is also slightly above the optimal range but lower than The Abram's. The comps' ATR % has increased significantly, which could be a concern if it continues to rise. While the comps are in a stronger position regarding occupancy and rent growth, the increasing ATR % indicates some potential challenges in the market. The comps should closely monitor this indicator to avoid further deterioration in rent levels.
+Traffic Over the Last 7 Days:
+The Abram: The property recorded 2 traffic pieces in the last 7 days, which is a relatively low level of interest. To maintain a healthy leasing pace and reduce the ATR %, The Abram needs to generate approximately 9 traffic pieces per week. The current traffic level suggests that the property may struggle to meet its leasing targets, and efforts to increase visibility and attract more prospects are crucial.
+Comps: The comps recorded 6 traffic pieces in the last 7 days. To maintain their current level of leasing activity, the comps need approximately 10 traffic pieces per week. While the comps' traffic level is higher than The Abram's, both properties need to focus on increasing traffic to support their leasing goals. The comps' slight decrease in traffic could impact their ability to maintain their current occupancy and rent growth rates.
+Leases Over the Last 7 Days:
+The Abram: The property has secured 1 lease in the last 7 days, with a historical closing ratio of 0.32, meaning that 32% of visitors convert into leases. The Abram needs to secure approximately 3 leases per week to maintain its current occupancy and reduce the ATR %. The current leasing pace is below what is necessary, and improving the closing ratio and increasing traffic will be critical to achieving leasing targets.
+Comps: The comps have secured 2 leases in the last 7 days, with a historical closing ratio of 0.29, meaning that 29% of visitors convert into leases. The comps need approximately 3 leases per week, which they are currently meeting. However, the slight decrease in their leasing pace, coupled with a lower traffic count, could be concerning for maintaining their current position. The comps should aim to stabilize their leasing activity and maintain or improve their closing ratio to sustain their performance.
+Overall Analysis
+The Abram is facing challenges in maintaining rent levels, as evidenced by the significant drops in both NER and RevPau despite its high occupancy. The property's ATR % is above the ideal range, and the low traffic and leasing activity indicate a potential struggle to attract new tenants. The focus should be on increasing traffic and improving the closing ratio to reduce the ATR % and support rent stabilization.
+The comps, while showing stronger overall performance, are also seeing some challenges. Their relatively lower ATR % and higher traffic levels provide a better foundation, but the comps need to be cautious about their slight decline in traffic and leasing activity. The comps should aim to stabilize their leasing pace, maintain or increase traffic, and focus on retaining their strong rent growth to remain competitive in the market.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1698,13 +2283,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1742,7 +2335,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1776,6 +2369,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1810,9 +2404,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1985,14 +2580,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2012,604 +2612,1204 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" t="s">
         <v>36</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D32" t="s">
         <v>66</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E32" t="s">
         <v>96</v>
       </c>
-      <c r="E31" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" t="s">
-        <v>154</v>
+      <c r="F32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" t="s">
+        <v>114</v>
+      </c>
+      <c r="F51" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" t="s">
+        <v>115</v>
+      </c>
+      <c r="F52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" t="s">
+        <v>116</v>
+      </c>
+      <c r="F54" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F57" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" t="s">
+        <v>123</v>
+      </c>
+      <c r="F61" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/processed_properties 2.xlsx
+++ b/processed_properties 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlbionKrasniqi\Desktop\Projects\AI property narratives\DSPY\streamlit-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BE3033-7002-40A0-A281-7873419D7965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB9A57F-C79D-495A-A96E-49EC5FEB0F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="186">
   <si>
     <t>Property ID</t>
   </si>
@@ -1642,578 +1642,572 @@
   <si>
     <t>Apex on Quality Hill Apartments Analysis
 Current Performance Analysis
-Apex on Quality Hill Apartments, a stabilized property with 138 units, maintains a solid occupancy rate of 92.7%. The property’s Revenue Per Available Unit (RevPau) is $1,743, which has decreased by 5% in the last month. This decline in RevPau is primarily driven by a 5% decrease in Net Effective Rent (NER) to $1,880, indicating that the property is facing rent sensitivity issues. The stability in occupancy with a declining NER suggests that Apex on Quality Hill Apartments may be facing strong leasing demand, but aggressive rent increases could be impacting its ability to capture higher rents.
-In comparison, the comps, which average 236 units, have a slightly higher occupancy rate at 94.3%, experiencing a slight decrease of 0.6%. Their RevPau stands at $1,799, which has declined by 2.2%, and their NER is $1,911, down by 1.7%. These slight declines in RevPau and NER suggest that the comps are also facing rent pressure but are managing to retain a higher occupancy level than Apex on Quality Hill Apartments.
-Leading Indicators
-ATR % Analysis:
-Apex on Quality Hill Apartments: The Availability to Rent (ATR) percentage is 10.9%, which is relatively high and indicates a significant number of available units in comparison to its total inventory. The ATR % has increased, which could be a concern if not addressed promptly. An ATR % above 7% is generally considered elevated, and action should be taken to reduce this figure to avoid potential oversupply or revenue erosion.
-Comps: The comps have a lower ATR % at 7.1%, which falls within the healthy range but is still higher than ideal. The slight increase in ATR % suggests that while the comps are managing their available inventory better than Apex on Quality Hill Apartments, there may still be some challenges in achieving optimal occupancy levels.
-Traffic in the Last 7 Days:
-Apex on Quality Hill Apartments: The property recorded 3 traffic pieces in the last 7 days, which is relatively low. To improve leasing activity and reduce the ATR %, Apex on Quality Hill Apartments should aim for closer to 7 to 8 traffic pieces per week, implying a need for more aggressive marketing and outreach efforts. The current traffic level is not sufficient to support the necessary leasing activity.
-Comps: The comps recorded 6 traffic pieces in the last 7 days, which is higher than Apex on Quality Hill Apartments but still below the ideal level needed to drive significant leasing momentum. The comps need approximately 9 traffic pieces per week to meet their ATR % target, indicating that they also need to focus on increasing traffic to sustain occupancy and leasing performance.
-Leases in the Last 7 Days:
-Apex on Quality Hill Apartments: The property secured 1 lease in the last 7 days, with a historical closing ratio of 0.35, meaning it converts 35% of its traffic into leases. To reduce the ATR % and maintain stable or increasing occupancy, Apex on Quality Hill Apartments needs to secure approximately 3 leases per week. The current pace of leasing is insufficient, and increasing both traffic and the closing ratio are crucial to improving performance.
-Comps: The comps secured an average of 2 leases per week with a historical closing ratio of 0.43, indicating that they are more effective at converting traffic into leases than Apex on Quality Hill Apartments. However, the comps need to maintain a higher pace of leasing to support their occupancy goals and reduce their ATR %.
-Overall Analysis
-Apex on Quality Hill Apartments is facing challenges with rent sensitivity, as reflected in the declining NER and RevPau. The property’s decent occupancy is masking the potential risk of a high ATR %, which could undermine its financial performance if not addressed. To improve its outlook, Apex on Quality Hill Apartments should focus on increasing both traffic and lease conversions, potentially through targeted marketing campaigns and rent adjustment strategies.
-The comps, while performing better in terms of occupancy and rent stabilization, also face similar challenges, with slight declines in NER and RevPau. Their lower ATR % and higher traffic levels give them a relative advantage, but they too need to increase leasing to maintain momentum. Both Apex on Quality Hill Apartments and its comps must concentrate on balancing rent increases with occupancy to sustain their positions in a competitive market.</t>
+Apex on Quality Hill Apartments, a stabilized property with 138 units, maintains an occupancy rate of 92.7%, which has remained flat. The property’s Revenue Per Available Unit (RevPau) is $1,743, reflecting a decline of 5%, driven by a 5% decrease in Net Effective Rent (NER) to $1,880. This suggests that the property is experiencing rent sensitivity, likely due to competitive pressures or market conditions. The decline in RevPau indicates challenges in maintaining revenue, as the property may be discounting rents to sustain occupancy.
+In comparison, the comps, with an average of 236 units, have a slightly higher occupancy rate of 94.3%, although this has decreased by 0.6 percentage points. Their RevPau is $1,799, down by 2.2%, and their NER is $1,911, down by 1.7%. The comps are also facing revenue challenges, but they are experiencing smaller declines in both RevPau and NER compared to Apex on Quality Hill. The comps appear to be managing their rent adjustments more effectively, maintaining a higher occupancy, which helps mitigate revenue losses.
+Overall, Apex on Quality Hill Apartments is facing a more pronounced decline in revenue compared to its comps, driven by larger decreases in both rent and occupancy. This indicates a need for strategic adjustments to stabilize performance.
+Leading Indicators
+ATR % Analysis:
+Apex on Quality Hill Apartments: The Availability to Rent (ATR) percentage is currently at 10.9%, which is high and above the optimal range. This high ATR % suggests an oversupply of available units, indicating that the property is likely facing challenges in leasing them. The upward trend in ATR % is concerning and signals that immediate action is needed to reduce available inventory and improve occupancy.
+Comps: The comps have a lower ATR % at 7.1%, though it is still above the ideal range. This indicates a moderate level of available units, which is better than Apex on Quality Hill but still requires attention to reduce inventory. The slight increase in their ATR % suggests that the comps are also facing some leasing challenges, but they are in a relatively stronger position.
+Traffic in the Last 7 Days:
+Apex on Quality Hill Apartments: Traffic over the last 7 days is low at 3 visits, with a slight downward trend. To achieve optimal leasing performance and reduce the high ATR %, the property needs to generate approximately 8 traffic visits per week. The current traffic level is significantly below what is needed, indicating a need for increased marketing and outreach efforts to attract more prospective tenants.
+Comps: The comps have seen 6 traffic visits in the last 7 days, with a slight upward trend. They need about 9 traffic visits per week to meet their leasing goals. While their traffic levels are higher than Apex on Quality Hill, the comps still need to increase traffic to improve performance.
+Leases in the Last 7 Days:
+Apex on Quality Hill Apartments: The property secured 1 lease in the last 7 days, with a slight upward trend. However, with a high ATR % and low traffic, the property needs to secure about 3 leases per week to stabilize occupancy. The historical closing ratio is 0.35, meaning the property converts 35% of its traffic into leases, which is relatively strong. However, the low traffic volume limits the total number of leases signed. The focus should be on increasing traffic while maintaining this effective closing ratio to meet leasing goals.
+Comps: The comps secured 2 leases in the last 7 days, with a stable trend. With a closing ratio of 0.43, the comps are effective in converting traffic into leases, but they need about 4 leases per week to reduce their ATR % and sustain occupancy. The comps are currently performing better in terms of lease conversion, but they must continue to drive traffic to meet their targets.
+Overall Analysis
+Apex on Quality Hill Apartments is facing significant challenges, with declining rent and revenue, high ATR %, and insufficient traffic. The higher ATR % indicates an oversupply of units, and the property must focus on driving more traffic and securing additional leases to reduce this inventory and stabilize performance. With its current closing ratio, the property is converting a fair portion of its traffic into leases, but without sufficient traffic, it will struggle to meet its goals. Strategies to enhance marketing efforts and attract more prospective tenants will be crucial.
+The comps are also experiencing some challenges, with moderate declines in RevPau and NER, but they are managing these issues more effectively than Apex on Quality Hill. Their lower ATR % and higher closing ratio put them in a stronger position, but they too need to continue driving traffic and leasing to maintain performance. Both properties must work to reduce their ATR % by increasing traffic and lease conversions, but Apex on Quality Hill faces a more urgent need for improvement to remain competitive.</t>
   </si>
   <si>
     <t>Plaza Townhomes at The Medical Center Analysis
 Current Performance Analysis
-Plaza Townhomes at The Medical Center, a stabilized property with 66 units, is maintaining a steady occupancy rate of 93.9%, with a marginal decline of 0.0%. The property’s Revenue Per Available Unit (RevPau) is $2,017, reflecting a slight increase of 0.3%. This RevPau growth is primarily driven by a 0.4% increase in Net Effective Rent (NER) to $2,148, suggesting that while the property is able to push rents slightly higher, there may be some challenges in maintaining occupancy.
-In comparison, the comps, which average 258 units, show a lower but improving occupancy rate of 88.9%, up by 0.6 percentage points. Their RevPau is $1,194, reflecting a slight increase of 0.5%, while their NER is $1,338, which decreased by 0.3%. The comps are struggling with rent growth, likely due to the balancing act of maintaining or increasing occupancy in a competitive market.
-Leading Indicators
-ATR % Analysis:
-Plaza Townhomes at The Medical Center: The Availability to Rent (ATR) percentage is at 10.6%, which is relatively high, indicating that more units are available compared to an ideal or healthy market condition. The ATR % increased recently at a rate of 1.21 percentage points, which suggests that demand may be weakening, and efforts to stabilize or reduce the ATR % should be a priority. A high ATR % can lead to increased vacancy and lower overall revenue if not managed effectively.
-Comps: The comps have a lower ATR % at 7.4%, which is closer to the 6% or below range that is generally considered healthy. The comps’ ATR %, although lower than Plaza Townhomes, has been declining slightly, which is a positive sign, indicating that demand is catching up with supply. The slight decrease of 0.07 percentage points in the ATR % suggests that the comps are better positioned in terms of available inventory, although continued efforts are needed to drive down this percentage further.
+Plaza Townhomes at The Medical Center, a stabilized property with 66 units, is maintaining an occupancy rate of 93.9%, which has remained stable. The property's Revenue Per Available Unit (RevPau) is $2,017, showing a modest increase of 0.3%. This growth is driven by a 0.4% increase in Net Effective Rent (NER) to $2,148. Overall, the property is experiencing slight revenue growth, supported by stable occupancy and minor rent increases.
+In comparison, the comps, with an average of 259 units, have a lower occupancy rate of 88.9%, which has increased by 0.6 percentage points. Their RevPau is $1,194, reflecting a 0.5% increase, while their NER has decreased by 0.3% to $1,338. The comps are facing challenges in rent growth, but they are managing slight improvements in revenue through increased occupancy.
+Leading Indicators
+ATR % Analysis:
+Plaza Townhomes at The Medical Center: The Availability to Rent (ATR) percentage is currently high at 10.6% and rising, which is concerning. An ATR % above 10% indicates that the property has too many available units, which can put downward pressure on rents and occupancy. This suggests an oversupply of units that needs to be addressed to prevent further erosion of performance.
+Comps: The comps have a lower ATR % at 7.4%, which is decreasing slightly. This ATR % is still within a manageable range but suggests that the comps are better positioned with fewer available units, allowing them to stabilize occupancy and maintain revenue.
+Traffic in the Last 7 Days:
+Plaza Townhomes at The Medical Center: The property has not recorded any traffic in the past 7 days. This is a critical issue, as traffic is essential to generate new leases. To achieve a 6% ATR, the property needs to generate approximately 8 traffic pieces per week. The absence of traffic indicates an urgent need for increased marketing efforts to attract prospective tenants.
+Comps: The comps are seeing traffic at 15 pieces per week, with a positive trend. They need about 13 traffic pieces per week to meet their goals, which they are achieving. This steady traffic flow supports their leasing efforts and helps maintain their occupancy levels.
+Leases in the Last 7 Days:
+Plaza Townhomes at The Medical Center: The property has also not secured any new leases in the past 7 days. To reach a 6% ATR, the property needs to secure about 1 lease per week. The lack of lease signings, combined with no traffic, is severely impacting the property's ability to reduce its ATR %. The historical closing ratio is 0.12, meaning the property converts only 12% of its traffic into leases. With no traffic, improving this ratio will be impossible, so generating traffic should be the top priority.
+Comps: The comps have secured around 5 leases per week, with a historical closing ratio of 0.4, converting 40% of their traffic into leases. This strong leasing performance, coupled with adequate traffic, is helping them manage their available units effectively.
+Overall Analysis
+Plaza Townhomes at The Medical Center is facing significant challenges, with a high and rising ATR %, no recorded traffic, and no recent leases. The property's revenue growth is slight, but without addressing these critical issues, its performance will likely decline. The priority should be to drive traffic and improve lease conversions to reduce the ATR % and stabilize the property's performance.
+The comps, despite having lower occupancy and struggling with rent growth, are in a better position due to their lower ATR %, consistent traffic, and higher lease conversion rates. Plaza Townhomes should focus on aggressive marketing strategies to increase traffic and reduce the ATR %, while also working to improve their closing ratio to better compete with the comps.</t>
+  </si>
+  <si>
+    <t>4th and Race Analysis
+Current Performance Analysis
+4th and Race, a stabilized property with 264 units, is experiencing a decline in performance. The occupancy rate has dropped to 95.1%, down by 2.4 percentage points. The Revenue Per Available Unit (RevPau) is $2,301, a decrease of 7.0%, driven by a 4.7% drop in Net Effective Rent (NER) to $2,419. This indicates significant revenue pressure, likely due to both declining rents and occupancy.
+In comparison, the comps, with an average of 250 units, have a lower occupancy rate of 91.1%, which has increased by 1.6 percentage points. Their RevPau is $1,930, down by 1.0%, and their NER is $2,111, down by 2.6%. While the comps are also facing challenges, they have managed to improve occupancy slightly, which has helped mitigate revenue losses.
+Leading Indicators
+ATR % Analysis:
+- 4th and Race: The Availability to Rent (ATR) percentage is at 9.1%, with a slight upward trend. An ATR % above 6% can indicate oversupply, and the current level suggests 4th and Race is struggling with too many available units. Immediate action is needed to reduce ATR %, as it is approaching a concerning level.
+- Comps: The ATR % for the comps is slightly higher at 10.3%, with an upward trend. This also indicates an oversupply, but the comps are managing to improve occupancy, which is a positive sign. Both 4th and Race and the comps need to focus on reducing their ATR % to stabilize the market.
+Traffic in the Last 7 Days:
+- 4th and Race: The property recorded 12 traffic pieces in the last 7 days, with a slight increasing trend. However, to meet its leasing goals and reduce the ATR %, 4th and Race needs to generate about 21 traffic pieces per week. The current level is insufficient, emphasizing the need for increased marketing and outreach efforts to attract more prospective tenants.
+- Comps: The comps recorded 6 traffic pieces in the last 7 days, with a more significant upward trend. They need about 19 traffic pieces per week to achieve their leasing targets. The comps are also struggling to generate the necessary traffic, indicating a market-wide challenge in attracting prospects.
+Leases in the Last 7 Days:
+- 4th and Race: The property secured 4 leases in the last 7 days, with a slight upward trend. To reduce the ATR % to a healthier level, 4th and Race needs to maintain at least 4 leases per week. The current performance is on track, but continued focus on leasing is essential. The closing ratio is 0.19, meaning that 19% of the traffic is converting into leases, which is below average and needs improvement.
+- Comps: The comps secured 1 lease in the last 7 days, with a slight downward trend. They need to secure about 4 leases per week to reduce their ATR %, indicating they are struggling more than 4th and Race in converting traffic into leases. The comps have a slightly better closing ratio at 0.20 but are still facing challenges.
+Overall Analysis
+4th and Race is experiencing a downturn in occupancy, rents, and overall revenue, reflected in the high and increasing ATR %. While leasing efforts are slowly improving, the property must significantly boost traffic and improve its lease conversion rate to stabilize performance. The comps, although dealing with similar issues, have managed to stabilize occupancy slightly but still face significant challenges with high ATR % and lower traffic. Both properties need to focus on aggressive leasing strategies and marketing efforts to reduce available inventory and improve financial performance.</t>
+  </si>
+  <si>
+    <t>Abacus West Analysis
+Current Performance Analysis
+Abacus West, a stabilized property with 272 units, maintains an occupancy rate of 94.1%, which remains stable. The property’s Revenue Per Available Unit (RevPau) stands at $1,237, reflecting a significant decrease of 10.7%, driven by a corresponding drop in Net Effective Rent (NER) to $1,315. This decline in both RevPau and NER indicates that Abacus West is facing challenges, such as rent concessions or increased competition, impacting its revenue.
+In comparison, the comps, averaging 302 units, have a lower occupancy rate of 83.2%, which has increased by 0.5%. Their RevPau is $1,113, showing a growth of 4.0%, and their NER is $1,340, up by 1.6%. The comps are performing better in terms of revenue growth, likely due to their ability to maintain higher rent levels despite lower occupancy.
+Leading Indicators
+ATR % Analysis:
+Abacus West: The current Availability to Rent (ATR) percentage is 10.3%, which is considerably higher than the optimal range, suggesting an oversupply of available units. Although the ATR % is slightly declining, it remains elevated, indicating that Abacus West needs to continue leasing aggressively to reduce the number of available units and improve occupancy.
+Comps: The comps have a higher ATR % at 16.6%, which is also above the healthy range, signaling even more availability of units in these properties. Although the ATR % is slightly decreasing, it remains very high, indicating that the comps are also facing challenges with excess inventory.
+Traffic in the Last 7 Days:
+Abacus West: The property recorded 5 traffic pieces in the last 7 days, indicating a modest level of interest. To achieve optimal performance and lower the ATR %, Abacus West needs to generate approximately 11 traffic pieces per week. The current traffic is insufficient, highlighting the need for increased marketing and outreach efforts to attract more prospective tenants.
+Comps: The comps generated 7 traffic pieces in the last 7 days, which is higher than Abacus West but still below what is needed. The comps require about 21 traffic pieces per week to reach their performance targets, indicating that they also need to increase traffic to support leasing efforts.
+Leases in the Last 7 Days:
+Abacus West: The property secured 2 leases in the last 7 days, with a historical closing ratio of 0.39, meaning it converts 39% of its traffic into leases. To achieve a 6% ATR, Abacus West needs to secure approximately 4 leases per week. The current leasing pace is below what is required, suggesting the need for strategies to boost lease signings and reduce available inventory.
+Comps: The comps secured 3 leases in the last 7 days, with a similar closing ratio of 0.40. To meet their ATR targets, the comps need to secure about 8 leases per week. Although their current pace is also below target, their historical performance indicates a slightly better ability to convert traffic into leases compared to Abacus West.
+Overall Analysis
+Abacus West is facing significant challenges with maintaining revenue and managing available inventory. The high ATR % and declining RevPau and NER suggest that the property is struggling with excess supply and competitive pressures. To improve performance, Abacus West needs to increase both traffic and lease conversions. Aggressive marketing and competitive pricing strategies may be necessary to attract more tenants and reduce the available units.
+The comps are also dealing with high availability, as indicated by their elevated ATR %, but they have been more successful in maintaining rent levels and revenue growth. Both Abacus West and its comps need to focus on driving more traffic and securing additional leases to reduce their ATR %, but Abacus West's situation is more urgent due to its larger drop in revenue.</t>
+  </si>
+  <si>
+    <t>The Ascent at Top of the Hill Analysis
+Current Performance Analysis
+The Ascent at Top of the Hill, a stabilized property with 261 units, is maintaining a strong occupancy rate of 96.9%, which has increased by 3.2%. However, the property’s Revenue Per Available Unit (RevPau) is $2,152, showing a slight decline of 0.2%. This decline in RevPau is primarily driven by a 3.3% decrease in Net Effective Rent (NER) to $2,221, which suggests that the property has had to lower rents slightly to maintain its high occupancy.
+In comparison, the comps, averaging 258 units, have a lower occupancy rate of 91.2%, which has increased by 5.2%. Their RevPau stands at $1,935, reflecting an increase of 4.0%, while their NER is $2,123, down by 1.2%. The comps are seeing revenue growth driven by higher occupancy, even though they, too, have been reducing rent slightly. The Ascent is performing well in terms of occupancy but is facing challenges in rent growth, similar to its comps.
+Leading Indicators
+ATR % Analysis:
+The Ascent at Top of the Hill: The Availability to Rent (ATR) percentage is currently at 4.2%, which is within a healthy range, indicating strong demand for the units. The slight decrease in ATR % suggests that the property is effectively leasing its available units, although the minor rent concessions may have played a role in maintaining this rate. Generally, an ATR % under 6% is considered healthy, so The Ascent is in a favorable position.
+Comps: The comps have a higher ATR % at 8.3%, which indicates a larger supply of available units. The increasing ATR % suggests that the comps are struggling more with availability, despite higher leasing activity. This higher ATR % can be a sign of over-supply or slower lease-up, which might require more aggressive leasing strategies.
+Traffic in the Last Week:
+The Ascent at Top of the Hill: Traffic in the last week was 4, which is below the ideal level needed to support leasing goals. The property needs about 7 traffic pieces per week to maintain its current ATR % and high occupancy. Increasing traffic should be a priority to ensure continued leasing success.
+Comps: The comps recorded 6 traffic pieces in the last week, which is closer to their target. However, they need around 9 traffic pieces per week to meet their leasing targets and reduce their higher ATR %. This indicates that the comps are managing well but need to boost traffic further to lower their available inventory.
+Leases in the Last Week:
+The Ascent at Top of the Hill: The property secured 5 leases in the last week, with a strong historical closing ratio of 0.46. This means that The Ascent converts nearly 46% of its traffic into leases, which is excellent. To maintain its current ATR % and occupancy, the property needs to continue securing about 3 leases per week.
+Comps: The comps secured 3 leases in the last week, with a higher closing ratio of 0.62, indicating they convert 62% of their traffic into leases. Despite the smaller number of leases, their higher efficiency in closing deals helps them maintain their performance. The comps need to secure approximately 5 leases per week to continue reducing their ATR %.
+Overall Analysis
+The Ascent at Top of the Hill is performing well with high occupancy and a strong closing ratio, though it faces challenges in maintaining rent growth. The focus should be on increasing traffic to continue leasing effectively and possibly stabilizing rent levels to improve RevPau.
+The comps are showing strong leasing efficiency, with a higher closing ratio but are facing challenges with a higher ATR % and the need to generate more traffic. Both properties should continue to focus on leasing and traffic generation, but The Ascent has the advantage with lower ATR % and higher occupancy.</t>
+  </si>
+  <si>
+    <t>Elle at The Medical Center Analysis
+Current Performance Analysis
+Elle at The Medical Center, a stabilized property with 212 units, has an occupancy rate of 94.8%, which has increased by 2.5 percentage points. The property’s Revenue Per Available Unit (RevPau) is $1,801, a decrease of 1.4%, driven by a 3.8% decline in Net Effective Rent (NER) to $1,900. This indicates that the property is maintaining occupancy by reducing rent, but this is negatively impacting overall revenue.
+In comparison, the comps, with an average of 259 units, have a lower occupancy rate of 88.9%, which has increased by 0.6 percentage points. Their RevPau stands at $1,194, showing a modest increase of 0.5%, while their NER has decreased slightly by 0.3% to $1,338. The comps are showing some revenue growth mainly through stable occupancy, even as rents soften slightly.
+Leading Indicators
+ATR % Analysis:
+Elle at The Medical Center: The Availability to Rent (ATR) percentage is currently at 6.6%, which is slightly above the desired range of 5% or lower. The upward trend, with a slope of 0.38, suggests that the property is seeing increasing available inventory. This indicates potential oversupply, and management should work to bring this percentage down by signing more leases.
+Comps: The comps have an ATR % of 7.4%, which is also above the ideal range. However, the slight decrease in ATR % indicates that they are managing to lease units, although their available inventory remains higher than optimal. Management should continue to focus on reducing this further to avoid potential vacancies.
+Traffic in the Last 7 Days:
+Elle at The Medical Center: The property recorded 4 traffic pieces in the last 7 days, which is below what is needed to meet leasing goals. The negative trend, with a slope of -1.3, suggests declining interest, and the property needs approximately 9 traffic pieces per week to meet its leasing targets. Efforts should focus on improving marketing and outreach to attract more potential tenants.
+Comps: The comps recorded 15 traffic pieces in the last 7 days, with a positive trend (slope of 1.42), indicating increasing interest. Although their traffic level is above what is needed to maintain their current performance, continued focus on attracting new prospects will help maintain occupancy and reduce their ATR %.
+Leases in the Last 7 Days:
+Elle at The Medical Center: The property secured 1 lease in the last 7 days. The negative trend, with a slope of -0.7, highlights a decline in leasing activity. With a closing ratio of 0.26, the property converts 26% of interested prospects into leases. To meet its goals, Elle at The Medical Center needs approximately 3 leases per week, and efforts should focus on improving leasing performance and closing more leases.
+Comps: The comps secured 5 leases in the last 7 days, with an upward trend (slope of 0.45). Their higher closing ratio of 0.4 (40%) reflects stronger leasing effectiveness. The comps need about 5 leases per week to maintain their current ATR %, and they are meeting this target, suggesting effective leasing strategies.
+Overall Analysis
+Elle at The Medical Center is facing challenges with declining revenue due to rent reductions, despite maintaining strong occupancy. The increasing ATR % and declining traffic are concerns, indicating that the property needs to enhance its marketing efforts to attract more prospects and convert them into leases. The low closing ratio further emphasizes the need for improved leasing strategies.
+The comps are performing better in terms of leasing activity and have a higher traffic volume, which supports their occupancy and revenue. However, their higher ATR % indicates room for improvement, and reducing this percentage should be a priority. Overall, Elle at The Medical Center should focus on boosting traffic and lease conversions to remain competitive and improve its market position.</t>
+  </si>
+  <si>
+    <t>The Qs at Towne Oaks Analysis
+Current Performance Analysis
+The Qs at Towne Oaks, a stabilized property with 240 units, currently has an occupancy rate of 92.1%, which has decreased by 0.9%. The property’s Revenue Per Available Unit (RevPau) is $1,073, reflecting a significant increase of 7.0%, driven by a 7.9% increase in Net Effective Rent (NER) to $1,165. This indicates strong revenue performance, primarily due to effective rent growth.
+In comparison, the comps, averaging 244 units, have a higher occupancy rate at 94.2%, which has increased by 1.1%. Their RevPau stands at $935, with a lower increase of 2.3%, and their NER is $994, up by 1.4%. The comps show moderate revenue growth, with a stronger focus on maintaining occupancy.
+Leading Indicators
+ATR % Analysis:
+The Qs at Towne Oaks: The current Availability to Rent (ATR) % is 10.8%, which is higher than the typical target range, indicating an oversupply of available units. Though the ATR % is slightly decreasing, it remains high, suggesting that more aggressive leasing efforts are needed to bring it down to a healthier level, ideally below 6%.
+Comps: The comps have a lower ATR % at 7.0%, which is nearing the optimal range but still slightly elevated. The slight decrease in ATR % indicates that the comps are leasing units effectively, but continued efforts are needed to maintain this trend.
+Traffic in the Last 7 Days:
+The Qs at Towne Oaks: The property recorded 2 pieces of traffic in the last 7 days, which is low. To achieve optimal leasing performance and reduce the ATR %, the property needs approximately 7 traffic pieces per week. The current traffic level is insufficient, and efforts should be focused on increasing marketing activities to drive more prospective tenants.
+Comps: The comps saw 10 traffic pieces in the last 7 days, which is higher than The Qs at Towne Oaks. They need about 5 traffic pieces per week to meet their leasing goals, indicating that the comps are attracting adequate interest and are well-positioned to maintain or improve occupancy.
+Leases in the Last 7 Days:
+The Qs at Towne Oaks: The property signed 1 lease in the last 7 days, which is below the target. To achieve a 6% ATR, The Qs at Towne Oaks needs to secure approximately 4 leases per week. The historical closing ratio is 0.6, meaning that 60% of traffic results in a signed lease. Improving traffic levels will be crucial to meet leasing targets and reduce the ATR %.
+Comps: The comps signed 3 leases in the last 7 days, which aligns with their target. Their historical closing ratio is slightly higher at 0.69, meaning they convert 69% of traffic into leases. The comps need about 3 leases per week to maintain their occupancy, which they are currently achieving.
+Overall Analysis
+The Qs at Towne Oaks is experiencing strong rent growth, but the high ATR % and low traffic levels are major concerns. The property needs to focus on increasing traffic and securing more leases to reduce the ATR % and improve occupancy. The high closing ratio is a positive sign, but without sufficient traffic, it will be challenging to meet leasing goals.
+The comps are performing well with moderate rent growth and higher occupancy. Their ATR % is approaching a healthy range, and their strong closing ratio suggests effective leasing strategies. The comps need to maintain their current traffic and leasing performance to continue their positive momentum.
+To improve performance, The Qs at Towne Oaks should prioritize marketing and outreach efforts to boost traffic and reduce the ATR %. With the right strategies in place, the property can work towards stabilizing occupancy and achieving its revenue goals.</t>
+  </si>
+  <si>
+    <t>The Village on Riverwalk Analysis
+Current Performance Analysis
+The Village on Riverwalk, a stabilized property with 700 units, is experiencing an occupancy rate of 79.7%, which has increased by 1 percentage point. The property’s Revenue Per Available Unit (RevPau) is $841, showing a significant growth of 17.6%, driven by a 16.4% increase in Net Effective Rent (NER) to $1,055. This indicates strong revenue growth, primarily due to aggressive rent increases despite relatively low occupancy.
+In comparison, the comps, with an average of 433 units, have a higher occupancy rate of 85.6%, remaining flat. Their RevPau is $1,000, reflecting a more modest increase of 3.1%, and their NER is $1,165, also up by 3.1%. The comps are maintaining steady revenue growth with higher occupancy but lower rent growth compared to The Village on Riverwalk.
+Leading Indicators
+ATR % Analysis:
+The Village on Riverwalk: The Availability to Rent (ATR) percentage is currently at 26%, which is extremely high. An ATR above 6% can indicate potential oversupply and can negatively impact leasing performance. Although the ATR has only slightly increased, it remains a significant concern. The property needs to focus on reducing this percentage to a healthier range to avoid prolonged periods of high vacancy and potential revenue loss.
+Comps: The comps have a much lower ATR % at 4.9%, which is within the healthy range. This low ATR % suggests that the comps are managing their inventory well, with strong leasing activity keeping availability in check. This positions them favorably compared to The Village on Riverwalk.
+Traffic in the Last 7 Days:
+The Village on Riverwalk: The property generated 23 traffic units in the last 7 days, showing a solid increase. However, to achieve its target of reducing the ATR to 6%, the property needs to generate approximately 48 traffic units per week. The current level is insufficient, indicating a need for increased marketing efforts to drive more prospective tenants to the property.
+Comps: The comps recorded 8 traffic units in the last 7 days, with a slight decline. They require about 13 traffic units per week to maintain their current ATR %, suggesting that their current traffic levels are close to what is needed, but they should aim to stabilize and potentially increase traffic to sustain performance.
+Leases in the Last 7 Days:
+The Village on Riverwalk: The property secured 10 leases in the last 7 days, showing a positive leasing trend. With a high historical closing ratio of 0.53, The Village on Riverwalk is converting over half of its traffic into leases. However, to bring the ATR % down to a healthy level, the property needs to secure approximately 26 leases per week. This gap indicates that while the property is doing well in converting traffic, it must significantly increase its leasing volume.
+Comps: The comps secured 5 leases in the last 7 days, with a closing ratio of 0.41, indicating that they convert about 41% of their traffic into leases. They need approximately 5-6 leases per week to maintain their current ATR %, which aligns well with their recent performance, showing that they are effectively managing their leasing activity.
+Overall Analysis
+The Village on Riverwalk is experiencing strong rent growth and has improved its occupancy, but the extremely high ATR % is a significant concern. The property needs to drive more traffic and substantially increase its leasing activity to reduce the ATR % and avoid potential revenue challenges. Despite a strong closing ratio, the current leasing volume is insufficient to address the high availability of units.
+The comps, with lower occupancy, are maintaining steady revenue growth and have a much healthier ATR %. Their more balanced approach to rent and occupancy allows them to remain competitive, though they should focus on stabilizing and slightly increasing traffic to continue supporting their leasing activity.</t>
+  </si>
+  <si>
+    <t>Dakota Ridge Apartment Analysis
+Current Performance Analysis
+Dakota Ridge Apartment, a stabilized property with 272 units, is maintaining a high occupancy rate of 97.1%, which has remained stable. The property’s Revenue Per Available Unit (RevPau) is $1,322, which has declined by 2.6%. This decline in RevPau is directly tied to a 2.6% drop in Net Effective Rent (NER) to $1,361, suggesting some rent sensitivity and potential challenges in maintaining rental income.
+In comparison, the comps, with an average of 285 units, have a lower occupancy rate at 94.2%, which has decreased by 0.9 percentage points. Their RevPau is $1,200, down by 6.1%, and their NER is $1,274, down by 5.2%. The comps are experiencing a more significant decline in both RevPau and NER, indicating greater rent sensitivity and challenges in the current market.
+Leading Indicators
+ATR % Analysis:
+- Dakota Ridge Apartment: The Availability To Rent (ATR) percentage is 5.9%, which is slightly above the ideal range but still manageable. The slight increase in ATR % suggests that units are not being leased as quickly as desired, which could put pressure on occupancy if not addressed. An ATR % around 6% is generally considered healthy, but further increases should be closely monitored.
+- Comps: The comps have an ATR % of 5.5%, which is similar to Dakota Ridge but slightly lower, indicating a healthier balance of supply and demand. However, the slight increase in ATR % for the comps suggests they are facing similar challenges in leasing units.
+Traffic in the Last 7 Days:
+- Dakota Ridge Apartment: The property recorded 7 traffic pieces in the last 7 days, which is an increase. This level of traffic is adequate to meet the current leasing goals, but continued efforts to maintain or increase traffic will be important to ensure that occupancy remains stable.
+- Comps: The comps recorded 7 traffic pieces in the last 7 days, showing a slight decline. While their traffic is similar to Dakota Ridge, the comps need to continue generating sufficient interest to avoid further occupancy declines.
+Leases in the Last 7 Days:
+- Dakota Ridge Apartment: The property secured 1 lease in the last 7 days, which is stable. With a closing ratio of 0.64, Dakota Ridge is converting a high percentage of its traffic into leases. The property needs approximately 2 to 3 leases per week to maintain its current occupancy and control ATR, indicating that current leasing efforts are on track.
+- Comps: The comps secured 3 leases in the last 7 days, with a closing ratio of 0.48. They need about 3 to 4 leases per week to manage their ATR, which they are achieving. However, the lower closing ratio compared to Dakota Ridge suggests that the comps may need to focus on improving their lease conversions to maintain occupancy.
+Overall Analysis
+Dakota Ridge Apartment is performing well in terms of occupancy, but the decline in both RevPau and NER indicates some rent sensitivity that needs to be addressed. The property is maintaining a strong closing ratio and generating enough traffic to meet its leasing goals, but careful management of rent pricing and continued efforts to attract and convert traffic will be critical to sustaining occupancy and revenue.
+The comps, while facing similar challenges with declining RevPau and NER, have a slightly better ATR % but a lower closing ratio. Both Dakota Ridge and its comps need to focus on maintaining traffic and improving lease conversions to stabilize their performance, but Dakota Ridge's stronger closing ratio gives it a slight advantage in converting interest into actual leases.</t>
+  </si>
+  <si>
+    <t>Summit on Quality Hill Apartments Analysis
+Current Performance Analysis
+Summit on Quality Hill Apartments, a stabilized property with 252 units, is experiencing some challenges in its current performance. Occupancy stands at 94.4%, down by 0.8%. The Revenue Per Available Unit (RevPau) is $1,840, reflecting a significant decline of 6.4%, driven by a 5.5% drop in Net Effective Rent (NER) to $1,950. These declines suggest a market experiencing rent concessions and lower demand, impacting overall revenue.
+In comparison, the comps, averaging 207 units, have an occupancy rate of 94.0%, slightly lower by 0.4%. Their RevPau is $1,777, which has decreased by 1.3%, and their NER is $1,894, down by 1.0%. While the comps are also facing declines, their performance is somewhat more stable than Summit on Quality Hill Apartments, with smaller reductions in both RevPau and NER.
+Leading Indicators
+ATR % Analysis:
+Summit on Quality Hill Apartments: The Availability to Rent (ATR) percentage is at 9.5%, which is higher than the ideal range, indicating an oversupply of available units. The slight increase in ATR % is concerning, as it suggests that demand has not kept pace with supply, leading to increased vacancy risks.
+Comps: The comps have a slightly lower ATR % at 7.0%, which, although better than Summit on Quality Hill Apartments, is still above the optimal range. The increasing ATR % in the comps also points to rising availability, but they are in a slightly better position in managing their inventory.
+Traffic in the Last 7 Days:
+Summit on Quality Hill Apartments: The property recorded 3 traffic pieces in the last 7 days, with a flat trend. This level of traffic is low and insufficient to drive the necessary leasing activity. To achieve optimal performance, Summit on Quality Hill Apartments needs to generate approximately 19 traffic pieces per week, indicating a significant shortfall.
+Comps: The comps recorded 6 traffic pieces in the last 7 days, with a slight upward trend. This level of traffic is healthier and closer to their needs. The comps require about 7 traffic pieces per week to meet their leasing goals, suggesting they are better positioned to maintain occupancy levels.
+Leases in the Last 7 Days:
+Summit on Quality Hill Apartments: The property did not secure any new leases in the last 7 days, with a slight positive trend. The historical closing ratio is 0.26, meaning that 26% of traffic converts into leases, but current performance is inadequate. Summit on Quality Hill Apartments needs approximately 5 leases per week to stabilize occupancy, highlighting a pressing need to improve leasing activity.
+Comps: The comps secured 2 leases in the last 7 days, with a slight decline. However, they maintain a strong historical closing ratio of 0.5, converting 50% of their traffic into leases. The comps need about 3 leases per week to meet their targets, indicating more efficient leasing operations.
+Overall Analysis
+Summit on Quality Hill Apartments is facing significant challenges with declining occupancy, RevPau, and NER, coupled with a high and rising ATR %. The low traffic and lease conversion rates further exacerbate the situation, indicating a need for aggressive marketing and leasing strategies to boost demand and reduce vacancies.
+The comps, while also experiencing some declines, are in a better position with a lower ATR %, higher traffic, and better lease conversion rates. However, both Summit on Quality Hill Apartments and the comps are operating in a challenging market environment, and careful monitoring and strategic adjustments will be necessary to improve performance.</t>
+  </si>
+  <si>
+    <t>The Yards Analysis
+Current Performance Analysis
+The Yards, a stabilized property with 230 units, maintains an occupancy rate of 93.9%, which has increased by 1.8 percentage points. The property’s Revenue Per Available Unit (RevPau) stands at $1,268, reflecting a 2.0% increase, driven primarily by a slight 0.1% increase in Net Effective Rent (NER) to $1,350. This indicates solid revenue growth, supported by both rising rents and increased occupancy.
+In comparison, the comps, averaging 286 units, have a similar occupancy rate of 94.0%, which has decreased by 0.7 percentage points. Their RevPau is $1,633, showing a decline of 2.4%, and their NER is $1,735, down by 1.8%. The comps are experiencing a decline in both rent and revenue, which contrasts with the positive performance of The Yards.
+Leading Indicators
+ATR % Analysis:
+The Yards: The Availability to Rent (ATR) percentage is currently at 6.1%, which is slightly above optimal levels but still manageable. The slight decrease in ATR % is a positive sign, indicating some success in leasing activity, though there is still room for improvement to bring it below the 6% target, which is generally considered healthy. A continued focus on leasing will be necessary to maintain this trajectory.
+Comps: The comps have a lower ATR % at 4.1%, which is within a healthy range. The decrease in their ATR % suggests they are effectively leasing units, although their occupancy has slightly declined. The comps are in a better position with their lower ATR %, but ongoing efforts will be needed to sustain this.
+Traffic in the Last 7 Days:
+The Yards: The property recorded 6 traffic pieces in the last week, which is a decline. To meet its leasing goals and bring the ATR % down to the target level, The Yards needs to generate approximately 12 traffic pieces per week. The current traffic level is insufficient, suggesting a need for increased marketing and outreach to attract more prospective tenants.
+Comps: The comps recorded 8 traffic pieces in the last week, showing a slight increase. This level of traffic is closer to their target of 10 traffic pieces per week, indicating that they are better positioned to maintain their occupancy and leasing pace. The comps are more successful in driving the necessary traffic to support their leasing efforts.
+Leases in the Last 7 Days:
+The Yards: The property did not secure any new leases in the last week. With a historical closing ratio of 0.21, meaning about 21% of traffic results in a signed lease, The Yards needs to secure approximately 3 leases per week to meet its target ATR. The lack of recent leases, coupled with insufficient traffic, underscores the need for improved lease conversion strategies.
+Comps: The comps secured approximately 2 leases in the last week, with a higher historical closing ratio of 0.36, indicating that 36% of their traffic converts to leases. They need about 4 leases per week to maintain their current ATR %, putting them in a better position than The Yards in terms of leasing performance.
+Overall Analysis
+The Yards is showing positive trends in occupancy and revenue, but its higher ATR % and declining traffic are areas of concern. To maintain its momentum and reduce the ATR %, The Yards needs to significantly increase both traffic and lease conversions. The current leasing efforts are not sufficient, and the property must focus on drawing more prospective tenants and improving its closing ratio.
+The comps, while facing declines in rent and revenue, are better positioned with a lower ATR % and a more effective conversion rate. Their ability to attract more traffic and convert it into leases gives them a competitive edge over The Yards. To remain competitive, The Yards must address these challenges by boosting traffic and improving lease conversion rates.</t>
+  </si>
+  <si>
+    <t>AVIA Apartments at 110th Street Analysis
+Current Performance Analysis
+AVIA Apartments at 110th Street, a stabilized property with 112 units, is performing strongly with an occupancy rate of 98.2%, up by 2.8 percentage points. The property’s Revenue Per Available Unit (RevPau) is $1,096, reflecting a solid increase of 4.7%. This growth in RevPau is supported by a 1.8% increase in Net Effective Rent (NER) to $1,116, indicating strong rent management alongside high occupancy.
+In comparison, the comps, which average 352 units, have a lower occupancy rate at 93.9%, down by 1.4 percentage points. Their RevPau is $1,387, which has decreased by 1.3%, and their NER is stable at $1,476. The comps are experiencing slight challenges, as indicated by declining RevPau and occupancy, despite stable rents.
+Leading Indicators
+ATR % Analysis:
+AVIA Apartments: The Availability to Rent (ATR) percentage is currently at 7.1%, which is above the optimal range, indicating that more units are available than the market typically prefers. The slight increase in ATR % suggests a need to focus on leasing to reduce the number of available units. Ideally, the ATR % should be below 6% to indicate a balanced market. The property's ATR % increase calls for attention to leasing strategies to maintain strong occupancy.
+Comps: The comps have a much lower ATR % at 0.9%, which is within the optimal range, indicating a well-balanced market with strong leasing activity. The slight increase in ATR % suggests a minor uptick in available units, but it remains well within healthy levels.
 Traffic Over the Last 7 Days:
-Plaza Townhomes at The Medical Center: The property has not recorded any traffic in the last 7 days, which is concerning and may explain the lack of new leases. To maintain or improve performance, it is crucial for the property to generate traffic and attract prospective tenants. Plaza Townhomes needs to generate approximately 8 traffic pieces per week to effectively support leasing efforts, which is significantly higher than the current level. Without traffic, lease-up and occupancy targets are at risk.
-Comps: The comps are performing stronger in terms of securing traffic, with 15 traffic pieces in the last 7 days. While this is higher than Plaza Townhomes, the comps still need to generate approximately 13 traffic pieces per week to maintain their leasing pace. The comps are slightly closer to meeting this target, but they also need to sustain or improve traffic levels to continue driving leasing activity.
+AVIA Apartments: The property recorded no traffic in the last 7 days, which is a significant concern. To maintain optimal performance and achieve a 6% ATR, AVIA Apartments needs to generate approximately 4 traffic pieces per week. The lack of traffic suggests a need for increased marketing and outreach efforts to attract more prospective tenants.
+Comps: The comps recorded 3 traffic pieces in the last 7 days, which is slightly below their needs but still contributing to their leasing efforts. They need about 3 traffic pieces per week to maintain their current performance, which they are close to achieving.
 Leases Over the Last 7 Days:
-Plaza Townhomes at The Medical Center: No new leases were signed in the last 7 days. The historical closing ratio for the property is 12%, meaning that approximately 12% of the traffic typically converts into leases. However, with no current traffic, the property cannot secure new leases. To maintain a healthy leasing pace and reduce the ATR %, Plaza Townhomes needs to secure approximately 1 lease per week. Improving both traffic and the closing ratio are necessary to avoid further declines in occupancy and revenue.
-Comps: The comps are securing 5 leases per week, demonstrating a stronger performance with an impressive closing ratio of 40%. The comps are in a better position to convert traffic into leases, but they still need to generate additional traffic to meet their leasing targets.
-Overall Analysis
-Plaza Townhomes at The Medical Center is facing challenges with high availability, no traffic, and a declined occupancy rate. The property must focus on improving its marketing and outreach efforts to boost traffic and lease conversions. The high ATR % is a red flag, and immediate action is needed to reduce this percentage to a healthier level.
-The comps, while showing better performance with lower ATR % and a higher closing ratio, need to continue driving traffic to sustain their leasing pace and avoid rent stagnation. Both Plaza Townhomes and its comps are in competitive market conditions, and consistent efforts to attract and convert tenants will be essential for maintaining or improving occupancy and revenue.</t>
-  </si>
-  <si>
-    <t>4th and Race Analysis
-Current Performance Analysis
-4th and Race, a stabilized property with 264 units, is experiencing a decline in occupancy, currently at 95.1%, down by 2.4 percentage points. The property’s Revenue Per Available Unit (RevPau) stands at $2,301, reflecting a decrease of 7.0%. This decline in RevPau is primarily driven by a 4.7% reduction in Net Effective Rent (NER) to $2,419. The significant drop in NER suggests that rent reductions may be necessary to maintain occupancy levels.
-In comparison, the comps, averaging 250 units, are at a lower occupancy of 91.1%, which has increased by 1.6 percentage points. The comps’ RevPau is $1,930, down by 1.0%, and their NER is $2,111, down by 2.6%. While the comps have a lower occupancy rate, their RevPau and NER declines are less severe than those at 4th and Race, indicating perhaps more stable market conditions. However, all properties in this segment are facing challenges in rent and occupancy, likely due to broader market factors.
-Leading Indicators
-ATR % Analysis:
-4th and Race: The Availability to Rent (ATR) percentage is at 9.1%, which has increased slightly. This ATR % is above the preferred range, indicating that there is still a significant amount of inventory available. An ATR % below 6% is generally preferred for stabilized assets. The increasing ATR % suggests that despite continued leasing efforts, there is a need to increase both traffic and conversions to reduce available inventory and stabilize the property.
-Comps: The comps have a slightly higher ATR % at 10.3%, which is also above the ideal range. The comps’ ATR % is increasing, suggesting that they are struggling to lease inventory effectively. Both 4th and Race and the comps need to focus on reducing their ATR % to improve market positioning and avoid further rent concessions.
+AVIA Apartments: The property recorded no new leases in the last 7 days. To achieve a 6% ATR, AVIA Apartments needs to secure approximately 1 lease per week. The historical closing ratio is 0.22, meaning the property converts 22% of its traffic into leases. The current lack of new leases highlights a critical need to boost traffic and improve lease conversion rates.
+Comps: The comps secured 1 lease in the last 7 days, with a historical closing ratio of 0.34, indicating they convert 34% of their traffic into leases. Despite a slight decline in leasing activity, the comps are performing adequately and need approximately 1 lease per week to maintain their performance.
+Overall Analysis
+AVIA Apartments at 110th Street is performing well in terms of occupancy and revenue growth, but the high ATR % and lack of recent traffic and leasing activity indicate potential challenges. The property must focus on increasing traffic and improving lease conversion to maintain its strong performance and reduce the number of available units. Strategies to boost marketing and outreach will be crucial to driving more interest and securing leases.
+The comps, while facing slight declines in occupancy and RevPau, maintain a healthy ATR % and better lease conversion rates. Their ability to attract consistent traffic and secure leases, even with minor challenges, positions them more favorably in the market. AVIA Apartments needs to address its current leasing challenges to remain competitive against these comps.</t>
+  </si>
+  <si>
+    <t>Siena Villas Apartments Analysis
+Current Performance Analysis
+Siena Villas Apartments, a stabilized property with 81 units, maintains a high occupancy rate of 98.8%, up by 1.3%. The property’s Revenue Per Available Unit (RevPau) is $1,535, reflecting a substantial increase of 9%, driven by a 7.6% rise in Net Effective Rent (NER) to $1,554. This strong revenue growth indicates effective rent management and high tenant demand.
+In comparison, the comps, averaging 163 units, have a lower occupancy rate at 93.2%, up by 1.1%. Their RevPau stands at $1,435, showing an 8.7% increase, and their NER is $1,539, up by 7.6%. The comps are also experiencing revenue growth, supported by rent increases, but Siena Villas outperforms them in both RevPau and occupancy.
+Leading Indicators
+ATR % Analysis:
+Siena Villas Apartments: The Availability to Rent (ATR) % is currently at 2.5%, which is very healthy, indicating strong demand and low unit availability. This low ATR % suggests that Siena Villas is in a strong market position, with little risk of oversupply.
+Comps: The comps have a higher ATR % at 8.7%, which is above the ideal range and indicates a moderate level of available units. This could suggest some risk of oversupply if not managed carefully.
+Traffic in the Last 7 Days:
+Siena Villas Apartments: The traffic level is currently at 0, which is concerning. Despite this, the property needs only 2 traffic pieces per week to maintain optimal performance. The low current traffic level suggests a need for immediate action to boost interest and maintain leasing momentum.
+Comps: The comps recorded 2 traffic pieces in the last week. They need 4 traffic pieces per week to achieve their leasing goals, indicating they are slightly below target and need to attract more visitors to sustain their performance.
+Leases in the Last 7 Days:
+Siena Villas Apartments: The property secured 1 lease in the last week, which is in line with its needs. With a high historical closing ratio of 0.59, Siena Villas efficiently converts inquiries into leases. To maintain its current ATR %, the property needs less than 1 lease per week. Continued focus on maintaining this strong conversion rate will be key.
+Comps: The comps secured less than 1 lease per week, which meets their current needs but is slightly behind the target required to reduce their ATR %. Their closing ratio is 0.52, which is solid but lower than that of Siena Villas. The comps need nearly 2 leases per week to maintain their current ATR %, suggesting they must focus on improving traffic and lease conversions.
+Overall Analysis
+Siena Villas Apartments is performing very well, with high occupancy, strong revenue growth, and an excellent closing ratio. The primary concern is the lack of traffic, which needs to be addressed to sustain performance. The low ATR % indicates a favorable market position with strong tenant demand.
+The comps, while showing positive revenue growth, face higher ATR % and lower traffic levels, which may pose challenges. Their lower closing ratio compared to Siena Villas suggests a need to improve lease conversions to remain competitive. Siena Villas is in a strong position but should focus on increasing traffic to maintain its lead.</t>
+  </si>
+  <si>
+    <t>The Village at Waxahachie Analysis
+Current Performance Analysis
+The Village at Waxahachie, a lease-up property with 225 units, is progressing well with an occupancy rate of 87.6%, up by 6.6 percentage points. The property’s Revenue Per Available Unit (RevPau) is $1,292, reflecting a strong increase of 7.8%, driven by a 1.1% rise in Net Effective Rent (NER) to $1,474. This indicates that the property is successfully attracting tenants and improving revenue as it continues to lease up.
+In comparison, the comps, averaging 167 units, have a lower occupancy rate at 75.8%, up by 3.3 percentage points. Their RevPau is $1,161, showing a modest increase of 2.1%, while their NER is $1,498, which has decreased by 0.8%. The comps are struggling with lower occupancy and declining rents, indicating a more challenging leasing environment compared to The Village at Waxahachie.
+Leading Indicators
+ATR % Analysis:
+The Village at Waxahachie: The Availability to Rent (ATR) percentage is currently at 6.2%, which is within a healthy range, indicating a balanced supply and demand situation. The slight decrease in ATR % is a positive sign, suggesting that units are being absorbed efficiently.
+Comps: The comps have a much higher ATR % at 23.75%, which is significantly above the healthy range and indicates an oversupply of available units. The slight increase in their ATR % further suggests that they are struggling to lease units, exacerbating their challenges.
+Traffic in the Last 7 Days:
+The Village at Waxahachie: The property recorded 18 traffic pieces in the last 7 days, showing a significant increase. This high level of traffic is a strong indicator of market interest and is essential for maintaining leasing momentum. To meet leasing targets, the property needs to generate about 9 traffic pieces per week, which it is currently exceeding, indicating a strong market presence.
+Comps: The comps recorded 5 traffic pieces in the last 7 days, with a slight decline. This lower level of traffic indicates waning interest, which, coupled with their high ATR %, suggests that these properties are not attracting enough prospects to maintain healthy leasing activity.
+Leases in the Last 7 Days:
+The Village at Waxahachie: The property secured 6 leases in the last 7 days, with a historical closing ratio of 0.92, meaning it converts nearly all of its traffic into leases. This is an extremely high conversion rate, contributing significantly to the property’s successful lease-up phase. To achieve optimal performance, the property needs about 8 leases per week, which it is currently very close to achieving.
+Comps: The comps recorded a negative leasing number, effectively showing a loss in leases, with a past closing ratio of 1.0. This suggests that although they convert all of their traffic into leases, the comps are still losing ground, likely due to higher move-outs or lease cancellations. They need about 12 leases per week to maintain a 6% ATR, which is currently not being met.
+Overall Analysis
+The Village at Waxahachie is performing well in its lease-up phase, with strong occupancy growth, RevPau increases, and an exceptionally high closing ratio. The property is effectively managing its available inventory, as reflected in the healthy ATR %, and is generating more than enough traffic to meet its leasing goals. Continuing to focus on maintaining traffic levels and lease conversions will be key to sustaining this positive trajectory.
+The comps, on the other hand, face significant challenges with a much higher ATR %, declining traffic, and a decrease in NER. These properties need to focus on reducing their available inventory and boosting traffic to improve their leasing performance. The high ATR % and negative leasing numbers indicate that the comps may be in a more distressed state, requiring aggressive marketing and potentially rent adjustments to stabilize.</t>
+  </si>
+  <si>
+    <t>The Bailey Analysis
+Current Performance Analysis
+The Bailey, a stabilized property with 345 units, is experiencing a slight decline in occupancy, now at 91%, down by 1.8%. Despite this, the property’s Revenue Per Available Unit (RevPau) has increased slightly to $1,147, reflecting a 0.3% growth. This modest RevPau growth is driven by a 2.3% increase in Net Effective Rent (NER) to $1,261, indicating that while occupancy is slipping, rent increases are helping to sustain revenue.
+In contrast, the comps, averaging 300 units, have a higher occupancy rate of 92.4%, up by 2.1%. Their RevPau is $1,330, down by 0.2%, primarily due to a 2.2% decrease in NER to $1,441. The comps are managing to maintain occupancy but are facing challenges with rent growth, resulting in a slight decline in RevPau.
+Leading Indicators
+ATR % Analysis:
+The Bailey: The Availability to Rent (ATR) percentage is currently 11.3%, which is quite high. This level of ATR indicates an oversupply of available units, suggesting some challenges in leasing. Ideally, an ATR below 6% is preferred, and anything above 10% can indicate potential trouble. The Bailey’s ATR % has been increasing, which is a concern. Immediate action is needed to reduce the ATR %, as it reflects too many available units and could lead to further occupancy and revenue declines if not addressed.
+Comps: The comps have a much healthier ATR % at 5.2%, which is within the optimal range. This lower ATR % indicates better control over available inventory and less leasing pressure. The slight decrease in their ATR % suggests they are effectively managing their available units, keeping their supply and demand balanced.
+Traffic in the Last 7 Days:
+The Bailey: The property recorded 14 traffic pieces in the last 7 days, but this is on a downward trend. To achieve optimal performance and reduce the ATR % to 6%, The Bailey needs approximately 26 traffic pieces per week. This indicates that the current level of traffic is insufficient, and increasing exposure or marketing efforts will be crucial to attract more prospective tenants.
+Comps: The comps recorded 8 traffic pieces in the last 7 days, which is also slightly declining. They need around 11 traffic pieces per week to maintain their current status, suggesting they are closer to where they need to be compared to The Bailey. Nonetheless, the comps should monitor this decline to ensure it doesn’t impact leasing rates.
+Leases in the Last 7 Days:
+The Bailey: The property secured 5 leases in the last 7 days, which reflects a positive leasing effort. However, with a current ATR % of 11.3%, The Bailey needs to secure approximately 7-8 leases per week to bring the ATR % down to the more manageable 6%. The historical closing ratio is 0.28, meaning they convert 28% of their traffic into leases. While this is a decent rate, increasing both traffic and lease conversions will be vital to reducing the ATR %.
+Comps: The comps secured 3 leases in the last 7 days, which is lower than The Bailey’s performance. However, with a lower ATR % and a historical closing ratio of 0.34, meaning they convert 34% of their traffic into leases, the comps are more efficient. They need about 4 leases per week to maintain their current ATR %, giving them a slight advantage in terms of leasing efficiency.
+Overall Analysis
+The Bailey is facing significant challenges with a high ATR % and declining occupancy. Although rent increases are helping to sustain revenue, the high availability of units and insufficient traffic are major concerns. The property must focus on driving more traffic and improving lease conversions to reduce the ATR % and prevent further revenue erosion.
+The comps, while dealing with declining rents, maintain a better occupancy rate and ATR %. Their more efficient leasing process and lower ATR % position them more favorably in the market. The Bailey will need to adopt aggressive strategies to boost traffic and lease more units to remain competitive and stabilize its performance.</t>
+  </si>
+  <si>
+    <t>Sterling Manor Apartments Analysis
+Current Performance Analysis
+Sterling Manor Apartments, a stabilized property with 207 units, is currently performing strongly with an occupancy rate of 97%, which has increased by 1.6 percentage points. The property’s Revenue Per Available Unit (RevPau) stands at $2,184, reflecting a significant increase of 21%. This impressive RevPau growth is driven by a 19.1% increase in Net Effective Rent (NER) to $2,249, indicating that Sterling Manor has been able to effectively raise rents while maintaining high occupancy.
+In comparison, the comps, with an average of 258 units, have a slightly lower occupancy rate of 96%, which has increased by 0.9 percentage points. The comps have a RevPau of $1,969, up 2.8%, and a NER of $2,050, up 1.9%. While the comps are experiencing modest growth in revenue and rents, Sterling Manor Apartments is outperforming them significantly in both RevPau and rent growth, suggesting a strong competitive position.
+Leading Indicators
+ATR % Analysis:
+Sterling Manor Apartments: The Availability to Rent (ATR) percentage is at 3.4%, which is well within a healthy range, indicating strong demand with limited available units. The decrease in ATR % suggests that Sterling Manor is successfully leasing units, further supporting its strong performance.
+Comps: The comps have a higher ATR % of 7.5%, which is above the optimal range and indicates a potential oversupply of available units. The slight increase in ATR % suggests that the comps might be experiencing some challenges in leasing units, which could pressure them to adjust rents or increase marketing efforts.
+Traffic in the Last 7 Days:
+Sterling Manor Apartments: The property recorded 4 traffic pieces in the last 7 days. Although this is relatively low, the high closing ratio of 0.44 indicates that Sterling Manor is efficient at converting interest into leases. To maintain optimal performance and support the current ATR %, the property needs to generate approximately 7 traffic pieces per week.
+Comps: The comps recorded 5 traffic pieces in the last 7 days, which is also modest. With a closing ratio of 0.42, similar to Sterling Manor, the comps are also fairly effective in converting traffic into leases. However, they need about 10 traffic pieces per week to maintain their current ATR %, suggesting they might need to increase traffic to meet leasing goals.
+Leases in the Last 7 Days:
+Sterling Manor Apartments: The property secured 1 lease in the last 7 days. With a historical closing ratio of 0.44, Sterling Manor converts 44% of its traffic into leases, which is strong. To continue reducing the ATR % and maintain its strong occupancy, the property needs to secure about 3 leases per week.
+Comps: The comps secured 2 leases in the last 7 days, with a slightly lower historical closing ratio of 0.42, meaning they convert 42% of their traffic into leases. The comps need to secure about 4 leases per week to maintain their current ATR %, which could be challenging given their current traffic levels.
+Overall Analysis
+Sterling Manor Apartments is performing exceptionally well, with strong occupancy, RevPau, and rent growth. The property’s low ATR %, high closing ratio, and ability to raise rents without losing occupancy indicate a well-balanced and competitive market position. However, increasing traffic slightly would help maintain this momentum and support leasing efforts.
+The comps, while also performing solidly, are facing higher ATR % and lower RevPau growth. They need to focus on increasing traffic and leases to continue their performance. Sterling Manor’s superior rent growth and efficient lease conversion give it a strong advantage in the current market, but ongoing vigilance in maintaining traffic and lease signing rates will be essential to sustain this success.</t>
+  </si>
+  <si>
+    <t>Grandea Crescent Park Analysis
+Current Performance
+Grandea Crescent Park, a stabilized property with 161 units, is currently experiencing a decline in occupancy, which has dropped to 91.3%, down by 1.7 percentage points. Despite this decrease in occupancy, the property has managed to increase its Revenue Per Available Unit (RevPau) to $1,398, a gain of 1.1%. This growth in RevPau is driven by a 3.0% increase in Net Effective Rent (NER) to $1,532, indicating that the property is successfully raising rents despite some vacancy challenges.
+In comparison, the comps, which average 305 units, have an identical occupancy rate of 91.3%, but they too are facing a decrease, down by 1.4 percentage points. Their RevPau stands slightly higher at $1,412, but it has declined by 2.1%, and their NER is $1,546, down by 0.7%. The comps are struggling with both rent and revenue declines, suggesting they are facing more significant market challenges than Grandea Crescent Park.
+Leading Indicators
+ATR % Analysis:
+Grandea Crescent Park: The Availability to Rent Percentage (ATR %) is at 9.9%, which is relatively high and indicates a significant amount of available inventory. Although the ATR % has slightly decreased, this level is still above the optimal range, suggesting an oversupply. Typically, an ATR % below 6% is considered healthy, so the property needs to focus on reducing this percentage to improve overall performance.
+Comps: The comps have a lower ATR % at 4.1%, which is within the optimal range, suggesting they have a better handle on their available inventory. However, this slight increase in ATR % indicates that the comps may also be facing some challenges in maintaining occupancy, although they are currently managing their supply well.
+Traffic in the Last 7 Days:
+Grandea Crescent Park: The property recorded no traffic in the last 7 days, which is a critical concern. To meet performance targets and achieve a 6% ATR, Grandea Crescent Park needs to generate approximately 4 traffic pieces per week. The lack of traffic suggests that immediate action is needed to boost interest and attract more prospective tenants.
+Comps: The comps recorded 9 traffic pieces in the last 7 days, showing a healthy level of interest. They need around 7 traffic pieces per week to maintain their target ATR, indicating that they are currently meeting their traffic requirements and effectively attracting potential tenants.
+Leases in the Last 7 Days:
+Grandea Crescent Park: The property did not secure any new leases in the last 7 days. With a historical closing ratio of 0.5, Grandea Crescent Park converts 50% of its traffic into leases. To achieve a 6% ATR, the property needs to secure approximately 2 leases per week. The absence of leases is concerning, and improvements in both traffic generation and lease conversion are necessary to stabilize performance.
+Comps: The comps secured 2 leases in the last 7 days, with a historical closing ratio of 0.3, meaning they convert 30% of their traffic into leases. They need about 2 leases per week to maintain their current target, suggesting that their current leasing efforts are adequate but could benefit from further optimization.
+Overall Analysis
+Grandea Crescent Park is facing significant challenges with high availability and a lack of traffic, which are impacting its ability to lease units and reduce the ATR %. The property’s ability to raise rents is a positive sign, but the high ATR % and zero recent leases indicate that more aggressive marketing and leasing strategies are needed to attract tenants and improve occupancy.
+The comps, while also dealing with some occupancy issues, are in a relatively stronger position with a lower ATR % and adequate traffic levels. However, their declining RevPau and NER suggest they should continue to focus on maintaining occupancy and rent levels. Grandea Crescent Park must prioritize traffic generation and lease conversions to effectively compete in this market environment.</t>
+  </si>
+  <si>
+    <t>Beach Club Apartment Homes Analysis
+Current Performance Analysis
+Beach Club Apartment Homes, a stabilized property with 200 units, has an occupancy rate of 91%, which has decreased by 2.7%. The property’s Revenue Per Available Unit (RevPau) is $1,365, reflecting a decline of 3.7%. This drop in RevPau is driven by a 1.1% decrease in Net Effective Rent (NER) to $1,500, contributing to the overall revenue decline. The property is facing challenges in maintaining occupancy and rental income, which is impacting its financial performance.
+In comparison, the comps, averaging 308 units, have a slightly higher occupancy rate of 92.4%, also down by 2.7%. Their RevPau is $1,346, showing a larger decline of 4.4%, and their NER is $1,455, down by 1.8%. The comps are experiencing similar struggles with occupancy and revenue, but Beach Club Apartment Homes is slightly outperforming the comps in terms of both RevPau and NER.
+Leading Indicators
+ATR % Analysis:
+Beach Club Apartment Homes: The Availability to Rent (ATR) percentage is currently at 6%, which is generally considered the upper limit of the healthy range. Although the slight increase indicates some stability, maintaining the ATR below 6% is crucial to prevent oversupply and ensure continued leasing strength.
+Comps: The comps have an ATR % of 6.0%, which is slightly higher than what is considered optimal. The slight upward trend suggests a potential for oversupply, which could pose risks if not managed carefully.
+Traffic in the Last 7 Days:
+Beach Club Apartment Homes: The property recorded 3 traffic pieces in the last 7 days, which is below the target needed to maintain current leasing performance. To achieve optimal results and sustain a 6% ATR, the property needs to generate approximately 4 traffic pieces per week. The current level indicates a need for increased marketing efforts to drive more prospective tenants to the property.
+Comps: The comps recorded 5 traffic pieces in the last 7 days and need about 18 traffic pieces per week to maintain a 6% ATR. The current traffic level is below this target, suggesting that both the comps and Beach Club Apartment Homes are facing challenges in attracting sufficient tenant interest.
+Leases in the Last 7 Days:
+Beach Club Apartment Homes: The property secured 1 lease in the last 7 days, with a historical closing ratio of 0.69, meaning it converts about 69% of traffic into leases. This high closing ratio is a strong point, but the low traffic volume is limiting the overall leasing performance. To maintain a 6% ATR, Beach Club Apartment Homes needs to secure approximately 3 leases per week, indicating that improvements in traffic and leasing are necessary.
+Comps: The comps also secured 1 lease in the last 7 days, with a much lower historical closing ratio of 0.13, meaning they convert only 13% of traffic into leases. The comps need approximately 2 leases per week to maintain a 6% ATR. The lower closing ratio highlights the need for the comps to improve their leasing efficiency, despite their slightly better traffic performance.
+Overall Analysis
+Beach Club Apartment Homes is currently facing challenges with both occupancy and revenue, as indicated by the declines in RevPau and NER. The property benefits from a strong historical closing ratio, but the low traffic levels are hindering overall leasing performance. To improve, the property should focus on increasing traffic while maintaining its high conversion rate to support occupancy and revenue growth.
+The comps are also struggling, with higher declines in RevPau and NER, and a lower closing ratio compared to Beach Club Apartment Homes. Both properties need to address the issue of low traffic and work on improving leasing efficiency. For Beach Club Apartment Homes, maintaining occupancy and boosting traffic will be key to enhancing performance, while the comps must focus on converting more of their traffic into leases to stabilize their operations.</t>
+  </si>
+  <si>
+    <t>Tiburon Analysis
+Current Performance Analysis
+Tiburon, a stabilized property with 320 units, currently has an occupancy rate of 88.1%, which has decreased by 1.4 percentage points. Its Revenue Per Available Unit (RevPau) is $1,130, showing a slight decline of 0.6%, despite a modest 0.8% increase in Net Effective Rent (NER) to $1,283. This indicates that the property is facing challenges in maintaining occupancy, likely affecting revenue, even though rent levels have slightly increased.
+In comparison, the comps, with an average of 269 units, have a higher occupancy rate of 93.9%, up by 0.3 percentage points. Their RevPau is $1,385, which is relatively stable with a slight increase of 0.1%. However, their NER has slightly decreased by 0.1% to $1,473. The comps are maintaining better occupancy and overall revenue performance, despite slight rent reductions, suggesting they are focusing on retaining tenants.
+Leading Indicators
+ATR % Analysis:
+Tiburon: The Availability to Rent (ATR) percentage is currently at 5.0%, which is within an acceptable range but could improve. The recent decrease in ATR % indicates that leasing activity is ongoing, but the property still has notable availability. Ideally, an ATR % of 6% or less is considered healthy, suggesting Tiburon should aim to reduce it further to boost occupancy.
+Comps: The comps have an ATR % of 6.9%, which is higher than Tiburon's but is gradually increasing. This level of availability is slightly elevated, and the comps should work to reduce it to prevent it from negatively impacting occupancy and rent growth.
+Traffic in the Last 7 Days:
+Tiburon: The property recorded 4 traffic visits in the last 7 days, with no change. To achieve its leasing goals and reduce the ATR %, Tiburon needs to generate about 7 traffic visits per week. Improving traffic numbers will be crucial to drive more leasing activity and boost occupancy.
+Comps: The comps recorded 14 traffic visits in the last 7 days, showing a moderate increase. They need about 14 traffic visits per week to meet their leasing targets, suggesting that they are successfully attracting interest and maintaining a steady flow of potential renters.
+Leases in the Last 7 Days:
+Tiburon: The property secured no new leases in the last 7 days, which is concerning. Tiburon needs approximately 5 leases per week to maintain its current ATR % and occupancy levels. The closing ratio is high at 0.68, indicating strong lease conversion when traffic is present, but the lack of traffic is limiting leasing success.
+Comps: The comps secured 3 leases in the last 7 days, with a closing ratio of 0.28. They need about 4 leases per week to maintain their current ATR %, which is more in line with their targets. The comps are effectively converting traffic into leases, though with a lower conversion rate than Tiburon.
+Overall Analysis
+Tiburon is facing challenges with declining occupancy and RevPau, despite slight rent increases. The property's ATR % is relatively low, but the lack of traffic and leasing activity is a significant concern. With a high closing ratio, Tiburon can convert interest into leases effectively, but it must focus on increasing traffic to improve overall performance. The goal should be to reduce the ATR %, boost occupancy, and stabilize revenue by attracting more prospective tenants.
+The comps, on the other hand, maintain higher occupancy and a stable RevPau, despite slight declines in NER. Their higher ATR % and steady traffic levels position them well to continue performing strongly. However, they need to monitor and manage their ATR % to prevent any further increase that could impact their market standing. Tiburon should aim to improve its competitive position by enhancing marketing efforts to increase traffic and lease conversions.</t>
+  </si>
+  <si>
+    <t>Avilla Oakridge Analysis
+Current Performance Analysis
+Avilla Oakridge, a stabilized property with 209 units, is experiencing some challenges. The occupancy rate is currently at 88%, which has decreased slightly by 0.6%. The property’s Revenue Per Available Unit (RevPau) is $1,411, reflecting a decline of 7.3%, primarily due to a 6.7% drop in Net Effective Rent (NER) to $1,603. These declines suggest that Avilla Oakridge is facing difficulties in maintaining both rent levels and occupancy, which are negatively impacting overall revenue performance.
+In comparison, the comps, averaging 280 units, have a higher occupancy rate at 90.5%, though it has decreased slightly by 0.1%. Their RevPau is $1,451, showing a modest increase of 1.0%, supported by a 0.8% rise in NER to $1,612. The comps are managing to sustain growth in both rent and revenue, albeit with a minor decline in occupancy.
+Leading Indicators
+ATR % Analysis:
+- Avilla Oakridge: The Availability to Rent (ATR) percentage is currently at 11.5%, which is a high level, indicating an oversupply of available units. Although the ATR % has decreased slightly, it remains significantly above the ideal range, suggesting that the property is struggling with high vacancy. This high ATR % could put further pressure on rent and occupancy if not addressed.
+- Comps: The comps have a lower ATR % at 8.7%, which, while also elevated, is in a better range than Avilla Oakridge’s. The slight increase in ATR % suggests that the comps are beginning to face some challenges with unit availability, but they are still better positioned than Avilla Oakridge.
+Traffic in the Last 7 Days:
+- Avilla Oakridge: The property recorded 12 traffic pieces in the last 7 days, which is relatively strong. However, to achieve a 6% ATR, Avilla Oakridge needs to generate approximately 16 traffic pieces per week. The slight decrease in traffic indicates a need to boost marketing efforts to attract more prospective tenants.
+- Comps: The comps recorded 14 traffic pieces in the last 7 days, with a slight positive trend. To maintain their current performance, they need about 16 traffic pieces per week. The comps are slightly ahead in attracting tenant interest, which supports their leasing efforts.
+Leases in the Last 7 Days:
+- Avilla Oakridge: The property secured 1 lease in the last 7 days. With a historical closing ratio of 0.29, Avilla Oakridge converts 29% of its traffic into leases. To reduce the ATR % to the optimal level of 6%, the property needs to secure approximately 5 leases per week. The current leasing pace is insufficient, indicating a need to improve lease conversions and potentially adjust pricing or incentives.
+- Comps: The comps secured 4 leases in the last 7 days, with a higher closing ratio of 0.35. To achieve and maintain a 6% ATR, they need to secure about 6 leases per week. The comps are more effective in converting traffic into leases and are better positioned to manage their available inventory.
+Overall Analysis
+Avilla Oakridge is facing significant challenges with high ATR %, declining rents, and occupancy. The property needs to focus on increasing traffic and improving lease conversions to reduce the ATR % and stabilize performance. The high ATR % suggests an urgent need to address the oversupply of available units.
+The comps, while also experiencing some challenges, are performing better overall with a lower ATR %, higher occupancy, and positive rent growth. They have a stronger ability to convert traffic into leases, giving them an advantage in managing their inventory effectively. Avilla Oakridge should consider strategies to boost traffic and improve lease conversion rates to remain competitive in this market.</t>
+  </si>
+  <si>
+    <t>Lakeland Estates Apartments Analysis
+Current Performance Analysis
+Lakeland Estates Apartments, a stabilized property with 264 units, has an occupancy rate of 93.5%, which has increased by 0.8 percentage points. The property’s Revenue Per Available Unit (RevPau) is $1,232, showing a slight decline of 0.6%, driven by a 1.4% decrease in Net Effective Rent (NER) to $1,317. This suggests some rent sensitivity, as the property is likely adjusting rents to maintain occupancy, resulting in a slight drop in revenue.
+In comparison, the comps, averaging 290 units, have a slightly lower occupancy rate at 93.1%, which has increased by 0.3 percentage points. Their RevPau is $1,286, reflecting a larger decline of 1.7%, and their NER is $1,382, down by 2.0%. The comps are also facing rent sensitivity, with declines in both RevPau and NER, though they have managed to sustain occupancy levels.
+Leading Indicators
+ATR % Analysis:
+Lakeland Estates: The Availability to Rent (ATR) percentage is 9.5%, which is slightly above the ideal range, indicating some available inventory that might take time to lease. The slight decrease in ATR % suggests that leasing efforts are positively impacting availability, but it remains elevated, which could pose a risk if not reduced further.
+Comps: The comps have a lower ATR % at 5.0%, which is within the healthier range, indicating better control over available inventory. This lower ATR % reflects a more balanced supply and demand situation, allowing the comps to maintain occupancy levels more effectively compared to Lakeland Estates.
+Traffic in the Last 7 Days:
+Lakeland Estates: The property recorded 15 traffic pieces in the last 7 days, with a positive trend. This healthy level of traffic is beneficial but needs to continue to ensure that leasing goals are met. To achieve a 6% ATR, Lakeland Estates needs to generate about 10 traffic pieces per week, which means the current traffic level is adequate to meet these goals.
+Comps: The comps recorded 12 traffic pieces in the last 7 days, which is slightly lower than Lakeland Estates. The comps need about 8 traffic pieces per week to maintain their 6% ATR, so they are generating enough traffic to meet their leasing goals, though less aggressively than Lakeland Estates.
+Leases in the Last 7 Days:
+Lakeland Estates: The property secured 7 leases in the last 7 days, indicating a strong leasing performance. With a historical closing ratio of 0.39, Lakeland Estates is converting 39% of its traffic into leases, which is very efficient. To maintain a 6% ATR, the property needs to secure about 4 leases per week, so it is currently exceeding this target, helping to reduce the ATR %.
+Comps: The comps secured 2 leases in the last 7 days, with a historical closing ratio of 0.25, meaning they convert 25% of their traffic into leases. The comps need about 2 leases per week to maintain their 6% ATR, so they are meeting their leasing goals, albeit less efficiently than Lakeland Estates.
+Overall Analysis
+Lakeland Estates Apartments is performing well in terms of occupancy and leasing velocity, despite some challenges with rent sensitivity. The property is generating strong traffic and converting it into leases effectively, which is helping to reduce the ATR %. However, the slightly elevated ATR % still needs attention to ensure it continues to decrease.
+The comps, while maintaining a healthier ATR %, are facing similar rent sensitivity issues but are generating less traffic and have a lower closing ratio. Lakeland Estates should focus on maintaining its strong leasing performance and continue working to reduce the ATR %, while the comps need to improve their lease conversion rate and traffic to sustain occupancy and revenue.</t>
+  </si>
+  <si>
+    <t>Vie at The Medical Center Apartment Homes Analysis
+Current Performance Analysis
+Vie at The Medical Center Apartment Homes, a stabilized property with 192 units, currently has an occupancy rate of 92.2%, which has decreased by 1.1 percentage points. The property’s Revenue Per Available Unit (RevPau) is $1,160, reflecting a 2.3% increase, driven by a 3.5% rise in Net Effective Rent (NER) to $1,258. This suggests that the property is successfully increasing rents even as occupancy declines slightly, maintaining revenue growth.
+In comparison, the comps, averaging 259 units, have a lower occupancy rate of 88.9%, which has risen by 0.6 percentage points. Their RevPau is $1,194, with a modest increase of 0.5%, and their NER is $1,338, slightly down by 0.3%. The comps are experiencing slower revenue growth, likely due to a slight decrease in rent, despite the gain in occupancy.
+Leading Indicators
+ATR % Analysis:
+Vie at The Medical Center: The Availability to Rent (ATR) percentage is currently 7.8%, slightly above the healthy range, with a minor increase. This indicates a moderate level of available units, suggesting a need to monitor inventory closely to prevent excessive supply that could pressure rents. Ideally, an ATR % below 6% is considered optimal, so efforts should be made to reduce the ATR % to a healthier level.
+Comps: The comps have an ATR % of 7.4%, which is slightly decreasing and closer to a more balanced level. They are better positioned in terms of available inventory, although still above the ideal range, indicating a slight oversupply but better managed than Vie at The Medical Center.
 Traffic Over the Last 7 Days:
-4th and Race: The property recorded 12 traffic pieces in the last 7 days, which is moderate. To meet leasing goals and reduce ATR, 4th and Race needs to generate approximately 21 traffic pieces per week, indicating a need for increased marketing and outreach to attract more prospective tenants. The current traffic level is insufficient to drive the necessary leasing velocity.
-Comps: The comps recorded 6 traffic pieces in the last 7 days, which is half the level of 4th and Race. Despite the lower traffic, the comps are performing slightly better in terms of occupancy, but they still require around 19 traffic pieces per week to meet their leasing goals.
+Vie at The Medical Center: The property recorded 7 traffic pieces in the last 7 days, which has decreased. This level of traffic is below what is needed to meet leasing goals. To support optimal leasing and reduce the ATR %, the property needs to generate approximately 9 traffic pieces per week. The current shortfall suggests a need to enhance marketing and outreach efforts to attract more prospective tenants.
+Comps: The comps recorded higher traffic at 15 pieces per week, with a slight increase. This level of traffic is helping them maintain their leasing pace and is closer to what they need to achieve their targets. The comps are better positioned to capture tenant interest, likely contributing to their steadier occupancy and leasing performance.
 Leases Over the Last 7 Days:
-4th and Race: The property secured 4 leases in the last 7 days, with a historical closing ratio of 19%. This indicates that 4th and Race is converting 19% of its traffic into leases, which is relatively low. To reduce the ATR %, the property needs to secure at least 4 leases per week, suggesting that the current leasing pace is just enough to maintain stability. However, with the high ATR %, there is a risk of further eroding occupancy if leasing does not improve.
-Comps: The comps secured only 1 lease in the last 7 days, with a historical closing ratio of 20%. With a current leasing pace of 1 lease per week, the comps are barely keeping up with demand. The comps’ higher ATR % and lower traffic indicate that they are facing more significant challenges in the market.
-Overall Analysis
-4th and Race is facing occupancy and rent challenges, as evidenced by the declines in both RevPau and NER. The property’s ATR % is above the ideal range, and while leasing activity is maintaining stability, more traffic and stronger lease conversions are needed to reduce the ATR % and strengthen market position. With occupancy below the comps and a higher ATR %, 4th and Race should focus on targeted marketing efforts and potential rent adjustments to improve leasing velocity and regain competitive advantage.
-The comps, despite having a slightly lower occupancy rate, are faring slightly better than 4th and Race in terms of rent performance, but both properties are struggling. The comps need to address their higher ATR % and low traffic levels to bolster leasing activity. Overall, the market remains challenging for this segment, with the need for careful management of rents, increased marketing, and improved lease conversion strategies to stabilize performance.</t>
-  </si>
-  <si>
-    <t>Abacus West Analysis
-Current Performance Analysis
-Abacus West, a stabilized property with 272 units, is maintaining a strong occupancy rate of 94.1%, with no change over the reporting period. However, the property is experiencing a significant decline in revenue, as reflected in its Revenue Per Available Unit (RevPau) of $1,237, which has decreased by 10.7%. This decline in RevPau is in line with the property's Net Effective Rent (NER), which has also decreased by 10.7% to $1,315. The sharp decline in both RevPau and NER suggests that Abacus West is facing significant renter sensitivity or competitive pressures in the market.
-In comparison, the comps, which average 302 units, have a lower occupancy rate at 83.2%, which has increased slightly by 0.5 percentage points. Their RevPau is $1,113, representing a 4.0% increase, and their NER is $1,340, up by 1.6%. The comps are seeing modest gains in both RevPau and NER, indicating that they are managing to increase rents despite lower occupancy. This suggests that the comps may be implementing effective rent growth strategies, while Abacus West may be facing stronger market headwinds.
-Leading Indicators
-ATR % Analysis:
-Abacus West: The Availability to Rent (ATR) percentage for Abacus West is currently at 10.3%, which is relatively high. This indicates that more units are available for rent, potentially creating a competitive environment. The slight decrease in ATR % is positive but needs to be monitored closely, as a high ATR % can indicate an oversupply of inventory or challenges in leasing. To achieve a healthier ATR % below 6%, Abacus West would need to reduce its ATR by 2.7 percentage points, which may require strong leasing activity or adjustments in pricing.
-Comps: The comps have a higher ATR % at 16.6%, which is also at a relatively high level. However, their ATR % has been decreasing slightly, which is a positive trend, although it remains above the desired target of 6%. The comps need to reduce their ATR % by 10.6 percentage points to reach the 6% threshold. This indicates that the comps are facing more significant challenges in addressing their available inventory and may need to focus on aggressive leasing strategies to reduce their ATR.
-Traffic in the Last 7 Days:
-Abacus West: The property recorded 5 traffic pieces in the last 7 days, with a slight increase. However, this level of traffic is below what is needed to drive sufficient leasing activity, as Abacus West needs to generate about 10.5 traffic pieces per week to meet its leasing goals. The current traffic levels suggest that the property may struggle to fill its available units in a timely manner, which is likely contributing to the high ATR % and declining rents.
-Comps: The comps recorded 7 traffic pieces in the last 7 days, which is also below what is needed to support their leasing objectives. With a required traffic level of 21.0 pieces per week, the comps are well behind their target, which explains why their ATR % remains elevated. The comps need to significantly increase their traffic to boost leasing performance and reduce available inventory.
-Leases in the Last 7 Days:
-Abacus West: The property secured 2 leases in the last 7 days, with a slight increase. While this is an improvement, it is still below what is needed to drive down the ATR % and stabilize occupancy. Abacus West needs to lease approximately 4.1 units per week to maintain optimal performance. The current leasing pace, combined with the high ATR %, suggests that the property may continue to face challenges in maintaining or growing occupancy unless leasing efforts are significantly intensified or rents are adjusted.
-Comps: The comps secured 3 leases in the last 7 days, with a downward trend. Despite a higher comparative leasing pace, the comps are still falling short of their target, as indicated by their higher ATR %. With a required leasing pace of 8.4 units per week, the comps need to more than double their current leasing activity to achieve this goal. The comps' ability to slightly grow RevPau and NER suggests some resilience, but this may be difficult to sustain without addressing their high ATR %.
-Overall Analysis
-Abacus West is facing challenges with declining rents, reflected in its RevPau and NER, as well as a relatively high ATR %. While the property's occupancy remains strong, the lack of leasing momentum and lower traffic levels are contributing to these rent declines. To improve performance, Abacus West needs to focus on increasing traffic and enhancing its closing ratio. Stronger marketing efforts and potential rent adjustments may be necessary to attract more tenants and reduce available inventory.
-The comps, although experiencing some rent and revenue growth, have a higher ATR % and are struggling to maintain leasing momentum. The comps' higher traffic and lease conversion rates are positive, but they are still falling short of ideal performance benchmarks. These challenges suggest that the market conditions for both Abacus West and its comps may be softening, with potential oversupply issues. Continued monitoring of ATR %, traffic, and leasing performance will be crucial for both properties to stay competitive and avoid further rent erosion.</t>
-  </si>
-  <si>
-    <t>The Ascent at Top of the Hill Analysis
-Current Performance Analysis
-The Ascent at Top of the Hill, a stabilized property with 261 units, is performing well with a strong occupancy rate of 96.9%, up by 3.2 percentage points. However, the property’s Revenue Per Available Unit (RevPau) has decreased slightly to $2,152, a modest decline of 0.2%. This decline in RevPau is primarily driven by a 3.3% decrease in Net Effective Rent (NER), which now stands at $2,221. The combination of high occupancy and a slight decline in rent suggests that while The Ascent is maintaining strong demand, there may be some market sensitivity to rent levels.
-In comparison, the comps, with an average of 258 units, have a lower occupancy rate of 91.2%, but this has improved significantly, increasing by 5.2 percentage points. The comps’ RevPau is $1,935, showing a solid 4.0% increase, and their NER is $2,123, down by 1.2%. The comps are experiencing stronger overall performance due to their occupancy gains, even as they face challenges with rent levels. The Ascent, on the other hand, continues to perform well in terms of occupancy but should monitor its rent levels closely to avoid any further declines in RevPau.
-Leading Indicators
-ATR % Analysis:
-The Ascent at Top of the Hill: The Availability to Rent (ATR) percentage is currently at 4.2%, which is relatively low and indicates a healthy balance between supply and demand. The slight decrease in ATR % is a positive sign, suggesting that the property is effectively leasing available units. However, the property should aim to maintain an ATR % below 6% to ensure continued strong performance.
-Comps: The comps have a higher ATR % at 8.3%, which is above the ideal range and suggests that they have a larger inventory of available units. The increase in ATR % indicates a possible slowdown in leasing or an increase in supply, which could put downward pressure on rent. The comps should take proactive measures to reduce their ATR % to a more sustainable level.
-Traffic in the Last 7 Days:
-The Ascent at Top of the Hill: The property recorded 4 traffic pieces in the last 7 days, which is relatively low and may be a factor contributing to the slight decline in rent. To achieve its leasing goals and maintain a healthy ATR %, The Ascent should aim for at least 7 traffic pieces per week. The current level suggests that additional marketing efforts may be needed to drive more prospective tenants to the property.
-Comps: The comps are experiencing higher traffic with 6 pieces in the last 7 days, although this is also relatively low. Despite the higher traffic, the comps still have a higher ATR %, indicating that additional traffic is necessary to support their occupancy goals. Increasing traffic and improving conversion rates will be essential for the comps to reduce their ATR % and stabilize rents.
-Leases in the Last 7 Days:
-The Ascent at Top of the Hill: The property secured 5 leases in the last 7 days, which is a strong performance, and the historical closing ratio is 0.46, indicating that 46% of traffic is converting into leases. To maintain its ATR % and continue to lease effectively, The Ascent needs to secure approximately 3 leases per week. The current leasing pace is adequate, but the property should focus on increasing traffic to sustain this level of leasing activity.
-Comps: The comps secured 3 leases in the last 7 days, with a slightly higher historical closing ratio of 0.62, meaning that 62% of traffic is converting into leases. Despite this higher conversion rate, the comps are still facing challenges with their higher ATR %, suggesting that they may need to further improve traffic and leasing performance to stabilize occupancy and effectively reduce inventory.
-Overall Analysis
-The Ascent at Top of the Hill is performing well in terms of occupancy but faces challenges with rents as indicated by the decline in NER. The property should focus on increasing traffic to support leasing activity while closely monitoring rent levels to prevent further erosion of RevPau. The low ATR % is a positive indicator but should continue to be managed to maintain market competitiveness.
-The comps, despite showing occupancy gains, have a higher ATR % and are experiencing a downward trend in NER. The comps need to focus on increasing traffic and improving closing ratios to effectively reduce their ATR % and stabilize rents. Overall, both The Ascent and the comps need to prioritize traffic generation and leasing strategies to maintain or improve their market positions.</t>
-  </si>
-  <si>
-    <t>Elle at The Medical Center Apartment Homes Analysis
-Current Performance Analysis
-Elle at The Medical Center Apartment Homes, a stabilized property with 212 units, is currently maintaining an occupancy rate of 94.8%, which has shown a strong increase of 2.5 percentage points. Despite this positive occupancy trend, the property's Revenue Per Available Unit (RevPau) is $1,801, which has declined by 1.4%. This decrease in RevPau is due to a significant 3.8% decrease in Net Effective Rent (NER) to $1,900. 
-This dip in NER suggests that the property is facing some rent sensitivity, likely due to market pressures or increased competition. However, the property's relatively high occupancy rate indicates that it is successfully filling units, even if at lower rental rates. Nonetheless, the decline in RevPau and NER highlights the need for careful rent management strategies to sustain both occupancy and revenue levels.
-In comparison, the comps, averaging 259 units, have a lower occupancy rate at 88.9%, which has increased slightly by 0.6 percentage points. Their RevPau is $1,194, showing a modest increase of 0.5%. The comps' NER is $1,338, which has decreased by 0.3%.  
-The comps are experiencing overall stable performance, with a slight growth in RevPau despite a small dip in NER. The comps' lower occupancy and less significant rent declines indicate that they have less pressure on rental rates but may be struggling to attract and retain tenants. The comparatively higher RevPau and NER at Elle suggest that it is performing better in terms of rent collection, despite the challenges of rent reductions.
-Leading Indicators
-ATR % Analysis:
-Elle at The Medical Center Apartment Homes: The Availability to Rent (ATR) percentage is currently at 6.6%, which is moderately healthy. The slight increase in ATR %, along with the declining NER, suggests that while the property is still leasing relatively well, there is a minor increase in available inventory. An ATR % below 7% is generally considered favorable, but ongoing monitoring of this metric is important to avoid a further increase in available inventory.
-Comps: The comps have a higher ATR % at 7.4%, which is slightly above the optimal range. The small decline in ATR % for the comps is a positive sign, indicating a stabilization of available units, although the continued presence of more vacant stock could put pressure on their overall performance. Both Elle and the comps should focus on reducing their ATR % to improve market competitiveness and maintain tenant interest.
-Traffic Over the Last 7 Days:
-Elle at The Medical Center Apartment Homes: The property recorded 4 traffic pieces in the last 7 days, which is a relatively low level of interest. To achieve its leasing goals and reduce its ATR %, Elle should aim for approximately 9 traffic pieces per week, indicating a significant need for increased prospect activity. The recent decline in traffic indicates a potential weakness in marketing or outreach efforts, which should be addressed to attract more potential tenants.
-Comps: The comps experienced 15 traffic pieces in the last 7 days, indicating a stronger level of interest compared to Elle. However, the comps still need to maintain or increase traffic levels to support their leasing targets. With an average weekly added ATR of 5%, the comps need to generate around 13 traffic pieces per week to maintain their leasing momentum and reduce the ATR % further.
-Leases Over the Last 7 Days:
-Elle at The Medical Center Apartment Homes: The property secured 1 lease over the last 7 days, with a historical closing ratio of 0.26. To achieve optimal performance, Elle needs to secure approximately 2-3 leases per week. The current leasing pace is slightly below this target, and the low closing ratio suggests that improvement is needed in the conversion of leads to leases. Enhancing sales tactics and increasing traffic will be crucial for Elle to meet its leasing objectives.
-Comps: The comps secured 5 leases over the last 7 days, with a higher historical closing ratio of 0.4, which indicates stronger lease conversion capabilities. The comps' historical closing ratio and traffic levels allow them to achieve their leasing targets efficiently. With a target of 55 leases per year to maintain a 6% ATR, the comps need to secure approximately 4-5 leases per week, which they are currently meeting.
-Overall Analysis
-Elle at The Medical Center Apartment Homes is performing reasonably well in terms of occupancy, but the recent declines in NER and RevPau indicate that careful attention is needed to manage rents and minimize further erosion of revenue. The slightly elevated ATR %, coupled with low traffic and lease conversion rates, poses risks to sustained performance. Increasing traffic and improving the leasing ratio will be critical for Elle to maintain its current occupancy levels and reduce available inventory.
-The comps, while facing challenges with lower occupancy and rent declines, are managing a higher flow of traffic and have a stronger closing ratio. Their ATR %, although slightly high, is showing some improvement, suggesting that their leasing strategies are effective in stabilizing their position. The comps should continue to focus on reducing both ATR % and NER while leveraging their existing traffic levels to drive leasing momentum.
-Overall, both Elle and its comps need to address their specific weaknesses and capitalize on their strengths to navigate the market successfully. Elle must increase its traffic and improve lease conversion while closely monitoring rent levels to strike the right balance between occupancy and rent growth. The comps should continue to work on reducing their ATR % and sustaining their leasing momentum, especially by maximizing their traffic impact.</t>
-  </si>
-  <si>
-    <t>The Qs at Towne Oaks Analysis
-Current Performance Analysis
-The Qs at Towne Oaks, a stabilized property with 240 units, is currently experiencing an occupancy rate of 92.1%, which has decreased by 0.9 percentage points. The property’s Revenue Per Available Unit (RevPau) is $1,073, indicating a solid increase of 7.0%. This growth in RevPau is primarily driven by a 7.9% increase in Net Effective Rent (NER), which now stands at $1,165. While the property is achieving strong rent growth, the slight decline in occupancy is a concern that should be closely monitored.
-In comparison, the comps, with an average of 244 units, have a higher occupancy rate of 94.2%, which has increased by 1.1 percentage points. Their RevPau is $935, reflecting a more modest increase of 2.3%, and their NER is $994, up by 1.4%. Although the comps are performing well in terms of occupancy, their rent growth is comparatively lower than that of The Qs at Towne Oaks.
-Leading Indicators
-ATR % Analysis:
-The Qs at Towne Oaks: The Actual Turnover Rate (ATR) % is 10.8%, which is above the desirable range and suggests that there is a significant amount of turnover occurring in the property. The slight decrease in the ATR % is positive, indicating that the property is managing to lease some of the vacated units. However, this rate is still high and needs to be lowered to improve overall occupancy levels. An ATR % below 6% is generally considered healthy, so the property should aim to bring it down further through effective retention and leasing strategies. 
-Comps: The comps have a lower ATR % of 6.9%, which is within the healthy range, although the slight decrease in this percentage is minimal. The fact that the comps have a lower ATR % than The Qs at Towne Oaks suggests that they are experiencing less turnover and are likely maintaining better resident satisfaction. This gives the comps a competitive advantage and highlights the need for The Qs at Towne Oaks to focus on reducing its turnover rate to remain competitive in the market.
-Traffic Over the Last 7 Days:
-The Qs at Towne Oaks: The property recorded 2 traffic pieces in the last 7 days, which is a low level of activity. To maintain an optimal performance and lease the necessary number of units, The Qs at Towne Oaks should aim to generate around 7 traffic pieces per week. The current low traffic levels indicate a need for enhanced marketing and outreach efforts to attract more prospective tenants and increase leasing velocity.
-Comps: The comps, on the other hand, recorded 10 traffic pieces in the last 7 days, which is significantly higher than The Qs at Towne Oaks. The comps need about 5 traffic pieces per week to maintain their leasing pace, suggesting that they are currently meeting or exceeding their traffic goals. This higher level of traffic gives the comps an advantage in terms of leasing and allows them to maintain their occupancy rate more effectively.
-Leases Over the Last 7 Days:
-The Qs at Towne Oaks: The property secured 1 lease in the last 7 days, with a historical closing ratio of 0.60, meaning that it converts 60% of its traffic into leases. To maintain its current pace and reduce the ATR %, The Qs at Towne Oaks needs to secure approximately 4 leases per week. The property must focus on improving its leasing performance and increasing traffic to meet these targets. The current leasing and traffic levels are inadequate to reduce the ATR % effectively.
-Comps: The comps secured 3 leases in the last 7 days, with a closing ratio of 0.69, indicating that they convert 69% of their traffic into leases. The comps need around 4 leases per week to maintain their ATR %. The comps are performing at a similar level in terms of leasing efficiency as The Qs at Towne Oaks, but their higher traffic levels allow them to maintain a healthier ATR %.
-Overall Analysis
-The Qs at Towne Oaks is experiencing strong rent growth, as reflected in its RevPau and NER. However, its declining occupancy, high ATR %, and low traffic levels pose challenges that need to be addressed. The property should prioritize reducing its turnover rate and increasing traffic to improve lease velocity. Enhanced marketing strategies and a focus on resident retention will be crucial in achieving these goals.
-The comps, while maintaining a higher occupancy and lower ATR %, are also facing challenges with moderate rent growth. Their advantage lies in their higher traffic levels and more efficient conversion of traffic into leases. The Qs at Towne Oaks must work to close the gap in these areas and improve its leasing performance to remain competitive in the market and stabilize its occupancy. This can be achieved through targeted marketing, resident retention initiatives, and a focus on delivering exceptional customer service.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Village on Riverwalk Analysis
-Current Performance Analysis
-The Village on Riverwalk, a market stabilized property with 700 units, is currently at a 79.7% occupancy rate, which has increased by 1.0 percentage point. The property's Revenue Per Available Unit (RevPau) is $841, showing a strong increase of 17.6%. This growth is primarily driven by a 16.4% increase in Net Effective Rent (NER) to $1,055 per unit. The substantial improvement in RevPau and NER indicates effective rent management and market positioning, resulting in strong revenue growth.
-In comparison, the comps, averaging 433 units, have an occupancy rate of 85.6%, which has remained stable. Their RevPau is $1,000, reflecting a more modest increase of 3.1%, and their NER is $1,165, also up by 3.1%. The comps have performed comparatively well, with a stronger occupancy, but their revenue growth rates are more modest than those of The Village on Riverwalk.
-Leading Indicators
-ATR % Analysis:
-The Village on Riverwalk: The Availability to Rent (ATR) percentage is currently at 26.0%. This is considered high and suggests an oversupply of available units compared to its current leasing pace. Although the ATR % has decreased slightly, it is still significantly above the optimal range of 6% or less, indicating the need for immediate attention to improve leasing velocity. The average weekly increase in ATR % is 7.82, further emphasizing the urgency to address this high level of available inventory. To achieve a healthier market position, the property needs to reduce the ATR %, ideally below 6%.
-Comps: The comps have a much lower ATR % at 4.9%, which is within the desirable range, indicating a more balanced market with adequate demand and limited available inventory. The slight decrease in the comps' ATR % suggests they are effectively matching supply with demand, further strengthening their overall performance.
-Traffic in the Last 7 Days:
-The Village on Riverwalk: The property recorded 23 traffic pieces in the last 7 days, which is a strong level of interest. However, to address the high ATR and increase leasing velocity, The Village on Riverwalk needs to generate approximately 48 weekly traffic pieces. The current level is below this target, signaling a potential need for enhanced marketing and outreach efforts to attract more prospective tenants.
-Comps: The comps recorded 8 traffic pieces in the last 7 days, which is considerably lower than that of The Village on Riverwalk. However, with their lower ATR %, the comps require only 13 traffic pieces per week to maintain their current performance, suggesting that they are successfully meeting their leasing demands.
-Leases in the Last 7 Days:
-The Village on Riverwalk: The property secured 10 leases in the last 7 days, with a historical closing ratio of 53%, meaning it converts 53% of traffic into leases. This is a strong conversion rate, but the property needs to increase its lease signings to bring down the high ATR % and improve overall occupancy. To achieve a 6% ATR, The Village on Riverwalk needs to lease approximately 26 units per week. The current performance is falling short of this target, indicating the need to further enhance leasing efforts.
-Comps: The comps secured 5 leases in the last 7 days, with a lower historical closing ratio of 41%. Despite the lower conversion rate, the comps' leasing performance aligns well with their lower ATR %, and they require around 5-6 weekly leases to maintain their current standing.
-Overall Analysis
-The Village on Riverwalk shows strong revenue growth driven by robust increases in both RevPau and NER. However, the property is grappling with a high ATR %, indicating excessive available inventory that needs to be absorbed to stabilize occupancy. The current pace of traffic and leases, although healthy, is not sufficient to resolve this issue. Increasing traffic and maintaining a high closing ratio will be essential to reducing the ATR % and improving overall performance.
-The comps, while performing well with a lower ATR % and better occupancy, have more modest revenue growth rates. Their stronger historical occupancy and lower ATR % suggest a more balanced market position, with less urgency to aggressively lease. The comps' focus should be on maintaining their current steady performance and optimizing their existing traffic to sustain occupancy levels.
-Overall, The Village on Riverwalk needs to prioritize reducing its ATR % through targeted marketing efforts to drive traffic and increase lease signings. Improving operational efficiency, such as refining pricing strategies and enhancing leasing techniques, will be crucial to narrowing the gap with the comps and achieving better market positioning.
-</t>
-  </si>
-  <si>
-    <t>Dakota Ridge Apartments Analysis
-Current Performance Analysis
-Dakota Ridge Apartments, a stabilized property with 272 units, is maintaining a strong occupancy rate at 97.1%, unchanged from the previous period. The property’s Revenue Per Available Unit (RevPau) is $1,322, which has declined by 2.6% in the past month. This decrease in RevPau is in line with the recent decline in Net Effective Rent (NER), which also decreased by 2.6% to $1,361. Overall, while Dakota Ridge Apartments is experiencing some rent and revenue softening, the property is still performing well with high occupancy and relatively stable rents.
-In comparison, the comps, averaging 285 units, have a lower occupancy rate of 94.2%, which has declined slightly by 0.9% with RevPau at $1,200, reflecting a more significant decline of 6.1%. The comps are also experiencing a decline in NER, dropping by 5.2% to $1,274. These negative performance indicators suggest that the comps are facing stronger headwinds in terms of occupancy and rent, placing them in a less favorable position compared to Dakota Ridge Apartments.
-Leading Indicators
-ATR % Analysis:
-Dakota Ridge Apartments: The Availability to Rent (ATR) percentage is currently at 5.9%, slightly above the desirable range. A higher ATR % indicates a larger inventory of available units, which can create competitive pressures and may require more aggressive leasing strategies. The slight increase in ATR % is a cautionary signal, highlighting the need for consistent leasing efforts to stabilize or reduce the available inventory of units.
-Comps: The comps are currently experiencing an ATR % of 5.5%, which is also relatively high. This suggests that while they are relatively stable, the comps are still contending with a similar level of available inventory and may need to focus on reducing this ATR % to maintain market competitiveness.
-Traffic Over the Last 7 Days:
-Dakota Ridge Apartments: The property recorded 7 traffic pieces in the last 7 days, with a positive trend. This level of traffic is adequate to support leasing activity, although additional traffic may be needed to reduce the ATR % further. Dakota Ridge Apartments needs approximately 4 traffic pieces per week to meet its leasing goals, so the current level is sufficient, but increased traffic could help strengthen leasing momentum.
-Comps: The comps have recorded 7 traffic pieces in the last 7 days, indicating a stable level of interest. However, the comps need 8 traffic pieces per week to achieve their leasing targets, suggesting they may need to enhance their marketing efforts to increase traffic and drive leasing activity.
-Leases Over the Last 7 Days:
-Dakota Ridge Apartments: The property has secured 1 lease in the last week, which is in line with historical performance. The closing ratio is strong, at 0.64, meaning that 64% of prospective tenants who visit the property are converting into leases. To maintain or improve this strong leasing performance, Dakota Ridge Apartments needs to continue generating traffic but could also benefit from increasing traffic slightly to ensure consistent leasing activity.
-Comps: The comps are securing 3 leases per week, which is above the minimum needed to maintain their current ATR %. However, their closing ratio is lower, at 0.48, indicating a lower conversion rate compared to Dakota Ridge Apartments. The comps will need to either increase traffic or improve their closing ratio to maintain leasing momentum and shrink their ATR %.
-Overall Analysis
-Dakota Ridge Apartments is performing well, with high occupancy and a stable rent-revenue profile. The slight decline in RevPau and NER is worth monitoring, but the property is still in a strong position with above-average lease conversions. The key areas for improvement are reducing the ATR % and potentially increasing traffic to support continued leasing success.
-The comps, on the other hand, are facing more significant challenges, with lower occupancy and declining rent and revenue metrics. Their comparatively lower closing ratio and traffic levels indicate weaker market performance. To remain competitive, the comps must focus on reducing their ATR % and increasing leasing velocity through more effective marketing and higher traffic levels. Dakota Ridge Apartments should continue its current strategies, leveraging its strong occupancy and high lease conversion rate to maintain market position.</t>
-  </si>
-  <si>
-    <t>Summit on Quality Hill Apartments Analysis
-Current Performance Analysis
-Summit on Quality Hill Apartments, a stabilized property with 252 units, is currently experiencing an occupancy rate of 94.4%, which has decreased by 0.8 percentage points. The property's Revenue Per Available Unit (RevPau) stands at $1,840, which has decreased by 6.4%, mirroring the decline in Net Effective Rent (NER) at $1,950, down by 5.5%. These declines suggest that the property is facing challenges in maintaining rental rates, leading to decreased revenue.
-In comparison, the comps, with an average of 207 units, are slightly behind with an occupancy rate of 94.0%, down by 0.4 percentage points. Their RevPau is $1,777, indicating a smaller decrease of 1.3%, while their NER is $1,894, down by 1.0%. The comps are performing marginally better than Summit on Quality Hill Apartments in terms of revenue decline but face a similar challenge of decreasing rents and occupancy.
-Leading Indicators
-ATR % Analysis:
-Summit on Quality Hill Apartments: The Availability to Rent (ATR) percentage is 9.5%, with a slight upward trend. This indicates a moderate oversupply of available units in the market. An ATR % above 7% suggests increased competition and potential leasing challenges, warranting focused marketing and leasing strategies. To achieve a healthier ATR % below 6%, Summit on Quality Hill Apartments needs to reduce its ATR % by approximately 5 percentage points, which would require leasing approximately 4.9 units per week. The current rate of leasing is 0 units per week, highlighting the need for immediate action to improve leasing performance.
-Comps: The comps have a slightly lower ATR % at 7.0%, also with an upward trend. Although the comps are in a relatively better position compared to Summit on Quality Hill Apartments, they still face challenges with a slightly elevated ATR %. To reduce their ATR % below 6%, the comps need to lease approximately 3.3 units per week, which is sustainable given their current leasing pace of 2.2 units per week.
-Traffic in the Last 7 Days:
-Summit on Quality Hill Apartments: In the last 7 days, the property recorded 3 traffic pieces, which is relatively low. To achieve and maintain optimal performance, Summit on Quality Hill Apartments typically needs to generate approximately 19 traffic pieces per week. The current traffic level falls well short of this target, suggesting that attracting more prospective tenants is a significant challenge. Improved marketing efforts and visibility are crucial to driving traffic and supporting leasing goals.
-Comps: The comps, on average, had 6 traffic pieces in the last 7 days, which is also below the ideal level. For the comps to maintain their ATR %, they need to generate about 7 traffic pieces per week, which they are nearly meeting. However, to achieve more substantial leasing success and reduce their ATR % further, the comps should aim for higher traffic levels.
-Leases in the Last 7 Days:
-Summit on Quality Hill Apartments: The property has not signed any leases in the past 7 days. With a historical closing ratio of 0.26, meaning 26% of traffic converts into leases, an increase in traffic is necessary to drive leasing activity. The lack of recent lease signings is a concern and must be addressed urgently to reduce the ATR % and protect revenue.
-Comps: The comps, with a closing ratio of 0.5, are converting 50% of their traffic into leases. Although their leasing activity has slowed with 2.2 leases per week, the progress remains steady. The comps need to continue focusing on traffic generation and improving lease conversion to maintain stable performance.
-Overall Analysis
-Summit on Quality Hill Apartments is currently facing challenges with declining occupancy, rents, and an elevated ATR %. The property's low traffic and lease conversion rates are significant contributing factors. Urgent efforts are needed to increase traffic by more than five-fold and improve the conversion of that traffic into leases. A comprehensive marketing and leasing strategy is necessary to address these issues and stabilize the property's revenue.
-The comps offer slightly better occupancy and lower ATR % but still need improvements in traffic and lease conversion. Their stronger historical performance in these areas provides a valuable benchmark for Summit on Quality Hill Apartments to strive towards. Both properties should focus on driving more traffic and improving lease effectiveness to reduce their ATR % and maintain market competitiveness.</t>
-  </si>
-  <si>
-    <t>The Yards Analysis
-Current Performance Analysis:
-The Yards, a stabilized property with 230 units, is performing well with a relatively high occupancy rate of 93.9%, which has increased by 1.8 percentage points. The property’s Revenue Per Available Unit (RevPau) is $1,268, reflecting a 2.0% increase. This RevPau growth is supported by a slight uptick in Net Effective Rent (NER) to $1,350, though the increase is minimal at 0.1%. The Yards is managing to maintain occupancy and drive modest revenue growth, but rent increases are limited, possibly due to competitive pressures in the market.
-In comparison, the comps, averaging 286 units, have a slightly higher occupancy rate at 94.0%, which has declined by 0.7 percentage points. Their RevPau is higher at $1,633, but it has decreased by 2.4%, and their NER is $1,735, down by 1.8%. The comps are facing challenges with both occupancy and revenue, as indicated by the decline in RevPau and NER, which suggests that they may be experiencing more competitive pressures or issues with pricing strategies.
-Leading Indicators:
-ATR % Analysis:
-The Yards: The Availability to Rent (ATR) percentage is currently at 6.1%, which is slightly above the optimum range. This ATR %, although relatively low, indicates that some units are available for rent, but the property remains in a healthy market position overall. The slight decline in ATR % is positive, but it suggests that while leasing activity is occurring, it is not fully eliminating available inventory. The this ATR % should be monitored to ensure it does not rise further, as that may indicate an imbalance between supply and demand.
-Comps: The comps have a lower ATR % at 4.1%, which is well within the desirable range. Their ATR % has also declined, indicating improved leasing performance and a better balance between supply and demand. The comps are in a stronger position than The Yards, with less available inventory and higher occupancy, suggesting that they are effectively managing their leasing activities.
-Traffic in the Last 7 Days:
-The Yards: The property recorded 6 traffic visits in the last 7 days, but this is a significant decline. To maintain consistent leasing activity, The Yards should aim for a higher level of traffic. With the current level, the property needs around 12 traffic pieces per week to support its leasing goals. The decrease in traffic could be a concern and may require targeted marketing efforts to increase the number of potential leads.
-Comps: The comps have 8 traffic visits in the last 7 days, which is slightly higher than The Yards. This level of traffic is adequate for the comps’ current performance, but they would need around 10 traffic pieces per week to support lease signings to maintain their ATR % at the current level. The comps are experiencing modest growth in traffic, which is helping to support their leasing performance.
-Leases in the Last 7 Days:
-The Yards: The property has not secured any leases in the last 7 days, and its historical closing ratio is 0.21, meaning it converts roughly 21% of its traffic into leases. To achieve its target ATR, The Yards would need to secure approximately 3 leases per month. The current lack of leasing activity and low closing ratio suggest that the property may need to improve its sales and marketing strategies to better convert traffic into leases.
-Comps: The comps have secured 2 leases in the last 7 days, with a higher closing ratio of 0.36. They are converting 36% of their traffic into leases, which is an advantage over The Yards. The comps need to secure around 4 leases per month to maintain their current ATR %, and they are currently meeting this target.
-Overall Analysis:
-The Yards is performing relatively well with strong occupancy and modest revenue growth, but its rent increases are limited, and the recent decline in traffic and lack of lease signings are areas of concern. Improving traffic and lease conversion rates will be crucial for The Yards to maintain its current performance and prevent further increases in its ATR %.
-The comps, despite facing some challenges with RevPau and NER declines, are in a stronger position with a lower ATR %, higher occupancy, and better leasing momentum. Their ability to convert traffic into leases at a higher rate gives them a competitive advantage. The Yards should closely monitor its ATR %, increase traffic, and enhance its leasing strategies to remain competitive in the market.</t>
-  </si>
-  <si>
-    <t>AVIA Apartments at 110th Street Analysis
-Current Performance Analysis
-AVIA Apartments at 110th Street, a stabilized property with 112 units, is performing very well, maintaining a high occupancy rate of 98.2%, which has increased by 2.8 percentage points. The property’s Revenue Per Available Unit (RevPau) is $1,096, reflecting a strong increase of 4.7%. This growth in RevPau is primarily driven by a solid increase in Net Effective Rent (NER) to $1,116, which has risen by 1.8%. These positive trends in both occupancy and rent are indicative of a healthy and well-performing property.
-In comparison, the comps, which have an average of 352 units, have a lower occupancy rate of 93.9%, which has decreased by 1.4 percentage points. The comps’ RevPau is $1,387, down by 1.3%, while their NER has remained flat at $1,476. The comps are lagging behind AVIA Apartments in terms of both occupancy and RevPau, suggesting that AVIA is outperforming its competitors in terms of market appeal and rent growth.
-Leading Indicators
-ATR % Analysis:
-AVIA Apartments: The Availability to Rent (ATR) percentage for AVIA Apartments is currently at 7.1%, which is slightly higher than ideal. An ATR % under 6% is generally considered healthy, indicating a balanced market. The slight increase in ATR % may be a concern if it continues to rise, as it could suggest a potential overhang of available units. However, the current ATR % does not raise immediate alarm bells, and with continued strong leasing performance, AVIA Apartments should be able to bring this down to a healthier level.
-Comps: The comps have a much lower ATR % at 0.9%, which is well within the healthy range and indicates strong demand and limited availability. The slight increase in ATR % suggests some minor softening, but overall, the comps are in a favorable position with low inventory. AVIA Apartments, although higher in ATR %, is still in a good position but should be mindful of reducing this to avoid any potential leasing challenges.
-Traffic Over the Last 7 Days:
-AVIA Apartments: The property has not recorded any traffic in the last 7 days, which is concerning. This suggests a significant slowdown in prospective tenant interest and could impact lease-up efforts if not addressed promptly. To meet its leasing goals and decrease the ATR %, AVIA Apartments needs to generate at least 4 traffic pieces per week. The current lack of traffic indicates a need for immediate attention to marketing and outreach strategies to drive tenant interest.
-Comps: The comps have seen 3 traffic pieces in the last 7 days, which are stable but modest. While this level of traffic is sufficient to support current leasing activity, the comps may need to increase their marketing efforts to maintain occupancy and prevent any further decline. The comps require approximately 3 traffic pieces per week to meet their leasing goals, suggesting that traffic levels are adequate but not necessarily robust.
-Leases Over the Last 7 Days:
-AVIA Apartments: The property has not secured any new leases in the last 7 days, which, coupled with the lack of traffic, indicates a significant leasing challenge. This is further evidenced by the historical closing ratio of 0.22, meaning only 22% of the property’s traffic typically converts to leases. To effectively reduce the ATR % and maintain high occupancy, AVIA Apartments needs to secure at least 1 lease per week. The current leasing performance is well below the necessary level, and urgent action is required to improve both traffic generation and leasing conversions.
-Comps: The comps have secured 1 lease in the last 7 days, with a historical closing ratio of 0.34, suggesting they convert 34% of their traffic into leases. This higher closing ratio allows the comps to manage their ATR % more effectively. They currently need about 1 lease per week to maintain their current status, putting them in a more stable position compared to AVIA Apartments.
-Overall Analysis
-AVIA Apartments at 110th Street is experiencing strong performance in terms of high occupancy and RevPau growth, driven by solid increases in NER. However, the property faces immediate challenges with no recent traffic or leasing activity, which heightens the risk of an increasing ATR %. To avoid further deterioration, immediate action is required to increase traffic and improve leasing conversions. 
-The comps, while underperforming in terms of occupancy and RevPau, have a lower ATR %, suggesting they are better positioned to weather market fluctuations. Their steady traffic and leasing activity, coupled with a higher closing ratio, provide them with more stability. AVIA Apartments needs to prioritize traffic generation and leasing efficiency to compete effectively with the comps and maintain its strong market position.</t>
-  </si>
-  <si>
-    <t>Siena Villas Apartments Analysis
-Current Performance Analysis
-Siena Villas Apartments, a stabilized property with 81 units, is performing strongly with an occupancy rate of 98.8%, which has increased by 1.3 percentage points. The property’s Revenue Per Available Unit (RevPau) stands at $1,535, showing a significant increase of 9.0%. This growth in RevPau is primarily driven by a strong 7.6% rise in Net Effective Rent (NER) to $1,554, indicating effective rent management. The high occupancy and rent growth reflect a healthy market position for Siena Villas Apartments.
-In comparison, the comps, with an average of 163 units, have a lower occupancy rate of 93.2%, which has also increased, but by a smaller margin of 1.1 percentage points. Their RevPau is slightly lower than Siena Villas Apartments at $1,435, reflecting a strong increase of 8.7%, similar to the subject property. The comps’ NER is $1,539, also showing a 7.6% rise. Overall, both Siena Villas Apartments and its comps are experiencing solid revenue growth, but the subject property’s higher occupancy and RevPau indicate a stronger market position.
-Leading Indicators
-ATR % Analysis:
-Siena Villas Apartments: The Availability to Rent (ATR) percentage for Siena Villas Apartments is at a healthy 2.5%, which is relatively low. This low ATR % suggests the property is well-positioned with minimal available inventory, indicating strong demand and a competitive market position. The slight decrease in ATR % further supports the notion that the property is successfully leasing units. Maintaining this low ATR % will be crucial for sustained performance and continued rent growth.
-Comps: The comps have a higher ATR % at 8.7%, indicating a greater availability of units compared to Siena Villas Apartments. Although this is still within a manageable range, it suggests a slightly higher level of competition or lower demand compared to the subject property. The slight increase in ATR % for the comps could be a potential concern, as it may indicate a slow-down in lease-up or difficulty in maintaining occupancy. The comps should focus on reducing their ATR % to align with market norms and enhance their competitive position.
-Traffic over the Last 7 Days:
-Siena Villas Apartments: The property has not recorded any traffic in the last 7 days, which is a concern. This suggests that there is currently no new interest or foot traffic, which could hinder future leasing efforts. To maintain strong performance, Siena Villas Apartments needs to generate at least 2 traffic pieces per week. Addressing the lack of traffic will be critical to sustaining leasing velocity and filling any remaining vacancies.
-Comps: The comps are generating 2 traffic pieces in the last 7 days, which is on par with their historical performance. However, this level of traffic is slightly below what is necessary to maintain their leasing targets. The comps need to generate at least 4 traffic pieces per week to effectively compete and prevent further increases in their ATR %. Enhancing marketing efforts or targeting specific demographics could help improve traffic flow.
-Leases over the Last 7 Days:
-Siena Villas Apartments: The property has secured 1 lease in the last 7 days, with a historical closing ratio of 0.59, meaning it successfully converts about 59% of its traffic into leases. This is a solid conversion rate, but the lack of current traffic is hindering further leasing success. To maintain optimal performance, Siena Villas Apartments needs to lease about 1 unit per week, suggesting the property is currently meeting its minimum leasing targets but may struggle to maintain this pace without an increase in traffic.
-Comps: The comps have secured 1 lease in the last 7 days, with a lower closing ratio of 0.52, meaning they convert about 52% of their traffic into leases. This lower conversion rate, coupled with slower traffic growth, suggests that the comps may be struggling to maintain leasing momentum. To meet their performance targets, the comps need to secure approximately 2 leases per week, indicating that they are slightly below the desired leasing pace. The comps should focus on improving their leasing efficiency and increasing traffic to drive better results.
-Overall Analysis
-Siena Villas Apartments is performing well with high occupancy, strong rent growth, and a low ATR %, indicating a healthy market position. However, the lack of recent traffic is a concern and must be addressed to sustain leasing momentum. The property’s historical strong closing ratio is a positive factor, but it needs to increase traffic to support ongoing leasing activity.
-The comps, although experiencing similar levels of rent and revenue growth, have lower occupancy, a higher ATR %, and are currently struggling to increase traffic. Their lower closing ratio also suggests they are less efficient at converting prospects into leases. The comps need to focus on reducing their ATR %, improving their traffic generation, and increasing lease conversions to match the performance of Siena Villas Apartments.</t>
-  </si>
-  <si>
-    <t>The Village at Waxahachie Analysis
-Current Performance Analysis
-The Village at Waxahachie, a lease-up property with 225 units, is showing strong performance as it continues to stabilize. The property has experienced a significant increase in occupancy, reaching 88%, a substantial 7% increase. The Revenue Per Available Unit (RevPau) stands at $1,292, showing a robust increase of 8%, supported by effective rental rate management. The property's Net Effective Rent (NER) is $1,474, up 1%. This indicates that while there is some upward pressure on rents, they are not increasing as quickly as the headline rent, likely due to concessions or discounts.
-Comparatively, the comps, with an average of 167 units, have a lower overall occupancy of 76%, up by 3%. Their RevPau is $1,161, reflecting a more conservative 2% growth, and their NER is $1,498, which has declined slightly by 1%. The comps are facing challenges in maintaining rental rate momentum, as evidenced by the slight drop in NER, although they are still achieving modest revenue growth due to increased occupancy.
-Leading Indicators
-ATR % Analysis:
-The Village at Waxahachie: The Availability to Rent (ATR) percentage is currently at 6%, which is within a healthy range for a lease-up property. The slight decrease in the ATR % indicates positive leasing velocity, with units being absorbed at a steady pace. An ATR % below 7% is generally considered healthy, as it signifies an appropriate balance between supply and demand.
-Comps: The comps, on the other hand, have a significantly higher ATR % at 24%, indicating a larger inventory of available units. This high ATR % suggests a potential oversupply issue, where rental demand is not keeping up with the available units. The modest increase in the ATR % coupled with a declining NER indicates that the comps may be struggling to lease units, raising concerns about their ability to maintain occupancy and rental rates.
-Traffic in the Last 7 Days:
-The Village at Waxahachie: The property recorded 18 traffic pieces in the last 7 days, with a recent positive trend. This level of traffic is sufficient to support the property's leasing goals, but increasing traffic further will help to boost leasing activity and reduce the ATR %. To maintain its current leasing momentum, the property needs to generate approximately 9 traffic pieces per week. Given the recent increase in traffic and strong occupancy gains, The Village at Waxahachie is well-positioned to continue its positive trajectory.
-Comps: The comps are experiencing much lower traffic volume, with only 5 traffic pieces in the last 7 days, which has been relatively stable or slightly decreasing. This low traffic level is likely contributing to their leasing challenges, as it is well below what is needed to effectively lease available units. The comps need to significantly increase their traffic to around 12 traffic pieces per week to meet their leasing requirements, but this may be a significant challenge given their current performance.
-Leases in the Last 7 Days:
-The Village at Waxahachie: The property has secured 6 leases in the last 7 days, with a strong historical closing ratio of 92%. This high conversion rate highlights the property's effective leasing strategies and ability to turn traffic into leases. The current leasing pace is robust and aligns well with the property's goals. To maintain this pace and continue stabilizing, The Village at Waxahachie needs to secure approximately 8 leases per week, suggesting that it is currently operating at a high level of efficiency.
-Comps: The comps, with a higher closing ratio of 100%, have not secured any leases in the last 7 days, which is primarily due to their low traffic levels. The comps need to secure around 12 leases per week to maintain their current occupancy and reduce the ATR %, a significant challenge given their traffic and leasing constraints. The inability to convert traffic into leases effectively is a critical obstacle for the comps as they face increasing pressure to fill their available units.
-Overall Analysis
-The Village at Waxahachie is performing strongly as a lease-up property, with its high occupancy, positive RevPau growth, and healthy pace of leasing. The recent increases in traffic and strong leasing performance have enabled the property to rapidly stabilize, although continued efforts to increase traffic and maintain leasing momentum will be essential to fully stabilize and reduce the ATR % further. The high closing ratio is a significant advantage, allowing the property to efficiently convert interest into signed leases.
-In contrast, the comps are facing challenges with lower occupancy, weak traffic, and a high ATR %. Despite a better-than-average closing ratio, the comps need to substantially increase their traffic and leasing pace to overcome their inventory overhang and stabilize. The comps' declining NER and struggles to maintain leasing activity indicate that they may need to consider aggressive marketing and pricing strategies to drive tenant interest and prevent further erosion of their rent levels. Overall, The Village at Waxahachie appears well-positioned to capitalize on its strong performance, while the comps face an uphill battle to correct their leasing challenges.</t>
-  </si>
-  <si>
-    <t>The Bailey Analysis
-Current Performance Analysis
-The Bailey, a stabilized property with 345 units, is currently experiencing a slight occupancy decrease at 91.0%, down by 1.8 percentage points. The property’s Revenue Per Available Unit (RevPau) stands at $1,147, reflecting a modest increase of 0.3%. This growth in RevPau is primarily due to a 2.3% increase in Net Effective Rent (NER) to $1,261, suggesting that while the property is successfully pushing rent growth, the occupancy decline is limiting its revenue potential.
-In comparison, the comps, averaging 300 units, are performing slightly better in terms of occupancy with an average rate of 92.4%, which has increased by 2.1 percentage points. However, their RevPau is $1,330, which has decreased slightly by 0.2%, and their NER is $1,441, down 2.2%. The comps are facing challenges with rental rates, resulting in a decline in both RevPau and NER, even though they have managed to increase occupancy.
-Leading Indicators
-ATR % Analysis:
-The Bailey: The Availability to Rent (ATR) percentage currently stands at 11.3%, which is significantly higher than the ideal range for a stabilized property and indicates elevated availability. A higher ATR % suggests that leasing activity is slower than desired, potentially due to factors such as increased competition or pricing sensitivity. The slight increase in ATR %, coupled with the declining occupancy, is a concern and should be closely monitored. To achieve a healthier ATR %, The Bailey would need to reduce its ATR to below 6%, which would require adding approximately 5 new leases per week.
-Comps: The comps are experiencing a lower ATR % at 5.2%, which is within the desirable range, suggesting healthier market conditions. This lower ATR % reflects their ability to manage supply and demand more effectively compared to The Bailey. The comps’ ATR % has decreased slightly, indicating that they are successfully maintaining occupancy while experiencing limited availabilities. To sustain this ATR %, the comps need to secure about 4 new leases per week, which is in line with their current leasing performance.
-Traffic in the Last 7 Days:
-The Bailey: The property recorded 14 traffic visits in the last 7 days, although this represents a slight decrease. While the current traffic level is reasonable, it is not sufficient to address the high ATR % and boost occupancy. To reduce the ATR and achieve optimal leasing results, The Bailey would need to generate approximately 26 traffic visits per week. The recent decline in traffic is a concern and should be addressed with targeted marketing and outreach efforts to draw in more prospective tenants.
-Comps: The comps had 8 traffic visits in the last 7 days, with a slight downward trend. This level of traffic is relatively low, but the comps have been more efficient in converting this traffic into leases, as evidenced by their higher closing ratio. To maintain their current ATR % and leasing momentum, the comps would need about 11 traffic visits per week. The comps should focus on maintaining or increasing traffic levels to sustain their leasing performance.
-Leases in the Last 7 Days:
-The Bailey: The property secured 5 new leases in the last 7 days, representing a moderate leasing pace. However, this is not sufficient to significantly reduce the ATR %, especially with the current occupancy decline. The Bailey’s historical closing ratio is 0.28, meaning that around 28% of traffic converts into leases. To improve overall leasing performance and reduce the ATR %, The Bailey would need to increase its closing ratio or raise its traffic levels.
-Comps: The comps secured 3 leases in the last 7 days, which is slightly below their ideal pace, but their higher closing ratio of 0.34 (or 34%) allows them to leverage their traffic more effectively. The comps need to secure about 4 leases per week to maintain their current ATR %, which is aligned with their historical performance.
-Overall Analysis
-The Bailey is facing challenges with its ATR %, which is elevated at 11.3%, well above the optimal range. The slight increase in ATR %, coupled with a decline in occupancy, indicates that while the property is pushing rent growth, it is struggling to attract and convert enough traffic to fill its available units. The recent decrease in traffic is a concern and should be addressed promptly with targeted marketing initiatives to improve leasing velocity. Additionally, efforts to boost the closing ratio, currently at 28%, would be beneficial in reducing the ATR %.
-In contrast, the comps, despite a lower ATR % and higher occupancy, are experiencing challenges of their own, namely, declining rental rates which are impacting their RevPau and NER. While their traffic levels are lower, their higher closing ratio of 34% allows them to lease units more efficiently, supporting their current occupancy levels. However, the comps need to focus on increasing traffic to sustain their leasing momentum and prevent further erosion of rental rates.
-Overall, The Bailey should prioritize improving its traffic generation, reducing its ATR %, and increasing its occupancy levels to achieve stronger revenue performance. A comprehensive marketing and leasing strategy, coupled with targeted rent management, will be essential in addressing these challenges and positioning the property competitively within the market.</t>
-  </si>
-  <si>
-    <t>Sterling Manor Apartments Analysis
-Current Performance Analysis
-Sterling Manor Apartments, a stabilized property with 207 units, is performing well with an occupancy rate of 97.1%, which has increased by 1.6 percentage points in the last month. The property’s Revenue Per Available Unit (RevPau) is $2,184, showing a substantial increase of 21.0%. This growth in RevPau is driven by a 19.1% increase in Net Effective Rent (NER) to $2,249, indicating that the property is successfully pushing rents while maintaining high occupancy.
-In comparison, the comps, averaging 258 units, have a slightly lower occupancy rate of 96.0%, which has increased by 0.9 percentage points. Their RevPau is $1,969, showing a more modest increase of 2.8%. The comps have a Net Effective Rent of $2,050, which has increased by a more moderate 1.9%. The comps’ performance, while solid, lags behind Sterling Manor Apartments in terms of both occupancy and rent growth.
-Leading Indicators
-ATR % Analysis:
-Sterling Manor Apartments: The Availability to Rent (ATR) percentage is currently at 3.4%, which is below the ideal range of 6% or lower. The slight decline in ATR % indicates that demand is outpacing supply, which is a positive sign for the property. A lower ATR % suggests that the property is effectively matching its leasing pace with incoming demand, resulting in fewer vacant units.
-Comps: The comps have a higher ATR % at 7.5%, which is above the optimal range. This indicates that the comps have a larger inventory of available units, which could pose challenges in maintaining occupancy and rent growth. The slight increase in ATR % suggests that while the comps are leasing, they are not doing so as effectively as Sterling Manor Apartments.
-Traffic Over the Last 7 Days:
-Sterling Manor Apartments: The property recorded 4 traffic pieces in the last 7 days, with a slight downward trend. To maintain its current leasing pace and reduce the ATR % further, Sterling Manor Apartments would ideally need to generate about 7 traffic pieces per week. The current level of traffic suggests that the property may need to bolster its marketing efforts to attract more prospective tenants.
-Comps: The comps recorded 5 traffic pieces in the last 7 days, with minimal change. They would need to generate about 10 traffic pieces per week to support their leasing goals and reduce their ATR % to a more optimal level. The comps’ current traffic level is adequate but leaves little room for error in meeting their performance targets.
-Leases Over the Last 7 Days:
-Sterling Manor Apartments: The property secured 1 lease in the last 7 days, with a slight downward trend. With a historical closing ratio of 0.44, Sterling Manor Apartments converts approximately 44% of its traffic into leases. To maintain its current occupancy and continue reducing the ATR %, the property needs to secure about 3 leases per week. The current leasing pace is below this target, indicating a need to improve conversion rates or increase traffic.
-Comps: The comps secured 2 leases in the last 7 days, with a slight upward trend, and have a historical closing ratio of 0.42, meaning they convert about 42% of their traffic into leases. To maintain their current performance and reduce their ATR %, the comps need to secure about 4 leases per week. The comps are meeting this target, but their leasing activity may need to be bolstered to maintain occupancy.
-Overall Analysis
-Sterling Manor Apartments is performing well with high occupancy, strong rent growth, and a relatively low ATR %. The property’s focus on pushing rents while maintaining high occupancy has been successful, but efforts are needed to increase traffic and lease conversions to meet the target leasing pace. The comps, while showing more modest performance, have a higher ATR %, suggesting a larger inventory of available units that could impact their ability to sustain rent growth. Both Sterling Manor Apartments and its comps should closely monitor their ATR % and leasing metrics to ensure continued success in a competitive market.</t>
-  </si>
-  <si>
-    <t>Grande Crescent Park Analysis
-Current Performance Analysis
-Grande Crescent Park, a stabilized property with 161 units, is currently experiencing a slight decline in occupancy, which stands at 91.3%, down by 1.7 percentage points. The property’s Revenue Per Available Unit (RevPau) is $1,398, reflecting a modest increase of 1.1%. This growth in RevPau is supported by a stronger increase in Net Effective Rent (NER), which is at $1,532, up by 3.0%. While the NER growth is positive, the decline in occupancy suggests that the property is primarily achieving this rent increase by pushing harder on existing tenants rather than through new leases or market-driven pricing.
-In comparison, the comps, which have an average of 305 units, are also experiencing a decline in occupancy, matching Grande Crescent Park at 91.3%, but with a slightly stronger decrease of 1.4 percentage points. The comps RevPau is slightly higher at $1,412, although this reflects a significant decrease of 2.1%, driven by this drop in occupancy. The comps’ NER stands at $1,546, which is down by 0.7%. While the decline in NER is less severe at the comps, the combination of lower RevPau and occupancy suggests that these properties are facing challenges in maintaining rental income stability.
-Leading Indicators
-ATR % Analysis:
-Grande Crescent Park: The Availability to Rent (ATR) percentage, which reflects the proportion of available units, is currently at 9.9%, which is higher than the ideal range, indicating a significant availability of units that are not being absorbed as quickly as desired. The slight decline in the ATR % is encouraging, but the current level remains elevated, signaling the need for more focused leasing efforts.
-Comps: The comps have a lower ATR % at 4.1%, which is within the ideal range and suggests a healthier market position with a more balanced supply and demand. The ATR % for the comps has increased slightly, but this is still a relatively low level, indicating that these properties are better positioned in terms of unit availability compared to Grande Crescent Park.
-Traffic in the Last 7 Days:
-Grande Crescent Park: The property did not record any traffic in the last 7 days. This is concerning and suggests a lack of prospective tenant interest, which could be contributing to the higher ATR % and the challenges in maintaining occupancy. Generating traffic through effective marketing and outreach is crucial to increase leasing activity.
-Comps: The comps recorded 8.7 traffic pieces in the last 7 days, which is significantly higher than Grande Crescent Park's zero traffic. This indicates that the comps are attracting more potential tenants, giving them a competitive advantage in securing leases.
-Leases in the Last 7 Days:
-Grande Crescent Park: The property did not secure any leases in the last 7 days. The historical closing ratio for this property is 0.5, which means that it typically converts 50% of its traffic into leases. However, without any traffic, there are no leasing opportunities, and this will heavily impact occupancy and revenue. Efforts to drive traffic and improve the closing ratio are critical.
-Comps: The comps secured 1.6 leases in the last 7 days. While this is a lower historical closing ratio of 0.3, the higher traffic volume allows them to maintain leasing activity. This indicates that the comps are better positioned to capitalize on their visitor flow, even though their individual leasing efficiency is lower than Grande Crescent Park's.
-Overall Analysis
-Grande Crescent Park is facing challenges with declining occupancy, an elevated ATR %, and no recent traffic or lease activity. The slight increases in RevPau and NER indicate that the property is successfully pushing for rent increases but at the cost of losing tenants. Immediate action must be taken to generate traffic, improve leasing efficiency, and reduce the high ATR % to stabilize performance.
-The comps, while also experiencing a decline in occupancy, have a stronger position with lower ATR %, higher traffic, and sufficient leasing activity to maintain stability. However, the comps must address their own occupancy and rent decline issues to avoid prolonged downturns. Grande Crescent Park needs to focus on boosting traffic and improving its competitive positioning to regain leasing momentum and reduce its elevated ATR %.</t>
-  </si>
-  <si>
-    <t>Beach Club Apartment Homes Analysis
-Current Performance Analysis
-Beach Club Apartment Homes, a stabilized property with 200 units, experienced a slight decrease in occupancy from 93.7% to 91.0% in the last month, a decline of 2.7 percentage points. The property's average rent per occupied unit (RevPau) is $1,365, which decreased by 3.7% in the same period. This decline in occupancy and RevPau is concerning, suggesting a potential oversupply or competitive pressures in the market.
-The property's Net Effective Rent (NER) is $1,500, which also saw a decline of 1.1%. The decrease in both RevPau and NER indicates that while the property may be reducing rents to attract tenants, it is not yet having a significant positive impact on occupancy. This could be a concern if these trends continue, as further rent reductions may be needed to maintain or increase occupancy, leading to potential revenue challenges.
-In comparison, the comps, with an average of 308 units, also experienced a decline in occupancy from 95.1% to 92.4%, a similar drop of 2.7 percentage points. Their RevPau is slightly lower at $1,346, showing a more significant decline of 4.4%, likely due to both decreased occupancy and potential rent reductions. The comps' NER is $1,455, which decreased by 1.8%, similar to the subject property. These performance metrics indicate that while the comps are facing similar challenges in occupancy and rental income, they are slightly underperforming Beach Club Apartment Homes.
-Leading Indicators
-ATR % Analysis:
-Beach Club Apartment Homes: The Availability to Rent (ATR) percentage stands at 6.0%, which is at the upper end of what is typically considered healthy. An ATR below 6% is generally considered good, while anything above that suggests an oversupply of available units. The slight increase in ATR %, coupled with the decreases in both occupancy and RevPau, indicates that while the property continues to lease, the pace is not sufficient to bring the supply and demand balance back into a healthier range. Efforts to reduce ATR % should be a priority, as this could lead to further downward pressure on rents and occupancy if not addressed promptly.
-Comps: The comps have a slightly higher ATR % at 6.0%, similar to Beach Club Apartment Homes, indicating that they are facing similar challenges in balancing supply and demand. The comps have seen a recent increase in ATR %, suggesting that they may be experiencing more pronounced issues with leasing and potential oversupply. This trend requires careful monitoring, as it could lead to further rent reductions and weaker performance if not managed effectively.
-Traffic Over the Last 7 Days:
-Beach Club Apartment Homes: The property recorded 3 traffic pieces in the last 7 days, which is relatively low and may contribute to the ongoing occupancy challenges. To meet performance targets, the property needs around 4 traffic pieces per week. The current level of traffic indicates that increased marketing efforts and more effective lead generation strategies are needed to attract more prospective tenants.
-Comps: The comps recorded 5 traffic pieces in the last 7 days, slightly higher than Beach Club Apartment Homes. However, given their larger unit count, they need significantly more traffic to support their leasing goals. The comps require approximately 18 traffic pieces per week, more than four times their current level, to meet their target. This indicates that while the comps are performing better than Beach Club Apartment Homes in terms of traffic, they still face a significant gap in achieving the necessary leasing activity to stabilize occupancy.
-Leases Over the Last 7 Days:
-Beach Club Apartment Homes: The property secured 1 lease in the last 7 days, which is below the necessary pace to improve occupancy and reduce the ATR %. The current leasing velocity is insufficient, considering that the property needs approximately 3 leases per week to make a meaningful impact on the available inventory. The historical closing ratio is relatively high at 69%, indicating that the property is effective at converting leads into leases, but the low volume of traffic limits its leasing effectiveness.
-Comps: The comps also secured 1 lease in the last 7 days, but with a much lower historical closing ratio of 13%, suggesting they have more difficulty converting traffic into signed leases. The comps need about 2-3 leases per week to maintain their current ATR %, meaning they are meeting their leasing targets, but the low closing ratio remains a concern. Improving this conversion rate will be critical for the comps to enhance their overall leasing performance.
-Overall Analysis
-Beach Club Apartment Homes is facing challenges with decreasing occupancy and rental income, reflected in the decline in both RevPau and NER. The property's ATR % is slightly elevated, and although it has a high historical closing ratio, the low levels of traffic and leasing activity are hindering its ability to address these issues. To improve performance, the property must focus on driving more traffic and increasing leasing velocity, potentially through enhanced marketing strategies or targeted outreach to prospective tenants.
-The comps, while slightly underperforming Beach Club Apartment Homes, are facing similar challenges, with comparable declines in occupancy and rental income. Their ATR % is also at a concerning level, and the low closing ratio highlights the need for improved leasing efficiency. Both Beach Club Apartment Homes and its comps must closely monitor the ATR %, focus on boosting traffic and lease conversion rates, and carefully manage rental rates to address these market challenges and stabilize their performance.</t>
-  </si>
-  <si>
-    <t>Tiburon Apartments Analysis
-Current Performance Analysis
-Tiburon Apartments, a stabilized property with 320 units, is currently experiencing an occupancy rate of 88.1%, which has decreased by 1.4 percentage points. The property's Revenue Per Available Unit (RevPau) is $1,130, showing a slight decline of 0.6%. This decrease in RevPau is a result of the slight dip in occupancy, as the property is able to maintain stable rent levels with a modest 0.8% increase in Net Effective Rent (NER) to $1,283. Despite the decline in occupancy, the property is successfully implementing rent growth strategies to sustain its NER and mitigate larger drops in RevPau. 
-In comparison, the comps, which have an average of 269 units, demonstrate a higher occupancy rate at 93.9%, which has increased by 0.3 percentage points. The comps' RevPau is slightly higher at $1,385, with a marginal increase of 0.1%. However, the comps are struggling to maintain their NER, which has decreased by 0.1% to $1,473. This suggests that while the comps are able to drive higher occupancy, they are sacrificing rent growth, resulting in slower revenue increases compared to Tiburon Apartments.
-Leading Indicators
-ATR % Analysis:
-Tiburon Apartments: The Availability to Rent (ATR) percentage is 5.0%, indicating a moderate availability of units. Although the ATR % has slightly decreased, the property is still experiencing a healthy level of leasing activity. An ATR % below 7% is generally considered healthy, so Tiburon Apartments is within the desired range. However, the decreasing trend in ATR % suggests that the property needs to continue to focus on leasing efforts to maintain this positive momentum and prevent an increase in available inventory.
-Comps: The comps have a higher ATR % at 6.9%, which is also within an acceptable range but is slightly higher than ideal. This suggests that while the comps are performing well, they may need to be cautious about potential oversupply if the ATR % continues to rise. The slight upward trend in ATR % indicates that the comps should focus on driving leases to reduce this inventory and stabilize the market position.
-Traffic Over the Last 7 Days:
-Tiburon Apartments: The property recorded 4 traffic pieces in the last 7 days, which is a relatively low level of visitor activity. To drive leasing and maintain the current occupancy, Tiburon Apartments will need to increase its traffic to around 7 traffic pieces per week. This traffic deficit indicates a need for enhanced marketing and outreach efforts to attract more prospective tenants to the property.
-Comps: The comps have experienced higher traffic with an average of 14 traffic pieces in the last 7 days. This suggests a stronger market presence and a greater ability to attract potential residents. However, the comps still need to maintain or slightly increase their traffic to meet their leasing targets, as indicated by the required traffic of 14 traffic pieces per week. The consistent traffic levels are supporting their leasing performance, but additional efforts may be needed to achieve optimal results.
-Leases Over the Last 7 Days:
-Tiburon Apartments: The property has not secured any new leases in the last 7 days, which is impacting its occupancy and revenue growth. The historical data shows a strong closing ratio of 0.68, indicating that when traffic is present, Tiburon Apartments has a high success rate in converting prospects into leases. However, with the current low traffic levels, this strong conversion rate is not enough to overcome the decline in occupancy. The property needs to focus on increasing traffic to capitalize on its high closing ratio and drive leasing activity.
-Comps: The comps, on the other hand, have secured 3 leases in the last 7 days, showcasing a lower but consistent closing ratio of 0.28. Despite their lower conversion rate, the comps are benefiting from higher traffic levels, which is supporting their leasing performance. However, the comps will need to maintain or improve their current traffic levels to continue this leasing momentum and avoid any potential declines in occupancy.
-Overall Analysis
-Tiburon Apartments is facing challenges with a slight decrease in occupancy, which is affecting its revenue growth. While the property is managing to maintain stable NER and RevPau, it needs to focus on increasing traffic to support its strong closing ratio and boost leasing activity. The current ATR % is healthy, but without an improvement in traffic, the property may struggle to regain occupancy momentum.
-The comps, with higher occupancy but lower NER growth, are in a relatively stronger position but still need to address their slight increase in ATR % and maintain their traffic levels to sustain leasing momentum. Tiburon Apartments should concentrate on driving more potential tenants to the property through targeted marketing and outreach efforts to successfully compete with the comps and improve its overall performance.</t>
-  </si>
-  <si>
-    <t>Avilla Oakridge Analysis
-Current Performance Analysis
-Avilla Oakridge, a stabilized property with 209 units, has an occupancy rate of 88.0%, which has decreased by 0.6 percentage points. The property’s Revenue Per Available Unit (RevPau) is $1,411, which has declined by 7.3%, driven by a 6.7% decrease in Net Effective Rent (NER) to $1,603. This indicates that while the property is maintaining relatively high occupancy, there are challenges in sustaining rental rates, leading to declining revenue.
-In comparison, the comps, with an average of 280 units, have a slightly higher occupancy rate at 90.5%, which has decreased marginally by 0.1 percentage points. Their RevPau stands at $1,451, showing a modest increase of 1.0%, and their NER is $1,612, up by 0.8%. The comps are experiencing stable or slightly increasing rents and revenues, although at a slower pace compared to the subject property.
-Leading Indicators
-ATR % Analysis:
-Avilla Oakridge: The Availability to Rent (ATR) percentage is currently at 11.5%, which is considered high and indicates a relatively large availability of units. The decreasing trend suggests that leasing activity is taking place, but there is still room for improvement. An ATR % above 6% typically signifies a market with excess inventory, so efforts should be focused on reducing this rate to a healthier level.
-Comps: The comps have an ATR % of 8.7%, which is lower than that of Avilla Oakridge but still slightly elevated. While their ATR % is decreasing, a value above 6% indicates that they too face some supply-demand challenges, albeit to a lesser extent.
-Traffic Over the Last 7 Days:
-Avilla Oakridge: The property recorded 12 traffic pieces in the last 7 days, suggesting a moderate level of interest. However, this traffic volume is not sufficient to meet the property’s leasing needs. To achieve a 6% ATR, Avilla Oakridge needs to generate approximately 16 traffic pieces per week. The current traffic level indicates a need to enhance marketing efforts to attract more prospective tenants.
-Comps: The comps averaged 14 traffic pieces in the last 7 days, slightly below the subject property. However, with an ATR % that is lower than that of Avilla Oakridge, the comps’ current traffic level appears adequate to support leasing goals.
-Leases Over the Last 7 Days:
-Avilla Oakridge: The property has secured 1 lease in the last 7 days, with a historical conversion rate or closing ratio of 0.29. This means that around 29% of visitors are converting into leases, which is relatively strong. However, with the current traffic and occupancy levels, Avilla Oakridge needs to secure approximately 5 leases per week to lower its ATR % to a more optimal level. This suggests that while the closing rate is good, increasing the quantity of traffic is key to improving overall performance.
-Comps: The comps secured an average of 4 leases in the last 7 days, with a higher closing ratio of 0.35. Their leasing performance is stronger, requiring about 6 leases per week to achieve a 6% ATR. The comps are consistently performing better in terms of converting traffic into leases.
-Overall Analysis
-Avilla Oakridge is grappling with a decline in RevPau and NER, which is reflective of the challenges in maintaining rental rates amidst a high ATR %. The property’s traffic levels are below what is necessary to support leasing activity, indicating a need for increased marketing efforts. While the historical closing ratio is strong, the current limited traffic flow is preventing the property from reaching its leasing targets.
-The comps, although facing similar supply-demand challenges, are in a better position with lower ATR %, higher occupancy, and stable or slightly increasing RevPau. Their higher traffic levels and stronger lease conversion rates contribute to these favorable performance metrics. Avilla Oakridge must focus on increasing traffic and reducing its ATR % to align with the comps and improve overall performance.</t>
-  </si>
-  <si>
-    <t>Lakeland Estates Apartments Analysis
-Current Performance Analysis
-Lakeland Estates Apartments, a stabilized property with 264 units, is currently operating at an occupancy rate of 93.5%, which has increased by 0.8 percentage points. The property's Revenue Per Available Unit (RevPau) stands at $1,232, which has decreased by 0.6%. This decline in RevPau is mirrored by a 1.4% decrease in Net Effective Rent (NER) to $1,317. While the slight increase in occupancy is positive, the decline in both RevPau and NER suggests that the property is facing some rent sensitivity, needing to lower rents slightly to maintain occupancy levels.
-In comparison, the comps, with an average of 290 units, have a slightly lower occupancy rate of 93.1%, which has increased by 0.3 percentage points. Their RevPau is $1,286, reflecting a larger decline of 1.7%, and their NER is $1,382, down by 2.0%. The comps are also experiencing rent sensitivity, with sharper declines in both RevPau and NER compared to Lakeland Estates Apartments. Despite this, their overall performance is slightly weaker than that of Lakeland Estates Apartments, which is maintaining higher rent levels and a better NER.
-Leading Indicators
-ATR % Analysis:
-Lakeland Estates Apartments: The Availability to Rent (ATR) rate is currently at 9.5%, which has decreased slightly. The ATR % measures the proportion of vacant units and is an important indicator of market demand. While the current ATR % is elevated, indicating an oversupply of available units, the slight decrease is positive. Nevertheless, the property should continue efforts to bring this rate down closer to the industry standard of 6% or lower to optimize occupancy and reduce competitive pressures. The property is currently adding approximately 2.8 ATR percentage points per week, suggesting that it needs to maintain strong leasing momentum to reduce this rate.
-Comps: The comps have a lower ATR % at 5.0%, which is well within a healthy range and indicates strong market demand with limited available inventory. The comps' ATR % is declining, which is a positive trend. This lower ATR % suggests that the comps are in a more favorable position than Lakeland Estates Apartments in terms of supply and demand dynamics, although both properties still have some room for improvement.
-Traffic in the Last 7 Days:
-Lakeland Estates Apartments: The property recorded 15 traffic pieces in the last 7 days, which is showing an upward trend. This level of traffic is decent and should help support leasing activity. However, to maintain leasing momentum and reduce the ATR %, Lakeland Estates Apartments needs to generate approximately 10 traffic pieces per week. The current traffic levels are meeting this target, which is a positive sign, but the property should continue to focus on attracting prospective tenants to sustain its leasing pace.
-Comps: The comps recorded 12 traffic pieces in the last 7 days, which is showing a more modest increase. This level of traffic is slightly lower than that of Lakeland Estates Apartments but is still adequate to support leasing activity. The comps need about 8-9 traffic pieces per week to maintain their current leasing pace and ATR %, which they are meeting. However, the comps should strive to increase their traffic levels to match or exceed those of Lakeland Estates Apartments to stay competitive.
-Leases in the Last 7 Days:
-Lakeland Estates Apartments: The property secured 7 leases in the last 7 days, with a historical closing ratio of 0.39, meaning it converts 39% of its traffic into leases. While this is a strong conversion rate, the property needs to increase its leasing velocity to further reduce the ATR % and maximize occupancy. Lakeland Estates Apartments is currently leasing at a sufficient pace, but to achieve its target of a 6% ATR, the property needs to secure approximately 4 leases per week.
-Comps: The comps secured 2 leases in the last 7 days, with a lower historical closing ratio of 0.25, meaning they convert 25% of their traffic into leases. The comps need to improve their lease conversion rate and increase their leasing velocity to support their current ATR %, which they are barely meeting. The comps should focus on both improving traffic generation and increasing lease conversion efficiency to maintain their competitive position.
-Overall Analysis
-Lakeland Estates Apartments is performing relatively well, with improving occupancy and adequate traffic levels. The property's ATR %, while still slightly elevated, is moving in the right direction, and its strong lease conversion rate is a positive factor. However, the decline in RevPau and NER indicates some rent sensitivity, and the property should continue to carefully manage rents to balance occupancy and revenue growth effectively.
-The comps, despite having a lower ATR %, are experiencing sharper declines in both RevPau and NER, suggesting more significant rent pressures. The comps also have a lower traffic volume and closing ratio, which could pose challenges for maintaining occupancy and rental rates. Lakeland Estates Apartments should continue to focus on its leasing efforts, particularly in driving traffic, while closely monitoring market conditions to sustain its performance and reduce its ATR %.</t>
-  </si>
-  <si>
-    <t>Vie at The Medical Center Apartment Homes Analysis
-Current Performance Analysis
-Vie at The Medical Center Apartment Homes, a stabilized property with 192 units, is currently at a 92.2% occupancy, which has decreased by 1.1 percentage points. The property’s Revenue Per Available Unit (RevPau) stands at $1,160, reflecting a positive trend with a 2.3% increase. This growth in RevPau is supported by a 3.5% increase in Net Effective Rent (NER) to $1,258, indicating that the property is successfully pushing rents higher, despite a slight occupancy decline.
-In comparison, the comps, with an average of 258.5 units, are at an 88.9% occupancy, up by 0.6 percentage points. Their RevPau is slightly higher at $1,194, showing a smaller increase of 0.5%, and their NER is $1,338, which has declined by 0.3%. The comps are experiencing more modest performance, with stable to slightly increasing occupancy but some challenges in rent growth, as indicated by the declining NER.
-Leading Indicators
-ATR % Analysis:
-Vie at The Medical Center Apartment Homes: The Availability to Rent (ATR) percentage for Vie at The Medical Center is currently at 7.8%, which is slightly higher than the ideal range. The slight increase in the ATR %, coupled with the decline in occupancy, suggests that the property may be facing some lease-up challenges or increased competition. However, the ATR % is still within a manageable range, although efforts should be made to reduce it to improve overall leasing performance.
-Comps: The comps have an ATR % of 7.4%, which is slightly lower than Vie at The Medical Center but still within a similar range. The comps have seen a slight decrease in ATR %, which is a positive sign indicating that they are effectively leasing units and managing their available inventory.
-Traffic Over the Last 7 Days:
-Vie at The Medical Center Apartment Homes: The property recorded 7 traffic pieces in the last 7 days, which is a moderate level. With the current occupancy and leasing challenges, maintaining or increasing traffic will be crucial to driving leasing activity. In order to meet performance targets and reduce the ATR %, Vie at The Medical Center would need to generate approximately 9 traffic pieces per week, suggesting that additional marketing efforts may be necessary.
-Comps: The comps have higher traffic levels, with 15 traffic pieces recorded in the last 7 days. This suggests that the comps are attracting more prospective tenants, which may be contributing to their higher leasing performance.
-Leases Over the Last 7 Days:
-Vie at The Medical Center Apartment Homes: The property has seen a decrease of 1 lease in the last 7 days, with a current leasing velocity of -1 lease per week. This negative trend in leasing is concerning and is likely contributing to the increase in the ATR %. The historical closing ratio for Vie at The Medical Center is 0.24, which means that it converts 24% of its traffic into leases. To maintain stable occupancy and effectively reduce the ATR %, the property needs to secure approximately 2 leases per week. Improving the leasing performance will be crucial to turning around the current occupancy and ATR % trends.
-Comps: The comps have performed better in terms of leasing, securing 5 leases in the last 7 days with a higher historical closing ratio of 0.4, meaning they convert 40% of their traffic into leases. The comps need around 5 leases per week to maintain their current ATR %, which indicates that they are successfully meeting their leasing targets.
-Overall Analysis
-Vie at The Medical Center Apartment Homes is facing challenges with a slight decline in occupancy, a moderate ATR %, and a negative leasing trend. The property’s ability to push rents higher with a positive NER is positive, but without improvements in occupancy and leasing velocity, the ATR % may continue to be a concern. Increasing traffic and improving the closing ratio will be key focuses for Vie at The Medical Center to stabilize the property’s performance.
-The comps, although performing better in terms of occupancy and leasing velocity, are seeing limited growth in RevPau and are struggling to increase rents, as reflected in their declining NER. Higher traffic levels are helping the comps maintain occupancy, but they need to convert that traffic more efficiently to leases in order to sustain their current performance. The comps’ higher historical closing ratio gives them an advantage in this regard, but efforts should be made to mitigate the declining rents and improve their competitive position.
-In summary, Vie at The Medical Center Apartment Homes should concentrate on increasing traffic and improving lease conversions to overcome its occupancy and ATR % challenges. The comps, while maintaining occupancy, need to address the NER decline and focus on optimizing their leasing strategies. Both properties should closely monitor and adjust their marketing and leasing efforts to remain competitive in the market.</t>
+Vie at The Medical Center: The property experienced a negative leasing rate of -1 lease per week, indicating a net loss of tenants. Historically, the property has a closing ratio of 0.24, meaning it converts 24% of traffic into leases. To improve performance and reduce the ATR %, Vie at The Medical Center needs to secure approximately 2 to 3 leases per week. The current negative leasing trend is concerning and suggests an urgent need to focus on retention and improved leasing strategies.
+Comps: The comps are securing 5 leases per week, which is above their target, benefiting from a higher closing ratio of 0.4. This means they convert 40% of their traffic into leases, significantly outperforming Vie at The Medical Center. The comps are on track to maintain or improve occupancy, supported by strong leasing efforts.
+Overall Analysis
+Vie at The Medical Center Apartment Homes is facing challenges with declining occupancy, a higher ATR %, and reduced traffic, alongside a negative leasing trend. The property must focus on boosting traffic and improving lease conversions to stabilize occupancy and reduce the ATR %. The current rent increases are positive, but without improved leasing performance, maintaining revenue growth could become difficult.
+The comps, while also having an ATR % above the ideal range, are in a better position with stronger traffic and higher lease conversions. Their ability to sustain occupancy and revenue is more robust, and their current strategies seem effective. Vie at The Medical Center needs to address its leasing and traffic challenges promptly to remain competitive in this market.</t>
   </si>
   <si>
     <t>The Rose on Sybil Analysis
 Current Performance Analysis
-The Rose on Sybil, a stabilized property with 130 units, has an occupancy rate of 86.2%, representing a significant increase of 3.8 percentage points. The property’s Revenue Per Available Unit (RevPau) is $895, which has risen by 7.8%. This RevPau growth is primarily driven by a 3.9% increase in Net Effective Rent (NER) to $1,038, as well as the strong boost in occupancy. The property is effectively managing rent increases while capitalizing on rising demand, resulting in solid revenue growth.
-In comparison, the comps, which have an average of 185 units, show a slightly higher occupancy rate at 88.2%, reflecting a 4.5 percentage point increase. Their RevPau is $932, up by 6.3%, driven by a more modest 1.9% increase in NER to $1,058. The comps are also experiencing positive performance, although their rent growth is more limited compared to The Rose on Sybil.
-Leading Indicators
-ATR % Analysis:
-The Rose on Sybil: The Availability to Rent (ATR) percentage, which measures the proportion of units available for lease, is currently at 12.3%. This is a relatively high ATR %, indicating that a significant portion of units is still on the market. The slight decrease in ATR % is encouraging, but further reductions are necessary to reach a healthier level. A target ATR % of below 6% is generally considered optimal, as it suggests a balanced level of supply and demand. The Rose on Sybil needs to continue focusing on reducing its ATR % through effective leasing strategies.
-Comps: The comps have a lower ATR % at 7.6%, which is closer to the ideal range. Although their ATR % is higher than the 6% target, the comps are in a more favorable position than The Rose on Sybil. The slight increase in the comps' ATR % suggests they may be experiencing challenges in absorbing available inventory, and they should work on reducing it to maintain healthy leasing conditions.
-Traffic Over the Last 7 Days:
-The Rose on Sybil: The property recorded 7 traffic pieces in the most recent 7-day period. This level of traffic is steady but needs improvement. To reduce the ATR % and achieve optimal leasing performance, The Rose on Sybil needs to generate approximately 6-7 traffic pieces per week, suggesting that current traffic levels are just sufficient. However, any decrease in traffic could jeopardize the property's leasing progress, so maintaining or increasing traffic is crucial.
-Comps: The comps recorded 6 traffic pieces in the past week, which is slightly below The Rose on Sybil's traffic. The comps aim to maintain a 6% ATR but should strive to increase traffic to avoid any potential occupancy declines. To meet their leasing goals, the comps need about 7 traffic pieces per week, meaning they are very close to their target.
-Leases Over the Last 7 Days:
-The Rose on Sybil: The property secured 7 leases in the most recent 7-day period, with a historical closing ratio of 0.53, indicating that more than half of the property’s traffic converts to leases. This conversion rate is strong and helps explain the property's recent boost in occupancy. The Rose on Sybil needs to maintain this high closing ratio to continue driving leasing momentum and gradually reduce its ATR.
-Comps: The comps secured 2 leases in the past week, with a lower closing ratio of 0.36. This suggests that the comps are less effective in converting traffic into leases compared to The Rose on Sybil. With their lower leasing velocity, the comps need to focus on improving their traffic generation and conversion rate to maintain stable occupancy and reduce their ATR %.
-Overall Analysis
-The Rose on Sybil is performing well, with strong RevPau growth, driven by both rising rents and increased occupancy. However, the property's high ATR % remains a concern, and although recent leasing activity has been robust, sustaining the momentum will require continued focus on traffic generation and maintaining the high leasing conversion rate.
-The comps, while showing similar occupancy gains, are struggling to match The Rose on Sybil's leasing efficiency. Their lower ATR % is an advantage, but they need to improve their traffic and leasing performance to stay competitive. Both The Rose on Sybil and the comps should closely monitor their ATR % and traffic levels to ensure they are meeting leasing targets and maintaining a healthy supply-demand balance.</t>
+The Rose on Sybil, a stabilized property with 130 units, has an occupancy rate of 86.2%, up by 3.8%. The property’s Revenue Per Available Unit (RevPau) is $895, reflecting a strong increase of 7.8%. This growth in RevPau is driven by a 3.9% increase in Net Effective Rent (NER) to $1,038, indicating effective rent management and solid leasing activity. The property’s performance is improving, but there is still room to grow occupancy and revenue further.
+In comparison, the comps, with an average of 185 units, have a slightly higher occupancy rate of 88.2%, with a more significant increase of 4.5%. Their RevPau is $932, up 6.3%, and their NER is $1,058, up 1.9%. The comps are performing well, with stable occupancy and revenue growth, though their rent increases are more modest than those at The Rose on Sybil.
+Leading Indicators
+ATR % Analysis:
+The Rose on Sybil: The Availability to Rent (ATR) percentage is currently at 12.3%, which is above the ideal range but showing improvement with a decrease. An ATR % above 10% can be concerning, as it indicates an oversupply of available units. The slight decline is positive, suggesting that leasing activity is starting to catch up, but further efforts are needed to bring this percentage down to a more optimal level.
+Comps: The comps have a lower ATR % at 7.6%, which is within a more comfortable range. However, it has increased slightly, indicating that these properties also need to carefully manage their available inventory to prevent oversupply.
+Traffic in the Last 7 Days:
+The Rose on Sybil: The property recorded 7 traffic pieces in the last 7 days, which has declined. To continue improving performance and reduce the ATR %, The Rose on Sybil needs approximately 6 traffic pieces per week. The current level is adequate but should not drop further to maintain leasing momentum.
+Comps: The comps reported 6 traffic pieces in the last 7 days, which is slightly lower. They need around 7 traffic pieces per week to sustain their current performance. The comps are maintaining steady interest, but continued efforts are necessary to drive traffic.
+Leases in the Last 7 Days:
+The Rose on Sybil: The property secured 7 leases in the last 7 days, showing a strong leasing pace. With a high closing ratio of 0.53, The Rose on Sybil is converting over half of its traffic into leases, which is a strong performance. The property needs about 3 leases per week to maintain its current ATR %, so it is well-positioned to continue reducing availability if this pace is sustained.
+Comps: The comps secured 2 leases in the last 7 days, with a lower closing ratio of 0.36. They need approximately 2-3 leases per week to maintain their ATR %, putting them in a stable but less aggressive leasing position compared to The Rose on Sybil.
+Overall Analysis
+The Rose on Sybil is showing strong leasing performance with a high closing ratio and good rent growth, but it still faces challenges with a high ATR %. The property must continue to focus on attracting more traffic and reducing available inventory to further improve occupancy and revenue. The decrease in ATR % is a positive sign, but ongoing efforts are needed to sustain this trend.
+The comps are performing well with stable occupancy and rent growth, but they also need to manage their ATR % carefully. The lower closing ratio suggests that while they are generating interest, their lease conversions are less efficient than those at The Rose on Sybil. Continued attention to driving traffic and maintaining strong leasing performance will be key for both The Rose on Sybil and its comps as they work to balance supply and demand in the market.</t>
   </si>
   <si>
     <t>The Mill at Ironworks Plaza Analysis
 Current Performance Analysis
-The Mill at Ironworks Plaza, a stabilized property with 232 units, is performing well with an occupancy rate of 98.3%, showing a significant increase of 4.1 percentage points. The property's Revenue Per Available Unit (RevPau) is $1,830, which has increased by 1.8%. However, there has been a slight decline in Net Effective Rent (NER) to $1,862, down by 2.2%. This suggests that while occupancy is strong, there may be some rent sensitivity and potential pressure on effective rents, as indicated by the decline in NER despite the increase in RevPau.
-In comparison, the comps, with an average of 194 units, have a lower occupancy rate of 94.4%, which has remained stable with no significant change. Their RevPau is $1,665, reflecting an increase of 2.6%, and their NER is $1,756, up by 2.2%. The comps are also experiencing modest growth in both RevPau and NER, but their lower occupancy indicates more available units compared to The Mill at Ironworks Plaza.
-Leading Indicators
-ATR % Analysis:
-The Mill at Ironworks Plaza: The Availability to Rent (ATR) percentage is currently at 3.9%, which is relatively low and indicates a healthy market balance with limited availability. The slight decrease in ATR % suggests that the property is leasing units effectively, with demand keeping pace with supply. An ATR % below 6% is typically considered healthy, and The Mill at Ironworks Plaza is comfortably within this range, indicating a well-managed property with strong leasing activity.
-Comps: The comps, on the other hand, have a higher ATR % at 7.6%, which is above the optimal range. The significant increase in the ATR % is a concern as it suggests a potential oversupply or leasing challenges. This higher ATR % could lead to increased competitive pressures and may require aggressive marketing or rent concessions to reduce.
-Traffic in the Last 7 Days:
-The Mill at Ironworks Plaza: The property recorded 1 traffic piece in the last 7 days, which is quite low. This indicates that while there is still leasing activity, there may be a need to increase awareness and attract more prospective tenants. With an ATR % below 4%, the current traffic level is sufficient to maintain occupancy, but to drive further leasing and reduce the ATR %, it needs to increase traffic significantly.
-Comps: The comps have higher traffic with 3 traffic pieces in the last 7 days, indicating stronger market interest. However, this level of traffic is not sufficient to meet their leasing goals, especially considering their higher ATR %. The comps need to increase traffic to at least 5 pieces per week to support better leasing performance.
-Leases in the Last 7 Days:
-The Mill at Ironworks Plaza: The property secured 3 leases in the last 7 days, which is in line with its historical leasing performance. This leasing consistency is impressive, and with an ATR % below 4%, The Mill at Ironworks Plaza is well-positioned to continue this strong performance. The property has a high closing ratio of 100%, meaning that all traffic is effectively converting into leases. This is an excellent performance metric, reflecting a well-trained and efficient leasing team.
-Comps: The comps secured only 1 lease in the last 7 days, with a historical closing ratio of 32%. This indicates that while they have higher traffic, they are not converting as effectively as The Mill at Ironworks Plaza. The comps need to improve their lease conversion to take full advantage of their traffic and reduce their high ATR %.
-Overall Analysis
-The Mill at Ironworks Plaza is demonstrating strong performance with high occupancy, moderate rent growth, and effective lease conversion. The slight decline in NER suggests some rent sensitivity, but the property is still performing well overall. The low ATR % and high closing ratio are positive indicators of a well-managed property, although the property should focus on increasing traffic to support continued leasing momentum.
-The comps, with their higher ATR %, lower occupancy, and lower lease conversion rate, face more significant challenges in the market. While they are experiencing modest rent growth, their overall performance is weaker compared to The Mill at Ironworks Plaza. The comps need to reduce their ATR % and improve lease conversion, which will likely require a stronger focus on marketing and tenant retention strategies. Increasing traffic and refining their leasing processes will be crucial for the comps to compete effectively in the current leasing market.</t>
+The Mill at Ironworks Plaza, a stabilized property with 232 units, is performing strongly with an occupancy rate of 98.3%, which has increased by 4.1%. The property’s Revenue Per Available Unit (RevPau) is $1,830, up 1.8%, driven by high occupancy. However, the Net Effective Rent (NER) has decreased by 2.2% to $1,862, suggesting rent concessions or reductions may have been necessary to maintain occupancy.
+In comparison, the comps, averaging 195 units, have a lower occupancy of 94.4%, which has remained flat. Their RevPau is $1,665, up 2.6%, while their NER has increased by 2.2% to $1,756. The comps are showing moderate growth in both RevPau and NER, indicating they are able to increase rent while maintaining stable occupancy.
+Leading Indicators
+ATR % Analysis:
+The Mill at Ironworks Plaza: The Availability to Rent (ATR) percentage is at 3.9%, which is within a healthy range, indicating a balanced supply and demand. The slight decrease in ATR % suggests that the property is leasing well and maintaining limited availability, which is positive for maintaining high occupancy and rent levels.
+Comps: The comps have a higher ATR % at 7.6%, which is above the optimal range. This higher ATR % indicates more available units, which could put pressure on rental rates if not managed carefully. The increasing trend in ATR % could signal rising vacancy, which may require attention to prevent further occupancy loss.
+Traffic in the Last 7 Days:
+The Mill at Ironworks Plaza: The property has recorded 1 traffic piece in the last 7 days, which is notably low. To maintain optimal performance and achieve a 6% ATR, the property needs to generate approximately 3 traffic pieces per week. The current low traffic level suggests that increased marketing and outreach efforts are necessary to attract more prospective tenants.
+Comps: The comps have seen 3 traffic pieces in the last 7 days. To achieve their target ATR, they need about 5 traffic pieces per week. The comps are closer to their traffic targets, but still need to increase traffic to fully support leasing goals.
+Leases in the Last 7 Days:
+The Mill at Ironworks Plaza: The property has secured 3 leases in the last 7 days, which meets its current needs. With a closing ratio of 1 (indicating all traffic is converting to leases), this performance is strong, but the low traffic suggests that without more prospects, maintaining this lease pace could be challenging. To sustain current performance, the property needs about 3 leases per week.
+Comps: The comps have secured less than 1 lease per week on average, with a lower closing ratio of 0.32. They need approximately 2 leases per week to achieve a 6% ATR, indicating that their lease conversion is less efficient. The comps must improve their traffic and leasing to maintain occupancy and reduce their ATR %.
+Overall Analysis
+The Mill at Ironworks Plaza is currently performing well, with high occupancy and a strong lease conversion rate. However, the reduction in NER and low traffic levels are concerns that must be addressed to maintain revenue growth. Increasing traffic will be crucial to sustaining leasing momentum and minimizing the need for rent concessions.
+The comps, on the other hand, are facing challenges with higher ATR % and lower occupancy. Their moderate RevPau and NER growth suggest they are managing to hold rent levels, but the higher availability of units and lower lease conversion rates could pose risks to their performance. Both properties should focus on driving more traffic and improving lease conversion rates to ensure continued success.</t>
   </si>
   <si>
     <t>The Promenade At Beavercreek Analysis
 Current Performance Analysis
-The Promenade At Beavercreek, a stabilized property with 238 units, is experiencing a slight decline in occupancy, which currently stands at 93.3%, down by 1.8 percentage points. This decrease in occupancy is reflected in the property’s Revenue Per Available Unit (RevPau), which is $1,468, down by 2.1%. Despite this decline, The Promenade At Beavercreek's Net Effective Rent (NER) has only decreased by 0.3% to $1,574, indicating that while there may be some rent sensitivity, the impact has been relatively minor.
-In comparison, the comps, with an average of 301 units, are also facing a slight decrease in occupancy, down to 92.4%, a decrease of 1.1 percentage points. The comps' RevPau is $1,378, showing a smaller decline of 0.9%, and their NER has increased by a modest 0.2% to $1,491. This suggests that the comps are experiencing more stable rent performance, with a smaller decline in revenue despite lower occupancy.
-Leading Indicators
-ATR % Analysis:
-The Promenade At Beavercreek: The Availability to Rent (ATR) percentage is 6.3%, which is slightly above the ideal range. While still manageable, it indicates that there is a relatively higher supply of available units, which could put some downward pressure on occupancy and rents. The slight decline in ATR % is positive but needs to be monitored to prevent further deterioration in performance.
-Comps: The comps have an ATR % of 4.3%, which is in a healthier range, indicating adequate demand and a more balanced market position compared to The Promenade At Beavercreek. The slight increase in ATR % suggests some challenges in maintaining the current level of occupancy but is still within acceptable limits.
-Traffic Over the Last 7 Days:
-The Promenade At Beavercreek: The property recorded 7 traffic pieces in the last 7 days, showing a positive trend with a notable increase. However, to sustain the current leasing pace and reduce the ATR % further, the property needs to generate approximately 2 traffic pieces per week. The current traffic level is meeting this requirement, but additional efforts to drive traffic could be beneficial in further reducing the ATR % and boosting leasing activity.
-Comps: The comps are generating 7 traffic pieces per week, which is similar to The Promenade At Beavercreek. However, the comps have a lower ATR %, suggesting that they are converting their traffic more efficiently. To achieve the same level of leasing activity as The Promenade At Beavercreek, the comps would need approximately 4 traffic pieces per week, indicating that they are currently above their traffic targets.
-Leases Over the Last 7 Days:
-The Promenade At Beavercreek: The property secured 3 leases in the last 7 days, which is in line with its historical performance. The current leasing velocity is adequate, but with an ATR % above the ideal range, The Promenade At Beavercreek needs to maintain or increase its leasing pace to prevent further increases in available inventory. The property has a strong closing ratio of 1, meaning that it converts 100% of its visitors into leases. This high conversion rate is a positive sign but the property needs to focus on driving more traffic to fully utilize this conversion ability.
-Comps: The comps secured 1 lease per week over the last 7 days, with a lower closing ratio of 0.2. This suggests that while they may have a lower conversion rate, they are managing their inventory efficiently, with a lower ATR % and relatively stable occupancy. The comps need approximately 1 lease per week to maintain their current performance, indicating that they are meeting their leasing goals but could benefit from improving their closing ratio to enhance their competitive position.
-Overall Analysis
-The Promenade At Beavercreek is performing reasonably well, with a slight decline in occupancy, but a stable NER and a strong ability to convert traffic into leases. The property needs to focus on maintaining its leasing velocity and reducing the ATR % further, primarily by continuing to drive traffic. The high occupancy and strong rental rates are positive factors but the slight increase in ATR % suggests that ongoing efforts are needed to keep the property competitive.
-The comps, while facing a similar decline in occupancy, are managing their ATR % more effectively and have a lower closing ratio. This indicates that the comps may be better at managing their available inventory, but they could benefit from improving their leasing velocity and traffic generation to fully capitalize on their strengths. The Promenade At Beavercreek's current focus on traffic generation and high conversion rates give it a competitive advantage, but it needs to remain vigilant in driving leasing activity to maintain its market position.</t>
+The Promenade At Beavercreek, a stabilized property with 238 units, currently has an occupancy rate of 93.3%, which has decreased by 1.8%. The property’s Revenue Per Available Unit (RevPau) is $1,468, down by 2.1%, primarily due to a slight decline in Net Effective Rent (NER) to $1,574, down by 0.3%. This indicates some revenue challenges, likely caused by the recent decrease in occupancy and slight rent concessions.
+In comparison, the comps, averaging 301 units, have a slightly lower occupancy rate of 92.4%, which has decreased by 1.1%. Their RevPau is $1,378, down by 0.9%, and their NER is $1,491, up by 0.2%. The comps are experiencing minor decreases in occupancy and revenue, but they are managing to maintain stable rent levels, which has helped limit the decline in RevPau.
+Leading Indicators
+ATR % Analysis:
+The Promenade At Beavercreek: The Availability to Rent (ATR) percentage is currently at 6.3%, which is slightly above the optimal range but still manageable. A small decline in ATR % indicates that the property is leasing units steadily, though it should aim to reduce this further to below 6% to ensure a healthier market position. 
+Comps: The comps have a lower ATR % at 4.3%, which is well within the healthy range, indicating better control over available inventory. The slight increase in ATR % suggests some units are becoming available, but the situation remains stable.
+Traffic in the Last 7 Days:
+The Promenade At Beavercreek: The property recorded 7 traffic pieces in the last 7 days, which is a positive sign. To maintain or improve the current occupancy and reduce the ATR %, the property needs to generate about 3 traffic pieces per week. The current level exceeds this target, which should support leasing efforts.
+Comps: The comps recorded 7 traffic pieces as well, which is close to their target of 4 traffic pieces needed to manage their ATR %. This level of traffic is sufficient to support their leasing goals, though continued efforts to attract more traffic will be beneficial.
+Leases in the Last 7 Days:
+The Promenade At Beavercreek: The property secured 3 leases in the last 7 days, with a very high closing ratio of 1.0, indicating that all traffic is converting into leases. This strong performance is helping reduce the ATR %, but the property should continue to focus on maintaining this high level of lease conversions. The property needs about 2-3 leases per week to maintain the current ATR %, which it is achieving successfully.
+Comps: The comps secured fewer leases, with only 1 lease in the last 7 days and a lower closing ratio of 0.23. This suggests that the comps are facing greater challenges in converting traffic into leases. The comps need to secure approximately 1 lease per week to maintain their current ATR %, which indicates they are meeting their basic leasing targets but have room for improvement.
+Overall Analysis
+The Promenade At Beavercreek is maintaining a solid leasing performance with a very high closing ratio, which is critical in offsetting the recent declines in occupancy and RevPau. The property is meeting its leasing targets and keeping the ATR % under control, but efforts should continue to enhance traffic and reduce the ATR % further.
+The comps are experiencing a greater challenge with lease conversions, as indicated by their lower closing ratio. They are maintaining stable rent levels, which helps offset the occupancy decline, but they need to improve traffic and leasing performance to reduce the ATR % and prevent further revenue erosion. Both properties should focus on boosting traffic and reducing available units to maintain healthy occupancy and revenue levels.</t>
   </si>
   <si>
     <t>200 City View Apartments Analysis
 Current Performance Analysis
-200 City View Apartments, a stabilized property with 159 units, is performing well with a high occupancy rate of 97.5%, which has increased by 2.0 percentage points. The property’s Revenue Per Available Unit (RevPau) is $1,587, showing solid growth of 2.0%, while the Net Effective Rent (NER) is $1,627, with a marginal decrease of -0.1%. The slight decline in NER suggests the property may be facing some rent sensitivity, which could be impacting its ability to push rents higher.
-In comparison, the comps, with an average of 106 units, have a lower occupancy rate at 86.5%, which has also increased by 1.2 percentage points. Their RevPau is $1,350, reflecting a 1.3% increase, while their NER is $1,555, up by a modest 0.2%. The comps are experiencing slower overall growth in both RevPau and NER, suggesting they may be facing more challenging market conditions or are pricing more conservatively than 200 City View Apartments.
-Leading Indicators
-ATR % Analysis:
-200 City View Apartments: The Availability to Rent (ATR) % is currently at 5.0%, which is within a healthy range. The slight increase in ATR % indicates there is some leasing activity, but not enough to keep pace with the increase in available inventory. ATR % values below 7-8% are generally considered favorable. While 200 City View Apartments is currently within this range, it should closely monitor this metric to ensure it does not exceed this threshold, which could indicate potential oversupply.
-Comps: The comps have a higher ATR % at 12.1%, indicating a more significant availability of units and potentially more competitive market conditions compared to 200 City View Apartments. The declining ATR %, coupled with only modest rent growth, suggests that while the comps are making progress in reducing availability, they are still working to stabilize occupancy and optimize rents.
-Traffic over the Last 7 Days:
-200 City View Apartments: The property recorded 2 traffic pieces in the last 7 days, which is relatively low. To maintain and improve leasing performance, it will need to significantly increase traffic. This current low level of traffic is a concern and likely contributing to the lower lease conversion rates.
-Comps: The comps recorded 3 traffic pieces in the last 7 days, slightly higher than 200 City View Apartments. While their traffic is also relatively low, they have a better closing ratio, which allows them to convert a higher percentage of these leads into leases.
-Leases over the Last 7 Days:
-200 City View Apartments: The property secured 1 lease in the last 7 days, with a historical closing ratio of 0.12. This means that only 12% of its traffic is converting into signed leases. Improving lease conversion rates will be essential for 200 City View Apartments to effectively compete and continue to lease up.
-Comps: The comps secured 1-2 leases per week in the last 7 days, with a much higher closing ratio at 0.48. This indicates that nearly half of their traffic is converting into leases. Their higher lease conversion efficiency is helping to mitigate the impact of lower traffic on overall leasing performance.
-Overall Analysis
-200 City View Apartments is currently performing well with a strong occupan</t>
+200 City View Apartments, a stabilized property with 159 units, is performing well with a strong occupancy rate of 97.5%, up by 2 percentage points. The property’s Revenue Per Available Unit (RevPau) is $1,587, showing a healthy increase of 2%. This growth is primarily driven by the high occupancy, as the Net Effective Rent (NER) slightly decreased by 0.1% to $1,627. The small decline in NER suggests some rent sensitivity, but overall, the property is maintaining a strong revenue position due to its high occupancy.
+In comparison, the comps, averaging 106 units, have a lower occupancy rate of 86.5%, which has increased by 1.2 percentage points. Their RevPau stands at $1,350, up by 1.3%, and their NER is $1,555, with a modest increase of 0.2%. The comps are struggling with lower occupancy and smaller gains in both RevPau and NER, indicating they are facing more challenges in the market compared to 200 City View Apartments.
+Leading Indicators
+ATR % Analysis:
+200 City View Apartments: The Availability to Rent (ATR) % is currently at 5%, which is within a healthy range for a stabilized property. The slight increase in ATR % suggests that while there is some available inventory, it is not yet a major concern. However, maintaining this low ATR % will require careful monitoring to ensure it does not rise further, which could indicate oversupply or weakening demand.
+Comps: The comps have a higher ATR % at 12.1%, although it has decreased significantly. This higher ATR % indicates a larger number of available units, suggesting that these properties may be struggling to lease up efficiently. The decrease in ATR % is a positive sign, but the comps still have a lot of inventory to manage, which could impact their overall performance.
+Traffic in the Last 7 Days:
+200 City View Apartments: The property recorded 2 traffic pieces in the last 7 days, with a positive upward trend. However, this level of traffic is quite low. To achieve and maintain optimal performance, the property needs 10 traffic pieces per week. The current traffic is well below this target, indicating a need for increased marketing and outreach efforts to attract more prospective tenants.
+Comps: The comps saw 3 traffic pieces in the last 7 days, with a declining trend. Although their traffic is slightly higher than that of 200 City View Apartments, it is still insufficient. The comps need 4 traffic pieces per week to meet their leasing goals. Both the subject property and the comps need to increase traffic to maintain their leasing momentum.
+Leases in the Last 7 Days:
+200 City View Apartments: The property secured 1 lease in the last 7 days, with a slightly positive trend. The closing ratio is 0.12, meaning that only 12% of the traffic converts into leases. To improve performance and maintain a 6% ATR, 200 City View Apartments needs to secure at least 1-2 leases per week. The current leasing pace is adequate but could be strengthened with better traffic and leasing strategies.
+Comps: The comps secured 1 lease in the last 7 days, with a slightly declining trend. Their closing ratio is much higher at 0.48, indicating they convert 48% of their traffic into leases. The comps need about 2 leases per week to maintain their current ATR, which is more challenging given their higher available inventory. Despite the lower traffic, the comps are more efficient in converting interest into leases.
+Overall Analysis
+200 City View Apartments is performing well with high occupancy and RevPau, although there is slight rent sensitivity. The property needs to focus on increasing traffic to meet its leasing targets and maintain its low ATR %. Improving the closing ratio and boosting marketing efforts will be crucial to sustaining its strong market position.
+The comps, while showing improvements in occupancy and RevPau, are struggling with higher ATR % and lower traffic. Their strong closing ratio helps mitigate these challenges, but they need to attract more traffic and lease more units to reduce their available inventory. Both 200 City View Apartments and the comps must focus on driving traffic and lease conversions to continue performing well in their respective markets.</t>
   </si>
   <si>
     <t>120 Ninth Street Apartments Analysis
 Current Performance Analysis
-120 Ninth Street Apartments, a stabilized property with 219 units, is performing well with an occupancy rate of 93.6%, up by a significant 2.1 percentage points. The property’s Revenue Per Available Unit (RevPau) is $1,490, showing a modest increase of 0.3%. This modest growth in RevPau is primarily driven by the increase in occupancy, despite a slight decrease in Net Effective Rent (NER) by 1.7% to $1,592. The decrease in NER suggests that while the property is successfully maintaining high occupancy, it may be facing challenges in pushing rent increases in the current market conditions. 
-In comparison, the comps, averaging 281 units, have a lower occupancy rate at 91.1%, with a moderate increase of 0.7 percentage points. Their RevPau is slightly higher at $1,432, with a 1.0% increase, and their NER is $1,572, up by 0.4%. The comps are experiencing a more modest performance, with a lower RevPau growth rate, indicating that they are likely facing similar challenges in rent increases. However, their lower occupancy suggests that they might be facing steeper rent reductions to stimulate demand. Despite these challenges, both the subject property and comps are maintaining relatively stable revenue performance, which is encouraging against the backdrop of current market conditions.
-Leading Indicators
-ATR % Analysis:
-120 Ninth Street Apartments: The Availability to Rent (ATR) percentage is currently at 7.3%, which is relatively high. While the ATR % has remained stable, above 6% is typically considered high, suggesting an oversupply of available units. The management should closely monitor this and take proactive steps to reduce the ATR % to optimize performance. A target ATR below 6% is recommended, with a focus on leasing the remaining units quickly to further drive down this number.
-Comps: The comps have a slightly higher ATR % at 8.9%, which has decreased slightly. Similar to the subject property, this ATR % is also elevated, signaling market softness and the need for continued focus on leasing velocity. The comps’ ATR % is higher than the subject property, indicative of potentially higher competitive pressure. Reducing the ATR % should remain a primary goal for both the subject property and the comps to maintain a healthy balance between supply and demand.
-Traffic Over the Last 7 Days:
-120 Ninth Street Apartments: The property recorded 6 traffic pieces in the last 7 days, which is a moderate level of interest. To continue driving leasing momentum, the property needs to increase traffic to approximately 11 pieces per week. The slight decrease in traffic suggests the need for improved marketing outreach or targeted promotions to attract more potential tenants.
-Comps: The comps also have a moderate level of traffic, with 5-6 pieces in the last 7 days, which is similar to the subject property but slightly lower. To meet their leasing targets, the comps need to aim for around 15 traffic pieces per week. Their current traffic levels suggest that both the subject property and comps may benefit from ramping up marketing efforts to generate more interest in the available units.
-Leases Over the Last 7 Days:
-120 Ninth Street Apartments: The property secured 3 leases over the last 7 days, which is a positive sign. The historical closing ratio is 0.31, indicating that the property converts 31% of its traffic into leases. To maintain its current leasing pace and reduce the ATR %, the property needs to consistently secure approximately 3-4 leases per week. The current performance is in line with this target, but there is still room for improvement, particularly in increasing both traffic and conversion rates.
-Comps: The comps secured 1 lease over the last 7 days, with a historical closing ratio of 0.3, similar to the subject property. To achieve their leasing goals and lower their ATR %, the comps need to secure around 4-5 leases per week. Their current performance is slightly behind this target, indicating a need to improve leasing capabilities to effectively compete with the subject property and boost occupancy.
-Overall Analysis
-120 Ninth Street Apartments is performing well with strong occupancy and steady revenue growth, supported by a solid historical closing ratio. However, the high ATR % suggests that the property needs to continue focusing on reducing its available inventory by increasing both traffic and leasing velocity. The slight decrease in NER indicates that rent increases may be challenging, suggesting that the property should prioritize occupancy maintenance.
-The comps, while facing similar market conditions, have a higher ATR % and lower occupancy, indicating a need for more aggressive leasing strategies. They should work on increasing traffic and improving leasing conversion rates to effectively compete with the subject property. Both the subject property and comps should closely monitor market conditions, continue to refine their pricing strategies, and invest in targeted marketing to attract and convert prospective tenants, with a focus on further reducing the ATR %.</t>
+120 Ninth Street Apartments, a stabilized property with 219 units, is currently performing well with an occupancy rate of 94%, up by 2.1%. The property’s Revenue Per Available Unit (RevPau) stands at $1,490, showing a modest increase of 0.3%. This growth in RevPau is primarily supported by the rise in occupancy. However, the Net Effective Rent (NER) has decreased by 1.7% to $1,592, indicating some rent concessions likely made to boost occupancy.
+In comparison, the comps, with an average of 282 units, have a slightly lower occupancy rate at 91%, which has increased by 0.7%. Their RevPau is $1,432, up by 1.0%, while the NER is $1,572, showing a smaller increase of 0.4%. The comps are also experiencing slight growth, with both RevPau and NER trending upward, though their occupancy remains below that of 120 Ninth Street Apartments.
+Overall, 120 Ninth Street Apartments is maintaining strong occupancy with modest revenue growth. The decrease in NER suggests the property may be using rent reductions to maintain occupancy, which is common in competitive markets. The comps are also showing positive trends, with higher RevPau growth, but 120 Ninth Street Apartments leads in occupancy.
+Leading Indicators
+ATR % Analysis:
+120 Ninth Street Apartments: The Availability to Rent (ATR) percentage is at 7%, which is above the ideal range but stable. An ATR % between 6-8% is generally acceptable, but staying closer to 6% is preferred to ensure healthy demand. The current ATR % suggests that while the property is in a stable position, it should focus on reducing availability slightly further to optimize performance.
+Comps: The comps have an ATR % of 9%, which is slightly higher than ideal and indicates more available units. Although their ATR % is decreasing, it remains above the optimal range. Continued efforts are needed to bring their ATR % down to healthier levels. The comps need to focus on leasing to reduce availability and remain competitive.
+Traffic in the Last 7 Days:
+120 Ninth Street Apartments: The property recorded 6 traffic pieces in the last 7 days, which is a slight decrease. To meet its leasing goals and reduce ATR %, the property needs to generate approximately 11 traffic pieces per week. The current traffic level is below the required amount, suggesting that additional marketing or outreach efforts are necessary to attract more prospective tenants.
+Comps: The comps recorded 5 traffic pieces in the last 7 days, slightly lower than 120 Ninth Street Apartments. To meet their performance targets and reduce ATR %, the comps need approximately 15 traffic pieces per week. This indicates a need for more aggressive marketing efforts to drive higher traffic levels.
+Leases in the Last 7 Days:
+120 Ninth Street Apartments: The property secured 3 leases in the last 7 days, with a historical closing ratio of 0.31, meaning it converts about 31% of its traffic into leases. This is a strong performance, though to achieve the ideal 6% ATR %, the property needs to secure approximately 3-4 leases per week. The current leasing performance is on track but must be maintained to ensure continued success.
+Comps: The comps secured 1 lease in the last 7 days, with a closing ratio of 0.3, converting 30% of their traffic into leases. The comps need approximately 5 leases per week to achieve their target ATR %, indicating a significant shortfall that requires improved leasing efforts to close the gap.
+Overall Analysis
+120 Ninth Street Apartments is performing well in occupancy and maintaining stable revenue growth, although the decrease in NER suggests rent concessions. The ATR % is slightly above the ideal range, and there is a need to boost traffic and leasing to reduce availability further and maintain strong performance.
+The comps are showing positive trends in RevPau and NER, but their higher ATR % and lower traffic levels suggest they need to focus on reducing availability and improving leasing efforts. 120 Ninth Street Apartments holds a competitive advantage in occupancy and leasing performance, but continued focus on marketing and leasing will be essential to sustain this lead.</t>
   </si>
   <si>
     <t>The View on 20th Analysis
 Current Performance Analysis
-The View on 20th, a stabilized property with 148 units, is operating at full occupancy, which has increased by 2.8 percentage points to reach 100%. The property’s Revenue Per Available Unit (RevPau) is $1,667, reflecting a modest increase of 2.6%. However, the Net Effective Rent (NER) has remained relatively stable at $1,667, with a slight decrease of 0.2%. This suggests that while the property is successful in maintaining high occupancy, there might be some challenges in pushing rents higher.
-In comparison, the comps, averaging 145 units, have an occupancy rate of 94%, which has increased by 1.4 percentage points. Their RevPau stands at $1,336, reflecting a substantial increase of 8.1%, and their NER is $1,416, up by 6.7%. The comps are demonstrating strong revenue growth driven by both rent increases and improved occupancy, suggesting a healthy market position.
-Leading Indicators
-ATR % Analysis:
-The View on 20th: The Availability to Rent (ATR) percentage is currently at 5.4%, which is slightly above the ideal range. The recent increase in ATR from the previous month suggests that while the property is maintaining strong occupancy, there is some softness in demand or potential competitive pressures. However, the current level is within a manageable range, indicating a healthy supply-demand balance.
-Comps: The comps have a slightly higher ATR % at 5.7%, also showing a slight decrease. While this indicates a similar level of unit availability as The View on 20th, it suggests that the comps may be facing similar market conditions. However, the slight decline in the ATR % for both properties is a positive sign, indicating that leasing activity is helping to absorb inventory, although continued attention to leasing pace will be necessary to maintain market stability.
-Traffic in the Last 7 Days:
-The View on 20th: The property recorded 3 traffic pieces in the past week, showing a positive trend with a moderate increase. However, to maintain and lower the ATR %, The View on 20th needs to generate approximately 4 traffic pieces per week. While the current level is close to the target, increasing traffic further will help ensure continued strong leasing performance.
-Comps: The comps recorded 3 traffic pieces in the past week, with a slight decline. This level of traffic is similar to The View on 20th, but it falls slightly below the optimal range for their ATR % target. The comps will need to sustain or increase their traffic to avoid any potential slowing of leasing velocity.
-Leases in the Last 7 Days:
-The View on 20th: The property secured 2 leases in the past week, which is below the required pace to maintain the current ATR % but still represents strong leasing activity. With a historical closing ratio of 0.47, The View on 20th converts nearly 50% of its traffic into leases. To maintain a healthy ATR %, the property needs to secure approximately 2 leases per week, which it is currently meeting. However, to further reduce the ATR % and improve overall performance, increasing both traffic and leasing efficiency will be important.
-Comps: The comps secured only 0.3 leases per week, with a lower closing ratio of 0.38. Their leasing performance is significantly behind The View on 20th, although their high occupancy suggests that they may be leveraging other factors, such as more competitive pricing or longer lease terms, to offset this lower conversion rate. The comps need approximately 2 leases per week to maintain their current ATR %, indicating that they are falling short of their leasing targets.
-Overall Analysis
-The View on 20th is performing well with full occupancy, despite some challenges in pushing rent growth. The slight increase in ATR % suggests that while the property is maintaining strong market position, there is a need to continue focusing on traffic and leasing to ensure continued stability. The property's strong historical leasing performance and current lease pace indicate the potential to address the modest increase in ATR % successfully.
-The comps, although showing positive occupancy gains, have lower traffic and lease performance, leading to a higher ATR % despite their efforts to increase RevPau through rent increases. The comps' lower closing ratio indicates some potential weaknesses in their leasing process, which may require attention. The comps will need to focus on improving leasing efficiency and generating more traffic to reduce the ATR % and sustain their occupancy gains.</t>
+The View on 20th, a stabilized property with 148 units, boasts a fully occupied status at 100%, reflecting a strong occupancy increase of 2.8 percentage points. The property’s Revenue Per Available Unit (RevPau) is $1,667, which has increased by 2.6%. This RevPau growth is primarily driven by maintaining high occupancy, although the Net Effective Rent (NER) has slightly decreased by 0.2% to $1,667. The stable revenue indicates that while the property is fully occupied, there is limited room to increase rents without impacting demand.
+In comparison, the comps have an average of 145 units, with an occupancy rate of 94.3%, up by 1.4 percentage points. Their RevPau stands at $1,336, showing a substantial increase of 8.1%, and their NER is $1,416, up by 6.7%. This suggests that the comps are experiencing strong revenue growth, driven by both rising rents and increasing occupancy, even though their overall occupancy remains below that of The View on 20th.
+Leading Indicators
+ATR % Analysis:
+The View on 20th: The Availability to Rent Percentage (ATR %) is currently at 5.4%, with a slight upward slope of 0.54. This indicates a moderate level of available inventory. While the ATR % is still within acceptable limits, the increase suggests that the property needs to continue leasing efforts to maintain occupancy and control supply.
+Comps: The comps have a slightly higher ATR % of 5.7%, but it is on a slight downward slope of -0.27. This suggests that while the comps have more available inventory than The View on 20th, they are successfully leasing units to reduce availability. The comps need to maintain this momentum to further lower their ATR % and stabilize occupancy.
+Traffic in the Last 7 Days:
+The View on 20th: The property recorded 3 traffic pieces in the last 7 days, with an upward trend. To achieve optimal performance and maintain a 6% ATR, The View on 20th needs approximately 4 traffic pieces per week. The current traffic level is close to this target, indicating healthy interest but still requiring a slight increase to meet leasing goals.
+Comps: The comps recorded 3 traffic pieces in the last 7 days, with a slight downward trend. They require approximately 4 traffic pieces per week to meet their leasing targets. The current traffic level is adequate, but the comps need to prevent further declines to maintain leasing momentum.
+Leases in the Last 7 Days:
+The View on 20th: The property secured 2 leases in the last 7 days, with a slight downward trend. The closing ratio is strong at 0.47, meaning that nearly half of all traffic converts into leases. To maintain performance, The View on 20th needs to secure approximately 2 leases per week, which it is currently achieving, though continuous focus on sustaining this strong conversion rate is essential.
+Comps: The comps secured 0.3 leases per week, with a downward trend. Their closing ratio is 0.38, indicating that they convert 38% of their traffic into leases. The comps need to secure 2 leases per week to maintain their performance, but their current pace is below this target, suggesting a need for improved leasing efforts.
+Overall Analysis
+The View on 20th is performing well with full occupancy and stable revenue, yet faces challenges with a slight increase in ATR %. The property's strong closing ratio and nearly achieved traffic and leasing targets position it well, but maintaining these metrics is critical to sustaining full occupancy and minimizing available inventory.
+The comps are experiencing strong revenue growth and a modest increase in occupancy, driven by effective leasing and rent strategies. However, their higher but decreasing ATR % and lower lease conversion rates indicate the need for continued focus on leasing to reduce available inventory and improve overall performance. Both The View on 20th and the comps should concentrate on maintaining or increasing traffic and leasing activity to ensure continued success in their respective markets.</t>
   </si>
   <si>
     <t>The Villages at Marley Station Apartments Analysis
 Current Performance Analysis
-The Villages at Marley Station Apartments, a stabilized property with 757 units, has a current occupancy rate of 90.9%, which has declined slightly by 0.1 percentage points. The property’s Revenue Per Available Unit (RevPau) is $1,209, showing a minor decrease of 0.4%. This decline in RevPau is aligned with the overall slight drop in occupancy. The Net Effective Rent (NER) stands at $1,330, down 0.3%, indicating some rent sensitivity in the market.
-In comparison, the comps, averaging 479 units, have a slightly higher occupancy rate at 90.7%, which has increased by 2.7 percentage points. Their RevPau is $1,422, reflecting a 3.1% increase, and their NER is $1,568, up by 0.3%. The comps are experiencing stronger revenue growth, driven primarily by the increase in occupancy. Although the Villages at Marley Station Apartments has a higher NER, the comps’ performance is superior due to their higher RevPau and occupancy.
-Leading Indicators
-ATR % Analysis:
-The Villages at Marley Station Apartments: The Availability to Rent (ATR) percentage is 6.5%, which is slightly higher than the ideal range. An ATR % below 6% is typically considered healthy, so the property should aim to bring this metric down further. The slight decline in ATR %, coupled with the overall stable RevPau, suggests that leasing activity is keeping pace with inventory, but there is room for improvement.
-Comps: The comps have a lower ATR % at 4.8%, which is within the healthy range, indicating that these properties have a good balance between supply and demand. The slight increase in ATR % is not concerning at this stage but should be closely monitored to ensure it does not continue to rise, as this could indicate potential leasing challenges.
-Traffic Over the Last 7 Days:
-The Villages at Marley Station Apartments: The property recorded 10 traffic visits in the last 7 days, which is a considerable decrease of 20.5%, indicating a drop in interest from prospective tenants. The current traffic level is below what is needed to drive leasing activity and reduce the ATR % significantly. To achieve optimal performance, the property should aim for at least 15 traffic visits per week, highlighting the need for intensified marketing and outreach to attract more prospective tenants.
-Comps: The comps recorded 7 traffic visits in the last 7 days, showing a minor decline of 0.8%. This level of traffic is adequate for their current leasing pace, but to maintain their performance, they need to generate approximately 11 traffic visits per week. The comps' traffic levels are not as robust as desired, but they are still adequate for their market position.
-Leases Over the Last 7 Days:
-The Villages at Marley Station Apartments: The property secured 8 leases in the last 7 days, which is a strong figure. The historical closing ratio of 0.55 indicates that the property is converting over half of its traffic into leases effectively. This leasing velocity is positive, but the decline in traffic suggests that maintaining this pace may become challenging. To achieve a 6% ATR, the property needs to secure around 8 to 9 leases per week, highlighting the need to sustain or improve its current performance. The high historical closing ratio is a strength that should continue to be leveraged.
-Comps: The comps secured 4 leases in the last 7 days, with a historical closing ratio of 0.42. This means they convert 42% of their traffic into leases, which is lower than that of the subject property. To maintain their current ATR %, the comps need to secure approximately 5 leases per week, which they are currently meeting. The comps' performance is solid but not as strong as that of the Villages at Marley Station Apartments.
-Overall Analysis
-The Villages at Marley Station Apartments is maintaining a healthy occupancy rate, but the slight decline in both RevPau and NER, coupled with a higher ATR %, suggests that it is facing more rent pressure compared to the comps. The property’s high historical closing ratio is a positive sign, but the recent decline in traffic needs to be reversed to sustain leasing momentum and reduce the ATR further. Marketing efforts should focus on increasing traffic to match the strong leasing performance.
-The comps, with a lower ATR % and higher RevPau, are performing well and benefiting from their recent occupancy gains. However, their lower historical closing ratio and moderate traffic levels indicate that they need to continue their current pace of leasing and maintain or improve their market positioning. Both the Villages at Marley Station Apartments and the comps should closely monitor their ATR % and traffic, as these will be critical factors in determining future leasing success.</t>
+The Villages at Marley Station Apartments, a stabilized property with 757 units, is currently experiencing an occupancy rate of 90.9%, reflecting a slight decrease of 0.1%. The property’s Revenue Per Available Unit (RevPau) is $1,209, which has declined by 0.4%, and the Net Effective Rent (NER) is $1,330, down by 0.3%. This slight decline in both occupancy and revenue indicates some softness in market conditions, possibly due to competitive pressures or seasonal fluctuations.
+In comparison, the comps, with an average of 479 units, have a similar occupancy rate at 90.7%, which has increased by 2.7%. Their RevPau is $1,422, up by 3.1%, and their NER is $1,568, up by 0.3%. The comps are showing stronger performance, with rising occupancy and revenue, suggesting they are effectively capturing demand in the market.
+Leading Indicators
+ATR % Analysis:
+The Villages at Marley Station Apartments: The Availability to Rent (ATR) percentage is currently at 6.5%, which is within a stable range but edging towards the higher side. The slight decrease in ATR % indicates that there is still room for improvement in leasing activity. An ATR % of 6% or lower is typically considered healthy, so maintaining or reducing the ATR % should be a priority to sustain demand and occupancy.
+Comps: The comps have a lower ATR % at 4.8%, which indicates a healthy balance of supply and demand and less available inventory. The slight increase in their ATR % suggests they are leasing units steadily but should continue to monitor this trend closely.
+Traffic in the Last 7 Days:
+The Villages at Marley Station Apartments: The property recorded 10 traffic pieces in the last 7 days, which is below the needed level. To achieve a 6% ATR, the property needs to generate about 15 traffic pieces per week. The current traffic level is insufficient to meet leasing goals, and there is a significant drop in traffic, suggesting a need for more aggressive marketing or outreach to attract potential tenants.
+Comps: The comps recorded 7 traffic pieces in the last 7 days, which is also below their targeted levels. They need around 11 traffic pieces per week to meet their goals. Although the comps are managing better traffic than The Villages, they are still slightly below their target, indicating room for improvement.
+Leases in the Last 7 Days:
+The Villages at Marley Station Apartments: The property secured 8 leases in the last 7 days, with a strong closing ratio of 0.55, meaning it converts 55% of its traffic into leases. This high closing ratio is a positive indicator, but to achieve the desired 6% ATR, The Villages needs to secure about 8 to 9 leases per week. The current leasing pace is adequate but needs to be sustained to maintain occupancy.
+Comps: The comps secured 4 leases in the last 7 days, with a closing ratio of 0.42, meaning they convert 42% of their traffic into leases. The comps need about 5 leases per week to maintain their current ATR %, suggesting they are on track but should aim to improve their closing efficiency.
+Overall Analysis
+The Villages at Marley Station Apartments is performing reasonably well with a strong closing ratio, but it faces challenges with declining occupancy and revenue. The property needs to generate more traffic to meet its leasing goals and should focus on reducing its ATR % to maintain a healthy market position. The comps, while showing stronger revenue and occupancy growth, also need to increase traffic to sustain their performance. Both the property and comps should prioritize strategies to drive more traffic and improve lease conversion to enhance overall performance.</t>
   </si>
   <si>
     <t>The Abram Analysis
 Current Performance Analysis
-The Abram, a stabilized property with 144 units, is experiencing a high occupancy rate at 93.7%, which has increased by 3.0 percentage points. The property’s Revenue Per Available Unit (RevPau) stands at $1,417, which is a decline of 7.1%. This decrease in RevPau is driven by a significant 9.7% drop in Net Effective Rent (NER) to $1,513. The decrease in NER suggests that while the property has been successful in maintaining high occupancy, it is facing challenges in maintaining rent levels, which is negatively impacting revenue.
-In comparison, the comps, averaging 203 units, show a lower occupancy rate at 92.4%, which has increased by 0.7 percentage points. Their RevPau is $1,266, reflecting a solid increase of 7.6%, and their NER is $1,369, up by 7.0%. The comps are showing stronger revenue growth, supported by both higher occupancy and rent levels. The comps' ability to increase both occupancy and rents indicates a more favorable market position compared to The Abram, which has higher occupancy but is struggling with rent growth.
-Leading Indicators
-ATR % Analysis:
-The Abram: The Availability to Rent (ATR) percentage is currently at 11.1%, which is above the ideal range, suggesting a relatively high level of availability. The ATR % has increased slightly, indicating that despite the property's high occupancy, there is still a significant number of units on the market. Ideally, a stabilized property should aim for an ATR % of 6% or lower. The current ATR % suggests that The Abram may face challenges in maintaining rent growth and could benefit from focused leasing efforts.
-Comps: The comps have an ATR % of 7.9%, which is also slightly above the optimal range but lower than The Abram's. The comps' ATR % has increased significantly, which could be a concern if it continues to rise. While the comps are in a stronger position regarding occupancy and rent growth, the increasing ATR % indicates some potential challenges in the market. The comps should closely monitor this indicator to avoid further deterioration in rent levels.
-Traffic Over the Last 7 Days:
-The Abram: The property recorded 2 traffic pieces in the last 7 days, which is a relatively low level of interest. To maintain a healthy leasing pace and reduce the ATR %, The Abram needs to generate approximately 9 traffic pieces per week. The current traffic level suggests that the property may struggle to meet its leasing targets, and efforts to increase visibility and attract more prospects are crucial.
-Comps: The comps recorded 6 traffic pieces in the last 7 days. To maintain their current level of leasing activity, the comps need approximately 10 traffic pieces per week. While the comps' traffic level is higher than The Abram's, both properties need to focus on increasing traffic to support their leasing goals. The comps' slight decrease in traffic could impact their ability to maintain their current occupancy and rent growth rates.
-Leases Over the Last 7 Days:
-The Abram: The property has secured 1 lease in the last 7 days, with a historical closing ratio of 0.32, meaning that 32% of visitors convert into leases. The Abram needs to secure approximately 3 leases per week to maintain its current occupancy and reduce the ATR %. The current leasing pace is below what is necessary, and improving the closing ratio and increasing traffic will be critical to achieving leasing targets.
-Comps: The comps have secured 2 leases in the last 7 days, with a historical closing ratio of 0.29, meaning that 29% of visitors convert into leases. The comps need approximately 3 leases per week, which they are currently meeting. However, the slight decrease in their leasing pace, coupled with a lower traffic count, could be concerning for maintaining their current position. The comps should aim to stabilize their leasing activity and maintain or improve their closing ratio to sustain their performance.
-Overall Analysis
-The Abram is facing challenges in maintaining rent levels, as evidenced by the significant drops in both NER and RevPau despite its high occupancy. The property's ATR % is above the ideal range, and the low traffic and leasing activity indicate a potential struggle to attract new tenants. The focus should be on increasing traffic and improving the closing ratio to reduce the ATR % and support rent stabilization.
-The comps, while showing stronger overall performance, are also seeing some challenges. Their relatively lower ATR % and higher traffic levels provide a better foundation, but the comps need to be cautious about their slight decline in traffic and leasing activity. The comps should aim to stabilize their leasing pace, maintain or increase traffic, and focus on retaining their strong rent growth to remain competitive in the market.</t>
+The Abram, a stabilized property with 144 units, has an occupancy rate of 94%, which is up by 3%. The property’s Revenue Per Available Unit (RevPau) is $1,417, showing a decline of 7%. This decrease is driven by a 10% drop in Net Effective Rent (NER) to $1,513, suggesting that The Abram is facing challenges in maintaining rental income despite the rise in occupancy.
+In comparison, the comps, with an average of 203 units, have a slightly lower occupancy rate at 92%, which has increased by 1%. Their RevPau is $1,266, up by 8%, and their NER is $1,369, up by 7%. The comps are experiencing strong revenue growth, supported by increases in both rent and occupancy.
+Leading Indicators
+ATR % Analysis:
+The Abram: The Availability to Rent (ATR) % is 11%, which is above the ideal range, indicating an oversupply of available units. This higher ATR % suggests that The Abram needs to focus on leasing efforts to bring this percentage down, as an ATR % of 6% or lower is generally considered healthy.
+Comps: The comps have an ATR % of 8%, which, while also above the ideal range, is lower than that of The Abram. However, the comps are closer to stabilizing their unit availability, showing better control over inventory.
+Traffic in the Last 7 Days:
+The Abram: The property recorded 2 traffic pieces in the last 7 days, which is below the target needed for optimal performance. To reduce the ATR % to the ideal range, The Abram needs about 9 traffic pieces per week. The current low traffic levels indicate that more aggressive marketing and outreach are necessary to attract prospective tenants.
+Comps: The comps recorded 7 traffic pieces in the last 7 days, with a slight decline. To maintain their current ATR %, the comps need about 10 traffic pieces per week. Although their traffic is higher than that of The Abram, it still falls short of the target, indicating a shared challenge in attracting sufficient prospective tenants.
+Leases in the Last 7 Days:
+The Abram: The property secured 1 lease in the last 7 days. To achieve and maintain a 6% ATR, The Abram needs approximately 3 leases per week. The historical closing ratio is 0.32, which means the property converts about 32% of its traffic into leases. To reach their leasing goals, The Abram must focus on increasing both traffic and lease conversions.
+Comps: The comps secured 2 leases in the last 7 days, with a closing ratio of 0.29, converting about 29% of traffic into leases. While the comps are performing slightly better in terms of leasing activity, they still need to secure about 3 leases per week to manage their ATR % effectively.
+Overall Analysis
+The Abram is facing significant challenges with high ATR %, declining RevPau, and low traffic. The property must focus on boosting traffic and improving lease conversion to reduce the ATR % and restore revenue growth. The comps, though performing better, also need to increase traffic and leasing activity to manage their ATR % more effectively. Both The Abram and its comps should consider enhancing their marketing efforts and tenant engagement strategies to attract more prospects and improve occupancy.</t>
   </si>
 </sst>
 </file>
@@ -2581,10 +2575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3213,602 +3207,622 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32" t="s">
-        <v>156</v>
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
         <v>155</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>155</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>155</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>155</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
         <v>155</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
         <v>155</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
         <v>155</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
         <v>155</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
         <v>155</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
         <v>155</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
         <v>155</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
         <v>155</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
         <v>155</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
         <v>155</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
         <v>155</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
         <v>155</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
         <v>155</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50" t="s">
         <v>155</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
         <v>155</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
         <v>155</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B53" t="s">
         <v>155</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E53" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="F53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
         <v>155</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E54" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="F54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
         <v>155</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B56" t="s">
         <v>155</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
         <v>155</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B58" t="s">
         <v>155</v>
       </c>
       <c r="C58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B59" t="s">
         <v>155</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" t="s">
         <v>155</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
         <v>155</v>
       </c>
       <c r="C61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" t="s">
         <v>65</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>95</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>123</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F62" t="s">
         <v>185</v>
       </c>
     </row>

--- a/processed_properties 2.xlsx
+++ b/processed_properties 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlbionKrasniqi\Desktop\Projects\AI property narratives\DSPY\streamlit-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB9A57F-C79D-495A-A96E-49EC5FEB0F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633E5000-0EC1-4C1F-B559-96A70D2AB97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="186">
   <si>
     <t>Property ID</t>
   </si>
@@ -2575,10 +2575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3207,622 +3207,602 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>5</v>
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>155</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
         <v>155</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
         <v>155</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>155</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
         <v>155</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
         <v>155</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
         <v>155</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
         <v>155</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
         <v>155</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
         <v>155</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
         <v>155</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
         <v>155</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B45" t="s">
         <v>155</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
         <v>155</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
         <v>155</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
         <v>155</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
         <v>155</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B50" t="s">
         <v>155</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F50" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B51" t="s">
         <v>155</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F51" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B52" t="s">
         <v>155</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53" t="s">
         <v>155</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="F53" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
         <v>155</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="F54" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
         <v>155</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F55" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
         <v>155</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F56" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B57" t="s">
         <v>155</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B58" t="s">
         <v>155</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B59" t="s">
         <v>155</v>
       </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F59" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B60" t="s">
         <v>155</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F60" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B61" t="s">
         <v>155</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F61" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62" t="s">
-        <v>155</v>
-      </c>
-      <c r="C62" t="s">
-        <v>65</v>
-      </c>
-      <c r="D62" t="s">
-        <v>95</v>
-      </c>
-      <c r="E62" t="s">
-        <v>123</v>
-      </c>
-      <c r="F62" t="s">
         <v>185</v>
       </c>
     </row>

--- a/processed_properties 2.xlsx
+++ b/processed_properties 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlbionKrasniqi\Desktop\Projects\AI property narratives\DSPY\streamlit-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633E5000-0EC1-4C1F-B559-96A70D2AB97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270DA23C-7C74-40CA-A647-4FCBD9AE28BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="275">
   <si>
     <t>Property ID</t>
   </si>
@@ -2208,6 +2208,1544 @@
 Comps: The comps secured 2 leases in the last 7 days, with a closing ratio of 0.29, converting about 29% of traffic into leases. While the comps are performing slightly better in terms of leasing activity, they still need to secure about 3 leases per week to manage their ATR % effectively.
 Overall Analysis
 The Abram is facing significant challenges with high ATR %, declining RevPau, and low traffic. The property must focus on boosting traffic and improving lease conversion to reduce the ATR % and restore revenue growth. The comps, though performing better, also need to increase traffic and leasing activity to manage their ATR % more effectively. Both The Abram and its comps should consider enhancing their marketing efforts and tenant engagement strategies to attract more prospects and improve occupancy.</t>
+  </si>
+  <si>
+    <t>Azure Open AI 4o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: Apex on Quality Hill Apartments - a stabilized property
+Number of total units is: 138.0
+Occupancy: 92.7 (+0.0%)
+RevPau: 1743 (-5.0%)
+Net Effective Rent: 1880 (-5.0%)
+ATR % is: 10.9 (slope is 1.11)
+Leases per Week: 1.0 (slope is 0.3)
+Traffic per Week: 3.0 (slope is -0.1)
+Closing Ratio for subject property is: 0.35
+Leases Needed: 2.6
+Traffic Needed: 7.4
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 235.5
+Occupancy: 94.3 (-0.6%)
+RevPau: 1799 (-2.2%)
+Net Effective Rent: 1911 (-1.7%)
+ATR % is: 7.1 (slope is 0.411)
+Leases per Week: 1.8 (slope is -0.02)
+Traffic per Week: 5.5 (slope is 0.22)
+Closing Ratio for comps is: 0.43
+Leases Needed: 3.7
+Traffic Needed: 8.6
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Apex on Quality Hill Apartments
+    ### Current Performance Analysis
+Apex on Quality Hill Apartments, a stabilized property with 138 units, currently has an occupancy rate of 92.7%, remaining stable with no change. The Net Effective Rent (NER) is $1,880, which has declined by 5.0%. This decrease is reflected in the Revenue Per Available Unit (RevPau), now at $1,743, also down by 5.0%. The decline in both NER and RevPau suggests that Apex is experiencing pressure on rent, possibly due to competitive market conditions or other factors affecting its revenue performance.
+In comparison, the comps, averaging 236 units, have a slightly higher occupancy rate of 94.3%, though it has decreased by 0.6%. Their NER stands at $1,911, showing a smaller decline of 1.7%. The comps' RevPau is $1,799, down by 2.2%. While the comps also face reductions in NER and RevPau, the decreases are less pronounced compared to Apex. This indicates that while both the subject property and comps are experiencing downward trends, Apex is facing a more significant challenge in maintaining rent and revenue levels.
+    Leading Indicators
+ATR % Analysis:
+- **Apex on Quality Hill Apartments:** The current ATR % is 10.9%, with an upward trend. This high and increasing ATR % indicates significant availability of units, suggesting an imbalance between supply and demand. This trend is concerning and calls for immediate actions to reduce unit availability.
+- **Comps:** The comps have a lower ATR % of 7.1%, also showing an upward trend. Although their ATR % is better than Apex, the increasing trend indicates growing availability in the market, suggesting a potential decline in demand or increased competition.
+Traffic over the Last Week:
+- **Apex on Quality Hill Apartments:** Traffic is currently at 3 pieces per week, with a slight downward trend. This is below the needed target of 7 pieces per week. The decreasing traffic and the gap between current and needed levels highlight an urgent need for enhanced marketing efforts to attract more prospective tenants.
+- **Comps:** The comps show an upward trend with 6 traffic pieces per week, closer to their target of 9 pieces per week. Although they are performing better, they still need to increase traffic to sustain improvement.
+Leases over the Last Week:
+- **Apex on Quality Hill Apartments:** Only 1 lease has been signed in the last 7 days, with a slight upward trend. However, the property needs to secure around 3 leases per week to maintain a healthier ATR %. The historical closing ratio is 0.35, indicating a relatively strong conversion rate, but the low number of leases highlights the need for more traffic to generate additional leasing activity.
+- **Comps:** The comps have signed an average of 2 leases per week, with a stable trend. They need to secure around 4 leases per week to sustain optimal performance. Their historical closing ratio is 0.43, showing a more effective conversion rate than Apex and a more favorable leasing environment.
+    Apex on Quality Hill Apartments is facing challenges with declining Net Effective Rent (NER) and Revenue Per Available Unit (RevPau), indicating pressure on rent levels. While the comps are also experiencing downward trends, their declines are less severe, highlighting a more favorable market position. Apex's increasing ATR % and low traffic underscore a significant supply-demand imbalance, requiring immediate strategies to boost occupancy.
+To address these challenges, Apex should enhance marketing efforts to increase traffic, aiming to attract more prospective tenants. Given the strong conversion rate, improving traffic can significantly boost leasing activity. This strategy will help reduce the ATR %, stabilize rent, and improve revenue performance, positioning Apex more competitively against its comps.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: Plaza Townhomes at The Medical Center - a stabilized property
+Number of total units is: 66.0
+Occupancy: 93.9 (-0.0%)
+RevPau: 2017 (+0.3%)
+Net Effective Rent: 2148 (+0.4%)
+ATR % is: 10.6 (slope is 1.21)
+Leases per Week: 0.0 (slope is -0.1)
+Traffic per Week: 0.0 (slope is -0.3)
+Closing Ratio for subject property is: 0.12
+Leases Needed: 0.9
+Traffic Needed: 7.5
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 258.5
+Occupancy: 88.9 (+0.6%)
+RevPau: 1194 (+0.5%)
+Net Effective Rent: 1338 (-0.3%)
+ATR % is: 7.37 (slope is -0.073)
+Leases per Week: 5.1 (slope is 0.45)
+Traffic per Week: 14.8 (slope is 1.42)
+Closing Ratio for comps is: 0.4
+Leases Needed: 5.1
+Traffic Needed: 12.7
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Plaza Townhomes at The Medical Center
+    Current Performance Analysis
+Plaza Townhomes at The Medical Center, a stabilized property with 66 units, maintains an occupancy rate of 93.9%, showing stability with no change. The Net Effective Rent (NER) is $2,148, reflecting a modest increase of 0.4%. This slight improvement in NER contributes to a small rise in Revenue per Available Unit (RevPau), which is currently $2,017, up by 0.3%. The property's stable occupancy, coupled with gradual rent growth, indicates consistency in revenue performance.
+In comparison, the comps, averaging 259 units, have a lower occupancy rate of 88.9%, though they have seen a slight increase of 0.6%. Their NER is $1,338, showing a slight decrease of 0.3%. However, their RevPau is $1,194, indicating a modest rise of 0.5%. Although the comps have experienced a slight decline in NER, their occupancy growth has helped improve RevPau marginally. Plaza Townhomes at The Medical Center outperforms the comps in both NER and RevPau, reflecting a stronger revenue position despite a stable occupancy rate.
+    Leading Indicators
+ATR % Analysis:
+- **Subject Property:** The ATR % is currently 10.6%, with an upward trend. This high ATR % indicates significant availability, suggesting a pressing need for strategies to reduce unit vacancy and boost occupancy rates.
+- **Comps:** The comps have a lower ATR % of 7.37%, with a slight downward trend. This suggests that comps are in a more stable position, with better-balanced supply and demand dynamics.
+Traffic per Week:
+- **Subject Property:** No traffic has been reported in the past week, with a downward trend. The historical data indicates a need for approximately 8 traffic pieces per week to help support leasing activity and work towards reducing the high ATR %. The lack of traffic is a critical issue, highlighting an urgent need for enhanced marketing efforts to generate interest.
+- **Comps:** The comps show a stronger position with 15 traffic pieces per week and an upward trend. They need around 13 traffic pieces weekly, indicating they are currently meeting their target and effectively attracting prospective tenants.
+Leases per Week:
+- **Subject Property:** There have been no new leases over the last 7 days, and the trend is downward. With a historical closing ratio of 0.12, the conversion rate is quite low, indicating challenges in converting any potential inquiries into leases. The property needs about 1 lease per week to begin addressing the high ATR %.
+- **Comps:** The comps are securing an average of 5 leases per week, with an upward trend. They need around 5 leases weekly to maintain optimal performance and are performing well, with a historical closing ratio of 0.4, showing more effective conversion of traffic into leases.
+Overall Analysis
+Plaza Townhomes at The Medical Center is maintaining stable occupancy, with a slight increase in Net Effective Rent (NER) which is contributing to a modest rise in Revenue per Available Unit (RevPau). This indicates a consistent revenue performance. When compared to the comps, Plaza Townhomes is outperforming in both NER and RevPau, reflecting a stronger revenue position despite a stable occupancy rate.
+However, the property is facing challenges with a high and rising ATR %, suggesting a significant amount of available units. The lack of reported traffic and the downward trend in leasing activity highlight critical areas for improvement. While comps are benefiting from a balance in supply and demand, Plaza Townhomes is struggling with generating traffic and converting inquiries into leases.
+To address these challenges, it is crucial for Plaza Townhomes to implement more aggressive marketing strategies to drive traffic and attract prospective tenants. Increasing traffic to around 8 visits per week is essential to support leasing efforts. Additionally, efforts should be made to improve the lease conversion rate, which is currently low. Strategies could include enhancing the leasing process, offering promotions or incentives, and intensifying outreach efforts to reduce the elevated ATR % and improve overall occupancy and revenue performance.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: 4th and Race - a stabilized property
+Number of total units is: 264.0
+Occupancy: 95.1 (-2.4%)
+RevPau: 2301 (-7.0%)
+Net Effective Rent: 2419 (-4.7%)
+ATR % is: 9.1 (slope is 0.415)
+Leases per Week: 4.0 (slope is 0.15)
+Traffic per Week: 12.0 (slope is 0.15)
+Closing Ratio for subject property is: 0.19
+Leases Needed: 4.0
+Traffic Needed: 21.1
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 249.6
+Occupancy: 91.1 (+1.6%)
+RevPau: 1930 (-1.0%)
+Net Effective Rent: 2111 (-2.6%)
+    Comps Data:
+ATR % is: 10.25 (slope is 0.227)
+Leases per Week: 0.7 (slope is -0.09)
+Traffic per Week: 6.3 (slope is 0.51)
+Closing Ratio for comps is: 0.2
+Leases Needed: 3.8
+Traffic Needed: 19.0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    4th and Race
+    **Current Performance Analysis**
+4th and Race, a stabilized property with 264 units, currently has an occupancy rate of 95.1%, which has decreased by 2.4%. The Net Effective Rent (NER) is $2,419, showing a decline of 4.7%. This decrease in NER has contributed to a reduction in Revenue Per Available Unit (RevPau), now at $2,301, down by 7.0%. The combined decrease in occupancy and NER indicates that the property is experiencing some challenges in maintaining its previous revenue levels.
+In comparison, the comps, averaging 250 units, have a lower occupancy rate of 91.1%, but this has improved by 1.6%. Their NER is $2,111, down by 2.6%, and the RevPau is $1,930, showing a slight decline of 1.0%. Although the comps are also facing declines in NER, their occupancy is on the rise, somewhat mitigating the impact on RevPau. While 4th and Race has a higher occupancy and revenue, the property might need to address the recent downturn in rent and revenue to maintain its market position.
+    Leading Indicators
+ATR % Analysis:
+- Subject Property (4th and Race): The ATR % is currently 9.1% and is showing an upward trend. This increase indicates a growing availability of units and suggests potential challenges in maintaining optimal occupancy levels.
+- Comps: The comps have an ATR % of 10.25%, also trending upward. While they have a slightly higher ATR %, the rising trend suggests they are experiencing similar difficulties in managing unit availability.
+Traffic Over the Last Week:
+- Subject Property: 4th and Race recorded 12 traffic pieces per week, with a slight upward trend. Although this is a positive sign, it's below the required level, as the property needs about 21 traffic pieces per week to support the leasing activity needed to reduce the ATR %.
+- Comps: The comps have seen 6 traffic pieces per week, also trending upward. They need around 19 traffic pieces per week, indicating they are currently further from their target and need more substantial efforts to increase traffic.
+Leases Over the Last Week:
+- Subject Property: 4th and Race has secured 4 leases per week with a slight upward trend. However, the historical closing ratio is 0.19, indicating less than 20% of traffic is converting into leases. The property needs about 4 leases per week to make a meaningful impact on the ATR %.
+- Comps: The comps have secured 1 lease per week, showing a downward trend. They need around 4 leases per week to sustain performance. The historical closing ratio for comps is 0.2, slightly higher but still indicating room for improvement in conversion rates.
+    **Overall Analysis**
+4th and Race is facing a decline in occupancy and Net Effective Rent (NER), which has led to a 7% drop in Revenue Per Available Unit (RevPau). Although it maintains a higher occupancy and revenue than the comps, the decreasing rent and revenue highlight a need for the property to address its recent downturn to sustain its market position. The comps are experiencing a rise in occupancy, which is partially offsetting their own declines in NER, suggesting they may be implementing strategies that are more effectively stabilizing their revenue.
+The increasing ATR % at 4th and Race signals growing unit availability, which could further impact occupancy if not addressed. While traffic is slightly up, the property is not yet attracting enough prospective tenants to meet its needs. The lease conversion rate is low, with less than 20% of traffic converting into leases, indicating inefficiencies in turning interest into signed agreements.
+To reverse the decline in occupancy and rent, the property should focus on strategies to boost traffic to 21 visits per week. This can include enhancing marketing efforts, offering targeted promotions, or revising rental incentives to attract more potential tenants. Improving the lease conversion rate is also critical, potentially through staff training, refined leasing processes, or incentives for leasing agents. These efforts will be essential to reducing unit availability and stabilizing revenue.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: Abacus West - a stabilized property
+Number of total units is: 272.0
+Occupancy: 94.1 (+0.0%)
+RevPau: 1237 (-10.7%)
+Net Effective Rent: 1315 (-10.7%)
+ATR % is: 10.3 (slope is -0.175)
+Leases per Week: 2.0 (slope is 0.2)
+Traffic per Week: 5.0 (slope is 0.1)
+Closing Ratio for subject property is: 0.39
+Leases Needed: 4.1
+Traffic Needed: 10.5
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 302.1
+Occupancy: 83.2 (+0.5%)
+RevPau: 1113 (+4.0%)
+Net Effective Rent: 1340 (+1.6%)
+ATR % is: 16.59 (slope is -0.049)
+Leases per Week: 2.6 (slope is -0.28)
+Traffic per Week: 7.2 (slope is -0.79)
+Closing Ratio for comps is: 0.4
+Leases Needed: 8.4
+Traffic Needed: 21.0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Abacus West
+    ## Current Performance Analysis
+Abacus West, a stabilized property with 272 units, currently has an occupancy rate of 94.1%, remaining stable with no change. However, the Net Effective Rent (NER) has decreased by 10.7% to $1,315. This significant drop in NER has led to a corresponding decrease in Revenue Per Available Unit (RevPau), which is now $1,237, also down by 10.7%. The reduction in both NER and RevPau suggests a decline in revenue performance, likely requiring attention to competitive strategies or market positioning.
+In comparison, the comps, averaging 302 units, have a lower occupancy rate of 83.2%, which has improved slightly by 0.5%. Their NER is $1,340, showing a modest increase of 1.6%. There is also a positive trend in their RevPau, which is $1,113, up by 4.0%. Although the comps have lower occupancy, their increase in both NER and RevPau indicates a more favorable trend in revenue growth, suggesting they might be implementing more effective pricing strategies in the current market.
+    Leading Indicators
+ATR % Analysis:
+- **Abacus West:** The ATR % is 10.3% and shows a slight downward trend. While this is a positive sign, the ATR % is still high, indicating a need for continued efforts to reduce unit availability and enhance occupancy.
+- **Comps:** The comps have a higher ATR % of 16.59%, also declining. Though they are reducing their availability, they remain significantly above desirable levels.
+Traffic per Week:
+- **Abacus West:** The property recorded 5 traffic pieces per week with a slight upward trend. However, to support a healthier ATR %, the property needs around 11 traffic pieces weekly. This indicates a gap that requires intensified marketing efforts to attract more prospects.
+- **Comps:** The comps have seen 7 traffic pieces per week, but with a downward trend. They need about 21 traffic pieces weekly, pointing to a substantial shortfall and a similar need for increased traffic generation.
+Leases per Week:
+- **Abacus West:** The property has secured 2 leases per week, with a positive trend. The historical closing ratio is 0.39, which is strong. However, to drive the ATR % to healthier levels, the property needs around 4 leases per week, suggesting an opportunity to increase leasing conversions.
+- **Comps:** The comps have achieved an average of 3 leases per week, showing a downward trend. They need approximately 8 leases weekly to achieve optimal performance, with a historical closing ratio of 0.4, which is effective but highlights a need for more consistent leasing activity.
+    Abacus West is maintaining a stable occupancy of 94.1%, but a significant drop in Net Effective Rent (NER) by 10.7% has led to a similar decline in Revenue Per Available Unit (RevPau). This indicates a decrease in revenue performance, suggesting a need to reassess pricing strategies. In contrast, comps, while having lower occupancy, are seeing modest gains in NER and RevPau, reflecting more effective revenue growth in the current market.
+While Abacus West's ATR % shows a slight improvement, it remains high at 10.3%, signifying the need to further reduce unit availability. Traffic is on a slight upward trend, but it falls short of the needed volume to bolster occupancy. The strong leasing trend of 2 leases per week indicates potential, but doubling this rate is crucial to drive down the ATR % and improve revenue performance.
+To address these challenges, the property should focus on aggressive marketing efforts to boost traffic and attract more prospects. Increasing lease conversions is essential, aiming to double the current leasing activity. This can be achieved through targeted promotions, enhanced sales incentives, and a refined pricing strategy to strengthen occupancy and revenue.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: The Ascent at Top of the Hill - a stabilized property
+Number of total units is: 261.0
+Occupancy: 96.9 (+3.2%)
+RevPau: 2152 (-0.2%)
+Net Effective Rent: 2221 (-3.3%)
+ATR % is: 4.2 (slope is -0.2)
+Leases per Week: 5.0 (slope is 0.9)
+Traffic per Week: 4.0 (slope is -0.1)
+Closing Ratio for subject property is: 0.46
+Leases Needed: 3.2
+Traffic Needed: 7.0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 258.4
+Occupancy: 91.2 (+5.2%)
+RevPau: 1935 (+4.0%)
+Net Effective Rent: 2123 (-1.2%)
+    Comps Data:
+ATR % is: 8.28 (slope is 0.569)
+Leases per Week: 2.8 (slope is 0.08)
+Traffic per Week: 5.5 (slope is 0.29)
+Closing Ratio for comps is: 0.62
+Leases Needed: 5.3
+Traffic Needed: 8.5
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    The Ascent at Top of the Hill
+    The Ascent at Top of the Hill, a stabilized property with 261 units, currently has an occupancy rate of 96.9%, which is an increase of 3.2%. Despite the strong occupancy, the Net Effective Rent (NER) is $2,221, showing a decrease of 3.3%. This decline in NER has led to a slight reduction in Revenue Per Available Unit (RevPau), now at $2,152, down by 0.2%. The drop in NER, despite high occupancy, suggests downward pressure on rental rates.
+In comparison, the comps, with an average of 258 units, have a lower occupancy rate of 91.2%, although they have seen a significant increase of 5.2%. Their NER is $2,123, which has decreased by 1.2%. However, the comps' RevPau is $1,935, reflecting a growth of 4.0%. Although the comps face a drop in NER, their substantial increase in occupancy and RevPau indicates they are effectively improving revenue through higher occupancy, even with slightly lower rental rates.
+    Leading Indicators
+ATR % Analysis:
+Subject Property: The Ascent at Top of the Hill has an ATR % of 4.2%, with a slight downward trend. This indicates a favorable market position with declining unit availability, suggesting effective leasing efforts are helping to reduce the ATR%.
+Comps: The comps have a higher ATR % of 8.3%, with an upward trend. This suggests increasing availability, indicating potential challenges in maintaining occupancy and a more competitive market environment.
+Traffic per Week:
+Subject Property: The property has seen 4 traffic pieces per week, with a slight downward trend. This decrease suggests a need to boost marketing efforts to attract more prospective tenants. The property requires around 7 traffic pieces per week to sustain the desired ATR %.
+Comps: The comps report 6 traffic pieces per week, with a positive trend. They are performing better in terms of attracting prospective tenants and need approximately 9 traffic pieces weekly to maintain their performance.
+Leases per Week:
+Subject Property: The Ascent at Top of the Hill has secured an average of 5 leases per week, with an upward trend. This is a strong leasing performance with a historical closing ratio of 0.46, which means nearly half of the traffic is converting into leases. The property requires about 3 leases per week to maintain a healthy ATR %, indicating they are currently exceeding this target.
+Comps: The comps have secured approximately 3 leases per week, with a slight upward trend. They need around 5 leases per week to sustain optimal performance. The historical closing ratio for comps is 0.62, showing a strong conversion rate, yet they still face higher availability compared to the subject property.
+    Overall Analysis
+The Ascent at Top of the Hill is experiencing strong occupancy at 96.9%, but it's facing declining Net Effective Rent (NER), leading to a slight decrease in Revenue Per Available Unit (RevPau). This suggests that while the property is keeping units filled, it may be doing so at the expense of rental rates, indicating downward pressure in pricing. In comparison, the comps have seen a significant increase in occupancy, which is boosting their revenue despite a decrease in NER. This shows that they are effectively improving revenue through higher occupancy, even with slightly lower rents.
+In terms of leading indicators, The Ascent is showing a positive trend with a declining ATR %, indicating effective leasing efforts. However, the property is experiencing a slight downward trend in weekly traffic, which could hinder future leasing performance if not addressed. On the other hand, the comps are facing increasing availability with a higher ATR %, suggesting potential challenges in maintaining occupancy despite better traffic trends.
+To address these challenges, The Ascent should focus on boosting marketing efforts to increase traffic and attract more prospective tenants. While the property is currently exceeding its leasing target and converting nearly half of the traffic into leases, sustaining and enhancing traffic flow to about 7 visitors per week will be crucial to maintaining a healthy ATR %. Additionally, exploring strategies to stabilize and potentially increase NER will be important to enhance revenue without sacrificing occupancy.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: Elle at The Medical Center Apartment Homes - a stabilized property
+Number of total units is: 212.0
+Occupancy: 94.8 (+2.5%)
+RevPau: 1801 (-1.4%)
+Net Effective Rent: 1900 (-3.8%)
+ATR % is: 6.6 (slope is 0.38)
+Leases per Week: 1.0 (slope is -0.7)
+Traffic per Week: 4.0 (slope is -1.3)
+Closing Ratio for subject property is: 0.26
+Leases Needed: 2.4
+Traffic Needed: 9.2
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Elle at The Medical Center Apartment Homes
+    Current Performance Analysis
+Elle at The Medical Center Apartment Homes, a stabilized property with 212 units, currently has an occupancy rate of 94.8%, which has increased by 2.5%. Despite this rise in occupancy, the property is experiencing a decrease in Net Effective Rent (NER), now at $1,900, down by 3.8%. This decline in NER has contributed to a reduction in Revenue Per Available Unit (RevPau), which stands at $1,801, down by 1.4%. The decrease in both NER and RevPau suggests some downward pressure on rent and revenue, possibly due to market conditions or competitive factors.
+In comparison, the comps, averaging 259 units, have a lower occupancy rate of 88.9%, which has increased slightly by 0.6%. Their NER is $1,338, showing a minor decrease of 0.3%. The comps' RevPau is $1,194, with a slight increase of 0.5%. While the comps are facing a small decline in NER, they have managed to improve their RevPau marginally. Elle at The Medical Center Apartment Homes, despite higher occupancy, is seeing a more significant drop in rent and revenue, indicating a need to address pricing strategies to improve financial performance.
+    Leading Indicators
+ATR % Analysis:
+- **Elle at The Medical Center:** The ATR % is currently 6.6% with a slight upward trend. This indicates that the availability of units is increasing, which could signal potential occupancy challenges if not addressed.
+- **Comps:** The comps have a slightly higher ATR % of 7.4%, with a minor downward trend. This suggests that comps are seeing some reduction in unit availability, pointing to improved occupancy conditions compared to the subject property.
+Traffic per Week:
+- **Elle at The Medical Center:** The traffic is currently at 4 per week, showing a notable downward trend. This decrease in traffic is concerning as it indicates a decline in interest from potential tenants. The property needs approximately 9 traffic pieces per week to support a healthier ATR %, highlighting a need for enhanced marketing efforts.
+- **Comps:** The comps are experiencing more traffic at 15 per week with an upward trend. They need around 13 traffic pieces per week to maintain performance, showing they are currently exceeding their needs and benefiting from stronger market demand.
+Leases per Week:
+- **Elle at The Medical Center:** The property has secured 1 lease per week, with a negative trend in leasing activity. The historical closing ratio is 0.26, which is below the target range. The property needs around 2 leases per week to reach the desired ATR %, indicating a requirement for improved leasing strategies to boost conversion rates.
+- **Comps:** The comps are securing an average of 5 leases per week, with a positive trend. They need about 5 leases per week to sustain optimal performance. The historical closing ratio for comps is 0.4, showing they are more effective in converting traffic into leases compared to the subject property.
+    Overall Analysis
+Elle at The Medical Center Apartment Homes is experiencing a mixed performance, with a commendable increase in occupancy to 94.8% but facing a concerning decline in Net Effective Rent (NER) and Revenue Per Available Unit (RevPau). This drop suggests downward pressure on rent and revenue, which might be due to market conditions or competitive dynamics. In comparison, the comps have lower occupancy but show a slight upward trend in RevPau, indicating they may be managing pricing strategies more effectively despite a small decline in NER.
+The upward trend in the property's ATR % is a warning sign, suggesting that unit availability could become a more significant issue. Coupled with a downward trend in traffic and low lease conversion, this points to potential occupancy challenges ahead. The comps, meanwhile, are enjoying higher traffic and a stronger leasing performance, with an upward trend in both areas, highlighting better market positioning.
+To address these challenges, Elle at The Medical Center should focus on boosting traffic through enhanced marketing strategies, aiming to reach 9 visits per week. Improving lease conversion rates is also crucial, with a target of securing at least 2 leases per week. By refining pricing strategies and enhancing marketing efforts, the property can work to stabilize rents and improve overall financial performance.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: The Qs at Towne Oaks - a stabilized property
+Number of total units is: 240.0
+Occupancy: 92.1 (-0.9%)
+RevPau: 1073 (+7.0%)
+Net Effective Rent: 1165 (+7.9%)
+ATR % is: 10.8 (slope is -0.31)
+Leases per Week: 1.0 (slope is -0.8)
+Traffic per Week: 2.0 (slope is -0.4)
+Closing Ratio for subject property is: 0.6
+Leases Needed: 4.2
+Traffic Needed: 7.0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 244.0
+Occupancy: 94.2 (+1.1%)
+RevPau: 935 (+2.3%)
+Net Effective Rent: 994 (+1.4%)
+    Comps Data:
+ATR % is: 6.96 (slope is -0.043)
+Leases per Week: 3.1 (slope is -0.04)
+Traffic per Week: 9.8 (slope is 0.57)
+Closing Ratio for comps is: 0.69
+Leases Needed: 3.4
+Traffic Needed: 4.9
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    The Qs at Towne Oaks
+    **Current Performance Analysis**
+The Qs at Towne Oaks, a stabilized property with 240 units, has a current occupancy rate of 92.1%, experiencing a slight decrease of 0.9%. Despite this drop in occupancy, the property has seen a significant increase in Net Effective Rent (NER), which is now $1,165, up by 7.9%. This increase in NER has positively impacted the Revenue Per Available Unit (RevPau), which has risen to $1,073, showing a strong growth of 7.0%. The boost in RevPau, driven by the higher NER, indicates effective pricing strategies, even with the slight decline in occupancy.
+In comparison, the comps, averaging 244 units, have a higher occupancy rate of 94.2%, which has improved by 1.1%. Their NER stands at $994, reflecting a modest increase of 1.4%. The comps' RevPau is $935, showing a growth of 2.3%. While the comps have a higher occupancy rate, The Qs at Towne Oaks outperforms in terms of NER and RevPau growth, suggesting a strong ability to increase revenue and rent despite slightly lower occupancy, positioning it well in the market.
+    Leading Indicators 
+ATR % Analysis:
+- Subject Property: The Qs at Towne Oaks has an ATR % of 10.8%, with a negative slope indicating a slight downward trend. Although this is a positive sign, the ATR % remains high, indicating a need for continued efforts to reduce unit availability and improve occupancy levels.
+- Comps: The comps have an ATR % of 6.96%, also showing a modest downward trend. This lower ATR % suggests better occupancy levels compared to The Qs at Towne Oaks, highlighting a more competitive position in the market.
+Traffic per Week:
+- Subject Property: The Qs at Towne Oaks recorded 2 pieces of traffic per week, with a downward trend. This low traffic level is insufficient to support the leasing activity needed to reduce the high ATR %. The property requires around 7 traffic pieces per week to help achieve its leasing goals.
+- Comps: The comps have 9.8 traffic pieces per week, with an upward trend. This indicates stronger demand and more effective marketing efforts. They need approximately 5 traffic pieces per week to maintain their current performance, suggesting a healthier market position.
+Leases per Week:
+- Subject Property: The Qs at Towne Oaks has secured only 1 lease per week, with a downward trend. The historical closing ratio is strong at 0.6, but the low number of leases indicates a need for more traffic to sustain lease activity. The property needs about 4 leases per week to move towards a healthier ATR %.
+- Comps: The comps have secured around 3 leases per week, with a slight downward trend. They require about 3 leases per week to maintain optimal performance, and their closing ratio of 0.69 indicates effective conversion of traffic to leases.
+    **Overall Analysis**
+The Qs at Towne Oaks is demonstrating a strong ability to increase Net Effective Rent (NER) and Revenue Per Available Unit (RevPau), despite a slight decline in occupancy. This suggests effective pricing strategies, allowing the property to drive revenue growth. However, the comps have better occupancy and lower Availability to Rent (ATR) %, indicating a more competitive position in terms of unit availability and demand.
+**Addressing Concerns**
+The high ATR % and declining lease activity at The Qs at Towne Oaks highlight the need for increased leasing efforts and better traffic generation. With only 2 pieces of traffic per week, leasing activity is insufficient to reduce the high ATR %, and the property requires around 7 traffic pieces per week to achieve leasing goals.
+**Recommendations**
+To improve performance, The Qs at Towne Oaks should focus on boosting traffic through enhanced marketing strategies. Increasing traffic to 7 pieces per week and securing 4 leases per week will be crucial in reducing the ATR % and enhancing occupancy. Strengthening efforts in these areas will help capitalize on the strong NER growth, ensuring continued revenue enhancement and a more competitive market position.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: The Village on Riverwalk - a stabilized property
+Number of total units is: 700.0
+Occupancy: 79.7 (+1.0%)
+RevPau: 841 (+17.6%)
+Net Effective Rent: 1055 (+16.4%)
+ATR % is: 26.0 (slope is 0.06)
+Leases per Week: 10.0 (slope is 1.3)
+Traffic per Week: 23.0 (slope is 3.5)
+Closing Ratio for subject property is: 0.53
+Leases Needed: 25.3
+Traffic Needed: 47.7
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 433.0
+Occupancy: 85.6 (+0.0%)
+RevPau: 1000 (+3.1%)
+Net Effective Rent: 1165 (+3.1%)
+ATR % is: 4.86 (slope is 0.025)
+Leases per Week: 5.4 (slope is 0.74)
+Traffic per Week: 8.3 (slope is -0.11)
+Closing Ratio for comps is: 0.41
+Leases Needed: 5.4
+Traffic Needed: 13.2
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    The Village on Riverwalk
+    Current Performance Analysis
+The Village on Riverwalk, a stabilized property with 700 units, has an occupancy rate of 79.7%, which has increased by 1%. The Net Effective Rent (NER) is $1,055, showing substantial growth of 16.4%. This impressive increase in NER is a key factor driving the significant rise in Revenue Per Available Unit (RevPau), now at $841, up by 17.6%. Despite lower occupancy, the strong growth in rent and revenue indicates effective pricing strategies and a positive trend in financial performance.
+In comparison, the comps, averaging 433 units, have a higher occupancy rate of 85.6%, remaining stable with no change. Their NER is $1,165, up by 3.1%, leading to a RevPau of $1,000, also increasing by 3.1%. While the comps maintain higher occupancy and NER, their growth in RevPau is more moderate. The Village on Riverwalk shows a remarkable improvement in RevPau and NER, suggesting strong revenue management and potential for further growth.
+    Leading Indicators
+ATR % Analysis:
+- Subject Property (The Village on Riverwalk): The current ATR % is 26.0% with a slight upward trend. This high ATR % indicates significant availability, suggesting challenges in maintaining occupancy. The increasing trend further highlights the need for action to reduce unit availability.
+- Comps: The comps have a much lower ATR % of 4.9%, with a small upward trend. While still within a healthier range, the slight increase suggests a potential rise in unit availability.
+Traffic per Week:
+- Subject Property: The Village on Riverwalk has seen 23 traffic pieces per week, with a strong upward trend. However, despite this increase, the property needs around 48 traffic pieces per week to support the high leasing demand necessary to impact the ATR %. This indicates that, while marketing efforts have improved, they still fall short of the target.
+- Comps: The comps have 8 traffic pieces per week, with a slight downward trend. They need approximately 13 traffic pieces weekly to maintain their performance, but the decline suggests they may be facing decreasing interest from prospective tenants.
+Leases per Week:
+- Subject Property: The Village on Riverwalk has secured 10 leases per week, showing an upward trend. The historical closing ratio is 0.53, indicating a strong conversion rate, with over half of the traffic converting to leases. However, to make a significant impact on the high ATR %, the property needs about 25 leases per week.
+- Comps: The comps have an average of 5 leases per week, also trending upward. They need around 5 leases per week to sustain their performance, with a historical closing ratio of 0.41, indicating effective traffic conversion.
+    Overall Analysis
+The Village on Riverwalk has shown strong growth in Net Effective Rent (NER), up by 16.4%, driving a significant increase in Revenue Per Available Unit (RevPau). This suggests effective pricing strategies and positive financial performance, even with a lower occupancy rate of 79.7%. In comparison, comps have a higher occupancy rate of 85.6% and more moderate growth in NER and RevPau, highlighting the Villageâ€™s rapid revenue improvement despite higher unit availability.
+However, the property faces challenges with a high and rising ATR % of 26.0%, signifying substantial unit availability. While traffic and leasing efforts are improving, with an upward trend in weekly traffic and leases, they aren't sufficient to impact the high ATR %. The property needs around 48 traffic pieces and 25 leases per week to effectively reduce availability and boost occupancy.
+To address these challenges, the property should intensify marketing efforts to further increase traffic and focus on enhancing the lease conversion rate. Implementing targeted promotional campaigns, offering incentives, or refining the leasing process could help attract more tenants and convert visits into leases, supporting continued revenue growth and improved occupancy.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: Dakota Ridge Apartment - a stabilized property
+Number of total units is: 272.0
+Occupancy: 97.1 (+0.0%)
+RevPau: 1322 (-2.6%)
+Net Effective Rent: 1361 (-2.6%)
+ATR % is: 5.9 (slope is 0.2)
+Leases per Week: 1.0 (slope is -0.0)
+Traffic per Week: 7.0 (slope is 1.25)
+Closing Ratio for subject property is: 0.64
+Leases Needed: 2.3
+Traffic Needed: 3.6
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 285.2
+Occupancy: 94.2 (-0.9%)
+RevPau: 1200 (-6.1%)
+Net Effective Rent: 1274 (-5.2%)
+ATR % is: 5.48 (slope is 0.244)
+Leases per Week: 3.0 (slope is 0.19)
+Traffic per Week: 6.5 (slope is -0.13)
+Closing Ratio for comps is: 0.48
+Leases Needed: 3.4
+Traffic Needed: 7.1
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Dakota Ridge Apartment
+    **Current Performance Analysis**
+Dakota Ridge Apartment, a stabilized property with 272 units, maintains a high occupancy rate of 97.1%, unchanged from the previous period. However, the property has seen a decrease in both Net Effective Rent (NER) and Revenue per Available Unit (RevPau), both down by 2.6%, with the NER at $1,361 and RevPau at $1,322. This decline indicates some downward pressure on rent levels, affecting overall revenue despite the stable occupancy.
+In comparison, the comps have an average occupancy rate of 94.2%, which has decreased by 0.9%. Their NER is $1,274, a significant drop of 5.2%, while their RevPau is $1,200, down by 6.1%. The comps are experiencing more pronounced declines in both rent and revenue metrics, suggesting that Dakota Ridge Apartment, despite its own decreases, is performing relatively better in maintaining revenue and rent levels in the current market.
+    Leading Indicators
+ATR % Analysis:
+- Subject Property (Dakota Ridge Apartment): The ATR % is 5.9% with a slight upward trend. While still under the critical 6% threshold, the increase suggests a potential risk of rising availability, indicating the need for ongoing efforts to maintain this level.
+- Comps: The comps have an ATR % of 5.48%, also showing a slight upward trend. This indicates a similar market condition, with a slight increase in unit availability, suggesting comps are facing challenges in sustaining occupancy.
+Traffic per Week:
+- Subject Property (Dakota Ridge Apartment): There are 7 traffic pieces per week, with an increasing trend. The property needs around 4 traffic pieces per week to support the leasing activity needed to maintain a healthy ATR %, suggesting current traffic levels are more than sufficient.
+- Comps: The comps have 7 traffic pieces per week, with a downward trend. They need around 7 traffic pieces per week to sustain their performance, indicating they are just meeting the necessary level to support their leasing activity.
+Leases per Week:
+- Subject Property (Dakota Ridge Apartment): The property has secured 1 lease per week, with a stable trend. The historical closing ratio is 0.64, which is quite high, indicating a strong ability to convert traffic into leases. However, the property needs about 2 leases per week, suggesting a need to increase leasing volume to prevent future ATR % increases.
+- Comps: The comps have secured 3 leases per week, with a slight upward trend. They need around 3 leases per week to sustain their performance. The historical closing ratio is 0.48, showing a good conversion rate, though slightly lower than Dakota Ridge, indicating they convert traffic effectively but have less efficiency compared to the subject property.
+    **Overall Analysis**
+Dakota Ridge Apartment is maintaining a strong occupancy rate of 97.1%, indicating stability. However, there's a downward trend in Net Effective Rent (NER) and Revenue Per Available Unit (RevPau), both down by 2.6%. This suggests some pressure on rent levels, affecting overall revenue. Despite these declines, Dakota Ridge Apartment is performing relatively better than the comps, which are experiencing more significant drops in rent and revenue metrics.
+The ATR % of 5.9% is slightly trending upward, suggesting a potential risk of rising availability. Though it remains under the critical 6% threshold, this trend indicates the need for proactive measures to maintain occupancy levels. Traffic is increasing, with 7 traffic pieces per week, more than sufficient to support leasing activity. However, the property is only securing 1 lease per week, which suggests a need to boost lease conversions to prevent any future rise in ATR %.
+To address these challenges, Dakota Ridge should focus on enhancing its leasing strategies to increase the number of leases per week. This could involve targeted marketing campaigns, incentives, or promotions to attract more tenants and secure additional leases. Given the strong traffic and high closing ratio, a slight increase in weekly leases could significantly stabilize rent levels and improve revenue performance.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: Summit on Quality Hill Apartments - a stabilized property
+Number of total units is: 252.0
+Occupancy: 94.4 (-0.8%)
+RevPau: 1840 (-6.4%)
+Net Effective Rent: 1950 (-5.5%)
+ATR % is: 9.5 (slope is 0.24)
+Leases per Week: 0.0 (slope is 0.4)
+Traffic per Week: 3.0 (slope is -0.0)
+Closing Ratio for subject property is: 0.26
+Leases Needed: 4.9
+Traffic Needed: 18.8
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 207.0
+Occupancy: 94.0 (-0.4%)
+RevPau: 1777 (-1.3%)
+Net Effective Rent: 1894 (-1.0%)
+ATR % is: 7.01 (slope is 0.579)
+Leases per Week: 2.2 (slope is -0.1)
+Traffic per Week: 5.9 (slope is 0.27)
+Closing Ratio for comps is: 0.5
+Leases Needed: 3.3
+Traffic Needed: 6.6
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Summit on Quality Hill Apartments
+    **Current Performance Analysis**
+Summit on Quality Hill Apartments, a stabilized property with 252 units, currently has an occupancy rate of 94.4%, which has decreased by 0.8%. The Net Effective Rent (NER) is $1,950, showing a decline of 5.5%. This reduction in NER has contributed to a decrease in the Revenue Per Available Unit (RevPau), which is now $1,840, down by 6.4%. The decline in both NER and RevPau indicates a need for strategies to enhance revenue and maintain occupancy levels.
+In comparison, the comps, averaging 207 units, have a similar occupancy rate of 94.0%, with a smaller decrease of 0.4%. Their NER is $1,894, down by 1.0%, and their RevPau is $1,777, showing a decrease of 1.3%. Although the comps are also experiencing declines in NER and RevPau, their reductions are less pronounced than those at Summit on Quality Hill. This suggests that Summit may need to reassess its pricing and marketing strategies to improve its competitive position in the market.
+    Leading Indicators 
+ATR % Analysis:
+- **Summit on Quality Hill Apartments**: The ATR % is currently 9.5% with an upward trend. This indicates a rising availability of units, which may lead to increased vacancy if not addressed. The ATR % is relatively high, suggesting the property is facing challenges in maintaining optimal occupancy.
+- **Comps**: The ATR % for comps is 7.01% and is also on an upward trend. Although lower than Summit on Quality Hill, the increase suggests that comps are similarly experiencing rising unit availability, indicating competitive market conditions.
+Traffic per Week:
+- **Summit on Quality Hill Apartments**: Traffic is at 3 per week and has been stable. This low level of traffic is insufficient, as the property needs around 19 traffic pieces per week to support the leasing activity required to reduce the ATR %. The current traffic levels highlight a need for enhanced marketing efforts to drive more prospective tenants.
+- **Comps**: The comps have a higher traffic level at 6 per week, with an upward trend. They need around 7 traffic pieces per week to sustain their performance, indicating they are closer to their needed traffic levels and currently attracting more interest.
+Leases per Week:
+- **Summit on Quality Hill Apartments**: No leases have been secured over the last 7 days, with an upward trend in the data. The property needs about 5 leases per week to help decrease the ATR %. The historical closing ratio is 0.26, indicating that approximately one-fourth of the traffic converts into leases, but the lack of recent leasing activity suggests a need for improvement in leasing strategies.
+- **Comps**: The comps have secured an average of 2 leases per week, with a slight downward trend. They need around 3 leases per week to maintain optimal performance. The historical closing ratio is 0.5, indicating they are converting traffic into leases more effectively than Summit on Quality Hill.
+    Summit on Quality Hill Apartments is currently experiencing a decline in key performance metrics, with occupancy at 94.4% and decreases in Net Effective Rent (NER) and Revenue Per Available Unit (RevPau). These downward trends indicate challenges in maintaining revenue and competitive positioning in the market. While the comps are also seeing declines, their reductions in NER and RevPau are less pronounced, suggesting that Summit may need to revisit its pricing and marketing strategies.
+The property has a rising ATR % at 9.5%, signaling increasing unit availability that could lead to higher vacancies if not addressed. Traffic is low at 3 visits per week, far short of the 19 needed to support leasing efforts and reduce the ATR %. Additionally, with no leases secured in the past week and a closing ratio of 0.26, Summit must enhance its leasing strategies to convert more visits into leases.
+To address these challenges, Summit should focus on aggressive marketing and pricing strategies to boost traffic and attract more tenants. Increasing the volume of prospective tenant visits and targeting efforts to convert these visits into leases will be crucial. Strengthening leasing processes and personnel training to improve the closing ratio can also help secure more leases and reduce the ATR %, stabilizing revenue and occupancy.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: The Yards - a stabilized property
+Number of total units is: 230.0
+Occupancy: 93.9 (+1.8%)
+RevPau: 1268 (+2.0%)
+Net Effective Rent: 1350 (+0.1%)
+ATR % is: 6.1 (slope is -0.05)
+Leases per Week: 0.0 (slope is -0.9)
+Traffic per Week: 6.0 (slope is -2.1)
+Closing Ratio for subject property is: 0.21
+Leases Needed: 2.6
+Traffic Needed: 12.4
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 286.2
+Occupancy: 94.0 (-0.7%)
+RevPau: 1633 (-2.4%)
+Net Effective Rent: 1735 (-1.8%)
+ATR % is: 4.1 (slope is -0.421)
+Leases per Week: 1.6 (slope is -0.06)
+Traffic per Week: 8.0 (slope is 0.34)
+Closing Ratio for comps is: 0.36
+Leases Needed: 3.6
+Traffic Needed: 10.0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    The Yards
+    Current Performance Analysis
+The Yards, a stabilized property with 230 units, has an occupancy rate of 93.9%, which has increased by 1.8%. The Net Effective Rent (NER) is $1,350, showing a minimal increase of 0.1%. Despite the modest growth in NER, the property's Revenue Per Available Unit (RevPau) is $1,268, which has risen by 2.0%. This improvement in RevPau indicates strong revenue performance, driven mainly by higher occupancy.
+In comparison, the comps, averaging 286 units, have a slightly higher occupancy rate of 94.0%, but it has decreased by 0.7%. Their NER is $1,735, which has declined by 1.8%. The comps' RevPau stands at $1,633, experiencing a decrease of 2.4%. The decline in both NER and RevPau for the comps suggests a downward trend in revenue, contrasting with The Yards, which is showing positive growth in occupancy and revenue metrics, indicating a strengthening position in the market.
+Leading Indicators
+ATR % Analysis:
+- Subject Property (The Yards): The ATR % is currently 6.1%, showing a slight downward trend. This indicates some improvement in unit availability, but the ATR % is still above the ideal target of under 6%, suggesting a need for continued efforts to reduce vacancy.
+- Comps: The comps have a lower ATR % of 4.1%, with a more pronounced downward trend. This suggests better occupancy levels and a stronger market position compared to The Yards.
+Traffic Over the Last 7 Days:
+- Subject Property: The Yards recorded 6 traffic pieces per week, with a significant downward trend. This decline indicates weakening interest, pointing to a potential need for more aggressive marketing to attract tenants. To support leasing activity and further reduce the ATR %, the property needs about 12 traffic pieces per week.
+- Comps: The comps have seen 8 traffic pieces per week, with a slight upward trend. They need around 10 traffic pieces to sustain performance, suggesting they are currently in a better position to generate tenant interest.
+Leases Over the Last 7 Days:
+- Subject Property: The Yards recorded no new leases last week, with a steep downward trend. The historical closing ratio is 0.21, indicating that only about 21% of traffic converts into leases. The property needs approximately 3 leases per week to maintain a healthier ATR %, highlighting the need for improved conversion strategies.
+- Comps: The comps have secured an average of 2 leases per week with a slight downward trend. They need around 4 leases per week to maintain optimal performance, and the higher historical closing ratio of 0.36 suggests they are more effective in converting traffic into leases.
+    Overall Analysis
+The Yards is showing positive revenue growth, primarily driven by an increase in occupancy, despite the minimal rise in Net Effective Rent (NER). In contrast, the comps are experiencing declines in both NER and Revenue Per Available Unit (RevPau), indicating a downward trend in revenue. This suggests that The Yards is currently in a strengthening market position.
+However, The Yards faces challenges with its ATR %, which is still above the ideal target, indicating room for improvement in reducing vacancies. The significant drop in traffic and the lack of new leases highlight a need for more effective marketing and leasing strategies to attract tenants and boost conversions.
+To address these challenges, The Yards should focus on aggressive marketing efforts to increase traffic, aiming for at least 12 visits per week. Additionally, improving lease conversion strategies, such as enhancing the leasing team's effectiveness or offering incentives, can help boost the conversion rate from 21% to a healthier level. By addressing these issues, The Yards can continue to strengthen its market position and achieve more consistent revenue growth.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: AVIA Apartments at 110th Street - a stabilized property
+Number of total units is: 112.0
+Occupancy: 98.2 (+2.8%)
+RevPau: 1096 (+4.7%)
+Net Effective Rent: 1116 (+1.8%)
+ATR % is: 7.1 (slope is 0.7)
+Leases per Week: 0.0 (slope is -0.55)
+Traffic per Week: 0.0 (slope is -0.8)
+Closing Ratio for subject property is: 0.22
+Leases Needed: 0.8
+Traffic Needed: 3.6
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 352.2
+Occupancy: 93.9 (-1.4%)
+RevPau: 1387 (-1.3%)
+Net Effective Rent: 1476 (+0.0%)
+ATR % is: 0.93 (slope is 0.167)
+Leases per Week: 1.2 (slope is -0.37)
+Traffic per Week: 3.2 (slope is -0.02)
+Closing Ratio for comps is: 0.34
+Leases Needed: 1.0
+Traffic Needed: 2.9
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    AVIA Apartments at 110th Street
+    ### Current Performance Analysis
+AVIA Apartments at 110th Street, a stabilized property with 112 units, has an impressive occupancy rate of 98.2%, which has increased by 2.8%. The Net Effective Rent (NER) for AVIA is $1,116, reflecting a modest increase of 1.8%. This improvement in both occupancy and NER has contributed to a notable rise in Revenue Per Available Unit (RevPau), now at $1,096, up by 4.7%. The combined growth in these metrics indicates strong demand and effective management of rent strategies.
+In comparison, the comps, with an average of 352 units, have a lower occupancy rate of 93.9%, which has decreased by 1.4%. Their NER stands at $1,476, showing no change, while the RevPau is $1,387, down by 1.3%. This decline in both occupancy and RevPau suggests that the comps may be facing market challenges. Although the comps have a higher NER, their downward trend contrasts with AVIA Apartments' positive growth in revenue and occupancy, positioning AVIA favorably in the market.
+    Leading Indicators
+ATR % Analysis:
+- **AVIA Apartments:** The ATR % is 7.1% and increasing, indicating a rising trend in availability. This suggests potential occupancy challenges as the supply of units is growing, possibly outpacing demand.
+- **Comps:** The comps have a much lower ATR % of 0.93%, though it is also slightly increasing. This indicates a relatively stable market with low unit availability, but the slight upward trend suggests they might also be seeing some increase in unit availability.
+Traffic per Week:
+- **AVIA Apartments:** Currently, there is no traffic, with a significant downward trend. This lack of inquiries is concerning and highlights a need for urgent marketing efforts to attract prospective tenants. To maintain a healthier ATR %, the property needs approximately 4 traffic pieces per week.
+- **Comps:** The comps have an average of 3 traffic pieces per week, with a stable trend. They need around 3 traffic pieces weekly to sustain their performance, indicating they are currently near the required level to maintain optimal occupancy.
+Leases per Week:
+- **AVIA Apartments:** No leases have been secured over the last 7 days, with a declining trend. The historical closing ratio is 0.22, showing that less than a quarter of the traffic converts into leases. The property needs about 1 lease per week to help manage the ATR %.
+- **Comps:** The comps are securing an average of 1 lease per week, with a downward trend. They need around 1 lease per week to maintain optimal performance. The historical closing ratio is 0.34, indicating a better conversion rate compared to AVIA Apartments.
+    ### Overall Analysis
+AVIA Apartments is demonstrating strong performance with an impressive occupancy rate of 98.2%, a 2.8% increase, and a rise in Net Effective Rent (NER) of 1.8%. These factors have contributed to a 4.7% increase in Revenue Per Available Unit (RevPau), indicating effective rent strategies and strong demand. In contrast, the comps are experiencing declines in occupancy and RevPau, positioning AVIA favorably in the market despite the comps having a higher NER.
+However, AVIA faces some concerns with an increasing ATR %, signaling potential future occupancy challenges as unit availability grows. Additionally, the lack of traffic and leases is troubling, highlighting an urgent need to attract and convert prospective tenants. In comparison, the comps are maintaining more stable traffic and lease conversion rates.
+To address these challenges, AVIA must implement aggressive marketing strategies to boost traffic to at least 4 inquiries per week. Enhancing promotional efforts can drive interest and help secure a minimum of 1 lease per week. Improving the lease conversion ratio, currently at a low 0.22, through targeted leasing incentives or enhanced sales training will be essential to manage the growing ATR % and sustain its positive revenue growth.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: Siena Villas Apartments - a stabilized property
+Number of total units is: 81.0
+Occupancy: 98.8 (+1.3%)
+RevPau: 1535 (+9.0%)
+Net Effective Rent: 1554 (+7.6%)
+ATR % is: 2.5 (slope is -0.36)
+Leases per Week: 1.0 (slope is 0.2)
+Traffic per Week: 0.0 (slope is -0.8)
+Closing Ratio for subject property is: 0.59
+Leases Needed: 0.9
+Traffic Needed: 1.5
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 162.8
+Occupancy: 93.2 (+1.1%)
+RevPau: 1435 (+8.7%)
+Net Effective Rent: 1539 (+7.6%)
+ATR % is: 8.72 (slope is 0.199)
+Leases per Week: 0.8 (slope is -0.27)
+Traffic per Week: 2.0 (slope is -0.32)
+Closing Ratio for comps is: 0.52
+Leases Needed: 1.8
+Traffic Needed: 3.5
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Siena Villas Apartments
+    Current Performance Analysis
+Siena Villas Apartments, a stabilized property with 81 units, currently has an impressive occupancy rate of 98.8%, which has increased by 1.3%. The Net Effective Rent (NER) is $1,554, showing a significant rise of 7.6%. This increase in NER has contributed to a strong growth in Revenue Per Available Unit (RevPau), now at $1,535, up by 9.0%. The combination of high occupancy and effective rent management indicates a robust performance for Siena Villas Apartments, positioning it well in the market.
+In comparison, the comps, averaging 163 units, have a lower occupancy rate of 93.2%, which has also increased by 1.1%. Their NER is $1,539, reflecting a similar 7.6% increase. The comps' RevPau is $1,435, up by 8.7%. While the comps also show strong growth in NER and RevPau, Siena Villas Apartments outperforms them in both occupancy and revenue metrics, highlighting its effective strategy in maximizing occupancy and rent.
+Leading Indicators
+ATR % Analysis:
+- **Siena Villas Apartments**: The ATR % is 2.5% and is on a downward trend. This decline indicates an improving occupancy situation with a good balance between supply and demand. However, it's important to ensure continued leasing activity to maintain this positive trend.
+- **Comps**: The comps have a higher ATR % of 8.72%, and it is trending upward. This indicates a moderate level of unit availability, suggesting comps are experiencing challenges in reducing their vacancy rates.
+Traffic Over the Last Week:
+- **Siena Villas Apartments**: There has been no traffic recorded, and the trend is downward. This absence of traffic suggests potential issues with attracting prospective tenants and indicates a need for enhanced marketing efforts. The property needs approximately 2 traffic pieces per week to maintain its performance.
+- **Comps**: The comps have seen 2 traffic pieces per week, with a downward trend. They need around 4 traffic pieces per week to sustain their performance, indicating they are also facing challenges in drawing sufficient interest.
+Leases Over the Last Week:
+- **Siena Villas Apartments**: There has been 1 lease secured over the past 7 days, with a slightly upward trend. The historical closing ratio is strong at 0.59, indicating effective conversion of traffic to leases, even though only minimal traffic is recorded. The property needs about 1 lease per week to maintain a healthy ATR %.
+- **Comps**: The comps have secured 1 lease per week on average, with a downward trend. They need around 2 leases per week to achieve optimal performance. Their historical closing ratio is 0.52, which is solid but lower than Siena Villas, suggesting they might have more difficulty converting traffic into leases.
+    Overall Analysis
+Siena Villas Apartments is showing strong performance with a high occupancy rate of 98.8% and significant growth in Net Effective Rent (NER) and Revenue Per Available Unit (RevPau). This positive trend indicates effective rent management and solid demand, positioning the property well ahead of its comps, which have lower occupancy and revenue metrics.
+However, the absence of traffic over the last week is a concern. While there has been successful lease conversion, the lack of new visits could pose a risk to sustaining the current momentum.
+To address this, the property should focus on boosting marketing efforts to attract more prospective tenants, aiming for at least 2 traffic pieces per week. Additionally, maintaining the strong lease conversion rate will be essential to keep the ATR % low and continue driving revenue growth. These strategies will help support the property's robust position and ensure ongoing success in the market.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: The Village at Waxahachie - a Lease-up property
+Number of total units is: 225.0
+Occupancy: 87.6 (+6.6%)
+RevPau: 1292 (+7.8%)
+Net Effective Rent: 1474 (+1.1%)
+ATR % is: 6.2 (slope is -0.63)
+Leases per Week: 6.0 (slope is 0.3)
+Traffic per Week: 18.0 (slope is 2.6)
+Closing Ratio for subject property is: 0.92
+Leases Needed: 7.8
+Traffic Needed: 8.5
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 167.4
+Occupancy: 75.8 (+3.3%)
+RevPau: 1161 (+2.1%)
+Net Effective Rent: 1498 (-0.8%)
+    Comps Data:
+ATR % is: 23.75 (slope is 0.377)
+Leases per Week: -0.1 (slope is -0.81)
+Traffic per Week: 4.9 (slope is -0.46)
+Closing Ratio for comps is: 1
+Leases Needed: 11.5
+Traffic Needed: 11.5
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    The Village at Waxahachie
+    **Current Performance Analysis**
+The Village at Waxahachie, a lease-up property with 225 units, is currently showing strong performance indicators. Its occupancy rate stands at 87.6%, which has increased by 6.6%, suggesting successful leasing efforts. The Net Effective Rent (NER) is $1,474, reflecting a modest increase of 1.1%. This improvement in occupancy and NER has led to a notable rise in Revenue Per Available Unit (RevPau), now at $1,292, up by 7.8%. The significant increase in RevPau is primarily driven by the higher occupancy, indicating effective lease-up strategies.
+In comparison, the comps, averaging 167 units, have a lower occupancy rate of 75.8%, which has increased by 3.3%. Their NER is slightly higher at $1,498, but it has decreased by 0.8%. The comps' RevPau is $1,161, showing a growth of 2.1%. While the comps maintain a marginally higher NER, their decrease contrasts with the improved performance of The Village at Waxahachie, which has achieved greater gains in both occupancy and RevPau, indicating a more effective approach in capturing market demand during the lease-up phase.
+    Leading Indicators 
+ATR % Analysis:
+- **The Village at Waxahachie:** The ATR % is 6.2% with a decreasing trend. This downward slope indicates positive progress in reducing unit availability, moving towards ideal occupancy levels.
+- **Comps:** The comps have a high ATR % of 23.75% and it's increasing. This reflects a significant oversupply of units, showing that the comps are facing more substantial challenges in reducing vacancy.
+Traffic per Week:
+- **The Village at Waxahachie:** Current traffic is 18 per week, with a strong upward trend. This increase suggests effective marketing efforts and a healthy pipeline of potential tenants. The property requires around 9 traffic pieces per week, indicating that current levels are more than sufficient.
+- **Comps:** The comps show a lower traffic level of 5 per week, with a slight downward trend. They need about 12 traffic pieces per week to meet leasing goals, indicating they are significantly underperforming in attracting prospective tenants.
+Leases per Week:
+- **The Village at Waxahachie:** The property has secured an average of 6 leases per week, with a positive trend. The historical closing ratio of 0.92 is very high, showing efficient conversion of traffic to leases. The property needs around 8 leases per week to optimize performance, so it is close to the target.
+- **Comps:** The comps have an average of 0 leases per week, with a negative trend. They need about 12 leases per week to improve their situation but have not been successful in securing new leases recently. Their closing ratio is 1, but this is not translating into the needed leasing activity.
+    The Village at Waxahachie is demonstrating robust leasing performance as a new property, with a strong rise in occupancy and Net Effective Rent (NER) contributing to an impressive increase in Revenue Per Available Unit (RevPau). These gains highlight effective lease-up strategies and a strong market presence, especially when compared to comps that are facing declining rents and slower occupancy growth.
+The ATR % for The Village at Waxahachie is declining, indicating progress in reducing unit availability and optimizing occupancy. The increase in traffic, coupled with a high lease conversion rate, suggests that current marketing efforts are successfully attracting and converting prospective tenants.
+To maintain and build on this momentum, the property should continue to focus on sustaining its current level of traffic while aiming to slightly boost lease conversions to hit optimal targets. Enhanced marketing strategies, flexible leasing terms, or promotional incentives could further accelerate lease-up and solidify its competitive edge in the market.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: The Bailey - a stabilized property
+Number of total units is: 345.0
+Occupancy: 91.0 (-1.8%)
+RevPau: 1147 (+0.3%)
+Net Effective Rent: 1261 (+2.3%)
+ATR % is: 11.3 (slope is 1.005)
+Leases per Week: 5.0 (slope is 0.7)
+Traffic per Week: 14.0 (slope is -1.4)
+Closing Ratio for subject property is: 0.28
+Leases Needed: 7.4
+Traffic Needed: 26.4
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 300.2
+Occupancy: 92.4 (+2.1%)
+RevPau: 1330 (-0.2%)
+Net Effective Rent: 1441 (-2.2%)
+ATR % is: 5.17 (slope is -0.266)
+Leases per Week: 2.9 (slope is 0.31)
+Traffic per Week: 8.0 (slope is -0.52)
+Closing Ratio for comps is: 0.34
+Leases Needed: 3.8
+Traffic Needed: 11.2
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    The Bailey
+    **Current Performance Analysis**
+The Bailey, a stabilized property with 345 units, currently has an occupancy rate of 91.0%, which has decreased by 1.8%. Despite this decline, the Net Effective Rent (NER) is $1,261, showing a 2.3% increase. This rise in NER has contributed to a slight improvement in Revenue Per Available Unit (RevPau), which is now $1,147, up by 0.3%. The increase in NER, despite a drop in occupancy, indicates an effective rent strategy helping to maintain revenue.
+In comparison, the comps, averaging 300 units, have a slightly higher occupancy rate of 92.4%, which has increased by 2.1%. However, their NER is $1,441, reflecting a decrease of 2.2%. This decline in NER has slightly impacted their RevPau, now at $1,330, down by 0.2%. While the comps have improved occupancy, their drop in NER and RevPau suggests they are facing challenges in maintaining rent levels, whereas The Bailey is managing to increase rent and RevPau despite lower occupancy, indicating resilience in its revenue strategy.
+    Leading Indicators
+ATR % Analysis:
+Subject Property (The Bailey): The ATR % is currently 11.3% with a slight upward trend. This high level and increasing trend suggest an oversupply situation, indicating a pressing need to reduce unit availability and improve occupancy rates.
+Comps: The comps have a lower ATR % of 5.17%, with a downward trend. This reflects better market conditions and more effective leasing efforts compared to The Bailey, highlighting the competitive challenge.
+Traffic per Week:
+Subject Property: The Bailey recorded 14 traffic pieces per week, with a downward trend. This decline indicates weakening demand or ineffective marketing efforts. The property needs around 26 traffic pieces per week to support the required leasing activity, so there is a significant gap in traffic generation.
+Comps: The comps have 8 traffic pieces per week, also showing a downward trend, but they need about 11 pieces to sustain their performance. Despite the downward trend, comps are closer to their traffic target than The Bailey, indicating a relatively stronger position.
+Leases per Week:
+Subject Property: The Bailey secured 5 leases per week, with an upward trend. However, the historical closing ratio is 0.28, which is below the target range. The property needs approximately 7 leases per week to address the high ATR %, so while leasing activity is improving, more leases are needed.
+Comps: The comps have signed around 3 leases per week, with a positive trend. They need about 4 leases per week to maintain optimal performance and have a higher historical closing ratio of 0.34, indicating more effective conversion of traffic into leases.
+    **Overall Analysis**
+The Bailey is navigating a challenging market with a decline in occupancy to 91.0%, but it's effectively increasing Net Effective Rent (NER) by 2.3%. This rent growth has slightly improved Revenue Per Available Unit (RevPau) by 0.3%, showcasing a resilient rent strategy that offsets the impact of lower occupancy. In contrast, the comps have achieved higher occupancy but are facing a decline in NER, impacting their RevPau. This suggests that while The Bailey is successfully boosting rent, it needs to focus on attracting tenants to fill more units.
+The rising ATR % of 11.3% indicates an oversupply condition at The Bailey, calling for an urgent strategy to reduce vacancy. The decline in traffic to 14 visits per week further underscores the need for more robust marketing to close the gap with the required 26 visits. Although there's an upward trend in securing leases, the closing ratio of 0.28 is below target, meaning more efficient conversion is necessary.
+To improve performance, The Bailey should enhance marketing efforts to generate enough traffic and strengthen leasing incentives to boost occupancy. Implementing strategies such as targeted promotions, revising marketing campaigns to attract more prospects, and training leasing staff to improve conversion rates can help lower the ATR % and sustain revenue growth.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: Sterling Manor Apartments - a stabilized property
+Number of total units is: 207.0
+Occupancy: 97.1 (+1.6%)
+RevPau: 2184 (+21.0%)
+Net Effective Rent: 2249 (+19.1%)
+ATR % is: 3.4 (slope is -1.63)
+Leases per Week: 1.0 (slope is -0.8)
+Traffic per Week: 4.0 (slope is -0.3)
+Closing Ratio for subject property is: 0.44
+Leases Needed: 2.9
+Traffic Needed: 6.6
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 257.8
+Occupancy: 96.0 (+0.9%)
+RevPau: 1969 (+2.8%)
+Net Effective Rent: 2050 (+1.9%)
+ATR % is: 7.53 (slope is 0.541)
+Leases per Week: 2.3 (slope is 0.14)
+Traffic per Week: 5.1 (slope is 0.01)
+Closing Ratio for comps is: 0.42
+Leases Needed: 4.2
+Traffic Needed: 10.0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Sterling Manor Apartments
+    Current Performance Analysis
+Sterling Manor Apartments, a stabilized property with 207 units, has an occupancy rate of 97.1%, up by 1.6%. The Net Effective Rent (NER) is $2,249, showing a significant increase of 19.1%. This substantial rise in NER has greatly boosted the Revenue Per Available Unit (RevPau) to $2,184, up by an impressive 21.0%. The strong increases in both NER and RevPau suggest that Sterling Manor Apartments is experiencing robust growth in rent revenue, likely due to effective pricing strategies and high demand.
+In comparison, the comps, averaging 258 units, have an occupancy rate of 96.0%, which has increased by 0.9%. Their NER is $2,050, with a modest rise of 1.9%. The comps' RevPau is $1,969, reflecting a growth of 2.8%. While the comps have also seen positive changes in NER and RevPau, Sterling Manor Apartments has achieved significantly higher growth in both metrics, indicating a strong position in the market and effective revenue management.
+    Leading Indicators 
+ATR % Analysis:
+- **Sterling Manor Apartments:** The ATR % is 3.4% with a downward trend. This indicates a positive movement towards reduced unit availability, which is ideal for maintaining occupancy levels.
+- **Comps:** The comps have a higher ATR % of 7.53% and are showing an upward trend. This suggests increasing availability compared to Sterling Manor, indicating room for improvement in managing unit inventory.
+Traffic per Week:
+- **Sterling Manor Apartments:** The property recorded 4 traffic pieces per week, with a slight downward trend. To help sustain or lower the ATR %, the property needs around 7 traffic pieces per week. This indicates a need to enhance marketing efforts to attract more prospective tenants.
+- **Comps:** The comps have 5 traffic pieces per week, showing a stable trend. They need approximately 10 traffic pieces per week to support optimal leasing performance, suggesting they are currently not generating enough interest.
+Leases per Week:
+- **Sterling Manor Apartments:** The property has secured 1 lease per week, with a downward trend. The historical closing ratio is 0.44, which is strong, indicating nearly half of the traffic converts into leases. However, the property needs about 3 leases per week to maintain a healthy ATR %.
+- **Comps:** The comps have a higher average of 2 leases per week, with a stable trend. They have a similar historical closing ratio of 0.42, but they need around 4 leases per week to maintain performance, indicating a gap between current leasing activity and needs.
+    Overall Analysis
+Sterling Manor Apartments is experiencing robust performance, with significant increases in Net Effective Rent (NER) and Revenue Per Available Unit (RevPau), suggesting strong pricing strategies and high demand. The property's occupancy rate has also risen, reinforcing its solid market position. Compared to comps, Sterling Manor is outpacing them in growth, indicating effective revenue management.
+However, there are some areas of concern. The ATR % is trending downward, which is positive, but there's a slight decline in traffic and lease activity. This indicates a need to boost marketing efforts to attract more prospective tenants and secure additional leases.
+To address these challenges, Sterling Manor should focus on enhancing its marketing strategies to increase traffic to about 7 visitors per week. Additionally, efforts should be made to secure approximately 3 leases per week to maintain or improve the current occupancy rates. This could involve refining advertising campaigns, offering promotions, or enhancing the leasing process to maximize conversions.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: Grandea Crescent Park - a stabilized property
+Number of total units is: 161.0
+Occupancy: 91.3 (-1.7%)
+RevPau: 1398 (+1.1%)
+Net Effective Rent: 1532 (+3.0%)
+ATR % is: 9.9 (slope is -0.14)
+Leases per Week: 0.0 (slope is -0.4)
+Traffic per Week: 0.0 (slope is -0.6)
+Closing Ratio for subject property is: 0.5
+Leases Needed: 1.7
+Traffic Needed: 3.4
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 305.0
+Occupancy: 91.3 (-1.4%)
+RevPau: 1412 (-2.1%)
+Net Effective Rent: 1546 (-0.7%)
+ATR % is: 4.08 (slope is 0.18)
+Leases per Week: 1.6 (slope is 0.21)
+Traffic per Week: 8.7 (slope is 1.52)
+Closing Ratio for comps is: 0.3
+Leases Needed: 2.2
+Traffic Needed: 7.3
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Grandea Crescent Park
+    ### Current Performance Analysis
+Grandea Crescent Park, a stabilized property with 161 units, currently has an occupancy rate of 91.3%, which has decreased by 1.7%. Despite this decline in occupancy, the property has seen a positive growth in Net Effective Rent (NER), now at $1,532, up by 3.0%. This increase in NER has contributed to a rise in Revenue Per Available Unit (RevPau), now at $1,398, up by 1.1%. The growth in RevPau, despite lower occupancy, suggests effective rent management at Grandea Crescent Park.
+In comparison, the comps, averaging 305 units, also have an occupancy rate of 91.3%, which has decreased slightly by 1.4%. Their NER is $1,546, showing a small decline of 0.7%. The comps' RevPau is $1,412, down by 2.1%. The decrease in both NER and RevPau indicates a weaker performance relative to Grandea Crescent Park, which is managing to increase revenue despite similar occupancy challenges.
+    Leading Indicators
+ATR % Analysis:
+- **Grandea Crescent Park:** The ATR % is 9.9%, with a slight downward trend. While this indicates some progress in reducing unit availability, the ATR % is still relatively high, suggesting room for improvement to achieve a healthier occupancy level.
+- **Comps:** The comps have an ATR % of 4.08%, with a slight upward trend. This indicates that while the comps currently have a lower unit availability, they are experiencing a slight increase, which could signal a shift towards more vacancies.
+Traffic Over the Last 7 Days:
+- **Grandea Crescent Park:** The property recorded no traffic this week, with a downward trend. This lack of traffic indicates minimal interest from prospective tenants, highlighting an urgent need for marketing efforts to drive inquiries. To support leasing activity and reduce the ATR %, the property needs around 3 traffic pieces per week.
+- **Comps:** The comps recorded 9 traffic pieces this week, with an upward trend. They need around 7 traffic pieces per week to maintain performance, indicating they are currently attracting more prospective tenants than needed.
+Leases Over the Last 7 Days:
+- **Grandea Crescent Park:** No new leases were signed this week, continuing a negative trend. The historical closing ratio is 0.5, which indicates a strong ability to convert traffic into leases, but the absence of traffic hampers leasing activity. The property needs about 2 leases per week to improve the ATR %.
+- **Comps:** The comps have secured an average of 2 leases per week, with a positive trend. They need around 2 leases per week to sustain their performance, and with a closing ratio of 0.3, they are effectively converting traffic into leases.
+    ### Overall Analysis
+Grandea Crescent Park is showing resilience in a challenging market. Despite a recent decline in occupancy, the property has achieved a positive growth in Net Effective Rent (NER), which has driven an increase in Revenue Per Available Unit (RevPau). This indicates effective rent management and pricing strategies, allowing the property to maintain revenue even with lower occupancy.
+Compared to its comps, which are also experiencing an occupancy decline and a drop in both NER and RevPau, Grandea Crescent Park is performing comparatively well. The comps' weaker pricing dynamics further highlight Grandea Crescent Park's successful rent management efforts.
+However, Grandea Crescent Park faces a high unit availability rate (ATR %), which, although slightly improving, remains relatively high. The lack of traffic and new leases indicates minimal interest from prospective tenants, highlighting a need for more effective marketing strategies.
+To address these challenges, Grandea Crescent Park should focus on boosting traffic with targeted marketing efforts. Increasing weekly traffic to at least 3 visits is crucial to support leasing activities. Additionally, sustaining the strong lease conversion rate while attracting more prospective tenants can help secure the 2 leases per week needed to reduce the ATR % and further stabilize occupancy.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: Beach Club Apartment Homes - a stabilized property
+Number of total units is: 200.0
+Occupancy: 91.0 (-2.7%)
+RevPau: 1365 (-3.7%)
+Net Effective Rent: 1500 (-1.1%)
+ATR % is: 6.0 (slope is 0.05)
+Leases per Week: 1.0 (slope is -0.4)
+Traffic per Week: 3.0 (slope is -0.6)
+Closing Ratio for subject property is: 0.69
+Leases Needed: 2.7
+Traffic Needed: 3.9
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 307.8
+Occupancy: 92.4 (-2.7%)
+RevPau: 1346 (-4.4%)
+Net Effective Rent: 1455 (-1.8%)
+ATR % is: 6.04 (slope is 0.184)
+Leases per Week: 1.0 (slope is 0.26)
+Traffic per Week: 4.5 (slope is 0.69)
+Closing Ratio for comps is: 0.13
+Leases Needed: 2.3
+Traffic Needed: 17.7
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Beach Club Apartment Homes
+    **Current Performance Analysis**
+Beach Club Apartment Homes, a stabilized property with 200 units, currently has an occupancy rate of 91.0%, which has decreased by 2.7%. The Net Effective Rent (NER) is $1,500, showing a decline of 1.1%. This reduction in NER is contributing to a decrease in the Revenue per Available Unit (RevPau), currently at $1,365, down by 3.7%. The decline in both rent and occupancy indicates a challenging period for maintaining revenue levels.
+In comparison, the comps, averaging 308 units, have a slightly higher occupancy rate of 92.4%, which has also decreased by 2.7%. Their NER is $1,455, reflecting a decline of 1.8%. The comps' RevPau stands at $1,346, down by 4.4%. Although both the subject property and comps are experiencing reductions in key metrics, Beach Club Apartment Homes has managed to maintain a slightly higher NER and RevPau, suggesting better rent control amidst the current market pressures.
+Leading Indicators 
+ATR % Analysis:
+Subject Property (Beach Club Apartment Homes): The ATR % is 6.0% with a slight upward trend. This indicates a stable level of available units, but the increasing trend suggests a risk of rising vacancy that needs to be monitored.
+Comps: The comps have a similar ATR % of 6.04%, also showing an upward trend. This suggests that the market is experiencing slightly increasing unit availability, indicating potential competitive pressures.
+Traffic per Week:
+Subject Property: Currently, there are 3 traffic pieces per week with a downward trend. This decline points to reduced interest from prospective tenants, which could impact future leasing performance. To support leasing targets, the property needs around 4 traffic pieces per week.
+Comps: The comps have 5 traffic pieces per week with an upward trend. They need around 18 traffic pieces per week according to their target, indicating they are focusing on boosting traffic significantly to improve leasing activity and market position.
+Leases per Week:
+Subject Property: The property has secured 1 lease over the last week, with a downward trend. The historical closing ratio is strong at 0.69, suggesting effective conversion of traffic into leases. However, there is a need for about 3 leases per week to manage ATR %, indicating a requirement to sustain or increase leasing activity.
+Comps: The comps also have 1 lease per week, trending upward. They need around 2 leases per week to maintain optimal performance, but their historical closing ratio is lower at 0.13, indicating less effective conversion compared to the subject property.
+    **Overall Analysis**
+Beach Club Apartment Homes is facing a decline in both occupancy and Net Effective Rent (NER), leading to a drop in Revenue Per Available Unit (RevPau). While the property is maintaining slightly higher NER and RevPau compared to comps, the decreasing trends in occupancy and rent are affecting revenue stability.
+The ATR % is showing a slight upward trend, indicating potential risk of rising vacancy that warrants monitoring. Additionally, the traffic per week is declining, pointing to reduced interest from prospective tenants, which could adversely impact future leasing performance.
+To address these challenges, the property should focus on increasing traffic to meet leasing targets. This could involve enhanced marketing efforts, targeted promotions, or incentives to attract more prospective tenants. With a strong historical closing ratio, converting increased traffic into leases is feasible, potentially stabilizing revenue and occupancy.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: Tiburon - a stabilized property
+Number of total units is: 320.0
+Occupancy: 88.1 (-1.4%)
+RevPau: 1130 (-0.6%)
+Net Effective Rent: 1283 (+0.8%)
+ATR % is: 5.0 (slope is -0.973)
+Leases per Week: 0.0 (slope is -2.133)
+Traffic per Week: 4.0 (slope is 0.0)
+Closing Ratio for subject property is: 0.68
+Leases Needed: 4.9
+Traffic Needed: 7.2
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 269.0
+Occupancy: 93.9 (+0.3%)
+RevPau: 1385 (+0.1%)
+Net Effective Rent: 1473 (-0.1%)
+ATR % is: 6.9 (slope is 0.499)
+Leases per Week: 2.5 (slope is 0.22)
+Traffic per Week: 13.5 (slope is 0.8)
+Closing Ratio for comps is: 0.28
+Leases Needed: 3.8
+Traffic Needed: 13.6
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Tiburon
+    Current Performance Analysis
+Tiburon, a stabilized property with 320 units, currently has an occupancy rate of 88.1%, which has decreased by 1.4%. The Net Effective Rent (NER) is $1,283, reflecting a slight increase of 0.8%. Despite this improvement in NER, the Revenue Per Available Unit (RevPau) is $1,130, a marginal decline of 0.6%. The decrease in occupancy is impacting RevPau, though the upward trend in NER suggests some resilience in rent pricing.
+In comparison, the comps, averaging 269 units, have a higher occupancy rate of 93.9%, with a small increase of 0.3%. Their NER stands at $1,473, showing a minor decline of 0.1%. The comps' RevPau is $1,385, with a negligible increase of 0.1%. While the comps maintain higher occupancy and NER, their performance is relatively stable, indicating a slightly stronger position in the market compared to Tiburon. However, Tiburon's ability to increase its NER could be a positive sign if occupancy rates can be improved.
+    Leading Indicators
+ATR % Analysis:
+- **Tiburon:** The ATR % is 5.0%, showing a downward trend. This decrease indicates an improvement in balancing supply and demand, moving towards a more optimal occupancy level.
+- **Comps:** The comps have an ATR % of 6.9%, with an upward trend. This suggests increasing availability, potentially indicating challenges in maintaining occupancy levels.
+Traffic Over the Last 7 Days:
+- **Tiburon:** The property recorded 4 traffic pieces per week, with a stable trend. Currently, it needs around 7 traffic pieces per week to sustain its target occupancy levels. The current level is insufficient, highlighting a need for strategies to boost tenant interest.
+- **Comps:** The comps have seen 13 traffic pieces per week, with an upward trend. They need about 14 traffic pieces weekly to maintain their performance, indicating they are currently active in attracting prospective tenants.
+Leases Over the Last 7 Days:
+- **Tiburon:** No new leases have been signed, and the trend is downward. The historical closing ratio is high at 0.68, indicating a strong conversion rate, but the property needs approximately 5 leases per week to maintain a healthy ATR %, pointing to a need for increased leasing activity.
+- **Comps:** The comps have secured around 3 leases per week, with a slight upward trend. They need about 4 leases per week to optimize performance, with a closing ratio of 0.28, showing effective but less aggressive conversion compared to Tiburon.
+    Overall Analysis
+Tiburon is facing some challenges with a declining occupancy rate, which is impacting Revenue Per Available Unit (RevPau). However, a slight increase in Net Effective Rent (NER) indicates potential resilience in rent pricing. While the comps are maintaining higher occupancy and NER, Tiburon's ability to increase rent could be a positive sign if occupancy can be improved.
+The decreasing ATR % for Tiburon shows progress in balancing supply and demand, but the stable traffic and lack of recent lease signings highlight a need for more aggressive leasing efforts. Despite a high lease conversion rate, the property isnâ€™t attracting enough potential tenants, which is crucial to boost occupancy and maintain revenue.
+To address these challenges, Tiburon should focus on strategies to increase traffic, such as enhancing marketing efforts and offering incentives or promotions to attract more prospects. Improving leasing activity by targeting at least 5 leases per week and building on the existing strong conversion rate will help reduce the ATR % and stabilize occupancy. Enhancing tenant interest and securing more leases will be key to sustaining and growing revenue performance.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: Avilla Oakridge - a stabilized property
+Number of total units is: 209.0
+Occupancy: 88.0 (-0.6%)
+RevPau: 1411 (-7.3%)
+Net Effective Rent: 1603 (-6.7%)
+ATR % is: 11.5 (slope is -0.43)
+Leases per Week: 1.0 (slope is -0.3)
+Traffic per Week: 12.0 (slope is -0.2)
+Closing Ratio for subject property is: 0.29
+Leases Needed: 4.6
+Traffic Needed: 15.9
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 280.4
+Occupancy: 90.5 (-0.1%)
+RevPau: 1451 (+1.0%)
+Net Effective Rent: 1612 (+0.8%)
+ATR % is: 8.7 (slope is 0.444)
+Leases per Week: 3.9 (slope is 0.26)
+Traffic per Week: 14.3 (slope is 1.21)
+Closing Ratio for comps is: 0.35
+Leases Needed: 5.6
+Traffic Needed: 16.0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Avilla Oakridge
+    Current Performance Analysis
+Avilla Oakridge, a stabilized property with 209 units, currently has an occupancy rate of 88.0%, which has decreased by 0.6%. The Net Effective Rent (NER) is $1,603, showing a decline of 6.7%. This significant drop in NER has led to a decrease in the Revenue Per Available Unit (RevPau), which stands at $1,411, down by 7.3%. The decline in both NER and RevPau indicates a challenging market environment, with reduced rent levels impacting overall revenue.
+In comparison, the comps, averaging 280 units, have a slightly higher occupancy rate of 90.5%, with a minor decrease of 0.1%. Their NER is $1,612, showing a modest increase of 0.8%. The comps' RevPau is $1,451, up by 1.0%, reflecting a slight improvement in revenue generation. While the comps maintain a higher occupancy and better trends in NER and RevPau, Avilla Oakridge may need to focus on strategies to stabilize rent and occupancy to enhance its market position.
+    Leading Indicators
+ATR % Analysis:
+- **Avilla Oakridge**: The ATR % is 11.5% with a downward trend, indicating some improvement but still above the ideal range. This high level of availability suggests ongoing challenges in reducing unit turnover and maintaining a lower vacancy.
+- **Comps**: The comps have an ATR % of 8.7%, which is also trending upward. While this indicates increasing availability, they are still in a better position than Avilla Oakridge and closer to a more stable ATR %.
+Traffic per Week:
+- **Avilla Oakridge**: The property has recorded 12 traffic pieces per week, showing a slight downward trend. This decrease may affect leasing activity if not addressed. Avilla Oakridge needs about 16 traffic pieces weekly to support the necessary leasing volume, indicating a gap that requires attention to marketing efforts.
+- **Comps**: The comps have an upward trend with 14 traffic pieces per week. They have been more effective in generating interest and need about 16 traffic pieces weekly to sustain performance, showing they are closer to meeting their traffic requirements.
+Leases per Week:
+- **Avilla Oakridge**: Currently securing only 1 lease per week with a downward trend. The closing ratio is 0.29, just below the typical target, suggesting some efficiency in conversion but insufficient lease volume. The property needs approximately 5 leases per week to work towards a healthier ATR %, indicating a significant shortfall in leasing activity.
+- **Comps**: The comps have secured about 4 leases per week with an upward trend. They need around 6 leases weekly to maintain optimal performance and have a higher closing ratio of 0.35, showing better conversion rates and a stronger leasing position compared to Avilla Oakridge.
+    Overall Analysis
+Avilla Oakridge is facing a challenging period, with declining occupancy and a significant drop in Net Effective Rent (NER) and Revenue Per Available Unit (RevPau). These downward trends indicate a tough market environment, impacting overall revenue. In contrast, the comps are experiencing stable or slightly improving trends in occupancy, NER, and RevPau, highlighting a stronger market position.
+The property's Availability to Rent (ATR) % is showing some improvement, but remains above the ideal range, suggesting ongoing issues with unit turnover and vacancy. Traffic and lease conversions are also declining, further affecting leasing activity. This indicates that while Avilla Oakridge has some efficiency in lease conversion, the volume is insufficient to improve overall performance.
+To address these challenges, Avilla Oakridge should focus on increasing traffic through enhanced marketing efforts and promotions to attract more potential renters. Improving lease conversion strategies and aiming for at least 5 leases per week will be crucial to reducing the ATR % and enhancing overall occupancy and revenue.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: Lakeland Estates Apartments - a stabilized property
+Number of total units is: 264.0
+Occupancy: 93.5 (+0.8%)
+RevPau: 1232 (-0.6%)
+Net Effective Rent: 1317 (-1.4%)
+ATR % is: 9.5 (slope is -0.37)
+Leases per Week: 7.0 (slope is 1.3)
+Traffic per Week: 15.0 (slope is 1.6)
+Closing Ratio for subject property is: 0.39
+Leases Needed: 3.9
+Traffic Needed: 10.0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 289.6
+Occupancy: 93.1 (+0.3%)
+RevPau: 1286 (-1.7%)
+Net Effective Rent: 1382 (-2.0%)
+    Comps Data:
+ATR % is: 5.04 (slope is -0.334)
+Leases per Week: 2.0 (slope is 0.01)
+Traffic per Week: 11.5 (slope is 0.3)
+Closing Ratio for comps is: 0.25
+Leases Needed: 2.1
+Traffic Needed: 8.4
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Lakeland Estates Apartments
+    Lakeland Estates Apartments, a stabilized property with 264 units, currently has an occupancy rate of 93.5%, which has increased by 0.8%. The Net Effective Rent (NER) is $1,317, showing a decline of 1.4%. This decrease in NER has led to a slight reduction in Revenue per Available Unit (RevPau), which is now $1,232, down by 0.6%. Despite the decrease in NER and RevPau, the improvement in occupancy indicates a potential stabilizing effect on revenue.
+In comparison, the comps, with an average of 290 units, have a slightly lower occupancy rate of 93.1%, which has increased by 0.3%. Their NER is $1,382, down by 2.0%. The comps' RevPau is $1,286, reflecting a decrease of 1.7%. Both NER and RevPau are declining more significantly among comps, suggesting that Lakeland Estates, despite its slight decreases, is performing relatively better in maintaining revenue and occupancy in the current market condition.
+    Leading Indicators
+ATR % Analysis:
+Subject Property (Lakeland Estates Apartments): The ATR % is currently 9.5% and on a downward trend. This indicates improvement, but the ATR % is still relatively high, suggesting more work is needed to reduce unit availability and optimize occupancy.
+Comps: The comps have an ATR % of 5.04%, also showing a downward trend. They are performing better than Lakeland Estates, with lower unit availability, indicating a more stable market position.
+Traffic Per Week:
+Subject Property: Traffic is at 15 per week, with an upward trend. This is a positive sign, suggesting increased interest and effective marketing efforts. The property needs around 10 traffic pieces per week to sustain optimal performance, so the current level is sufficient.
+Comps: The comps have 11 traffic pieces per week, with a slight upward trend. They need around 8 traffic units to maintain their performance, indicating they are currently attracting enough interest.
+Leases Per Week:
+Subject Property: The property has secured 7 leases per week, with an upward trend. This is a strong performance, exceeding the 4 leases needed weekly to support a reduction in ATR %. The historical closing ratio is 0.39, indicating effective conversion of traffic into leases.
+Comps: The comps have secured an average of 2 leases per week, with a stable trend. They need approximately 2 leases per week to maintain performance. Their closing ratio is 0.25, showing less efficiency in converting traffic compared to Lakeland Estates.
+    Overall Analysis
+Lakeland Estates Apartments is experiencing a mixed performance, with a slight increase in occupancy to 93.5%, which is helping to stabilize revenue. However, thereâ€™s a decline in Net Effective Rent (NER) and Revenue per Available Unit (RevPau), indicating some pricing pressure. Despite these decreases, Lakeland Estates is maintaining revenue and occupancy better than the comps, which are seeing more significant declines in NER and RevPau.
+The ATR % for Lakeland Estates is high at 9.5%, although it is trending downward. This is a positive signal but indicates that more efforts are needed to further reduce unit availability and enhance occupancy. Traffic is increasing at 15 visits per week, exceeding the necessary level to maintain strong performance, and leases are being converted at a robust rate, with 7 secured per week and a high closing ratio of 0.39.
+To capitalize on the improving occupancy, Lakeland Estates should focus on further reducing their ATR % by continuing to enhance leasing strategies and possibly adjusting pricing tactics to stabilize NER. The upward trend in traffic and a strong lease conversion rate are positive indicators, showing that marketing efforts are effective. Maintaining and boosting these trends, while addressing the pricing challenges, can help drive revenue growth and improve the propertyâ€™s market position.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: Vie at The Medical Center Apartment Homes - a stabilized property
+Number of total units is: 192.0
+Occupancy: 92.2 (-1.1%)
+RevPau: 1160 (+2.3%)
+Net Effective Rent: 1258 (+3.5%)
+ATR % is: 7.8 (slope is 0.3)
+Leases per Week: -1.0 (slope is -0.9)
+Traffic per Week: 7.0 (slope is -1.3)
+Closing Ratio for subject property is: 0.24
+Leases Needed: 2.2
+Traffic Needed: 9.2
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Vie at The Medical Center Apartment Homes
+    Current Performance Analysis
+Vie at The Medical Center Apartment Homes, a stabilized property with 192 units, has an occupancy rate of 92.2%, which has decreased by 1.1%. Despite the dip in occupancy, the property has managed to increase its Net Effective Rent (NER) to $1,258, reflecting a 3.5% growth. This increase in NER has positively impacted the Revenue Per Available Unit (RevPau), which is now $1,160, up by 2.3%. These improvements in NER and RevPau indicate effective pricing strategies, helping to maintain revenue growth despite the slight decline in occupancy.
+In comparison, the comps, averaging 259 units, have a lower occupancy rate of 88.9%, which has increased by 0.6%. Their NER is higher at $1,338, though it has slightly decreased by 0.3%. The comps' RevPau is $1,194, showing a modest growth of 0.5%. While the comps have managed to slightly increase their occupancy and RevPau, their slight decline in NER suggests a more cautious pricing approach. Vie at The Medical Center, with its strong NER growth and RevPau increase, appears to be effectively maintaining revenue, positioning itself well in the market.
+    Leading Indicators
+ATR % Analysis:
+- **Vie at The Medical Center:** The ATR % is 7.8% with an upward trend, indicating an increase in unit availability. This suggests potential future challenges in occupancy if not addressed.
+- **Comps:** The comps have an ATR % of 7.37%, showing a slight downward trend. This reflects minor improvements in occupancy, suggesting they are managing unit availability more effectively.
+Traffic per Week:
+- **Vie at The Medical Center:** The property has seen 7 traffic pieces per week, with a notable downward trend. There is a need to boost marketing efforts, as they require approximately 9 traffic pieces per week to support occupancy goals.
+- **Comps:** The comps report 14 traffic pieces per week, with an upward trend. They need about 13 traffic pieces per week to sustain performance. Their stronger traffic levels indicate more effective marketing or higher demand.
+Leases per Week:
+- **Vie at The Medical Center:** No new leases were secured in the past week, with a negative trend. The property needs around 2 leases per week to maintain a healthy ATR %. The historical closing ratio is 0.24, indicating that about 24% of traffic converts into leases, which is below the target range.
+- **Comps:** The comps have secured 5 leases per week, with a positive trend. They need approximately 5 leases per week to maintain performance and have a historical closing ratio of 0.4, showing a higher conversion rate.
+    Overall, Vie at The Medical Center Apartment Homes is performing well in terms of revenue growth, with notable increases in both Net Effective Rent (NER) and Revenue Per Available Unit (RevPau). These gains suggest that the property is implementing effective pricing strategies that help sustain revenue, even as occupancy has slightly declined. While occupancy has dipped to 92.2%, the higher NER shows success in revenue management.
+However, some concerns need to be addressed, primarily the upward trend in the Availability to Rent (ATR) percentage and the decreasing traffic. The rise in ATR % points to more units becoming available, which could further impact occupancy if not managed carefully. The traffic trend is also downward, with the property seeing less walk-in or online interest than needed to meet its occupancy targets.
+To counter these issues, Vie at The Medical Center should focus on boosting traffic through enhanced marketing efforts, aiming to draw at least 9 traffic pieces per week. Improving lease conversion is also crucial, as the current closing ratio is only 24%, which is lower than the desired rate. Implementing targeted leasing incentives, refining sales tactics, and increasing promotional activities can help attract and convert more potential renters, thereby stabilizing occupancy and supporting sustained revenue growth.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: The Rose on Sybil - a stabilized property
+Number of total units is: 130.0
+Occupancy: 86.2 (+3.8%)
+RevPau: 895 (+7.8%)
+Net Effective Rent: 1038 (+3.9%)
+ATR % is: 12.3 (slope is -0.77)
+Leases per Week: 7.0 (slope is 0.6)
+Traffic per Week: 7.0 (slope is -1.2)
+Closing Ratio for subject property is: 0.53
+Leases Needed: 3.0
+Traffic Needed: 5.7
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 184.8
+Occupancy: 88.2 (+4.5%)
+RevPau: 932 (+6.3%)
+Net Effective Rent: 1058 (+1.9%)
+    Comps Data:
+ATR % is: 7.6 (slope is 0.207)
+Leases per Week: 2.1 (slope is -0.09)
+Traffic per Week: 5.6 (slope is -0.05)
+Closing Ratio for comps is: 0.36
+Leases Needed: 2.4
+Traffic Needed: 6.7
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    The Rose on Sybil
+    Current Performance Analysis
+The Rose on Sybil, a stabilized property with 130 units, has an occupancy rate of 86.2%, showing a notable increase of 3.8%. The Net Effective Rent (NER) is $1,038, which has improved by 3.9%. This rise in NER contributes to a Revenue Per Available Unit (RevPau) of $895, up significantly by 7.8%. The strong growth in RevPau indicates a positive trend driven by increases in both rent and occupancy.
+In comparison, the comps, with an average of 185 units, have a slightly higher occupancy rate of 88.2%, which has increased by 4.5%. Their NER is $1,058, experiencing a smaller growth of 1.9%. The comps' RevPau is $932, showing a solid increase of 6.3%. While the comps have a higher occupancy and NER, The Rose on Sybil demonstrates a stronger RevPau growth, driven by larger gains in both rent and occupancy, indicating effective revenue management and improving market position.
+    **Leading Indicators**
+**ATR % Analysis:**
+- **The Rose on Sybil:** The ATR % is 12.3%, showing a downward trend. Although this indicates some progress in reducing unit availability, the current level remains high and suggests a need for continued efforts to decrease vacancies.
+- **Comps:** The comps have an ATR % of 7.6% with a slight upward trend. While lower than The Rose on Sybil, the increasing trend indicates a potential rise in unit availability, suggesting that comps may face similar challenges in maintaining low vacancies.
+**Traffic per Week:**
+- **The Rose on Sybil:** Traffic is currently 7 per week, but with a downward trend. This decline indicates waning interest, which could hinder efforts to reduce the ATR %. The property needs about 6 traffic pieces per week to maintain progress, showing that current levels are barely sufficient.
+- **Comps:** The comps record around 6 traffic pieces per week, with a slight downward trend as well. They need approximately 7 traffic pieces weekly, suggesting they are also experiencing challenges in attracting enough prospective tenants.
+**Leases per Week:**
+- **The Rose on Sybil:** The property has secured 7 leases per week, with an upward trend. This positive movement is reflected in a strong historical closing ratio of 0.53, indicating effective conversion of traffic into leases. The property currently needs 3 leases per week to support its ATR % reduction efforts, a target it is exceeding.
+- **Comps:** The comps have achieved an average of 2 leases per week, with a slight downward trend. They need about 2 leases weekly to maintain optimal performance. The historical closing ratio for comps is 0.36, lower than The Rose on Sybil, indicating less effective conversion rates despite needing more sustained leasing activity.
+    Overall, The Rose on Sybil is showing positive momentum with both occupancy and Net Effective Rent (NER) on the rise. The property has achieved a significant 7.8% increase in Revenue Per Available Unit (RevPau), reflecting successful revenue management. While the comps have slightly higher occupancy and NER, The Rose on Sybil's stronger growth in RevPau suggests effective strategies in place and an improving market position.
+However, despite the positive trends, the property's ATR % is still relatively high at 12.3%. Although it's on a downward trend, further efforts are needed to reduce vacancies and maintain lease momentum. Additionally, the decline in traffic to 7 per week is concerning. While the current traffic levels are barely adequate, further decreases could hinder vacancy reduction.
+To address these challenges, it's essential to boost traffic and continue improving lease conversion. Enhancing marketing efforts, offering targeted incentives, and focusing on customer engagement can help attract more prospects. Maintaining or increasing the lease signing pace will be crucial to continue reducing the ATR % and driving revenue growth. By focusing on these areas, The Rose on Sybil can sustain its upward trajectory and further strengthen its market position.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: The Mill at Ironworks Plaza - a stabilized property
+Number of total units is: 232.0
+Occupancy: 98.3 (+4.1%)
+RevPau: 1830 (+1.8%)
+Net Effective Rent: 1862 (-2.2%)
+ATR % is: 3.9 (slope is -0.04)
+Leases per Week: 3.0 (slope is 0.1)
+Traffic per Week: 1.0 (slope is -0.4)
+Closing Ratio for subject property is: 1
+Leases Needed: 2.7
+Traffic Needed: 2.7
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 194.8
+Occupancy: 94.4 (+0.0%)
+RevPau: 1665 (+2.6%)
+Net Effective Rent: 1756 (+2.2%)
+ATR % is: 7.59 (slope is 1.28)
+Leases per Week: 0.7 (slope is 0.03)
+Traffic per Week: 3.2 (slope is 0.18)
+Closing Ratio for comps is: 0.32
+Leases Needed: 1.7
+Traffic Needed: 5.3
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    The Mill at Ironworks Plaza
+    Current Performance Analysis
+The Mill at Ironworks Plaza, a stabilized property with 232 units, has an impressive occupancy rate of 98.3%, which has increased by 4.1%. Despite this high occupancy, the Net Effective Rent (NER) is $1,862, showing a decrease of 2.2%. This decline in NER is slightly impacting the Revenue Per Available Unit (RevPau), which stands at $1,830, up by 1.8%. The propertyâ€™s strong occupancy is helping to offset the decline in NER, maintaining solid overall revenue performance.
+In comparison, the comps, averaging 195 units, have a lower occupancy rate of 94.4%. Their occupancy remains steady with no change, but their NER is $1,756, reflecting a 2.2% increase. The comps' RevPau is $1,665, showing a growth of 2.6%. While the comps have shown some improvement in both NER and RevPau, The Mill at Ironworks Plaza maintains higher occupancy and RevPau, suggesting a strong market presence despite the slight dip in NER.
+    Leading Indicators
+ATR % Analysis:
+- Subject Property: The Mill at Ironworks Plaza has an ATR % of 3.9, with a slight downward trend. This decrease indicates a positive movement towards lower availability, suggesting the property is maintaining a healthy balance between supply and demand.
+- Comps: The comps have a higher ATR % of 7.59, with an increasing trend. This rise points to growing availability and potential challenges in maintaining occupancy levels.
+Traffic per Week:
+- Subject Property: The Mill at Ironworks Plaza recorded 1 traffic piece per week, with a downward trend. This low traffic level is a concern, as the historical closing ratio is high, but the property needs about 3 traffic pieces per week to sustain performance.
+- Comps: The comps have 3 traffic pieces per week, with an upward trend. They need around 5 traffic pieces per week to maintain their current performance, indicating they are in a better position to attract prospective tenants.
+Leases per Week:
+- Subject Property: The Mill at Ironworks Plaza has secured 3 leases per week, with a positive trend. The historical closing ratio is very high at 1, suggesting that all traffic is converting into leases. The property needs approximately 3 leases weekly to maintain the current ATR %, aligning well with its performance.
+- Comps: The comps have secured an average of 1 lease per week, with a slight upward trend. They also need about 2 leases per week to sustain optimal performance, but with a historical closing ratio of 0.32, they are less effective in converting traffic compared to the subject property.
+    Overall Analysis
+The Mill at Ironworks Plaza is performing well with a strong occupancy rate of 98.3%, which has increased by 4.1%. This stability is helping to offset a 2.2% decline in Net Effective Rent (NER), contributing to a 1.8% rise in Revenue Per Available Unit (RevPau). The property's high occupancy and RevPau suggest a solid market presence, even as the dips in NER pose a slight challenge. 
+In comparison, the comps have a lower occupancy rate of 94.4% but are showing growth in both NER and RevPau. However, The Mill at Ironworks Plaza maintains higher overall metrics, indicating its stronger performance in the market.
+The property has an ATR % of 3.9, with a slight downward trend, signaling a healthy balance between supply and demand. However, traffic is low at just 1 piece per week and is trending downward. Given the high lease conversion rate, the property needs about 3 traffic pieces per week to sustain performance.
+Recommendations
+To further strengthen its position, The Mill at Ironworks Plaza should focus on increasing traffic. This can be achieved through enhanced marketing efforts and targeted promotions to attract more prospective tenants. Improving traffic will be crucial to sustaining occupancy levels and offsetting the decline in NER. By focusing on these strategies, the property can continue to leverage its high lease conversion rate to maintain its strong market presence.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: The Promenade At Beavercreek - a stabilized property
+Number of total units is: 238.0
+Occupancy: 93.3 (-1.8%)
+RevPau: 1468 (-2.1%)
+Net Effective Rent: 1574 (-0.3%)
+ATR % is: 6.3 (slope is -0.1)
+Leases per Week: 3.0 (slope is 0.25)
+Traffic per Week: 7.0 (slope is 1.25)
+Closing Ratio for subject property is: 1
+Leases Needed: 2.2
+Traffic Needed: 2.2
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 300.6
+Occupancy: 92.4 (-1.1%)
+RevPau: 1378 (-0.9%)
+Net Effective Rent: 1491 (+0.2%)
+ATR % is: 4.33 (slope is 0.397)
+Leases per Week: 0.7 (slope is -0.24)
+Traffic per Week: 7.2 (slope is 0.37)
+Closing Ratio for comps is: 0.23
+Leases Needed: 0.9
+Traffic Needed: 3.9
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    The Promenade At Beavercreek
+    **Current Performance Analysis**
+The Promenade At Beavercreek, a stabilized property with 238 units, currently has an occupancy rate of 93.3%, which has declined by 1.8%. The Net Effective Rent (NER) is $1,574, showing a slight decrease of 0.3%. This reduction in NER, along with the dip in occupancy, has led to a decrease in Revenue Per Available Unit (RevPau) to $1,468, down by 2.1%. The declines in both NER and occupancy indicate a need for strategic adjustments to maintain revenue.
+In comparison, the comps, with an average of 301 units, have a slightly lower occupancy rate of 92.4%, also down by 1.1%. Their NER is $1,491, which has seen a marginal increase of 0.2%. The comps' RevPau stands at $1,378, experiencing a smaller decline of 0.9%. While the comps have managed to slightly increase NER despite a decrease in occupancy, The Promenade At Beavercreek faces a more pronounced decline in RevPau. This suggests a more competitive strategy may be needed to address the current downward trend in both rent and occupancy.
+Leading Indicators 
+ATR % Analysis:
+- **The Promenade At Beavercreek:** The ATR % is 6.3%, with a slight downward trend. This indicates a modest improvement, suggesting that the property is moving towards a more balanced occupancy level. The current ATR % is slightly above the ideal level, indicating some room for improvement.
+- **Comps:** The comps have an ATR % of 4.3%, with an upward trend. This suggests increasing availability, potentially signaling growing vacancy in the market. Despite this, their ATR % remains lower than the subject property.
+Traffic Per Week:
+- **The Promenade At Beavercreek:** The property recorded 7 pieces of traffic per week, with a positive upward trend. This indicates improved interest and effective marketing efforts. The property needs about 2 traffic pieces per week to maintain performance, so the current traffic level is well above what is needed.
+- **Comps:** The comps have an average of 7 traffic pieces per week, with a slight upward trend. They need around 4 traffic pieces per week, suggesting they are attracting more traffic than necessary to sustain their performance.
+Leases Per Week:
+- **The Promenade At Beavercreek:** The property secured 3 leases per week, with a positive upward trend. The historical closing ratio is 1, indicating that all traffic has been converting into leases, which is an exceptionally high conversion rate. The property only needs about 2 leases per week, so it's currently exceeding the requirement to support the ATR %.
+- **Comps:** The comps have averaged 1 lease per week, with a downward trend. They need about 1 lease per week, and the historical closing ratio is 0.23, suggesting a lower conversion rate compared to the subject property. This indicates less effective conversion of traffic into leases.
+    **Overall Analysis**
+The Promenade At Beavercreek is experiencing declines in both occupancy and Net Effective Rent (NER), leading to a drop in Revenue Per Available Unit (RevPau). While the comps are also facing a decrease in occupancy, they have managed a slight increase in NER, resulting in a smaller decline in RevPau. This indicates that The Promenade may need a more competitive strategy to address its current downward trend in rent and occupancy.
+The property's ATR % is slightly above the ideal level, although it is showing a modest downward trend, suggesting some improvement. On the positive side, traffic is increasing, with the property attracting more visits than necessary to sustain performance. Lease conversion is particularly strong, with all traffic converting into leases, which is an exceptionally high rate.
+To counter the declines in NER and occupancy, The Promenade should continue to focus on marketing efforts to drive even more traffic and maintain the high lease conversion rate. This may involve further enhancing incentives, refining pricing strategies, or offering promotions to boost appeal and attract more residents. Reducing the ATR % slightly will also help in balancing occupancy and maximizing revenue potential.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: 200 City View Apartments - a stabilized property
+Number of total units is: 159.0
+Occupancy: 97.5 (+2.0%)
+RevPau: 1587 (+2.0%)
+Net Effective Rent: 1627 (-0.1%)
+ATR % is: 5.0 (slope is 0.15)
+Leases per Week: 1.0 (slope is 0.25)
+Traffic per Week: 2.0 (slope is 0.5)
+Closing Ratio for subject property is: 0.12
+Leases Needed: 1.2
+Traffic Needed: 10.0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 105.6
+Occupancy: 86.5 (+1.2%)
+RevPau: 1350 (+1.3%)
+Net Effective Rent: 1555 (+0.2%)
+ATR % is: 12.1 (slope is -0.479)
+Leases per Week: 1.4 (slope is -0.28)
+Traffic per Week: 3.3 (slope is -0.62)
+Closing Ratio for comps is: 0.48
+Leases Needed: 2.0
+Traffic Needed: 4.2
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    200 City View Apartments
+    **Current Performance Analysis**
+200 City View Apartments, a stabilized property with 159 units, currently boasts a strong occupancy rate of 97.5%, which has increased by 2.0%. The Net Effective Rent (NER) is $1,627, showing a slight decrease of 0.1%. Despite this minor decline in NER, the property's Revenue Per Available Unit (RevPau) is $1,587, which has increased by 2.0%. This growth in RevPau, alongside high occupancy, indicates effective revenue management and a strong market presence.
+In comparison, the comps, averaging 106 units, have a lower occupancy rate of 86.5%, though this has improved by 1.2%. Their NER is $1,555, with a modest increase of 0.2%. The comps' RevPau stands at $1,350, showing growth of 1.3%. While the comps have shown slight improvements in occupancy and revenue metrics, 200 City View Apartments leads in both occupancy and revenue generation, reflecting a competitive advantage in the market.
+    Leading Indicators
+ATR % Analysis:
+- Subject Property: The ATR % is 5.0% and slightly increasing. This suggests a potential issue, as the upward trend could indicate growing future vacancy if not addressed.
+- Comps: The comps have a higher ATR % of 12.1%, but it is trending downward. This indicates that they are successfully reducing availability, although they still have a high level of supply compared to the subject property.
+Traffic per Week:
+- Subject Property: The property recorded 2 traffic pieces per week, with an upward trend. However, to sustain a favorable ATR %, it needs around 10 traffic pieces per week. This indicates a significant gap, suggesting a need for more aggressive marketing to attract prospective tenants.
+- Comps: The comps have 3 traffic pieces per week, with a downward trend. They need about 4 traffic pieces per week to maintain performance, so while they are closer to their target, they are currently seeing a decline in traffic.
+Leases per Week:
+- Subject Property: There has been an average of 1 lease per week, with a slight upward trend. The property needs around 1 lease per week to maintain its ATR %, but the historical closing ratio is only 0.12. This low conversion rate indicates a need for improved leasing strategies to convert more traffic into leases.
+- Comps: Comps have secured an average of 1 lease per week, also with a downward trend. They need approximately 2 leases per week to sustain optimal performance, and with a historical closing ratio of 0.48, they are much more effective at converting traffic than the subject property.
+    **Overall Analysis**
+200 City View Apartments is performing well with a high occupancy rate of 97.5% and an increase in Revenue Per Available Unit (RevPau) by 2.0%, demonstrating effective revenue management. However, a slight decline in Net Effective Rent (NER) may suggest some pricing pressure. The property maintains a strong market presence, outperforming competitors in both occupancy and revenue generation.
+Although the ATR % is low at 5.0%, the upward trend could signal potential future vacancies if not managed proactively. Traffic is increasing but still significantly below the required level to sustain current performance, indicating a need for more aggressive marketing efforts. 
+The lease conversion rate is low, with a historical closing ratio of 0.12, highlighting an area for improvement in converting prospects into tenants. 
+To address these challenges, 200 City View Apartments should focus on enhancing marketing strategies to boost traffic, aiming to attract at least 10 prospects per week. In addition, investing in staff training and sales processes to improve the closing ratio can help secure more leases and maintain a stable ATR %.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: 120 Ninth Street Apartments - a stabilized property
+Number of total units is: 219.0
+Occupancy: 93.6 (+2.1%)
+RevPau: 1490 (+0.3%)
+Net Effective Rent: 1592 (-1.7%)
+ATR % is: 7.3 (slope is 0.0)
+Leases per Week: 3.0 (slope is 0.5)
+Traffic per Week: 6.0 (slope is -0.7)
+Closing Ratio for subject property is: 0.31
+Leases Needed: 3.4
+Traffic Needed: 11.0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 281.5
+Occupancy: 91.1 (+0.7%)
+RevPau: 1432 (+1.0%)
+Net Effective Rent: 1572 (+0.4%)
+ATR % is: 8.91 (slope is -0.161)
+Leases per Week: 1.0 (slope is -0.33)
+Traffic per Week: 5.4 (slope is -0.61)
+Closing Ratio for comps is: 0.3
+Leases Needed: 4.5
+Traffic Needed: 15.0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    120 Ninth Street Apartments
+    **Current Performance Analysis**
+120 Ninth Street Apartments, a stabilized property with 219 units, currently has an occupancy rate of 93.6%, which has increased by 2.1%. Despite a slight decline in Net Effective Rent (NER) to $1,592, down by 1.7%, the property's Revenue per Available Unit (RevPau) is $1,490, showing a marginal increase of 0.3%. This indicates that while rent has decreased slightly, the significant boost in occupancy has helped maintain revenue levels.
+In comparison, the comps, averaging 282 units, have a lower occupancy rate of 91.1%, with a moderate increase of 0.7%. Their NER is $1,572, slightly up by 0.4%, and their RevPau is $1,432, which has grown by 1.0%. Although the comps have experienced a slight rise in both NER and RevPau, 120 Ninth Street Apartments has improved its occupancy more significantly, helping to offset the decline in rent and maintain stable revenue, indicating effective market positioning.
+    Leading Indicators
+ATR % Analysis:
+- Subject Property (120 Ninth Street Apartments): The ATR % is 7.3% with a flat trend. This indicates a moderate level of unit availability, consistent over time. While not overly high, it suggests room to improve occupancy.
+- Comps: The comps have a higher ATR % of 8.9% with a downward trend. This suggests they are working to reduce their unit availability, showing positive movement towards improving their occupancy levels.
+Traffic per Week:
+- Subject Property: The property recorded 6 traffic pieces per week, showing a downward trend. This decline indicates decreasing interest, which could impact future lease activity. It needs around 11 traffic pieces per week to support the desired leasing activity.
+- Comps: The comps have slightly lower traffic, with 5 pieces per week, also trending downward. They need approximately 15 traffic pieces per week to support their leasing goals, indicating they too are struggling to generate sufficient interest.
+Leases per Week:
+- Subject Property: The property secured 3 leases per week with a slight upward trend, which is a positive sign. The historical closing ratio is 0.31, showing a decent conversion rate. The property needs about 3 leases per week to help maintain its occupancy.
+- Comps: The comps have seen only 1 lease per week with a downward trend. They need around 5 leases per week to improve their situation, and with a closing ratio of 0.3, they show a similar conversion rate to the subject property but are currently underperforming in terms of lease volume.
+    ### Overall Analysis
+120 Ninth Street Apartments is performing well, showing an increase in occupancy by 2.1%. Despite a slight decline in Net Effective Rent (NER) by 1.7%, the property's Revenue per Available Unit (RevPau) has risen slightly by 0.3%. This suggests that the boost in occupancy is effectively compensating for the decrease in rent, maintaining stable revenue levels. In comparison, the comps have a lower occupancy rate but have achieved modest growth in both NER and RevPau. This indicates that 120 Ninth Street Apartments is positioned effectively by focusing on increasing occupancy to sustain revenue.
+However, the property is experiencing a decrease in weekly traffic, which could impact future leasing activity if not addressed. With a stable ATR % at 7.3%, there's room for improvement to enhance occupancy further. The property is performing well with a slight upward trend in leases per week, maintaining a decent conversion rate of 0.31, which has been vital in sustaining its current occupancy.
+To address the decline in traffic and reduce the ATR %, targeted marketing efforts are necessary to attract more potential renters. This can include promotional offers, enhanced digital marketing strategies, or community engagement activities. Improving lease conversion further through staff training or incentives could also help in securing more leases and boosting occupancy, ensuring continued revenue growth.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: The View on 20th - a stabilized property
+Number of total units is: 148.0
+Occupancy: 100.0 (+2.8%)
+RevPau: 1667 (+2.6%)
+Net Effective Rent: 1667 (-0.2%)
+ATR % is: 5.4 (slope is 0.54)
+Leases per Week: 2.0 (slope is -0.3)
+Traffic per Week: 3.0 (slope is 1.0)
+Closing Ratio for subject property is: 0.47
+Leases Needed: 2.0
+Traffic Needed: 4.3
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 144.6
+Occupancy: 94.3 (+1.4%)
+RevPau: 1336 (+8.1%)
+Net Effective Rent: 1416 (+6.7%)
+ ATR % is: 5.69 (slope is -0.268)
+Leases per Week: 0.3 (slope is -0.27)
+Traffic per Week: 2.9 (slope is -0.25)
+Closing Ratio for comps is: 0.38
+Leases Needed: 1.5
+Traffic Needed: 3.9
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    The View on 20th
+    **Current Performance Analysis**
+The View on 20th, a stabilized property with 148 units, has achieved an occupancy rate of 100%, increasing by 2.8%. The Net Effective Rent (NER) remains at $1,667, with a slight decrease of 0.2%. Despite the small dip in NER, the property's Revenue Per Available Unit (RevPau) is $1,667, which has increased by 2.6%. This improvement in RevPau is largely driven by the rise in occupancy, indicating robust demand and effective leasing strategies.
+In comparison, the comps, with an average of 145 units, have a lower occupancy rate of 94.3%, which has improved by 1.4%. Their NER is $1,416, showing a significant increase of 6.7%. The comps' RevPau stands at $1,336, experiencing a strong growth of 8.1%. While the comps have shown more aggressive increases in both NER and RevPau, The View on 20th maintains full occupancy with solid revenue growth, reflecting a strong position in the market.
+    Leading Indicators
+ATR % Analysis:
+- **Subject Property (The View on 20th)**: The current ATR % is 5.4% with an upward trend. While still under 6%, the increase suggests a potential rise in unit availability, which could lead to higher vacancy if not addressed.
+- **Comps**: The comps have a slightly higher ATR % at 5.69%, but it is on a downward trend. This indicates they are starting to reduce availability, possibly through effective leasing efforts.
+Traffic per Week:
+- **Subject Property**: The View on 20th recorded 3 traffic pieces per week, showing an upward trend. This increase is positive and moves toward the goal, as the property needs around 4 traffic pieces per week to support leasing needs.
+- **Comps**: The comps have similar traffic levels at 2.9 per week, but they are trending downward. They need approximately 4 traffic pieces per week to sustain performance, suggesting they may face challenges in maintaining interest.
+Leases per Week:
+- **Subject Property**: The View on 20th has secured 2 leases per week, though there's a slight downward trend. This aligns with the leasing target of 2 leases needed weekly to keep the ATR % steady. The historical closing ratio is strong at 0.47, indicating nearly 50% of traffic converts into leases.
+- **Comps**: The comps have recorded an average of 0.3 leases per week with a downward trend. They need about 2 leases per week to maintain performance, but their lower historical closing ratio of 0.38 suggests they are less effective in converting traffic into leases compared to the subject property.
+    Overall Analysis
+The View on 20th is performing well, maintaining full occupancy with a significant 2.8% increase. Although there's a slight dip in Net Effective Rent (NER), the Revenue Per Available Unit (RevPau) has grown by 2.6%, driven by strong demand and effective leasing strategies. While its comps are experiencing more aggressive growth in NER and RevPau, The View on 20th remains robust, reflecting its strong market position.
+Despite positive trends, the rising ATR % could signal potential increases in unit availability, possibly leading to higher vacancy if not addressed. The property is seeing an uptrend in traffic but needs to hit four prospects per week to support leasing needs. Lease conversion remains strong with a 0.47 closing ratio, but a slight downward trend in weekly leases indicates a need for vigilance.
+To maintain its market strength, The View on 20th should focus on boosting traffic to consistently reach four prospects per week. Aggressively pursuing marketing initiatives and enhancing its leasing process will help prevent vacancy issues, maintain full occupancy, and continue revenue growth.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: The Villages at Marley Station Apartments - a stabilized property
+Number of total units is: 757.0
+Occupancy: 90.9 (-0.1%)
+RevPau: 1209 (-0.4%)
+Net Effective Rent: 1330 (-0.3%)
+ATR % is: 6.5 (slope is -0.56)
+Leases per Week: 8.0 (slope is -0.3)
+Traffic per Week: 10.0 (slope is -20.5)
+Closing Ratio for subject property is: 0.55
+Leases Needed: 8.4
+Traffic Needed: 15.3
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 479.2
+Occupancy: 90.7 (+2.7%)
+RevPau: 1422 (+3.1%)
+Net Effective Rent: 1568 (+0.3%)
+    Comps Data:
+ATR % is: 4.76 (slope is 0.196)
+Leases per Week: 4.4 (slope is 0.43)
+Traffic per Week: 7.1 (slope is -0.78)
+Closing Ratio for comps is: 0.42
+Leases Needed: 4.7
+Traffic Needed: 11.2
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    The Villages at Marley Station Apartments
+    **Current Performance Analysis**
+The Villages at Marley Station Apartments, a stabilized property with 757 units, currently has an occupancy rate of 90.9%, slightly declining by 0.1%. The Net Effective Rent (NER) is $1,330, showing a small decrease of 0.3%. This reduction in NER has contributed to a minor decline in the Revenue Per Available Unit (RevPau), which is now $1,209, down by 0.4%. These slight decreases in key metrics suggest a stable but slightly softening market position for the property.
+In comparison, the comps, averaging 479 units, have a similar occupancy rate of 90.7%, but have seen a significant increase of 2.7%. Their NER is higher at $1,568, with a modest increase of 0.3%. The comps' RevPau stands at $1,422, improving by 3.1%. The comps' stronger growth in occupancy and RevPau indicates they are currently experiencing more positive market dynamics, potentially adopting effective strategies to drive revenue improvement.
+    Leading Indicators
+ATR % Analysis:
+Subject Property: The Villages at Marley Station Apartments has an ATR % of 6.5%, with a decreasing trend. This suggests an improvement in occupancy levels and a reduction in unit availability. While the current ATR % is within a manageable range, continued efforts are needed to sustain this downward trend and reduce the ATR % further.
+Comps: The comps have an ATR % of 4.76%, with a slight upward trend. This indicates that while the comps are currently performing well with lower unit availability, they are experiencing a minor increase in ATR %, which could suggest emerging challenges in maintaining their current occupancy levels.
+Traffic per Week:
+Subject Property: The Villages at Marley Station Apartments recorded 10 traffic pieces per week, with a sharp downward trend. This significant decrease in traffic highlights a potential concern in attracting prospective tenants. The property needs around 15 traffic pieces per week to support the leasing activity required to sustain or reduce the ATR %.
+Comps: The comps have 7 traffic pieces per week, with a slight downward trend. They currently need approximately 11 traffic pieces per week to maintain performance, indicating they are closer to their target but also facing a reduction in traffic, suggesting a need to boost marketing efforts.
+Leases per Week:
+Subject Property: The Villages at Marley Station Apartments secured 8 leases per week, with a slight downward trend. The historical closing ratio is 0.55, indicating a strong conversion of traffic into leases. However, to maintain the current ATR %, the property needs around 8 leases per week, which suggests a need to stabilize leasing activity despite the reduced traffic levels.
+Comps: The comps have secured an average of 4 leases per week, with an upward trend. They need around 5 leases per week to sustain performance. The historical closing ratio is 0.42, reflecting effective conversion, but they are currently slightly below the required leasing pace.
+    **Overall Analysis**
+The Villages at Marley Station Apartments is experiencing a slight decline in occupancy, Net Effective Rent (NER), and Revenue Per Available Unit (RevPau), indicating a stable but slightly softening market position. In contrast, the comps are seeing growth in both occupancy and RevPau, suggesting they are employing strategies that better capitalize on market dynamics.
+The property's decreasing ATR % is a positive sign, reflecting improvements in occupancy and reduced unit availability. However, the significant drop in traffic is concerning and could threaten leasing activity if not addressed. Although the property is maintaining a strong lease conversion rate, the downward trend in leasing indicates a need to stabilize and possibly increase leasing efforts to support continued reductions in the ATR %.
+**Recommendations**
+To address these challenges, The Villages at Marley Station Apartments should focus on boosting traffic through enhanced marketing and promotional efforts. Innovative campaigns and targeted outreach can help attract more prospective tenants. Additionally, maintaining the strong lease conversion rate is crucial, but efforts should aim to stabilize and optimize leasing activity to sustain occupancy and support revenue improvement. Improving these areas will help the property remain competitive and better position itself in a shifting market.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Subject property: The Abram - a stabilized property
+Number of total units is: 144.0
+Occupancy: 93.7 (+3.0%)
+RevPau: 1417 (-7.1%)
+Net Effective Rent: 1513 (-9.7%)
+ATR % is: 11.1 (slope is 0.28)
+Leases per Week: 1.0 (slope is 0.3)
+Traffic per Week: 2.0 (slope is -0.45)
+Closing Ratio for subject property is: 0.32
+Leases Needed: 2.8
+Traffic Needed: 8.8
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Comps Data:
+Average number of total units is: 203.0
+Occupancy: 92.4 (+0.7%)
+RevPau: 1266 (+7.6%)
+Net Effective Rent: 1369 (+7.0%)
+ATR % is: 7.87 (slope is 1.903)
+Leases per Week: 1.5 (slope is -0.11)
+Traffic per Week: 6.5 (slope is -0.36)
+Closing Ratio for comps is: 0.29
+Leases Needed: 3.0
+Traffic Needed: 10.3
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    The Abram
+    **Current Performance Analysis**
+The Abram, a stabilized property with 144 units, currently has an occupancy rate of 93.7%, which has increased by 3.0%. However, despite this rise in occupancy, the Net Effective Rent (NER) has decreased to $1,513, a decline of 9.7%. This reduction in NER has significantly impacted the Revenue Per Available Unit (RevPau), which has fallen to $1,417, down by 7.1%. The drop in RevPau indicates that the property is facing challenges in maintaining revenue despite the improvement in occupancy.
+In comparison, the comps, averaging 203 units, have a slightly lower occupancy rate of 92.4%, which has increased by 0.7%. Unlike The Abram, the comps have experienced growth in both NER and RevPau. Their NER is $1,369, showing a 7.0% increase, and their RevPau has risen to $1,266, up by 7.6%. This indicates that the comps are successfully increasing revenue through higher rent and improving performance, contrasting with The Abram's current trend of decreasing revenue despite higher occupancy.
+    Leading Indicators
+ATR % Analysis:  
+Subject Property (The Abram): The ATR % is 11.1%, with an upward trend. This indicates a high availability of units, pointing to potential challenges in occupancy. The increasing trend suggests a pressing need to boost leasing activity to prevent further rises.  
+Comps: The comps have an ATR % of 7.9%, also trending upward. This reflects a similar issue of growing unit availability, indicating broader market challenges.
+Traffic Over the Last 7 Days:  
+Subject Property: The Abram recorded 2 traffic pieces per week, with a downward trend. This low volume and decrease suggest that current marketing efforts may not be effectively driving tenant interest. The property needs around 9 traffic pieces weekly to support the required leasing rate, indicating a significant gap in attracting potential tenants.  
+Comps: The comps have seen 7 traffic pieces per week, also with a downward trend. They need about 10 traffic pieces per week to maintain performance, showing they face challenges in maintaining sufficient tenant interest.
+Leases Over the Last 7 Days:  
+Subject Property: The Abram secured 1 lease in the past week, with a positive trend, but it still needs around 3 leases per week to lower the ATR %. The closing ratio is 0.32, which is within the target range, but the low traffic level limits the ability to meet leasing targets.  
+Comps: The comps achieved an average of 1.5 leases per week, with a slight downward trend. They need about 3 leases per week to sustain their performance. The closing ratio for comps is 0.29, indicating they are converting traffic at a similar rate but still require more leases to support occupancy goals.
+    **Overall Analysis**
+The Abram shows an increase in occupancy to 93.7%, yet it is facing revenue challenges, with both Net Effective Rent (NER) and Revenue Per Available Unit (RevPau) experiencing significant declines. This suggests that while more units are being filled, the property is likely offering concessions or lower rents to achieve higher occupancy, which is negatively impacting revenue. In contrast, the comps are successfully increasing both NER and RevPau despite having a slightly lower occupancy rate, indicating a more robust revenue strategy.
+The rising ATR % for The Abram is concerning, pointing to an increasing supply of available units, which suggests a pressing need to boost leasing activity. Additionally, traffic has declined to just 2 visits per week, highlighting inadequate marketing efforts. The property needs to attract more potential tenants to support its leasing goals and reduce ATR %. Although the lease conversion rate is within the target range, the low traffic volume is a significant barrier to achieving necessary leasing rates.
+To address these challenges, The Abram should focus on enhancing marketing strategies to significantly increase traffic, aiming for around 9 visits weekly. This could involve targeted marketing campaigns, promotions, or incentives to attract more prospective tenants. Concurrently, strategies to stabilize or increase NER should be considered, such as refining leasing incentives, adjusting pricing strategies, or enhancing the property's value proposition to tenants. By boosting traffic and carefully managing rent strategies, The Abram can work towards reducing its ATR % and improving overall revenue performance.
+    </t>
   </si>
 </sst>
 </file>
@@ -2266,11 +3804,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2575,18 +4117,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="56.54296875" customWidth="1"/>
+    <col min="6" max="6" width="58.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2606,7 +4151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2626,7 +4171,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2646,7 +4191,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2666,7 +4211,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2686,7 +4231,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2706,7 +4251,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2726,7 +4271,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2746,7 +4291,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2766,7 +4311,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2786,7 +4331,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2806,7 +4351,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2826,7 +4371,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2846,7 +4391,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2866,7 +4411,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2886,7 +4431,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2906,7 +4451,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2926,7 +4471,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2946,7 +4491,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2966,7 +4511,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2986,7 +4531,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3006,7 +4551,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3026,7 +4571,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3046,7 +4591,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -3066,7 +4611,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -3086,7 +4631,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -3106,7 +4651,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -3126,7 +4671,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3146,7 +4691,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -3166,7 +4711,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -3186,7 +4731,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -3206,7 +4751,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -3226,7 +4771,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -3246,7 +4791,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -3266,7 +4811,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -3286,7 +4831,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -3306,7 +4851,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -3326,7 +4871,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -3346,7 +4891,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -3366,7 +4911,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -3386,7 +4931,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -3406,7 +4951,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -3426,7 +4971,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -3446,7 +4991,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -3466,7 +5011,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -3486,7 +5031,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -3506,7 +5051,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -3526,7 +5071,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -3546,7 +5091,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -3566,7 +5111,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -3586,7 +5131,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -3606,7 +5151,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -3626,7 +5171,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -3646,7 +5191,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -3666,7 +5211,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>29</v>
       </c>
@@ -3686,7 +5231,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -3706,7 +5251,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -3726,7 +5271,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -3746,7 +5291,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -3766,7 +5311,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -3786,7 +5331,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -3804,6 +5349,606 @@
       </c>
       <c r="F61" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" t="s">
+        <v>43</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>186</v>
+      </c>
+      <c r="C72" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" t="s">
+        <v>186</v>
+      </c>
+      <c r="C76" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" t="s">
+        <v>186</v>
+      </c>
+      <c r="C77" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" t="s">
+        <v>186</v>
+      </c>
+      <c r="C78" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" t="s">
+        <v>186</v>
+      </c>
+      <c r="C80" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" t="s">
+        <v>186</v>
+      </c>
+      <c r="C81" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" t="s">
+        <v>57</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>30</v>
+      </c>
+      <c r="B86" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>31</v>
+      </c>
+      <c r="B87" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" t="s">
+        <v>61</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" t="s">
+        <v>62</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" t="s">
+        <v>186</v>
+      </c>
+      <c r="C89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>34</v>
+      </c>
+      <c r="B90" t="s">
+        <v>186</v>
+      </c>
+      <c r="C90" t="s">
+        <v>64</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>35</v>
+      </c>
+      <c r="B91" t="s">
+        <v>186</v>
+      </c>
+      <c r="C91" t="s">
+        <v>65</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
